--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/HTML/Terminado/tienda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADF122B9-08E5-4412-A4D4-CD7354F57E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{9BFE84CC-1660-4516-9E80-1976FBC7FCF9}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{FB8A5415-64CD-4910-B4A1-4D2691874F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3661,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E6F5C0-203D-4C6A-A2D2-7BD3A9D99E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1441AC9-910C-4EF3-9A77-5BB82F221A65}">
   <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4078,7 +4078,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB12F6C-F025-43F5-950F-9A749206D25E}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{FB8A5415-64CD-4910-B4A1-4D2691874F5A}"/>
   </bookViews>
@@ -3664,9 +3664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1441AC9-910C-4EF3-9A77-5BB82F221A65}">
   <dimension ref="A1:N618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4078,7 +4083,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FB12F6C-F025-43F5-950F-9A749206D25E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38EE79C-225B-4238-9163-629DCFE52D9F}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{FB8A5415-64CD-4910-B4A1-4D2691874F5A}"/>
   </bookViews>
@@ -4083,7 +4083,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38EE79C-225B-4238-9163-629DCFE52D9F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0130A4CD-D157-4300-8BA7-21899E89A8AA}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{FB8A5415-64CD-4910-B4A1-4D2691874F5A}"/>
   </bookViews>
@@ -4083,7 +4083,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0130A4CD-D157-4300-8BA7-21899E89A8AA}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A2725A-5C10-4BBA-B34A-3E4A4858EBE2}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{FB8A5415-64CD-4910-B4A1-4D2691874F5A}"/>
   </bookViews>
@@ -4083,7 +4083,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C82A4026-CF6D-4835-A1AD-04A0040BDEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A2725A-5C10-4BBA-B34A-3E4A4858EBE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0E84AD-2349-471A-AC0C-981D58BA5D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{FB8A5415-64CD-4910-B4A1-4D2691874F5A}"/>
+    <workbookView xWindow="7185" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{EF6BB028-4B8F-4782-A6CF-13D97FD10173}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3297,8 +3297,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -3326,8 +3334,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3661,20 +3670,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1441AC9-910C-4EF3-9A77-5BB82F221A65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994829ED-C034-4802-B264-09FCCB018AB5}">
   <dimension ref="A1:N618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4083,7 +4087,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -13193,7 +13197,7 @@
         <v>4600</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -29472,5 +29476,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="128" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0E84AD-2349-471A-AC0C-981D58BA5D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{EF6BB028-4B8F-4782-A6CF-13D97FD10173}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{95750A2C-DC07-4B18-888D-F4D8B423BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3297,16 +3297,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -3334,9 +3326,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3670,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994829ED-C034-4802-B264-09FCCB018AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5EDDB0-4BA3-4C17-BC93-CC02FBA1E15E}">
   <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3678,7 +3669,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -22244,7 +22235,7 @@
         <v>1824</v>
       </c>
       <c r="L444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M444">
         <v>0</v>
@@ -22370,7 +22361,7 @@
         <v>4070</v>
       </c>
       <c r="L447">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M447">
         <v>0</v>
@@ -29476,6 +29467,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="128" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E57F090-CEB8-4DC9-8761-D7BACF07405D}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{95750A2C-DC07-4B18-888D-F4D8B423BC06}"/>
   </bookViews>
@@ -3343,6 +3343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3664,9 +3668,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5EDDB0-4BA3-4C17-BC93-CC02FBA1E15E}">
   <dimension ref="A1:N618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4078,7 +4087,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E57F090-CEB8-4DC9-8761-D7BACF07405D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C724153-75B3-488B-9DA2-87F94FCA6EF9}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{95750A2C-DC07-4B18-888D-F4D8B423BC06}"/>
   </bookViews>
@@ -4087,7 +4087,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C724153-75B3-488B-9DA2-87F94FCA6EF9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{980E922D-3C1E-476F-8A8E-20A51F2F4EFC}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{95750A2C-DC07-4B18-888D-F4D8B423BC06}"/>
   </bookViews>
@@ -4087,7 +4087,7 @@
         <v>3500</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{991D06B1-5694-4402-9F5F-720DF6DD0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{980E922D-3C1E-476F-8A8E-20A51F2F4EFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8B6D5A-18AC-467C-8D79-5020DCD33480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{95750A2C-DC07-4B18-888D-F4D8B423BC06}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{CD39C2DB-5E94-4739-B284-A19C33D7D142}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3343,10 +3343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3665,17 +3661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5EDDB0-4BA3-4C17-BC93-CC02FBA1E15E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D17899-59FD-4ACF-B82F-E578C647D43A}">
   <dimension ref="A1:N618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3753,7 +3744,7 @@
         <v>600</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8B6D5A-18AC-467C-8D79-5020DCD33480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A468F1E-60E8-41A0-B42D-400FBE21A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{CD39C2DB-5E94-4739-B284-A19C33D7D142}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{0020F5D2-7C76-46BE-8CFF-757F44DE82B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3661,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D17899-59FD-4ACF-B82F-E578C647D43A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AABA79-2C49-4A04-88F9-2F0AF52598E7}">
   <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3744,7 +3744,7 @@
         <v>600</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A468F1E-60E8-41A0-B42D-400FBE21A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDFA7E3-87C7-4576-BFDF-CC2027438A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{0020F5D2-7C76-46BE-8CFF-757F44DE82B7}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{DA9A05FB-5485-46B9-BF99-CAD902E182A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3661,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AABA79-2C49-4A04-88F9-2F0AF52598E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1A2B1B-99B9-46A7-B55A-0509F07DE53F}">
   <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9164,7 +9164,7 @@
         <v>1500</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -15329,7 +15329,7 @@
         <v>590.4</v>
       </c>
       <c r="L279">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M279">
         <v>0</v>
@@ -24137,7 +24137,7 @@
         <v>380</v>
       </c>
       <c r="L489">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M489">
         <v>0</v>
@@ -26600,7 +26600,7 @@
         <v>10800</v>
       </c>
       <c r="L549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M549">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDFA7E3-87C7-4576-BFDF-CC2027438A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4CD6C5-5AF6-4635-B5AE-1839983C65C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{DA9A05FB-5485-46B9-BF99-CAD902E182A0}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{0ECFFCC5-34D2-4A4F-9E67-B4B87888B246}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="1083">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1379,6 +1379,12 @@
     <t>CORTA PELO VINTAGE T9</t>
   </si>
   <si>
+    <t>LICOR6703</t>
+  </si>
+  <si>
+    <t>CORTA UÑAS</t>
+  </si>
+  <si>
     <t>CORTADORFV</t>
   </si>
   <si>
@@ -1415,12 +1421,6 @@
     <t>Cinta Metrica</t>
   </si>
   <si>
-    <t>LICOR6703</t>
-  </si>
-  <si>
-    <t>Corta Uña</t>
-  </si>
-  <si>
     <t>DEPILADOR DE CEJAS</t>
   </si>
   <si>
@@ -2669,9 +2669,6 @@
     <t>PILA AAA RECARGABLE  BLISTER X2</t>
   </si>
   <si>
-    <t>PILA DL2032 CR2032 5004LC</t>
-  </si>
-  <si>
     <t>PILA18650</t>
   </si>
   <si>
@@ -2708,12 +2705,30 @@
     <t>FULLTOTAL</t>
   </si>
   <si>
+    <t>PILAS AG1/LR621H/364A</t>
+  </si>
+  <si>
+    <t>PILAS AG10/LR1130H/389A</t>
+  </si>
+  <si>
+    <t>PILAS AG13/LR44H/357A</t>
+  </si>
+  <si>
+    <t>PILAS AG3/LR41H/392A</t>
+  </si>
+  <si>
+    <t>PILAS AG4/LR626H/377A</t>
+  </si>
+  <si>
     <t>PILAS CR2016 3V</t>
   </si>
   <si>
     <t>PILAS CR2025 3V</t>
   </si>
   <si>
+    <t>PILAS CR2032 3V</t>
+  </si>
+  <si>
     <t>PINHWP8</t>
   </si>
   <si>
@@ -2808,27 +2823,6 @@
   </si>
   <si>
     <t>Pelota del Mundial</t>
-  </si>
-  <si>
-    <t>LIPIL7463</t>
-  </si>
-  <si>
-    <t>Pila 2025</t>
-  </si>
-  <si>
-    <t>Pilas LR1130H/389A</t>
-  </si>
-  <si>
-    <t>Pilas LR41H/392A</t>
-  </si>
-  <si>
-    <t>Pilas LR44H/357A</t>
-  </si>
-  <si>
-    <t>Pilas LR621H/364A</t>
-  </si>
-  <si>
-    <t>Pilas LR626H/377A</t>
   </si>
   <si>
     <t>HOPLA2054</t>
@@ -3661,8 +3655,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1A2B1B-99B9-46A7-B55A-0509F07DE53F}">
-  <dimension ref="A1:N618"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A642DFC-797F-46E5-A373-A160D10BC2DD}">
+  <dimension ref="A1:N617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14245,31 +14239,31 @@
         <v>448</v>
       </c>
       <c r="C253" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F253">
-        <v>5124</v>
+        <v>1200</v>
       </c>
       <c r="G253">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H253">
         <v>21</v>
       </c>
       <c r="I253">
-        <v>5124</v>
+        <v>0</v>
       </c>
       <c r="J253">
-        <v>5124</v>
+        <v>0</v>
       </c>
       <c r="K253">
-        <v>5124</v>
+        <v>0</v>
       </c>
       <c r="L253">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M253">
         <v>0</v>
@@ -14286,31 +14280,31 @@
         <v>450</v>
       </c>
       <c r="C254" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="D254" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F254">
-        <v>2800</v>
+        <v>5124</v>
       </c>
       <c r="G254">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="H254">
         <v>21</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>5124</v>
       </c>
       <c r="J254">
-        <v>0</v>
+        <v>5124</v>
       </c>
       <c r="K254">
-        <v>0</v>
+        <v>5124</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M254">
         <v>0</v>
@@ -14327,16 +14321,16 @@
         <v>452</v>
       </c>
       <c r="C255" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
       </c>
       <c r="F255">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="G255">
-        <v>3240</v>
+        <v>5500</v>
       </c>
       <c r="H255">
         <v>21</v>
@@ -14351,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M255">
         <v>0</v>
@@ -14368,16 +14362,16 @@
         <v>454</v>
       </c>
       <c r="C256" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
       </c>
       <c r="F256">
-        <v>8750</v>
+        <v>1500</v>
       </c>
       <c r="G256">
-        <v>17000</v>
+        <v>3240</v>
       </c>
       <c r="H256">
         <v>21</v>
@@ -14418,7 +14412,7 @@
         <v>8750</v>
       </c>
       <c r="G257">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="H257">
         <v>21</v>
@@ -14433,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M257">
         <v>0</v>
@@ -14450,16 +14444,16 @@
         <v>458</v>
       </c>
       <c r="C258" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
       </c>
       <c r="F258">
-        <v>2000</v>
+        <v>8750</v>
       </c>
       <c r="G258">
-        <v>4300</v>
+        <v>18000</v>
       </c>
       <c r="H258">
         <v>21</v>
@@ -14491,16 +14485,16 @@
         <v>460</v>
       </c>
       <c r="C259" t="s">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
       </c>
       <c r="F259">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G259">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="H259">
         <v>21</v>
@@ -14515,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="L259">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M259">
         <v>0</v>
@@ -23983,41 +23977,38 @@
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>6927799689633</v>
+      <c r="A486" t="s">
+        <v>877</v>
       </c>
       <c r="B486" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C486" t="s">
         <v>316</v>
       </c>
-      <c r="D486" t="s">
-        <v>17</v>
-      </c>
-      <c r="E486">
-        <v>2032</v>
+      <c r="E486" t="s">
+        <v>879</v>
       </c>
       <c r="F486">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="G486">
+        <v>4000</v>
+      </c>
+      <c r="H486">
+        <v>21</v>
+      </c>
+      <c r="I486">
         <v>2000</v>
       </c>
-      <c r="H486">
-        <v>21</v>
-      </c>
-      <c r="I486">
-        <v>500</v>
-      </c>
       <c r="J486">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K486">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="L486">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="M486">
         <v>0</v>
@@ -24027,38 +24018,35 @@
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>878</v>
+      <c r="A487">
+        <v>7899386518000</v>
       </c>
       <c r="B487" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C487" t="s">
         <v>316</v>
       </c>
-      <c r="E487" t="s">
-        <v>880</v>
-      </c>
       <c r="F487">
-        <v>980</v>
+        <v>527</v>
       </c>
       <c r="G487">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="H487">
         <v>21</v>
       </c>
       <c r="I487">
-        <v>2000</v>
+        <v>527</v>
       </c>
       <c r="J487">
-        <v>2000</v>
+        <v>527</v>
       </c>
       <c r="K487">
-        <v>980</v>
+        <v>527</v>
       </c>
       <c r="L487">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M487">
         <v>0</v>
@@ -24069,7 +24057,7 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>7899386518000</v>
+        <v>6973417640203</v>
       </c>
       <c r="B488" t="s">
         <v>881</v>
@@ -24077,26 +24065,29 @@
       <c r="C488" t="s">
         <v>316</v>
       </c>
+      <c r="D488" t="s">
+        <v>17</v>
+      </c>
       <c r="F488">
-        <v>527</v>
+        <v>380</v>
       </c>
       <c r="G488">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H488">
         <v>21</v>
       </c>
       <c r="I488">
-        <v>527</v>
+        <v>380</v>
       </c>
       <c r="J488">
-        <v>527</v>
+        <v>380</v>
       </c>
       <c r="K488">
-        <v>527</v>
+        <v>380</v>
       </c>
       <c r="L488">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M488">
         <v>0</v>
@@ -24107,7 +24098,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>6973417640203</v>
+        <v>6973417640272</v>
       </c>
       <c r="B489" t="s">
         <v>882</v>
@@ -24137,7 +24128,7 @@
         <v>380</v>
       </c>
       <c r="L489">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M489">
         <v>0</v>
@@ -24148,7 +24139,7 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>6973417640272</v>
+        <v>6972676900028</v>
       </c>
       <c r="B490" t="s">
         <v>883</v>
@@ -24157,28 +24148,28 @@
         <v>316</v>
       </c>
       <c r="D490" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F490">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="G490">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="H490">
         <v>21</v>
       </c>
       <c r="I490">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="J490">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="K490">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="L490">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M490">
         <v>0</v>
@@ -24189,7 +24180,7 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>6972676900028</v>
+        <v>6936709099868</v>
       </c>
       <c r="B491" t="s">
         <v>884</v>
@@ -24198,28 +24189,28 @@
         <v>316</v>
       </c>
       <c r="D491" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F491">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="G491">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H491">
         <v>21</v>
       </c>
       <c r="I491">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="J491">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K491">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="L491">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="M491">
         <v>0</v>
@@ -24229,39 +24220,36 @@
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>6936709099868</v>
+      <c r="A492" t="s">
+        <v>885</v>
       </c>
       <c r="B492" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C492" t="s">
         <v>316</v>
       </c>
-      <c r="D492" t="s">
+      <c r="F492">
+        <v>110</v>
+      </c>
+      <c r="G492">
+        <v>400</v>
+      </c>
+      <c r="H492">
+        <v>21</v>
+      </c>
+      <c r="I492">
+        <v>110</v>
+      </c>
+      <c r="J492">
+        <v>110</v>
+      </c>
+      <c r="K492">
+        <v>110</v>
+      </c>
+      <c r="L492">
         <v>3</v>
       </c>
-      <c r="F492">
-        <v>300</v>
-      </c>
-      <c r="G492">
-        <v>800</v>
-      </c>
-      <c r="H492">
-        <v>21</v>
-      </c>
-      <c r="I492">
-        <v>300</v>
-      </c>
-      <c r="J492">
-        <v>300</v>
-      </c>
-      <c r="K492">
-        <v>300</v>
-      </c>
-      <c r="L492">
-        <v>6</v>
-      </c>
       <c r="M492">
         <v>0</v>
       </c>
@@ -24270,8 +24258,8 @@
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>886</v>
+      <c r="A493">
+        <v>6936709099851</v>
       </c>
       <c r="B493" t="s">
         <v>887</v>
@@ -24279,26 +24267,32 @@
       <c r="C493" t="s">
         <v>316</v>
       </c>
+      <c r="D493" t="s">
+        <v>17</v>
+      </c>
+      <c r="E493" t="s">
+        <v>888</v>
+      </c>
       <c r="F493">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="G493">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H493">
         <v>21</v>
       </c>
       <c r="I493">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="J493">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K493">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="L493">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M493">
         <v>0</v>
@@ -24309,40 +24303,37 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>6936709099851</v>
+        <v>6927799683761</v>
       </c>
       <c r="B494" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C494" t="s">
         <v>316</v>
       </c>
       <c r="D494" t="s">
-        <v>17</v>
-      </c>
-      <c r="E494" t="s">
-        <v>889</v>
+        <v>3</v>
       </c>
       <c r="F494">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="G494">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="H494">
         <v>21</v>
       </c>
       <c r="I494">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J494">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K494">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L494">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M494">
         <v>0</v>
@@ -24353,7 +24344,7 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>6927799689619</v>
+        <v>6927799681101</v>
       </c>
       <c r="B495" t="s">
         <v>890</v>
@@ -24362,28 +24353,28 @@
         <v>316</v>
       </c>
       <c r="D495" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F495">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G495">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="H495">
         <v>21</v>
       </c>
       <c r="I495">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J495">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K495">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L495">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M495">
         <v>0</v>
@@ -24394,7 +24385,7 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>6927799689626</v>
+        <v>6927799681132</v>
       </c>
       <c r="B496" t="s">
         <v>891</v>
@@ -24403,224 +24394,236 @@
         <v>316</v>
       </c>
       <c r="D496" t="s">
+        <v>3</v>
+      </c>
+      <c r="F496">
+        <v>60</v>
+      </c>
+      <c r="G496">
+        <v>1500</v>
+      </c>
+      <c r="H496">
+        <v>21</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>25</v>
+      </c>
+      <c r="M496">
+        <v>0</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>6927799683785</v>
+      </c>
+      <c r="B497" t="s">
+        <v>892</v>
+      </c>
+      <c r="C497" t="s">
+        <v>316</v>
+      </c>
+      <c r="D497" t="s">
+        <v>3</v>
+      </c>
+      <c r="F497">
+        <v>60</v>
+      </c>
+      <c r="G497">
+        <v>1500</v>
+      </c>
+      <c r="H497">
+        <v>21</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>29</v>
+      </c>
+      <c r="M497">
+        <v>0</v>
+      </c>
+      <c r="N497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>6927799681040</v>
+      </c>
+      <c r="B498" t="s">
+        <v>893</v>
+      </c>
+      <c r="C498" t="s">
+        <v>316</v>
+      </c>
+      <c r="D498" t="s">
+        <v>3</v>
+      </c>
+      <c r="F498">
+        <v>60</v>
+      </c>
+      <c r="G498">
+        <v>1500</v>
+      </c>
+      <c r="H498">
+        <v>21</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>18</v>
+      </c>
+      <c r="M498">
+        <v>0</v>
+      </c>
+      <c r="N498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>6927799689619</v>
+      </c>
+      <c r="B499" t="s">
+        <v>894</v>
+      </c>
+      <c r="C499" t="s">
+        <v>316</v>
+      </c>
+      <c r="D499" t="s">
         <v>17</v>
       </c>
-      <c r="F496">
+      <c r="F499">
         <v>200</v>
       </c>
-      <c r="G496">
-        <v>800</v>
-      </c>
-      <c r="H496">
-        <v>21</v>
-      </c>
-      <c r="I496">
+      <c r="G499">
+        <v>2500</v>
+      </c>
+      <c r="H499">
+        <v>21</v>
+      </c>
+      <c r="I499">
         <v>200</v>
       </c>
-      <c r="J496">
+      <c r="J499">
         <v>200</v>
       </c>
-      <c r="K496">
+      <c r="K499">
         <v>200</v>
       </c>
-      <c r="L496">
-        <v>10</v>
-      </c>
-      <c r="M496">
-        <v>0</v>
-      </c>
-      <c r="N496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>892</v>
-      </c>
-      <c r="B497" t="s">
-        <v>893</v>
-      </c>
-      <c r="C497" t="s">
-        <v>485</v>
-      </c>
-      <c r="D497" t="s">
-        <v>66</v>
-      </c>
-      <c r="F497">
-        <v>136.4</v>
-      </c>
-      <c r="G497">
-        <v>136.4</v>
-      </c>
-      <c r="H497">
-        <v>21</v>
-      </c>
-      <c r="I497">
-        <v>136.4</v>
-      </c>
-      <c r="J497">
-        <v>136.4</v>
-      </c>
-      <c r="K497">
-        <v>136.4</v>
-      </c>
-      <c r="L497">
-        <v>9</v>
-      </c>
-      <c r="M497">
-        <v>0</v>
-      </c>
-      <c r="N497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>894</v>
-      </c>
-      <c r="B498" t="s">
+      <c r="L499">
+        <v>15</v>
+      </c>
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>6927799689626</v>
+      </c>
+      <c r="B500" t="s">
         <v>895</v>
       </c>
-      <c r="C498" t="s">
-        <v>485</v>
-      </c>
-      <c r="F498">
-        <v>322</v>
-      </c>
-      <c r="G498">
-        <v>322</v>
-      </c>
-      <c r="H498">
-        <v>21</v>
-      </c>
-      <c r="I498">
-        <v>322</v>
-      </c>
-      <c r="J498">
-        <v>322</v>
-      </c>
-      <c r="K498">
-        <v>322</v>
-      </c>
-      <c r="L498">
-        <v>4</v>
-      </c>
-      <c r="M498">
-        <v>0</v>
-      </c>
-      <c r="N498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="C500" t="s">
+        <v>316</v>
+      </c>
+      <c r="D500" t="s">
+        <v>3</v>
+      </c>
+      <c r="F500">
+        <v>430</v>
+      </c>
+      <c r="G500">
+        <v>2500</v>
+      </c>
+      <c r="H500">
+        <v>21</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>15</v>
+      </c>
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>6927799689633</v>
+      </c>
+      <c r="B501" t="s">
         <v>896</v>
       </c>
-      <c r="B499" t="s">
-        <v>897</v>
-      </c>
-      <c r="C499" t="s">
-        <v>485</v>
-      </c>
-      <c r="F499">
-        <v>650</v>
-      </c>
-      <c r="G499">
-        <v>650</v>
-      </c>
-      <c r="H499">
-        <v>21</v>
-      </c>
-      <c r="I499">
-        <v>650</v>
-      </c>
-      <c r="J499">
-        <v>650</v>
-      </c>
-      <c r="K499">
-        <v>650</v>
-      </c>
-      <c r="L499">
-        <v>10</v>
-      </c>
-      <c r="M499">
-        <v>0</v>
-      </c>
-      <c r="N499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>898</v>
-      </c>
-      <c r="B500" t="s">
-        <v>899</v>
-      </c>
-      <c r="C500" t="s">
-        <v>485</v>
-      </c>
-      <c r="D500" t="s">
-        <v>66</v>
-      </c>
-      <c r="F500">
-        <v>136.4</v>
-      </c>
-      <c r="G500">
-        <v>136.4</v>
-      </c>
-      <c r="H500">
-        <v>21</v>
-      </c>
-      <c r="I500">
-        <v>136.4</v>
-      </c>
-      <c r="J500">
-        <v>136.4</v>
-      </c>
-      <c r="K500">
-        <v>136.4</v>
-      </c>
-      <c r="L500">
-        <v>7</v>
-      </c>
-      <c r="M500">
-        <v>0</v>
-      </c>
-      <c r="N500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>900</v>
-      </c>
-      <c r="B501" t="s">
-        <v>901</v>
-      </c>
       <c r="C501" t="s">
-        <v>485</v>
+        <v>316</v>
+      </c>
+      <c r="D501" t="s">
+        <v>17</v>
+      </c>
+      <c r="E501">
+        <v>2032</v>
       </c>
       <c r="F501">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="G501">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="H501">
         <v>21</v>
       </c>
       <c r="I501">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="J501">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K501">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L501">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M501">
         <v>0</v>
@@ -24631,34 +24634,37 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B502" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C502" t="s">
         <v>485</v>
       </c>
+      <c r="D502" t="s">
+        <v>66</v>
+      </c>
       <c r="F502">
-        <v>500</v>
+        <v>136.4</v>
       </c>
       <c r="G502">
-        <v>500</v>
+        <v>136.4</v>
       </c>
       <c r="H502">
         <v>21</v>
       </c>
       <c r="I502">
-        <v>500</v>
+        <v>136.4</v>
       </c>
       <c r="J502">
-        <v>500</v>
+        <v>136.4</v>
       </c>
       <c r="K502">
-        <v>500</v>
+        <v>136.4</v>
       </c>
       <c r="L502">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M502">
         <v>0</v>
@@ -24669,160 +24675,151 @@
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B503" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C503" t="s">
         <v>485</v>
       </c>
-      <c r="D503" t="s">
+      <c r="F503">
+        <v>322</v>
+      </c>
+      <c r="G503">
+        <v>322</v>
+      </c>
+      <c r="H503">
+        <v>21</v>
+      </c>
+      <c r="I503">
+        <v>322</v>
+      </c>
+      <c r="J503">
+        <v>322</v>
+      </c>
+      <c r="K503">
+        <v>322</v>
+      </c>
+      <c r="L503">
+        <v>4</v>
+      </c>
+      <c r="M503">
+        <v>0</v>
+      </c>
+      <c r="N503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>901</v>
+      </c>
+      <c r="B504" t="s">
+        <v>902</v>
+      </c>
+      <c r="C504" t="s">
+        <v>485</v>
+      </c>
+      <c r="F504">
+        <v>650</v>
+      </c>
+      <c r="G504">
+        <v>650</v>
+      </c>
+      <c r="H504">
+        <v>21</v>
+      </c>
+      <c r="I504">
+        <v>650</v>
+      </c>
+      <c r="J504">
+        <v>650</v>
+      </c>
+      <c r="K504">
+        <v>650</v>
+      </c>
+      <c r="L504">
+        <v>10</v>
+      </c>
+      <c r="M504">
+        <v>0</v>
+      </c>
+      <c r="N504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>903</v>
+      </c>
+      <c r="B505" t="s">
+        <v>904</v>
+      </c>
+      <c r="C505" t="s">
+        <v>485</v>
+      </c>
+      <c r="D505" t="s">
         <v>66</v>
       </c>
-      <c r="F503">
-        <v>400</v>
-      </c>
-      <c r="G503">
-        <v>400</v>
-      </c>
-      <c r="H503">
-        <v>21</v>
-      </c>
-      <c r="I503">
-        <v>400</v>
-      </c>
-      <c r="J503">
-        <v>400</v>
-      </c>
-      <c r="K503">
-        <v>400</v>
-      </c>
-      <c r="L503">
-        <v>5</v>
-      </c>
-      <c r="M503">
-        <v>0</v>
-      </c>
-      <c r="N503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>7899441528562</v>
-      </c>
-      <c r="B504" t="s">
+      <c r="F505">
+        <v>136.4</v>
+      </c>
+      <c r="G505">
+        <v>136.4</v>
+      </c>
+      <c r="H505">
+        <v>21</v>
+      </c>
+      <c r="I505">
+        <v>136.4</v>
+      </c>
+      <c r="J505">
+        <v>136.4</v>
+      </c>
+      <c r="K505">
+        <v>136.4</v>
+      </c>
+      <c r="L505">
+        <v>7</v>
+      </c>
+      <c r="M505">
+        <v>0</v>
+      </c>
+      <c r="N505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>905</v>
+      </c>
+      <c r="B506" t="s">
         <v>906</v>
       </c>
-      <c r="C504" t="s">
-        <v>316</v>
-      </c>
-      <c r="F504">
-        <v>3200</v>
-      </c>
-      <c r="G504">
-        <v>7000</v>
-      </c>
-      <c r="H504">
-        <v>21</v>
-      </c>
-      <c r="I504">
-        <v>3200</v>
-      </c>
-      <c r="J504">
-        <v>3200</v>
-      </c>
-      <c r="K504">
-        <v>3200</v>
-      </c>
-      <c r="L504">
-        <v>1</v>
-      </c>
-      <c r="M504">
-        <v>0</v>
-      </c>
-      <c r="N504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>723540565531</v>
-      </c>
-      <c r="B505" t="s">
-        <v>907</v>
-      </c>
-      <c r="C505" t="s">
-        <v>20</v>
-      </c>
-      <c r="D505" t="s">
-        <v>28</v>
-      </c>
-      <c r="F505">
-        <v>1372</v>
-      </c>
-      <c r="G505">
-        <v>4000</v>
-      </c>
-      <c r="H505">
-        <v>21</v>
-      </c>
-      <c r="I505">
-        <v>1372</v>
-      </c>
-      <c r="J505">
-        <v>1372</v>
-      </c>
-      <c r="K505">
-        <v>1372</v>
-      </c>
-      <c r="L505">
-        <v>2</v>
-      </c>
-      <c r="M505">
-        <v>0</v>
-      </c>
-      <c r="N505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>7798371200749</v>
-      </c>
-      <c r="B506" t="s">
-        <v>908</v>
-      </c>
       <c r="C506" t="s">
-        <v>56</v>
-      </c>
-      <c r="D506" t="s">
-        <v>57</v>
-      </c>
-      <c r="E506" t="s">
-        <v>909</v>
+        <v>485</v>
       </c>
       <c r="F506">
-        <v>18700</v>
+        <v>350</v>
       </c>
       <c r="G506">
-        <v>28000</v>
+        <v>350</v>
       </c>
       <c r="H506">
         <v>21</v>
       </c>
       <c r="I506">
-        <v>18700</v>
+        <v>350</v>
       </c>
       <c r="J506">
-        <v>18700</v>
+        <v>350</v>
       </c>
       <c r="K506">
-        <v>18700</v>
+        <v>350</v>
       </c>
       <c r="L506">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M506">
         <v>0</v>
@@ -24833,37 +24830,34 @@
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B507" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C507" t="s">
-        <v>408</v>
-      </c>
-      <c r="D507" t="s">
-        <v>141</v>
+        <v>485</v>
       </c>
       <c r="F507">
-        <v>5800</v>
+        <v>500</v>
       </c>
       <c r="G507">
-        <v>12000</v>
+        <v>500</v>
       </c>
       <c r="H507">
         <v>21</v>
       </c>
       <c r="I507">
-        <v>5800</v>
+        <v>500</v>
       </c>
       <c r="J507">
-        <v>5800</v>
+        <v>500</v>
       </c>
       <c r="K507">
-        <v>5800</v>
+        <v>500</v>
       </c>
       <c r="L507">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M507">
         <v>0</v>
@@ -24874,37 +24868,37 @@
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B508" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C508" t="s">
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="D508" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F508">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="G508">
-        <v>5500</v>
+        <v>400</v>
       </c>
       <c r="H508">
         <v>21</v>
       </c>
       <c r="I508">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="J508">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K508">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="L508">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M508">
         <v>0</v>
@@ -24915,122 +24909,119 @@
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>8430422206056</v>
+        <v>7899441528562</v>
       </c>
       <c r="B509" t="s">
+        <v>911</v>
+      </c>
+      <c r="C509" t="s">
+        <v>316</v>
+      </c>
+      <c r="F509">
+        <v>3200</v>
+      </c>
+      <c r="G509">
+        <v>7000</v>
+      </c>
+      <c r="H509">
+        <v>21</v>
+      </c>
+      <c r="I509">
+        <v>3200</v>
+      </c>
+      <c r="J509">
+        <v>3200</v>
+      </c>
+      <c r="K509">
+        <v>3200</v>
+      </c>
+      <c r="L509">
+        <v>1</v>
+      </c>
+      <c r="M509">
+        <v>0</v>
+      </c>
+      <c r="N509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>723540565531</v>
+      </c>
+      <c r="B510" t="s">
+        <v>912</v>
+      </c>
+      <c r="C510" t="s">
+        <v>20</v>
+      </c>
+      <c r="D510" t="s">
+        <v>28</v>
+      </c>
+      <c r="F510">
+        <v>1372</v>
+      </c>
+      <c r="G510">
+        <v>4000</v>
+      </c>
+      <c r="H510">
+        <v>21</v>
+      </c>
+      <c r="I510">
+        <v>1372</v>
+      </c>
+      <c r="J510">
+        <v>1372</v>
+      </c>
+      <c r="K510">
+        <v>1372</v>
+      </c>
+      <c r="L510">
+        <v>2</v>
+      </c>
+      <c r="M510">
+        <v>0</v>
+      </c>
+      <c r="N510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>7798371200749</v>
+      </c>
+      <c r="B511" t="s">
+        <v>913</v>
+      </c>
+      <c r="C511" t="s">
+        <v>56</v>
+      </c>
+      <c r="D511" t="s">
+        <v>57</v>
+      </c>
+      <c r="E511" t="s">
         <v>914</v>
       </c>
-      <c r="C509" t="s">
-        <v>408</v>
-      </c>
-      <c r="D509" t="s">
-        <v>3</v>
-      </c>
-      <c r="E509" t="s">
-        <v>915</v>
-      </c>
-      <c r="F509">
-        <v>5950</v>
-      </c>
-      <c r="G509">
-        <v>10000</v>
-      </c>
-      <c r="H509">
-        <v>21</v>
-      </c>
-      <c r="I509">
-        <v>5950</v>
-      </c>
-      <c r="J509">
-        <v>5950</v>
-      </c>
-      <c r="K509">
-        <v>5950</v>
-      </c>
-      <c r="L509">
-        <v>0</v>
-      </c>
-      <c r="M509">
-        <v>0</v>
-      </c>
-      <c r="N509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>916</v>
-      </c>
-      <c r="B510" t="s">
-        <v>917</v>
-      </c>
-      <c r="C510" t="s">
-        <v>53</v>
-      </c>
-      <c r="D510" t="s">
-        <v>17</v>
-      </c>
-      <c r="F510">
-        <v>900</v>
-      </c>
-      <c r="G510">
-        <v>2600</v>
-      </c>
-      <c r="H510">
-        <v>21</v>
-      </c>
-      <c r="I510">
-        <v>900</v>
-      </c>
-      <c r="J510">
-        <v>900</v>
-      </c>
-      <c r="K510">
-        <v>900</v>
-      </c>
-      <c r="L510">
-        <v>1</v>
-      </c>
-      <c r="M510">
-        <v>0</v>
-      </c>
-      <c r="N510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>918</v>
-      </c>
-      <c r="B511" t="s">
-        <v>919</v>
-      </c>
-      <c r="C511" t="s">
-        <v>65</v>
-      </c>
-      <c r="D511" t="s">
-        <v>44</v>
-      </c>
       <c r="F511">
-        <v>500</v>
+        <v>18700</v>
       </c>
       <c r="G511">
-        <v>1500</v>
+        <v>28000</v>
       </c>
       <c r="H511">
         <v>21</v>
       </c>
       <c r="I511">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="J511">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="K511">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="L511">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M511">
         <v>0</v>
@@ -25041,37 +25032,37 @@
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B512" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C512" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="D512" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="F512">
-        <v>1900</v>
+        <v>5800</v>
       </c>
       <c r="G512">
-        <v>4750</v>
+        <v>12000</v>
       </c>
       <c r="H512">
         <v>21</v>
       </c>
       <c r="I512">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="J512">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="K512">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="L512">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M512">
         <v>0</v>
@@ -25082,37 +25073,37 @@
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B513" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C513" t="s">
-        <v>594</v>
+        <v>408</v>
       </c>
       <c r="D513" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F513">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G513">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="H513">
         <v>21</v>
       </c>
       <c r="I513">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J513">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="K513">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="L513">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M513">
         <v>0</v>
@@ -25122,38 +25113,41 @@
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>924</v>
+      <c r="A514">
+        <v>8430422206056</v>
       </c>
       <c r="B514" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C514" t="s">
-        <v>316</v>
+        <v>408</v>
       </c>
       <c r="D514" t="s">
         <v>3</v>
       </c>
+      <c r="E514" t="s">
+        <v>920</v>
+      </c>
       <c r="F514">
-        <v>430</v>
+        <v>5950</v>
       </c>
       <c r="G514">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H514">
         <v>21</v>
       </c>
       <c r="I514">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="J514">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="K514">
-        <v>0</v>
+        <v>5950</v>
       </c>
       <c r="L514">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M514">
         <v>0</v>
@@ -25163,105 +25157,105 @@
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A515">
-        <v>6927799681101</v>
+      <c r="A515" t="s">
+        <v>921</v>
       </c>
       <c r="B515" t="s">
+        <v>922</v>
+      </c>
+      <c r="C515" t="s">
+        <v>53</v>
+      </c>
+      <c r="D515" t="s">
+        <v>17</v>
+      </c>
+      <c r="F515">
+        <v>900</v>
+      </c>
+      <c r="G515">
+        <v>2600</v>
+      </c>
+      <c r="H515">
+        <v>21</v>
+      </c>
+      <c r="I515">
+        <v>900</v>
+      </c>
+      <c r="J515">
+        <v>900</v>
+      </c>
+      <c r="K515">
+        <v>900</v>
+      </c>
+      <c r="L515">
+        <v>1</v>
+      </c>
+      <c r="M515">
+        <v>0</v>
+      </c>
+      <c r="N515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>923</v>
+      </c>
+      <c r="B516" t="s">
+        <v>924</v>
+      </c>
+      <c r="C516" t="s">
+        <v>65</v>
+      </c>
+      <c r="D516" t="s">
+        <v>44</v>
+      </c>
+      <c r="F516">
+        <v>500</v>
+      </c>
+      <c r="G516">
+        <v>1500</v>
+      </c>
+      <c r="H516">
+        <v>21</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+      <c r="L516">
+        <v>9</v>
+      </c>
+      <c r="M516">
+        <v>0</v>
+      </c>
+      <c r="N516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>925</v>
+      </c>
+      <c r="B517" t="s">
         <v>926</v>
       </c>
-      <c r="C515" t="s">
-        <v>316</v>
-      </c>
-      <c r="D515" t="s">
-        <v>3</v>
-      </c>
-      <c r="F515">
-        <v>60</v>
-      </c>
-      <c r="G515">
-        <v>600</v>
-      </c>
-      <c r="H515">
-        <v>21</v>
-      </c>
-      <c r="I515">
-        <v>0</v>
-      </c>
-      <c r="J515">
-        <v>0</v>
-      </c>
-      <c r="K515">
-        <v>0</v>
-      </c>
-      <c r="L515">
-        <v>29</v>
-      </c>
-      <c r="M515">
-        <v>0</v>
-      </c>
-      <c r="N515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>6927799681033</v>
-      </c>
-      <c r="B516" t="s">
-        <v>927</v>
-      </c>
-      <c r="C516" t="s">
-        <v>316</v>
-      </c>
-      <c r="D516" t="s">
-        <v>3</v>
-      </c>
-      <c r="F516">
-        <v>60</v>
-      </c>
-      <c r="G516">
-        <v>600</v>
-      </c>
-      <c r="H516">
-        <v>21</v>
-      </c>
-      <c r="I516">
-        <v>0</v>
-      </c>
-      <c r="J516">
-        <v>0</v>
-      </c>
-      <c r="K516">
-        <v>0</v>
-      </c>
-      <c r="L516">
-        <v>29</v>
-      </c>
-      <c r="M516">
-        <v>0</v>
-      </c>
-      <c r="N516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>6927799681132</v>
-      </c>
-      <c r="B517" t="s">
-        <v>928</v>
-      </c>
       <c r="C517" t="s">
-        <v>316</v>
+        <v>513</v>
       </c>
       <c r="D517" t="s">
         <v>3</v>
       </c>
       <c r="F517">
-        <v>60</v>
+        <v>1900</v>
       </c>
       <c r="G517">
-        <v>600</v>
+        <v>4750</v>
       </c>
       <c r="H517">
         <v>21</v>
@@ -25276,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="L517">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M517">
         <v>0</v>
@@ -25286,23 +25280,23 @@
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>6927799681019</v>
+      <c r="A518" t="s">
+        <v>927</v>
       </c>
       <c r="B518" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C518" t="s">
-        <v>316</v>
+        <v>594</v>
       </c>
       <c r="D518" t="s">
         <v>3</v>
       </c>
       <c r="F518">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G518">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="H518">
         <v>21</v>
@@ -25317,7 +25311,7 @@
         <v>0</v>
       </c>
       <c r="L518">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M518">
         <v>0</v>
@@ -25327,23 +25321,23 @@
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>6927799681040</v>
+      <c r="A519" t="s">
+        <v>929</v>
       </c>
       <c r="B519" t="s">
         <v>930</v>
       </c>
       <c r="C519" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="D519" t="s">
         <v>3</v>
       </c>
       <c r="F519">
-        <v>60</v>
+        <v>20844</v>
       </c>
       <c r="G519">
-        <v>600</v>
+        <v>45036</v>
       </c>
       <c r="H519">
         <v>21</v>
@@ -25358,7 +25352,7 @@
         <v>0</v>
       </c>
       <c r="L519">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M519">
         <v>0</v>
@@ -25381,10 +25375,10 @@
         <v>3</v>
       </c>
       <c r="F520">
-        <v>20844</v>
+        <v>11880</v>
       </c>
       <c r="G520">
-        <v>45036</v>
+        <v>25596</v>
       </c>
       <c r="H520">
         <v>21</v>
@@ -25399,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="L520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M520">
         <v>0</v>
@@ -25416,31 +25410,31 @@
         <v>934</v>
       </c>
       <c r="C521" t="s">
-        <v>56</v>
+        <v>584</v>
       </c>
       <c r="D521" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F521">
-        <v>11880</v>
+        <v>14549</v>
       </c>
       <c r="G521">
-        <v>25596</v>
+        <v>38000</v>
       </c>
       <c r="H521">
         <v>21</v>
       </c>
       <c r="I521">
-        <v>0</v>
+        <v>14549</v>
       </c>
       <c r="J521">
-        <v>0</v>
+        <v>14549</v>
       </c>
       <c r="K521">
-        <v>0</v>
+        <v>14549</v>
       </c>
       <c r="L521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M521">
         <v>0</v>
@@ -25463,22 +25457,22 @@
         <v>28</v>
       </c>
       <c r="F522">
-        <v>14549</v>
+        <v>13500</v>
       </c>
       <c r="G522">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="H522">
         <v>21</v>
       </c>
       <c r="I522">
-        <v>14549</v>
+        <v>13500</v>
       </c>
       <c r="J522">
-        <v>14549</v>
+        <v>13500</v>
       </c>
       <c r="K522">
-        <v>14549</v>
+        <v>13500</v>
       </c>
       <c r="L522">
         <v>0</v>
@@ -25501,28 +25495,28 @@
         <v>584</v>
       </c>
       <c r="D523" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F523">
-        <v>13500</v>
+        <v>16100</v>
       </c>
       <c r="G523">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="H523">
         <v>21</v>
       </c>
       <c r="I523">
-        <v>13500</v>
+        <v>16100</v>
       </c>
       <c r="J523">
-        <v>13500</v>
+        <v>16100</v>
       </c>
       <c r="K523">
-        <v>13500</v>
+        <v>16100</v>
       </c>
       <c r="L523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M523">
         <v>0</v>
@@ -25532,38 +25526,38 @@
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="A524">
+        <v>6971131410669</v>
+      </c>
+      <c r="B524" t="s">
         <v>939</v>
-      </c>
-      <c r="B524" t="s">
-        <v>940</v>
       </c>
       <c r="C524" t="s">
         <v>584</v>
       </c>
       <c r="D524" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F524">
-        <v>16100</v>
+        <v>8000</v>
       </c>
       <c r="G524">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="H524">
         <v>21</v>
       </c>
       <c r="I524">
-        <v>16100</v>
+        <v>8000</v>
       </c>
       <c r="J524">
-        <v>16100</v>
+        <v>8000</v>
       </c>
       <c r="K524">
-        <v>16100</v>
+        <v>8000</v>
       </c>
       <c r="L524">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M524">
         <v>0</v>
@@ -25574,37 +25568,40 @@
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>6971131410669</v>
+        <v>7799061002889</v>
       </c>
       <c r="B525" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C525" t="s">
         <v>584</v>
       </c>
       <c r="D525" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="E525" t="s">
+        <v>941</v>
       </c>
       <c r="F525">
-        <v>8000</v>
+        <v>6014</v>
       </c>
       <c r="G525">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="H525">
         <v>21</v>
       </c>
       <c r="I525">
-        <v>8000</v>
+        <v>6014</v>
       </c>
       <c r="J525">
-        <v>8000</v>
+        <v>6014</v>
       </c>
       <c r="K525">
-        <v>8000</v>
+        <v>6014</v>
       </c>
       <c r="L525">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M525">
         <v>0</v>
@@ -25614,73 +25611,70 @@
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A526">
-        <v>7799061002889</v>
-      </c>
       <c r="B526" t="s">
         <v>942</v>
       </c>
       <c r="C526" t="s">
-        <v>584</v>
-      </c>
-      <c r="D526" t="s">
+        <v>316</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>200</v>
+      </c>
+      <c r="H526">
+        <v>21</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+      <c r="M526">
+        <v>0</v>
+      </c>
+      <c r="N526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>7891122335568</v>
+      </c>
+      <c r="B527" t="s">
+        <v>943</v>
+      </c>
+      <c r="C527" t="s">
+        <v>16</v>
+      </c>
+      <c r="D527" t="s">
         <v>28</v>
       </c>
-      <c r="E526" t="s">
-        <v>943</v>
-      </c>
-      <c r="F526">
-        <v>6014</v>
-      </c>
-      <c r="G526">
-        <v>24000</v>
-      </c>
-      <c r="H526">
-        <v>21</v>
-      </c>
-      <c r="I526">
-        <v>6014</v>
-      </c>
-      <c r="J526">
-        <v>6014</v>
-      </c>
-      <c r="K526">
-        <v>6014</v>
-      </c>
-      <c r="L526">
-        <v>1</v>
-      </c>
-      <c r="M526">
-        <v>0</v>
-      </c>
-      <c r="N526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B527" t="s">
-        <v>944</v>
-      </c>
-      <c r="C527" t="s">
-        <v>316</v>
-      </c>
       <c r="F527">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="G527">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="H527">
         <v>21</v>
       </c>
       <c r="I527">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="J527">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="K527">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="L527">
         <v>0</v>
@@ -25694,34 +25688,34 @@
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>7891122335568</v>
+        <v>778145003222</v>
       </c>
       <c r="B528" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C528" t="s">
         <v>16</v>
       </c>
       <c r="D528" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F528">
-        <v>1130</v>
+        <v>1666</v>
       </c>
       <c r="G528">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H528">
         <v>21</v>
       </c>
       <c r="I528">
-        <v>1130</v>
+        <v>2600</v>
       </c>
       <c r="J528">
-        <v>1130</v>
+        <v>2600</v>
       </c>
       <c r="K528">
-        <v>1130</v>
+        <v>1666</v>
       </c>
       <c r="L528">
         <v>0</v>
@@ -25735,78 +25729,78 @@
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>778145003222</v>
+        <v>672852519025</v>
       </c>
       <c r="B529" t="s">
+        <v>945</v>
+      </c>
+      <c r="C529" t="s">
+        <v>477</v>
+      </c>
+      <c r="D529" t="s">
+        <v>68</v>
+      </c>
+      <c r="F529">
+        <v>3400</v>
+      </c>
+      <c r="G529">
+        <v>7900</v>
+      </c>
+      <c r="H529">
+        <v>21</v>
+      </c>
+      <c r="I529">
+        <v>3400</v>
+      </c>
+      <c r="J529">
+        <v>3400</v>
+      </c>
+      <c r="K529">
+        <v>3400</v>
+      </c>
+      <c r="L529">
+        <v>1</v>
+      </c>
+      <c r="M529">
+        <v>0</v>
+      </c>
+      <c r="N529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
         <v>946</v>
-      </c>
-      <c r="C529" t="s">
-        <v>16</v>
-      </c>
-      <c r="D529" t="s">
-        <v>3</v>
-      </c>
-      <c r="F529">
-        <v>1666</v>
-      </c>
-      <c r="G529">
-        <v>5000</v>
-      </c>
-      <c r="H529">
-        <v>21</v>
-      </c>
-      <c r="I529">
-        <v>2600</v>
-      </c>
-      <c r="J529">
-        <v>2600</v>
-      </c>
-      <c r="K529">
-        <v>1666</v>
-      </c>
-      <c r="L529">
-        <v>0</v>
-      </c>
-      <c r="M529">
-        <v>0</v>
-      </c>
-      <c r="N529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A530">
-        <v>672852519025</v>
       </c>
       <c r="B530" t="s">
         <v>947</v>
       </c>
       <c r="C530" t="s">
-        <v>477</v>
+        <v>265</v>
       </c>
       <c r="D530" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F530">
-        <v>3400</v>
+        <v>1971</v>
       </c>
       <c r="G530">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="H530">
         <v>21</v>
       </c>
       <c r="I530">
-        <v>3400</v>
+        <v>1971</v>
       </c>
       <c r="J530">
-        <v>3400</v>
+        <v>1971</v>
       </c>
       <c r="K530">
-        <v>3400</v>
+        <v>1971</v>
       </c>
       <c r="L530">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M530">
         <v>0</v>
@@ -25829,7 +25823,7 @@
         <v>44</v>
       </c>
       <c r="F531">
-        <v>1971</v>
+        <v>1800</v>
       </c>
       <c r="G531">
         <v>4000</v>
@@ -25838,16 +25832,16 @@
         <v>21</v>
       </c>
       <c r="I531">
-        <v>1971</v>
+        <v>1800</v>
       </c>
       <c r="J531">
-        <v>1971</v>
+        <v>1800</v>
       </c>
       <c r="K531">
-        <v>1971</v>
+        <v>1800</v>
       </c>
       <c r="L531">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M531">
         <v>0</v>
@@ -25867,28 +25861,31 @@
         <v>265</v>
       </c>
       <c r="D532" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="E532" t="s">
+        <v>952</v>
       </c>
       <c r="F532">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="G532">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="H532">
         <v>21</v>
       </c>
       <c r="I532">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="J532">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="K532">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="L532">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M532">
         <v>0</v>
@@ -25898,8 +25895,8 @@
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>952</v>
+      <c r="A533">
+        <v>731299173754</v>
       </c>
       <c r="B533" t="s">
         <v>953</v>
@@ -25910,26 +25907,23 @@
       <c r="D533" t="s">
         <v>17</v>
       </c>
-      <c r="E533" t="s">
-        <v>954</v>
-      </c>
       <c r="F533">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G533">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="H533">
         <v>21</v>
       </c>
       <c r="I533">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="J533">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="K533">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L533">
         <v>0</v>
@@ -25943,10 +25937,10 @@
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>731299173754</v>
+        <v>729208240628</v>
       </c>
       <c r="B534" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C534" t="s">
         <v>265</v>
@@ -25954,11 +25948,14 @@
       <c r="D534" t="s">
         <v>17</v>
       </c>
+      <c r="E534" t="s">
+        <v>396</v>
+      </c>
       <c r="F534">
         <v>5000</v>
       </c>
       <c r="G534">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="H534">
         <v>21</v>
@@ -25984,37 +25981,34 @@
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>729208240628</v>
+        <v>7798347600771</v>
       </c>
       <c r="B535" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C535" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="D535" t="s">
-        <v>17</v>
-      </c>
-      <c r="E535" t="s">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="F535">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="G535">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="H535">
         <v>21</v>
       </c>
       <c r="I535">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="J535">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="K535">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="L535">
         <v>0</v>
@@ -26028,10 +26022,10 @@
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>7798347600771</v>
+        <v>6975842015761</v>
       </c>
       <c r="B536" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C536" t="s">
         <v>206</v>
@@ -26040,25 +26034,25 @@
         <v>3</v>
       </c>
       <c r="F536">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="G536">
-        <v>16000</v>
+        <v>23500</v>
       </c>
       <c r="H536">
         <v>21</v>
       </c>
       <c r="I536">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="J536">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="K536">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="L536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M536">
         <v>0</v>
@@ -26069,10 +26063,10 @@
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>6975842015761</v>
+        <v>7798347600801</v>
       </c>
       <c r="B537" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C537" t="s">
         <v>206</v>
@@ -26081,25 +26075,25 @@
         <v>3</v>
       </c>
       <c r="F537">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="G537">
-        <v>23500</v>
+        <v>15000</v>
       </c>
       <c r="H537">
         <v>21</v>
       </c>
       <c r="I537">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="J537">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="K537">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L537">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M537">
         <v>0</v>
@@ -26109,38 +26103,38 @@
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A538">
-        <v>7798347600801</v>
+      <c r="A538" t="s">
+        <v>957</v>
       </c>
       <c r="B538" t="s">
         <v>958</v>
       </c>
       <c r="C538" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="D538" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F538">
-        <v>6000</v>
+        <v>9508</v>
       </c>
       <c r="G538">
-        <v>15000</v>
+        <v>24600</v>
       </c>
       <c r="H538">
         <v>21</v>
       </c>
       <c r="I538">
-        <v>6000</v>
+        <v>11222</v>
       </c>
       <c r="J538">
-        <v>6000</v>
+        <v>11222</v>
       </c>
       <c r="K538">
-        <v>6000</v>
+        <v>9508</v>
       </c>
       <c r="L538">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M538">
         <v>0</v>
@@ -26157,113 +26151,113 @@
         <v>960</v>
       </c>
       <c r="C539" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D539" t="s">
         <v>44</v>
       </c>
       <c r="F539">
-        <v>9508</v>
+        <v>700</v>
       </c>
       <c r="G539">
-        <v>24600</v>
+        <v>2400</v>
       </c>
       <c r="H539">
         <v>21</v>
       </c>
       <c r="I539">
-        <v>11222</v>
+        <v>700</v>
       </c>
       <c r="J539">
-        <v>11222</v>
+        <v>700</v>
       </c>
       <c r="K539">
-        <v>9508</v>
+        <v>700</v>
       </c>
       <c r="L539">
+        <v>3</v>
+      </c>
+      <c r="M539">
+        <v>0</v>
+      </c>
+      <c r="N539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>7798145004559</v>
+      </c>
+      <c r="B540" t="s">
+        <v>961</v>
+      </c>
+      <c r="C540" t="s">
+        <v>408</v>
+      </c>
+      <c r="D540" t="s">
+        <v>3</v>
+      </c>
+      <c r="F540">
+        <v>5400</v>
+      </c>
+      <c r="G540">
+        <v>12000</v>
+      </c>
+      <c r="H540">
+        <v>21</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
+      <c r="L540">
         <v>2</v>
       </c>
-      <c r="M539">
-        <v>0</v>
-      </c>
-      <c r="N539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>961</v>
-      </c>
-      <c r="B540" t="s">
+      <c r="M540">
+        <v>0</v>
+      </c>
+      <c r="N540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
         <v>962</v>
-      </c>
-      <c r="C540" t="s">
-        <v>316</v>
-      </c>
-      <c r="D540" t="s">
-        <v>44</v>
-      </c>
-      <c r="F540">
-        <v>700</v>
-      </c>
-      <c r="G540">
-        <v>2400</v>
-      </c>
-      <c r="H540">
-        <v>21</v>
-      </c>
-      <c r="I540">
-        <v>700</v>
-      </c>
-      <c r="J540">
-        <v>700</v>
-      </c>
-      <c r="K540">
-        <v>700</v>
-      </c>
-      <c r="L540">
-        <v>3</v>
-      </c>
-      <c r="M540">
-        <v>0</v>
-      </c>
-      <c r="N540">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A541">
-        <v>7798145004559</v>
       </c>
       <c r="B541" t="s">
         <v>963</v>
       </c>
       <c r="C541" t="s">
-        <v>408</v>
+        <v>33</v>
       </c>
       <c r="D541" t="s">
+        <v>44</v>
+      </c>
+      <c r="F541">
+        <v>1389.4</v>
+      </c>
+      <c r="G541">
+        <v>6500</v>
+      </c>
+      <c r="H541">
+        <v>21</v>
+      </c>
+      <c r="I541">
+        <v>1389.4</v>
+      </c>
+      <c r="J541">
+        <v>1389.4</v>
+      </c>
+      <c r="K541">
+        <v>1389.4</v>
+      </c>
+      <c r="L541">
         <v>3</v>
-      </c>
-      <c r="F541">
-        <v>5400</v>
-      </c>
-      <c r="G541">
-        <v>12000</v>
-      </c>
-      <c r="H541">
-        <v>21</v>
-      </c>
-      <c r="I541">
-        <v>0</v>
-      </c>
-      <c r="J541">
-        <v>0</v>
-      </c>
-      <c r="K541">
-        <v>0</v>
-      </c>
-      <c r="L541">
-        <v>2</v>
       </c>
       <c r="M541">
         <v>0</v>
@@ -26280,31 +26274,31 @@
         <v>965</v>
       </c>
       <c r="C542" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="D542" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F542">
-        <v>1389.4</v>
+        <v>0</v>
       </c>
       <c r="G542">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="H542">
         <v>21</v>
       </c>
       <c r="I542">
-        <v>1389.4</v>
+        <v>0</v>
       </c>
       <c r="J542">
-        <v>1389.4</v>
+        <v>0</v>
       </c>
       <c r="K542">
-        <v>1389.4</v>
+        <v>0</v>
       </c>
       <c r="L542">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M542">
         <v>0</v>
@@ -26314,49 +26308,49 @@
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543">
+        <v>6904004020214</v>
+      </c>
+      <c r="B543" t="s">
         <v>966</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
+        <v>56</v>
+      </c>
+      <c r="D543" t="s">
+        <v>28</v>
+      </c>
+      <c r="F543">
+        <v>16300</v>
+      </c>
+      <c r="G543">
+        <v>37999</v>
+      </c>
+      <c r="H543">
+        <v>21</v>
+      </c>
+      <c r="I543">
+        <v>16300</v>
+      </c>
+      <c r="J543">
+        <v>16300</v>
+      </c>
+      <c r="K543">
+        <v>16300</v>
+      </c>
+      <c r="L543">
+        <v>1</v>
+      </c>
+      <c r="M543">
+        <v>0</v>
+      </c>
+      <c r="N543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
         <v>967</v>
-      </c>
-      <c r="C543" t="s">
-        <v>316</v>
-      </c>
-      <c r="D543" t="s">
-        <v>3</v>
-      </c>
-      <c r="F543">
-        <v>0</v>
-      </c>
-      <c r="G543">
-        <v>1900</v>
-      </c>
-      <c r="H543">
-        <v>21</v>
-      </c>
-      <c r="I543">
-        <v>0</v>
-      </c>
-      <c r="J543">
-        <v>0</v>
-      </c>
-      <c r="K543">
-        <v>0</v>
-      </c>
-      <c r="L543">
-        <v>0</v>
-      </c>
-      <c r="M543">
-        <v>0</v>
-      </c>
-      <c r="N543">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A544">
-        <v>6904004020214</v>
       </c>
       <c r="B544" t="s">
         <v>968</v>
@@ -26365,72 +26359,72 @@
         <v>56</v>
       </c>
       <c r="D544" t="s">
+        <v>44</v>
+      </c>
+      <c r="E544" t="s">
+        <v>58</v>
+      </c>
+      <c r="F544">
+        <v>34734</v>
+      </c>
+      <c r="G544">
+        <v>62500.4</v>
+      </c>
+      <c r="H544">
+        <v>21</v>
+      </c>
+      <c r="I544">
+        <v>34734</v>
+      </c>
+      <c r="J544">
+        <v>34734</v>
+      </c>
+      <c r="K544">
+        <v>34734</v>
+      </c>
+      <c r="L544">
+        <v>0</v>
+      </c>
+      <c r="M544">
+        <v>0</v>
+      </c>
+      <c r="N544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>6963490162686</v>
+      </c>
+      <c r="B545" t="s">
+        <v>969</v>
+      </c>
+      <c r="C545" t="s">
+        <v>408</v>
+      </c>
+      <c r="D545" t="s">
         <v>28</v>
       </c>
-      <c r="F544">
-        <v>16300</v>
-      </c>
-      <c r="G544">
-        <v>37999</v>
-      </c>
-      <c r="H544">
-        <v>21</v>
-      </c>
-      <c r="I544">
-        <v>16300</v>
-      </c>
-      <c r="J544">
-        <v>16300</v>
-      </c>
-      <c r="K544">
-        <v>16300</v>
-      </c>
-      <c r="L544">
+      <c r="F545">
+        <v>5586</v>
+      </c>
+      <c r="G545">
+        <v>11200</v>
+      </c>
+      <c r="H545">
+        <v>21</v>
+      </c>
+      <c r="I545">
+        <v>5586</v>
+      </c>
+      <c r="J545">
+        <v>5586</v>
+      </c>
+      <c r="K545">
+        <v>5586</v>
+      </c>
+      <c r="L545">
         <v>1</v>
-      </c>
-      <c r="M544">
-        <v>0</v>
-      </c>
-      <c r="N544">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>969</v>
-      </c>
-      <c r="B545" t="s">
-        <v>970</v>
-      </c>
-      <c r="C545" t="s">
-        <v>56</v>
-      </c>
-      <c r="D545" t="s">
-        <v>44</v>
-      </c>
-      <c r="E545" t="s">
-        <v>58</v>
-      </c>
-      <c r="F545">
-        <v>34734</v>
-      </c>
-      <c r="G545">
-        <v>62500.4</v>
-      </c>
-      <c r="H545">
-        <v>21</v>
-      </c>
-      <c r="I545">
-        <v>34734</v>
-      </c>
-      <c r="J545">
-        <v>34734</v>
-      </c>
-      <c r="K545">
-        <v>34734</v>
-      </c>
-      <c r="L545">
-        <v>0</v>
       </c>
       <c r="M545">
         <v>0</v>
@@ -26441,37 +26435,40 @@
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>6963490162686</v>
+        <v>6955549333260</v>
       </c>
       <c r="B546" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C546" t="s">
         <v>408</v>
       </c>
       <c r="D546" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="E546" t="s">
+        <v>971</v>
       </c>
       <c r="F546">
-        <v>5586</v>
+        <v>10500</v>
       </c>
       <c r="G546">
-        <v>11200</v>
+        <v>18900</v>
       </c>
       <c r="H546">
         <v>21</v>
       </c>
       <c r="I546">
-        <v>5586</v>
+        <v>10500</v>
       </c>
       <c r="J546">
-        <v>5586</v>
+        <v>10500</v>
       </c>
       <c r="K546">
-        <v>5586</v>
+        <v>10500</v>
       </c>
       <c r="L546">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M546">
         <v>0</v>
@@ -26481,11 +26478,11 @@
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A547">
-        <v>6955549333260</v>
+      <c r="A547" t="s">
+        <v>972</v>
       </c>
       <c r="B547" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C547" t="s">
         <v>408</v>
@@ -26493,26 +26490,23 @@
       <c r="D547" t="s">
         <v>44</v>
       </c>
-      <c r="E547" t="s">
-        <v>973</v>
-      </c>
       <c r="F547">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="G547">
-        <v>18900</v>
+        <v>24000</v>
       </c>
       <c r="H547">
         <v>21</v>
       </c>
       <c r="I547">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="J547">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="K547">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="L547">
         <v>2</v>
@@ -26525,38 +26519,41 @@
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="A548">
+        <v>6958210712401</v>
+      </c>
+      <c r="B548" t="s">
         <v>974</v>
-      </c>
-      <c r="B548" t="s">
-        <v>975</v>
       </c>
       <c r="C548" t="s">
         <v>408</v>
       </c>
       <c r="D548" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="E548" t="s">
+        <v>914</v>
       </c>
       <c r="F548">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="G548">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="H548">
         <v>21</v>
       </c>
       <c r="I548">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="J548">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="K548">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="L548">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M548">
         <v>0</v>
@@ -26567,40 +26564,40 @@
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>6958210712401</v>
+        <v>6958210701405</v>
       </c>
       <c r="B549" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C549" t="s">
         <v>408</v>
       </c>
       <c r="D549" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E549" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F549">
-        <v>10800</v>
+        <v>7100</v>
       </c>
       <c r="G549">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="H549">
         <v>21</v>
       </c>
       <c r="I549">
-        <v>10800</v>
+        <v>7100</v>
       </c>
       <c r="J549">
-        <v>10800</v>
+        <v>7100</v>
       </c>
       <c r="K549">
-        <v>10800</v>
+        <v>7100</v>
       </c>
       <c r="L549">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M549">
         <v>0</v>
@@ -26611,40 +26608,37 @@
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>6958210701405</v>
+        <v>763571815083</v>
       </c>
       <c r="B550" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C550" t="s">
-        <v>408</v>
+        <v>75</v>
       </c>
       <c r="D550" t="s">
-        <v>3</v>
-      </c>
-      <c r="E550" t="s">
-        <v>909</v>
+        <v>44</v>
       </c>
       <c r="F550">
-        <v>7100</v>
+        <v>7718.75</v>
       </c>
       <c r="G550">
-        <v>16000</v>
+        <v>17999</v>
       </c>
       <c r="H550">
         <v>21</v>
       </c>
       <c r="I550">
-        <v>7100</v>
+        <v>7718.7</v>
       </c>
       <c r="J550">
-        <v>7100</v>
+        <v>7718.7</v>
       </c>
       <c r="K550">
-        <v>7100</v>
+        <v>7718.7</v>
       </c>
       <c r="L550">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M550">
         <v>0</v>
@@ -26655,37 +26649,37 @@
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>763571815083</v>
+        <v>8214729653849</v>
       </c>
       <c r="B551" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C551" t="s">
         <v>75</v>
       </c>
       <c r="D551" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F551">
-        <v>7718.75</v>
+        <v>1911</v>
       </c>
       <c r="G551">
-        <v>17999</v>
+        <v>7999</v>
       </c>
       <c r="H551">
         <v>21</v>
       </c>
       <c r="I551">
-        <v>7718.7</v>
+        <v>1911</v>
       </c>
       <c r="J551">
-        <v>7718.7</v>
+        <v>1911</v>
       </c>
       <c r="K551">
-        <v>7718.7</v>
+        <v>1911</v>
       </c>
       <c r="L551">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M551">
         <v>0</v>
@@ -26695,8 +26689,8 @@
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A552">
-        <v>8214729653849</v>
+      <c r="A552" t="s">
+        <v>978</v>
       </c>
       <c r="B552" t="s">
         <v>979</v>
@@ -26705,69 +26699,69 @@
         <v>75</v>
       </c>
       <c r="D552" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F552">
-        <v>1911</v>
+        <v>4500</v>
       </c>
       <c r="G552">
-        <v>7999</v>
+        <v>10000</v>
       </c>
       <c r="H552">
         <v>21</v>
       </c>
       <c r="I552">
-        <v>1911</v>
+        <v>0</v>
       </c>
       <c r="J552">
-        <v>1911</v>
+        <v>0</v>
       </c>
       <c r="K552">
-        <v>1911</v>
+        <v>0</v>
       </c>
       <c r="L552">
+        <v>1</v>
+      </c>
+      <c r="M552">
+        <v>0</v>
+      </c>
+      <c r="N552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>6918688168186</v>
+      </c>
+      <c r="B553" t="s">
+        <v>980</v>
+      </c>
+      <c r="C553" t="s">
+        <v>53</v>
+      </c>
+      <c r="D553" t="s">
+        <v>17</v>
+      </c>
+      <c r="F553">
+        <v>600</v>
+      </c>
+      <c r="G553">
+        <v>1800</v>
+      </c>
+      <c r="H553">
+        <v>21</v>
+      </c>
+      <c r="I553">
+        <v>600</v>
+      </c>
+      <c r="J553">
+        <v>600</v>
+      </c>
+      <c r="K553">
+        <v>600</v>
+      </c>
+      <c r="L553">
         <v>3</v>
-      </c>
-      <c r="M552">
-        <v>0</v>
-      </c>
-      <c r="N552">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>980</v>
-      </c>
-      <c r="B553" t="s">
-        <v>981</v>
-      </c>
-      <c r="C553" t="s">
-        <v>75</v>
-      </c>
-      <c r="D553" t="s">
-        <v>3</v>
-      </c>
-      <c r="F553">
-        <v>4500</v>
-      </c>
-      <c r="G553">
-        <v>10000</v>
-      </c>
-      <c r="H553">
-        <v>21</v>
-      </c>
-      <c r="I553">
-        <v>0</v>
-      </c>
-      <c r="J553">
-        <v>0</v>
-      </c>
-      <c r="K553">
-        <v>0</v>
-      </c>
-      <c r="L553">
-        <v>1</v>
       </c>
       <c r="M553">
         <v>0</v>
@@ -26778,34 +26772,34 @@
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>6918688168186</v>
+        <v>6988886869543</v>
       </c>
       <c r="B554" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C554" t="s">
         <v>53</v>
       </c>
       <c r="D554" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F554">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="G554">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="H554">
         <v>21</v>
       </c>
       <c r="I554">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="J554">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="K554">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="L554">
         <v>3</v>
@@ -26818,8 +26812,8 @@
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A555">
-        <v>6988886869543</v>
+      <c r="A555" t="s">
+        <v>982</v>
       </c>
       <c r="B555" t="s">
         <v>983</v>
@@ -26828,28 +26822,28 @@
         <v>53</v>
       </c>
       <c r="D555" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F555">
-        <v>1450</v>
+        <v>600</v>
       </c>
       <c r="G555">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="H555">
         <v>21</v>
       </c>
       <c r="I555">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="J555">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="K555">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="L555">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M555">
         <v>0</v>
@@ -26872,25 +26866,25 @@
         <v>17</v>
       </c>
       <c r="F556">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G556">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="H556">
         <v>21</v>
       </c>
       <c r="I556">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J556">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K556">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L556">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M556">
         <v>0</v>
@@ -26910,28 +26904,28 @@
         <v>53</v>
       </c>
       <c r="D557" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F557">
-        <v>500</v>
+        <v>2652</v>
       </c>
       <c r="G557">
-        <v>1600</v>
+        <v>6500</v>
       </c>
       <c r="H557">
         <v>21</v>
       </c>
       <c r="I557">
-        <v>500</v>
+        <v>2652</v>
       </c>
       <c r="J557">
-        <v>500</v>
+        <v>2652</v>
       </c>
       <c r="K557">
-        <v>500</v>
+        <v>2652</v>
       </c>
       <c r="L557">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M557">
         <v>0</v>
@@ -26951,28 +26945,28 @@
         <v>53</v>
       </c>
       <c r="D558" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F558">
-        <v>2652</v>
+        <v>600</v>
       </c>
       <c r="G558">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="H558">
         <v>21</v>
       </c>
       <c r="I558">
-        <v>2652</v>
+        <v>600</v>
       </c>
       <c r="J558">
-        <v>2652</v>
+        <v>600</v>
       </c>
       <c r="K558">
-        <v>2652</v>
+        <v>600</v>
       </c>
       <c r="L558">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M558">
         <v>0</v>
@@ -26982,38 +26976,38 @@
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559">
+        <v>7821234522365</v>
+      </c>
+      <c r="B559" t="s">
         <v>990</v>
-      </c>
-      <c r="B559" t="s">
-        <v>991</v>
       </c>
       <c r="C559" t="s">
         <v>53</v>
       </c>
       <c r="D559" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F559">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G559">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="H559">
         <v>21</v>
       </c>
       <c r="I559">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J559">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K559">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L559">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M559">
         <v>0</v>
@@ -27023,8 +27017,8 @@
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A560">
-        <v>7821234522365</v>
+      <c r="A560" t="s">
+        <v>991</v>
       </c>
       <c r="B560" t="s">
         <v>992</v>
@@ -27033,28 +27027,28 @@
         <v>53</v>
       </c>
       <c r="D560" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="F560">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G560">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="H560">
         <v>21</v>
       </c>
       <c r="I560">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J560">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K560">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L560">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M560">
         <v>0</v>
@@ -27064,38 +27058,38 @@
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+      <c r="A561">
+        <v>7790839910788</v>
+      </c>
+      <c r="B561" t="s">
         <v>993</v>
-      </c>
-      <c r="B561" t="s">
-        <v>994</v>
       </c>
       <c r="C561" t="s">
         <v>53</v>
       </c>
       <c r="D561" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F561">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G561">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="H561">
         <v>21</v>
       </c>
       <c r="I561">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J561">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K561">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M561">
         <v>0</v>
@@ -27105,8 +27099,8 @@
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A562">
-        <v>7790839910788</v>
+      <c r="A562" t="s">
+        <v>994</v>
       </c>
       <c r="B562" t="s">
         <v>995</v>
@@ -27115,25 +27109,25 @@
         <v>53</v>
       </c>
       <c r="D562" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="F562">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="G562">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="H562">
         <v>21</v>
       </c>
       <c r="I562">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="J562">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K562">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="L562">
         <v>0</v>
@@ -27156,28 +27150,28 @@
         <v>53</v>
       </c>
       <c r="D563" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="F563">
-        <v>1600</v>
+        <v>1328</v>
       </c>
       <c r="G563">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="H563">
         <v>21</v>
       </c>
       <c r="I563">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J563">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="K563">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="L563">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M563">
         <v>0</v>
@@ -27197,13 +27191,13 @@
         <v>53</v>
       </c>
       <c r="D564" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F564">
-        <v>1328</v>
+        <v>500</v>
       </c>
       <c r="G564">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="H564">
         <v>21</v>
@@ -27218,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="L564">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M564">
         <v>0</v>
@@ -27228,38 +27222,38 @@
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="A565">
+        <v>7798145005969</v>
+      </c>
+      <c r="B565" t="s">
         <v>1000</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1001</v>
       </c>
       <c r="C565" t="s">
         <v>53</v>
       </c>
       <c r="D565" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F565">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G565">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H565">
         <v>21</v>
       </c>
       <c r="I565">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J565">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K565">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L565">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M565">
         <v>0</v>
@@ -27270,37 +27264,40 @@
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>7798145005969</v>
+        <v>6974504506013</v>
       </c>
       <c r="B566" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C566" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D566" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="E566" t="s">
+        <v>409</v>
       </c>
       <c r="F566">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="G566">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="H566">
         <v>21</v>
       </c>
       <c r="I566">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="J566">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="K566">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="L566">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M566">
         <v>0</v>
@@ -27311,40 +27308,40 @@
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>6974504506013</v>
+        <v>7799135001664</v>
       </c>
       <c r="B567" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C567" t="s">
         <v>62</v>
       </c>
       <c r="D567" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E567" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="F567">
-        <v>2900</v>
+        <v>3628.5</v>
       </c>
       <c r="G567">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="H567">
         <v>21</v>
       </c>
       <c r="I567">
-        <v>2900</v>
+        <v>3628.5</v>
       </c>
       <c r="J567">
-        <v>2900</v>
+        <v>3628.5</v>
       </c>
       <c r="K567">
-        <v>2900</v>
+        <v>3628.5</v>
       </c>
       <c r="L567">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M567">
         <v>0</v>
@@ -27355,40 +27352,37 @@
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>7799135001664</v>
+        <v>7798423540649</v>
       </c>
       <c r="B568" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C568" t="s">
         <v>62</v>
       </c>
       <c r="D568" t="s">
-        <v>66</v>
-      </c>
-      <c r="E568" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="F568">
-        <v>3628.5</v>
+        <v>4400</v>
       </c>
       <c r="G568">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="H568">
         <v>21</v>
       </c>
       <c r="I568">
-        <v>3628.5</v>
+        <v>4400</v>
       </c>
       <c r="J568">
-        <v>3628.5</v>
+        <v>4400</v>
       </c>
       <c r="K568">
-        <v>3628.5</v>
+        <v>4400</v>
       </c>
       <c r="L568">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M568">
         <v>0</v>
@@ -27399,34 +27393,34 @@
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>7798423540649</v>
+        <v>6974504501018</v>
       </c>
       <c r="B569" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C569" t="s">
         <v>62</v>
       </c>
       <c r="D569" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F569">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="G569">
-        <v>9500</v>
+        <v>16900</v>
       </c>
       <c r="H569">
         <v>21</v>
       </c>
       <c r="I569">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="J569">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="K569">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="L569">
         <v>2</v>
@@ -27440,37 +27434,37 @@
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>6974504501018</v>
+        <v>701575361564</v>
       </c>
       <c r="B570" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C570" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D570" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F570">
-        <v>8500</v>
+        <v>2037</v>
       </c>
       <c r="G570">
-        <v>16900</v>
+        <v>4200</v>
       </c>
       <c r="H570">
         <v>21</v>
       </c>
       <c r="I570">
-        <v>8500</v>
+        <v>2037</v>
       </c>
       <c r="J570">
-        <v>8500</v>
+        <v>2037</v>
       </c>
       <c r="K570">
-        <v>8500</v>
+        <v>2037</v>
       </c>
       <c r="L570">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M570">
         <v>0</v>
@@ -27481,37 +27475,40 @@
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>701575361564</v>
+        <v>6974202725549</v>
       </c>
       <c r="B571" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C571" t="s">
+        <v>322</v>
+      </c>
+      <c r="D571" t="s">
+        <v>257</v>
+      </c>
+      <c r="E571" t="s">
         <v>1007</v>
       </c>
-      <c r="C571" t="s">
-        <v>53</v>
-      </c>
-      <c r="D571" t="s">
-        <v>44</v>
-      </c>
       <c r="F571">
-        <v>2037</v>
+        <v>15043</v>
       </c>
       <c r="G571">
-        <v>4200</v>
+        <v>27000</v>
       </c>
       <c r="H571">
         <v>21</v>
       </c>
       <c r="I571">
-        <v>2037</v>
+        <v>15043</v>
       </c>
       <c r="J571">
-        <v>2037</v>
+        <v>15043</v>
       </c>
       <c r="K571">
-        <v>2037</v>
+        <v>15043</v>
       </c>
       <c r="L571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M571">
         <v>0</v>
@@ -27522,7 +27519,7 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>6974202725549</v>
+        <v>843367116218</v>
       </c>
       <c r="B572" t="s">
         <v>1008</v>
@@ -27537,25 +27534,25 @@
         <v>1009</v>
       </c>
       <c r="F572">
-        <v>15043</v>
+        <v>18444</v>
       </c>
       <c r="G572">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="H572">
         <v>21</v>
       </c>
       <c r="I572">
-        <v>15043</v>
+        <v>18444</v>
       </c>
       <c r="J572">
-        <v>15043</v>
+        <v>18444</v>
       </c>
       <c r="K572">
-        <v>15043</v>
+        <v>18444</v>
       </c>
       <c r="L572">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M572">
         <v>0</v>
@@ -27565,41 +27562,38 @@
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A573">
-        <v>843367116218</v>
+      <c r="A573" t="s">
+        <v>1010</v>
       </c>
       <c r="B573" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C573" t="s">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D573" t="s">
-        <v>257</v>
-      </c>
-      <c r="E573" t="s">
-        <v>1011</v>
+        <v>44</v>
       </c>
       <c r="F573">
-        <v>18444</v>
+        <v>900</v>
       </c>
       <c r="G573">
-        <v>34000</v>
+        <v>3500</v>
       </c>
       <c r="H573">
         <v>21</v>
       </c>
       <c r="I573">
-        <v>18444</v>
+        <v>900</v>
       </c>
       <c r="J573">
-        <v>18444</v>
+        <v>900</v>
       </c>
       <c r="K573">
-        <v>18444</v>
+        <v>900</v>
       </c>
       <c r="L573">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M573">
         <v>0</v>
@@ -27619,28 +27613,28 @@
         <v>33</v>
       </c>
       <c r="D574" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="F574">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="G574">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="H574">
         <v>21</v>
       </c>
       <c r="I574">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="J574">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K574">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L574">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M574">
         <v>0</v>
@@ -27654,34 +27648,34 @@
         <v>1014</v>
       </c>
       <c r="B575" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C575" t="s">
-        <v>33</v>
+        <v>405</v>
       </c>
       <c r="D575" t="s">
-        <v>425</v>
+        <v>44</v>
       </c>
       <c r="F575">
-        <v>650</v>
+        <v>2200</v>
       </c>
       <c r="G575">
-        <v>1500</v>
+        <v>4900</v>
       </c>
       <c r="H575">
         <v>21</v>
       </c>
       <c r="I575">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J575">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="K575">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="L575">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M575">
         <v>0</v>
@@ -27692,37 +27686,37 @@
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B576" t="s">
         <v>1016</v>
       </c>
       <c r="C576" t="s">
-        <v>405</v>
-      </c>
-      <c r="D576" t="s">
-        <v>44</v>
+        <v>322</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1015</v>
       </c>
       <c r="F576">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="G576">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H576">
         <v>21</v>
       </c>
       <c r="I576">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J576">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="K576">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="L576">
-        <v>2</v>
+        <v>-5.5999999046325701</v>
       </c>
       <c r="M576">
         <v>0</v>
@@ -27732,38 +27726,38 @@
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="A577">
+        <v>700306601221</v>
+      </c>
+      <c r="B577" t="s">
         <v>1017</v>
       </c>
-      <c r="B577" t="s">
-        <v>1018</v>
-      </c>
       <c r="C577" t="s">
-        <v>322</v>
-      </c>
-      <c r="E577" t="s">
-        <v>1017</v>
+        <v>603</v>
+      </c>
+      <c r="D577" t="s">
+        <v>295</v>
       </c>
       <c r="F577">
-        <v>0</v>
+        <v>4012</v>
       </c>
       <c r="G577">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="H577">
         <v>21</v>
       </c>
       <c r="I577">
-        <v>0</v>
+        <v>4012</v>
       </c>
       <c r="J577">
-        <v>0</v>
+        <v>4012</v>
       </c>
       <c r="K577">
-        <v>0</v>
+        <v>4012</v>
       </c>
       <c r="L577">
-        <v>-5.5999999046325701</v>
+        <v>3</v>
       </c>
       <c r="M577">
         <v>0</v>
@@ -27774,34 +27768,34 @@
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>700306601221</v>
+        <v>7799135009790</v>
       </c>
       <c r="B578" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C578" t="s">
         <v>603</v>
       </c>
       <c r="D578" t="s">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="F578">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="G578">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="H578">
         <v>21</v>
       </c>
       <c r="I578">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="J578">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="K578">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="L578">
         <v>3</v>
@@ -27814,38 +27808,38 @@
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A579">
-        <v>7799135009790</v>
+      <c r="A579" t="s">
+        <v>1019</v>
       </c>
       <c r="B579" t="s">
         <v>1020</v>
       </c>
       <c r="C579" t="s">
-        <v>603</v>
+        <v>316</v>
       </c>
       <c r="D579" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F579">
-        <v>6519</v>
+        <v>1150</v>
       </c>
       <c r="G579">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="H579">
         <v>21</v>
       </c>
       <c r="I579">
-        <v>6519</v>
+        <v>1150</v>
       </c>
       <c r="J579">
-        <v>6519</v>
+        <v>1150</v>
       </c>
       <c r="K579">
-        <v>6519</v>
+        <v>1150</v>
       </c>
       <c r="L579">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M579">
         <v>0</v>
@@ -27855,38 +27849,38 @@
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+      <c r="A580">
+        <v>7798423541356</v>
+      </c>
+      <c r="B580" t="s">
         <v>1021</v>
       </c>
-      <c r="B580" t="s">
-        <v>1022</v>
-      </c>
       <c r="C580" t="s">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="D580" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F580">
-        <v>1150</v>
+        <v>4100</v>
       </c>
       <c r="G580">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="H580">
         <v>21</v>
       </c>
       <c r="I580">
-        <v>1150</v>
+        <v>4100</v>
       </c>
       <c r="J580">
-        <v>1150</v>
+        <v>4100</v>
       </c>
       <c r="K580">
-        <v>1150</v>
+        <v>4100</v>
       </c>
       <c r="L580">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M580">
         <v>0</v>
@@ -27897,37 +27891,37 @@
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>7798423541356</v>
+        <v>7798145006027</v>
       </c>
       <c r="B581" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C581" t="s">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="D581" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F581">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="G581">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="H581">
         <v>21</v>
       </c>
       <c r="I581">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="J581">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="K581">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="L581">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M581">
         <v>0</v>
@@ -27938,19 +27932,19 @@
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>7798145006027</v>
+        <v>7790000111020</v>
       </c>
       <c r="B582" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C582" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="D582" t="s">
         <v>3</v>
       </c>
       <c r="F582">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="G582">
         <v>5000</v>
@@ -27959,16 +27953,16 @@
         <v>21</v>
       </c>
       <c r="I582">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J582">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K582">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L582">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M582">
         <v>0</v>
@@ -27979,78 +27973,78 @@
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>7790000111020</v>
+        <v>6920220096888</v>
       </c>
       <c r="B583" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C583" t="s">
+        <v>48</v>
+      </c>
+      <c r="D583" t="s">
+        <v>44</v>
+      </c>
+      <c r="F583">
+        <v>4800</v>
+      </c>
+      <c r="G583">
+        <v>9600</v>
+      </c>
+      <c r="H583">
+        <v>21</v>
+      </c>
+      <c r="I583">
+        <v>4800</v>
+      </c>
+      <c r="J583">
+        <v>4800</v>
+      </c>
+      <c r="K583">
+        <v>4800</v>
+      </c>
+      <c r="L583">
+        <v>0</v>
+      </c>
+      <c r="M583">
+        <v>0</v>
+      </c>
+      <c r="N583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>1025</v>
-      </c>
-      <c r="C583" t="s">
-        <v>316</v>
-      </c>
-      <c r="D583" t="s">
-        <v>3</v>
-      </c>
-      <c r="F583">
-        <v>1200</v>
-      </c>
-      <c r="G583">
-        <v>5000</v>
-      </c>
-      <c r="H583">
-        <v>21</v>
-      </c>
-      <c r="I583">
-        <v>0</v>
-      </c>
-      <c r="J583">
-        <v>0</v>
-      </c>
-      <c r="K583">
-        <v>0</v>
-      </c>
-      <c r="L583">
-        <v>4</v>
-      </c>
-      <c r="M583">
-        <v>0</v>
-      </c>
-      <c r="N583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A584">
-        <v>6920220096888</v>
       </c>
       <c r="B584" t="s">
         <v>1026</v>
       </c>
       <c r="C584" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D584" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F584">
-        <v>4800</v>
+        <v>3635</v>
       </c>
       <c r="G584">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="H584">
         <v>21</v>
       </c>
       <c r="I584">
-        <v>4800</v>
+        <v>3635</v>
       </c>
       <c r="J584">
-        <v>4800</v>
+        <v>3635</v>
       </c>
       <c r="K584">
-        <v>4800</v>
+        <v>3635</v>
       </c>
       <c r="L584">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M584">
         <v>0</v>
@@ -28060,11 +28054,11 @@
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="A585">
+        <v>7795234526572</v>
+      </c>
+      <c r="B585" t="s">
         <v>1027</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1028</v>
       </c>
       <c r="C585" t="s">
         <v>65</v>
@@ -28073,25 +28067,25 @@
         <v>28</v>
       </c>
       <c r="F585">
-        <v>3635</v>
+        <v>3750</v>
       </c>
       <c r="G585">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="H585">
         <v>21</v>
       </c>
       <c r="I585">
-        <v>3635</v>
+        <v>3750</v>
       </c>
       <c r="J585">
-        <v>3635</v>
+        <v>3750</v>
       </c>
       <c r="K585">
-        <v>3635</v>
+        <v>3750</v>
       </c>
       <c r="L585">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M585">
         <v>0</v>
@@ -28101,8 +28095,8 @@
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A586">
-        <v>7795234526572</v>
+      <c r="A586" t="s">
+        <v>1028</v>
       </c>
       <c r="B586" t="s">
         <v>1029</v>
@@ -28114,22 +28108,22 @@
         <v>28</v>
       </c>
       <c r="F586">
-        <v>3750</v>
+        <v>6288</v>
       </c>
       <c r="G586">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="H586">
         <v>21</v>
       </c>
       <c r="I586">
-        <v>3750</v>
+        <v>6288</v>
       </c>
       <c r="J586">
-        <v>3750</v>
+        <v>6288</v>
       </c>
       <c r="K586">
-        <v>3750</v>
+        <v>6288</v>
       </c>
       <c r="L586">
         <v>3</v>
@@ -28152,28 +28146,28 @@
         <v>65</v>
       </c>
       <c r="D587" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F587">
-        <v>6288</v>
+        <v>16700</v>
       </c>
       <c r="G587">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="H587">
         <v>21</v>
       </c>
       <c r="I587">
-        <v>6288</v>
+        <v>16700</v>
       </c>
       <c r="J587">
-        <v>6288</v>
+        <v>16700</v>
       </c>
       <c r="K587">
-        <v>6288</v>
+        <v>16700</v>
       </c>
       <c r="L587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M587">
         <v>0</v>
@@ -28190,31 +28184,31 @@
         <v>1033</v>
       </c>
       <c r="C588" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="D588" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F588">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="G588">
-        <v>32000</v>
+        <v>45000</v>
       </c>
       <c r="H588">
         <v>21</v>
       </c>
       <c r="I588">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="J588">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="K588">
-        <v>16700</v>
+        <v>15900</v>
       </c>
       <c r="L588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M588">
         <v>0</v>
@@ -28234,28 +28228,28 @@
         <v>206</v>
       </c>
       <c r="D589" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F589">
-        <v>15900</v>
+        <v>6815</v>
       </c>
       <c r="G589">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="H589">
         <v>21</v>
       </c>
       <c r="I589">
-        <v>15900</v>
+        <v>6815</v>
       </c>
       <c r="J589">
-        <v>15900</v>
+        <v>6815</v>
       </c>
       <c r="K589">
-        <v>15900</v>
+        <v>6815</v>
       </c>
       <c r="L589">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M589">
         <v>0</v>
@@ -28265,38 +28259,38 @@
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="A590">
+        <v>6902540752361</v>
+      </c>
+      <c r="B590" t="s">
         <v>1036</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1037</v>
       </c>
       <c r="C590" t="s">
         <v>206</v>
       </c>
       <c r="D590" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F590">
-        <v>6815</v>
+        <v>5800</v>
       </c>
       <c r="G590">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H590">
         <v>21</v>
       </c>
       <c r="I590">
-        <v>6815</v>
+        <v>5800</v>
       </c>
       <c r="J590">
-        <v>6815</v>
+        <v>5800</v>
       </c>
       <c r="K590">
-        <v>6815</v>
+        <v>5800</v>
       </c>
       <c r="L590">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M590">
         <v>0</v>
@@ -28306,90 +28300,93 @@
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A591">
-        <v>6902540752361</v>
+      <c r="A591" t="s">
+        <v>1037</v>
       </c>
       <c r="B591" t="s">
         <v>1038</v>
       </c>
       <c r="C591" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="D591" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F591">
-        <v>5800</v>
+        <v>15000</v>
       </c>
       <c r="G591">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="H591">
         <v>21</v>
       </c>
       <c r="I591">
-        <v>5800</v>
+        <v>15000</v>
       </c>
       <c r="J591">
-        <v>5800</v>
+        <v>15000</v>
       </c>
       <c r="K591">
-        <v>5800</v>
+        <v>15000</v>
       </c>
       <c r="L591">
+        <v>2</v>
+      </c>
+      <c r="M591">
+        <v>0</v>
+      </c>
+      <c r="N591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>723540564022</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C592" t="s">
+        <v>349</v>
+      </c>
+      <c r="D592" t="s">
+        <v>28</v>
+      </c>
+      <c r="E592" t="s">
+        <v>87</v>
+      </c>
+      <c r="F592">
+        <v>3175</v>
+      </c>
+      <c r="G592">
+        <v>9500</v>
+      </c>
+      <c r="H592">
+        <v>21</v>
+      </c>
+      <c r="I592">
+        <v>3175</v>
+      </c>
+      <c r="J592">
+        <v>3175</v>
+      </c>
+      <c r="K592">
+        <v>3175</v>
+      </c>
+      <c r="L592">
         <v>1</v>
       </c>
-      <c r="M591">
-        <v>0</v>
-      </c>
-      <c r="N591">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B592" t="s">
+      <c r="M592">
+        <v>0</v>
+      </c>
+      <c r="N592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
         <v>1040</v>
-      </c>
-      <c r="C592" t="s">
-        <v>56</v>
-      </c>
-      <c r="D592" t="s">
-        <v>3</v>
-      </c>
-      <c r="F592">
-        <v>15000</v>
-      </c>
-      <c r="G592">
-        <v>30000</v>
-      </c>
-      <c r="H592">
-        <v>21</v>
-      </c>
-      <c r="I592">
-        <v>15000</v>
-      </c>
-      <c r="J592">
-        <v>15000</v>
-      </c>
-      <c r="K592">
-        <v>15000</v>
-      </c>
-      <c r="L592">
-        <v>2</v>
-      </c>
-      <c r="M592">
-        <v>0</v>
-      </c>
-      <c r="N592">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A593">
-        <v>723540564022</v>
       </c>
       <c r="B593" t="s">
         <v>1041</v>
@@ -28398,31 +28395,28 @@
         <v>349</v>
       </c>
       <c r="D593" t="s">
-        <v>28</v>
-      </c>
-      <c r="E593" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F593">
-        <v>3175</v>
+        <v>2417</v>
       </c>
       <c r="G593">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="H593">
         <v>21</v>
       </c>
       <c r="I593">
-        <v>3175</v>
+        <v>2417</v>
       </c>
       <c r="J593">
-        <v>3175</v>
+        <v>2417</v>
       </c>
       <c r="K593">
-        <v>3175</v>
+        <v>2417</v>
       </c>
       <c r="L593">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M593">
         <v>0</v>
@@ -28439,31 +28433,31 @@
         <v>1043</v>
       </c>
       <c r="C594" t="s">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="D594" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F594">
-        <v>2417</v>
+        <v>3900</v>
       </c>
       <c r="G594">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="H594">
         <v>21</v>
       </c>
       <c r="I594">
-        <v>2417</v>
+        <v>0</v>
       </c>
       <c r="J594">
-        <v>2417</v>
+        <v>0</v>
       </c>
       <c r="K594">
-        <v>2417</v>
+        <v>0</v>
       </c>
       <c r="L594">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M594">
         <v>0</v>
@@ -28486,10 +28480,10 @@
         <v>3</v>
       </c>
       <c r="F595">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="G595">
-        <v>8400</v>
+        <v>9300</v>
       </c>
       <c r="H595">
         <v>21</v>
@@ -28504,7 +28498,7 @@
         <v>0</v>
       </c>
       <c r="L595">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M595">
         <v>0</v>
@@ -28514,35 +28508,38 @@
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596">
+        <v>7798347810224</v>
+      </c>
+      <c r="B596" t="s">
         <v>1046</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1047</v>
       </c>
       <c r="C596" t="s">
         <v>477</v>
       </c>
       <c r="D596" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1047</v>
       </c>
       <c r="F596">
-        <v>4300</v>
+        <v>3260</v>
       </c>
       <c r="G596">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H596">
         <v>21</v>
       </c>
       <c r="I596">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="J596">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="K596">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="L596">
         <v>1</v>
@@ -28556,10 +28553,10 @@
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>7798347810224</v>
+        <v>7798347810569</v>
       </c>
       <c r="B597" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C597" t="s">
         <v>477</v>
@@ -28568,25 +28565,25 @@
         <v>44</v>
       </c>
       <c r="E597" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F597">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="G597">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="H597">
         <v>21</v>
       </c>
       <c r="I597">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="J597">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="K597">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="L597">
         <v>1</v>
@@ -28600,78 +28597,75 @@
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>7798347810569</v>
+        <v>6905416583656</v>
       </c>
       <c r="B598" t="s">
         <v>1048</v>
       </c>
       <c r="C598" t="s">
-        <v>477</v>
-      </c>
-      <c r="D598" t="s">
-        <v>44</v>
-      </c>
-      <c r="E598" t="s">
+        <v>316</v>
+      </c>
+      <c r="F598">
+        <v>1500</v>
+      </c>
+      <c r="G598">
+        <v>3000</v>
+      </c>
+      <c r="H598">
+        <v>21</v>
+      </c>
+      <c r="I598">
+        <v>1500</v>
+      </c>
+      <c r="J598">
+        <v>1500</v>
+      </c>
+      <c r="K598">
+        <v>1500</v>
+      </c>
+      <c r="L598">
+        <v>12</v>
+      </c>
+      <c r="M598">
+        <v>0</v>
+      </c>
+      <c r="N598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
         <v>1049</v>
-      </c>
-      <c r="F598">
-        <v>3261</v>
-      </c>
-      <c r="G598">
-        <v>9500</v>
-      </c>
-      <c r="H598">
-        <v>21</v>
-      </c>
-      <c r="I598">
-        <v>3261</v>
-      </c>
-      <c r="J598">
-        <v>3261</v>
-      </c>
-      <c r="K598">
-        <v>3261</v>
-      </c>
-      <c r="L598">
-        <v>1</v>
-      </c>
-      <c r="M598">
-        <v>0</v>
-      </c>
-      <c r="N598">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A599">
-        <v>6905416583656</v>
       </c>
       <c r="B599" t="s">
         <v>1050</v>
       </c>
       <c r="C599" t="s">
-        <v>316</v>
+        <v>75</v>
+      </c>
+      <c r="D599" t="s">
+        <v>44</v>
       </c>
       <c r="F599">
-        <v>1500</v>
+        <v>628</v>
       </c>
       <c r="G599">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H599">
         <v>21</v>
       </c>
       <c r="I599">
-        <v>1500</v>
+        <v>628</v>
       </c>
       <c r="J599">
-        <v>1500</v>
+        <v>628</v>
       </c>
       <c r="K599">
-        <v>1500</v>
+        <v>628</v>
       </c>
       <c r="L599">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M599">
         <v>0</v>
@@ -28688,83 +28682,83 @@
         <v>1052</v>
       </c>
       <c r="C600" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D600" t="s">
+        <v>66</v>
+      </c>
+      <c r="F600">
+        <v>4800</v>
+      </c>
+      <c r="G600">
+        <v>12000</v>
+      </c>
+      <c r="H600">
+        <v>21</v>
+      </c>
+      <c r="I600">
+        <v>4800</v>
+      </c>
+      <c r="J600">
+        <v>4800</v>
+      </c>
+      <c r="K600">
+        <v>4800</v>
+      </c>
+      <c r="L600">
+        <v>6</v>
+      </c>
+      <c r="M600">
+        <v>0</v>
+      </c>
+      <c r="N600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>6459751458518</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C601" t="s">
+        <v>53</v>
+      </c>
+      <c r="D601" t="s">
         <v>44</v>
       </c>
-      <c r="F600">
-        <v>628</v>
-      </c>
-      <c r="G600">
+      <c r="F601">
+        <v>608</v>
+      </c>
+      <c r="G601">
         <v>2500</v>
       </c>
-      <c r="H600">
-        <v>21</v>
-      </c>
-      <c r="I600">
-        <v>628</v>
-      </c>
-      <c r="J600">
-        <v>628</v>
-      </c>
-      <c r="K600">
-        <v>628</v>
-      </c>
-      <c r="L600">
-        <v>5</v>
-      </c>
-      <c r="M600">
-        <v>0</v>
-      </c>
-      <c r="N600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B601" t="s">
+      <c r="H601">
+        <v>21</v>
+      </c>
+      <c r="I601">
+        <v>608</v>
+      </c>
+      <c r="J601">
+        <v>608</v>
+      </c>
+      <c r="K601">
+        <v>608</v>
+      </c>
+      <c r="L601">
+        <v>4</v>
+      </c>
+      <c r="M601">
+        <v>0</v>
+      </c>
+      <c r="N601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>1054</v>
-      </c>
-      <c r="C601" t="s">
-        <v>65</v>
-      </c>
-      <c r="D601" t="s">
-        <v>66</v>
-      </c>
-      <c r="F601">
-        <v>4800</v>
-      </c>
-      <c r="G601">
-        <v>12000</v>
-      </c>
-      <c r="H601">
-        <v>21</v>
-      </c>
-      <c r="I601">
-        <v>4800</v>
-      </c>
-      <c r="J601">
-        <v>4800</v>
-      </c>
-      <c r="K601">
-        <v>4800</v>
-      </c>
-      <c r="L601">
-        <v>6</v>
-      </c>
-      <c r="M601">
-        <v>0</v>
-      </c>
-      <c r="N601">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A602">
-        <v>6459751458518</v>
       </c>
       <c r="B602" t="s">
         <v>1055</v>
@@ -28773,28 +28767,28 @@
         <v>53</v>
       </c>
       <c r="D602" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F602">
-        <v>608</v>
+        <v>6420</v>
       </c>
       <c r="G602">
-        <v>2500</v>
+        <v>18000</v>
       </c>
       <c r="H602">
         <v>21</v>
       </c>
       <c r="I602">
-        <v>608</v>
+        <v>6420</v>
       </c>
       <c r="J602">
-        <v>608</v>
+        <v>6420</v>
       </c>
       <c r="K602">
-        <v>608</v>
+        <v>5.8</v>
       </c>
       <c r="L602">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M602">
         <v>0</v>
@@ -28804,11 +28798,11 @@
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="A603">
+        <v>6989526542239</v>
+      </c>
+      <c r="B603" t="s">
         <v>1056</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1057</v>
       </c>
       <c r="C603" t="s">
         <v>53</v>
@@ -28817,25 +28811,25 @@
         <v>28</v>
       </c>
       <c r="F603">
-        <v>6420</v>
+        <v>2352</v>
       </c>
       <c r="G603">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="H603">
         <v>21</v>
       </c>
       <c r="I603">
-        <v>6420</v>
+        <v>2352</v>
       </c>
       <c r="J603">
-        <v>6420</v>
+        <v>2352</v>
       </c>
       <c r="K603">
-        <v>5.8</v>
+        <v>2352</v>
       </c>
       <c r="L603">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M603">
         <v>0</v>
@@ -28845,38 +28839,38 @@
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A604">
-        <v>6989526542239</v>
+      <c r="A604" t="s">
+        <v>1057</v>
       </c>
       <c r="B604" t="s">
         <v>1058</v>
       </c>
       <c r="C604" t="s">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="D604" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F604">
-        <v>2352</v>
+        <v>38376</v>
       </c>
       <c r="G604">
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="H604">
         <v>21</v>
       </c>
       <c r="I604">
-        <v>2352</v>
+        <v>0</v>
       </c>
       <c r="J604">
-        <v>2352</v>
+        <v>0</v>
       </c>
       <c r="K604">
-        <v>2352</v>
+        <v>0</v>
       </c>
       <c r="L604">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M604">
         <v>0</v>
@@ -28893,16 +28887,16 @@
         <v>1060</v>
       </c>
       <c r="C605" t="s">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="D605" t="s">
         <v>3</v>
       </c>
       <c r="F605">
-        <v>38376</v>
+        <v>17496</v>
       </c>
       <c r="G605">
-        <v>96000</v>
+        <v>34884</v>
       </c>
       <c r="H605">
         <v>21</v>
@@ -28917,7 +28911,7 @@
         <v>0</v>
       </c>
       <c r="L605">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M605">
         <v>0</v>
@@ -28934,16 +28928,16 @@
         <v>1062</v>
       </c>
       <c r="C606" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
       </c>
       <c r="F606">
-        <v>17496</v>
+        <v>5200</v>
       </c>
       <c r="G606">
-        <v>34884</v>
+        <v>7000</v>
       </c>
       <c r="H606">
         <v>21</v>
@@ -28958,7 +28952,7 @@
         <v>0</v>
       </c>
       <c r="L606">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M606">
         <v>0</v>
@@ -28981,10 +28975,10 @@
         <v>3</v>
       </c>
       <c r="F607">
-        <v>5200</v>
+        <v>2990</v>
       </c>
       <c r="G607">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="H607">
         <v>21</v>
@@ -28999,7 +28993,7 @@
         <v>0</v>
       </c>
       <c r="L607">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M607">
         <v>0</v>
@@ -29022,10 +29016,10 @@
         <v>3</v>
       </c>
       <c r="F608">
-        <v>2990</v>
+        <v>4131</v>
       </c>
       <c r="G608">
-        <v>5000</v>
+        <v>6800</v>
       </c>
       <c r="H608">
         <v>21</v>
@@ -29040,7 +29034,7 @@
         <v>0</v>
       </c>
       <c r="L608">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M608">
         <v>0</v>
@@ -29050,35 +29044,35 @@
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+      <c r="A609">
+        <v>153500580</v>
+      </c>
+      <c r="B609" t="s">
         <v>1067</v>
       </c>
-      <c r="B609" t="s">
-        <v>1068</v>
-      </c>
       <c r="C609" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="D609" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F609">
-        <v>4131</v>
+        <v>3934</v>
       </c>
       <c r="G609">
-        <v>6800</v>
+        <v>10000</v>
       </c>
       <c r="H609">
         <v>21</v>
       </c>
       <c r="I609">
-        <v>0</v>
+        <v>3934</v>
       </c>
       <c r="J609">
-        <v>0</v>
+        <v>3934</v>
       </c>
       <c r="K609">
-        <v>0</v>
+        <v>3934</v>
       </c>
       <c r="L609">
         <v>2</v>
@@ -29091,8 +29085,8 @@
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A610">
-        <v>153500580</v>
+      <c r="A610" t="s">
+        <v>1068</v>
       </c>
       <c r="B610" t="s">
         <v>1069</v>
@@ -29101,28 +29095,28 @@
         <v>65</v>
       </c>
       <c r="D610" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F610">
-        <v>3934</v>
+        <v>14171</v>
       </c>
       <c r="G610">
-        <v>10000</v>
+        <v>25500</v>
       </c>
       <c r="H610">
         <v>21</v>
       </c>
       <c r="I610">
-        <v>3934</v>
+        <v>14171</v>
       </c>
       <c r="J610">
-        <v>3934</v>
+        <v>14171</v>
       </c>
       <c r="K610">
-        <v>3934</v>
+        <v>14171</v>
       </c>
       <c r="L610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M610">
         <v>0</v>
@@ -29139,116 +29133,116 @@
         <v>1071</v>
       </c>
       <c r="C611" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D611" t="s">
+        <v>3</v>
+      </c>
+      <c r="F611">
+        <v>500</v>
+      </c>
+      <c r="G611">
+        <v>2000</v>
+      </c>
+      <c r="H611">
+        <v>21</v>
+      </c>
+      <c r="I611">
+        <v>500</v>
+      </c>
+      <c r="J611">
+        <v>500</v>
+      </c>
+      <c r="K611">
+        <v>500</v>
+      </c>
+      <c r="L611">
+        <v>559</v>
+      </c>
+      <c r="M611">
+        <v>0</v>
+      </c>
+      <c r="N611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>701575361335</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C612" t="s">
+        <v>513</v>
+      </c>
+      <c r="D612" t="s">
         <v>44</v>
       </c>
-      <c r="F611">
-        <v>14171</v>
-      </c>
-      <c r="G611">
-        <v>25500</v>
-      </c>
-      <c r="H611">
-        <v>21</v>
-      </c>
-      <c r="I611">
-        <v>14171</v>
-      </c>
-      <c r="J611">
-        <v>14171</v>
-      </c>
-      <c r="K611">
-        <v>14171</v>
-      </c>
-      <c r="L611">
+      <c r="E612" t="s">
+        <v>396</v>
+      </c>
+      <c r="F612">
+        <v>6467</v>
+      </c>
+      <c r="G612">
+        <v>12000</v>
+      </c>
+      <c r="H612">
+        <v>21</v>
+      </c>
+      <c r="I612">
+        <v>6467</v>
+      </c>
+      <c r="J612">
+        <v>6467</v>
+      </c>
+      <c r="K612">
+        <v>6467</v>
+      </c>
+      <c r="L612">
         <v>1</v>
       </c>
-      <c r="M611">
-        <v>0</v>
-      </c>
-      <c r="N611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B612" t="s">
+      <c r="M612">
+        <v>0</v>
+      </c>
+      <c r="N612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
         <v>1073</v>
-      </c>
-      <c r="C612" t="s">
-        <v>33</v>
-      </c>
-      <c r="D612" t="s">
-        <v>3</v>
-      </c>
-      <c r="F612">
-        <v>500</v>
-      </c>
-      <c r="G612">
-        <v>2000</v>
-      </c>
-      <c r="H612">
-        <v>21</v>
-      </c>
-      <c r="I612">
-        <v>500</v>
-      </c>
-      <c r="J612">
-        <v>500</v>
-      </c>
-      <c r="K612">
-        <v>500</v>
-      </c>
-      <c r="L612">
-        <v>559</v>
-      </c>
-      <c r="M612">
-        <v>0</v>
-      </c>
-      <c r="N612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A613">
-        <v>701575361335</v>
       </c>
       <c r="B613" t="s">
         <v>1074</v>
       </c>
       <c r="C613" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="D613" t="s">
-        <v>44</v>
-      </c>
-      <c r="E613" t="s">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="F613">
-        <v>6467</v>
+        <v>0</v>
       </c>
       <c r="G613">
-        <v>12000</v>
+        <v>49280</v>
       </c>
       <c r="H613">
         <v>21</v>
       </c>
       <c r="I613">
-        <v>6467</v>
+        <v>0</v>
       </c>
       <c r="J613">
-        <v>6467</v>
+        <v>0</v>
       </c>
       <c r="K613">
-        <v>6467</v>
+        <v>0</v>
       </c>
       <c r="L613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M613">
         <v>0</v>
@@ -29262,34 +29256,34 @@
         <v>1075</v>
       </c>
       <c r="B614" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C614" t="s">
-        <v>480</v>
+        <v>56</v>
       </c>
       <c r="D614" t="s">
         <v>3</v>
       </c>
       <c r="F614">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="G614">
-        <v>49280</v>
+        <v>35999</v>
       </c>
       <c r="H614">
         <v>21</v>
       </c>
       <c r="I614">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="J614">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="K614">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="L614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M614">
         <v>0</v>
@@ -29300,37 +29294,37 @@
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B615" t="s">
         <v>1077</v>
       </c>
       <c r="C615" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D615" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F615">
-        <v>17200</v>
+        <v>2170.5100000000002</v>
       </c>
       <c r="G615">
-        <v>35999</v>
+        <v>4500</v>
       </c>
       <c r="H615">
         <v>21</v>
       </c>
       <c r="I615">
-        <v>17200</v>
+        <v>2170.5</v>
       </c>
       <c r="J615">
-        <v>17200</v>
+        <v>2170.5</v>
       </c>
       <c r="K615">
-        <v>17200</v>
+        <v>2170.5</v>
       </c>
       <c r="L615">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M615">
         <v>0</v>
@@ -29353,25 +29347,25 @@
         <v>44</v>
       </c>
       <c r="F616">
-        <v>2170.5100000000002</v>
+        <v>3613.61</v>
       </c>
       <c r="G616">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="H616">
         <v>21</v>
       </c>
       <c r="I616">
-        <v>2170.5</v>
+        <v>3613.6</v>
       </c>
       <c r="J616">
-        <v>2170.5</v>
+        <v>3613.6</v>
       </c>
       <c r="K616">
-        <v>2170.5</v>
+        <v>3613.6</v>
       </c>
       <c r="L616">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M616">
         <v>0</v>
@@ -29393,75 +29387,34 @@
       <c r="D617" t="s">
         <v>44</v>
       </c>
+      <c r="E617" t="s">
+        <v>1082</v>
+      </c>
       <c r="F617">
-        <v>3613.61</v>
+        <v>4588</v>
       </c>
       <c r="G617">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="H617">
         <v>21</v>
       </c>
       <c r="I617">
-        <v>3613.6</v>
+        <v>4588</v>
       </c>
       <c r="J617">
-        <v>3613.6</v>
+        <v>4588</v>
       </c>
       <c r="K617">
-        <v>3613.6</v>
+        <v>4588</v>
       </c>
       <c r="L617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M617">
         <v>0</v>
       </c>
       <c r="N617">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C618" t="s">
-        <v>20</v>
-      </c>
-      <c r="D618" t="s">
-        <v>44</v>
-      </c>
-      <c r="E618" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F618">
-        <v>4588</v>
-      </c>
-      <c r="G618">
-        <v>13000</v>
-      </c>
-      <c r="H618">
-        <v>21</v>
-      </c>
-      <c r="I618">
-        <v>4588</v>
-      </c>
-      <c r="J618">
-        <v>4588</v>
-      </c>
-      <c r="K618">
-        <v>4588</v>
-      </c>
-      <c r="L618">
-        <v>1</v>
-      </c>
-      <c r="M618">
-        <v>0</v>
-      </c>
-      <c r="N618">
         <v>0</v>
       </c>
     </row>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5018C581-7DFD-43FC-A62F-D8B9800C313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{924326AD-F1BC-4EE9-B77F-67A910C73ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{74F83C54-5CC8-46B2-AB52-E3B82E5FF223}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{40F0C95F-4A51-40D6-BA5C-E469192208E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>AURICULAR BT TIME | COSULTAR COLORES DISPONIBLES</t>
+    <t>AURICULAR BT TIME | CONSULTAR COLORES DISPONIBLES</t>
   </si>
   <si>
     <t>AURICULAR BT ULTRAPODS MAX BLANCO</t>
@@ -3700,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D8BFD8-353F-4352-9944-344AA11BA01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DC98A-5447-4379-AAFA-A2A06CF3D4A1}">
   <dimension ref="A1:N627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7091,7 +7091,7 @@
         <v>13800</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>4962</v>
       </c>
       <c r="L185">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -18535,7 +18535,7 @@
         <v>20000</v>
       </c>
       <c r="L355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M355">
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>24000</v>
       </c>
       <c r="L372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M372">
         <v>0</v>
@@ -21694,7 +21694,7 @@
         <v>20000</v>
       </c>
       <c r="L430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M430">
         <v>0</v>
@@ -22456,7 +22456,7 @@
         <v>25000</v>
       </c>
       <c r="L448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M448">
         <v>0</v>
@@ -23684,7 +23684,7 @@
         <v>3864</v>
       </c>
       <c r="L477">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M477">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924326AD-F1BC-4EE9-B77F-67A910C73ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C15AE5-54B2-442D-9259-70DC5160399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{40F0C95F-4A51-40D6-BA5C-E469192208E6}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{ACB8DA73-FA38-4AC3-84EE-8726895F2E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3700,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DC98A-5447-4379-AAFA-A2A06CF3D4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7881CB4-712F-441A-AC21-1C5B3FA297CF}">
   <dimension ref="A1:N627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -14247,7 +14247,7 @@
         <v>2700</v>
       </c>
       <c r="L251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M251">
         <v>0</v>
@@ -21694,7 +21694,7 @@
         <v>20000</v>
       </c>
       <c r="L430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M430">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>110</v>
       </c>
       <c r="L502">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M502">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C15AE5-54B2-442D-9259-70DC5160399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B015216-4ED9-4FB4-9C0B-4C1FEFABE854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{ACB8DA73-FA38-4AC3-84EE-8726895F2E6B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{845F8447-6F3C-4C4C-9A9F-77107D1ECC04}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3700,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7881CB4-712F-441A-AC21-1C5B3FA297CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9361C15-667E-4649-BB5D-7A583E732273}">
   <dimension ref="A1:N627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9227,7 +9227,7 @@
         <v>1000</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>1800</v>
       </c>
       <c r="L153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -10613,7 +10613,7 @@
         <v>1300</v>
       </c>
       <c r="L165">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M233">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>4341.5</v>
       </c>
       <c r="L482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M482">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D704716C-3939-46D0-8236-EC984DF2B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13585C56-0C3F-40C3-84D0-420603FEE967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F72B002-E543-4BF7-8E6F-AF1AD83B0E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{272486BB-C81A-440B-8233-2DDC1D4A5CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3110,7 +3110,7 @@
     <t>RELOJ SMARTWATCH AITECH SW90</t>
   </si>
   <si>
-    <t>RELOJ SMART</t>
+    <t>RELOJSMART</t>
   </si>
   <si>
     <t>RELOJ SMARTWATCH ULTRA 9 BIG C/7 MALLA</t>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFAAC62-8C7E-4E4D-B170-C3D6105AFB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2783CBAB-82C4-42DA-B642-19E04646F47B}">
   <dimension ref="A1:N668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4154,7 +4154,7 @@
         <v>1100</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>1600</v>
       </c>
       <c r="L143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>704</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -15819,7 +15819,7 @@
         <v>21000</v>
       </c>
       <c r="L284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M284">
         <v>0</v>
@@ -15986,7 +15986,7 @@
         <v>5200</v>
       </c>
       <c r="L288">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -16053,7 +16053,7 @@
         <v>5124</v>
       </c>
       <c r="G290">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="H290">
         <v>21</v>
@@ -16639,7 +16639,7 @@
         <v>12500</v>
       </c>
       <c r="L304">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -19937,7 +19937,7 @@
         <v>20000</v>
       </c>
       <c r="L384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M384">
         <v>0</v>
@@ -20022,7 +20022,7 @@
         <v>20000</v>
       </c>
       <c r="L386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M386">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>20000</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M432">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>23000</v>
       </c>
       <c r="L478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M478">
         <v>0</v>
@@ -24963,7 +24963,7 @@
         <v>27136</v>
       </c>
       <c r="L503">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M503">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>6000</v>
       </c>
       <c r="L516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M516">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/HTML/novacenter/tienda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A328B940-13A0-4433-8799-613F58C4DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AADDCE2-4D23-4A70-9670-6E6BDA9F688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{241AFB9A-5AEA-4627-B6F8-FA7A54479CB9}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4B66518A-9AAF-4A58-8CC8-328C4E1C4326}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1205">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1496,7 +1496,7 @@
     <t>MULTICONSOLA</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSOLA GAME STICK PRO 4K +20 MIL JUEGOS </t>
+    <t>CONSOLA GAME STICK PRO 4K +20 MIL JUEGOS</t>
   </si>
   <si>
     <t>CONSOLA NESS CLASSIC RETRO</t>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76579D96-20DF-4763-9560-A2D578F3F1E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0EF7F0-7BD0-4564-9880-3D59037D33F5}">
   <dimension ref="A1:N686"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6788,7 +6788,7 @@
         <v>3905</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>21</v>
       </c>
       <c r="I102">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="J102">
         <v>15000</v>
@@ -15349,6 +15349,9 @@
       <c r="D270" t="s">
         <v>28</v>
       </c>
+      <c r="E270" t="s">
+        <v>110</v>
+      </c>
       <c r="F270">
         <v>29500</v>
       </c>
@@ -15974,13 +15977,13 @@
         <v>4500</v>
       </c>
       <c r="G285">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="H285">
         <v>21</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -16100,13 +16103,13 @@
         <v>5200</v>
       </c>
       <c r="G288">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="H288">
         <v>21</v>
       </c>
       <c r="I288">
-        <v>5200</v>
+        <v>7500</v>
       </c>
       <c r="J288">
         <v>5200</v>
@@ -16383,6 +16386,9 @@
       <c r="D295" t="s">
         <v>44</v>
       </c>
+      <c r="E295" t="s">
+        <v>110</v>
+      </c>
       <c r="F295">
         <v>2850</v>
       </c>
@@ -16393,7 +16399,7 @@
         <v>21</v>
       </c>
       <c r="I295">
-        <v>2850</v>
+        <v>6000</v>
       </c>
       <c r="J295">
         <v>2850</v>
@@ -16756,13 +16762,13 @@
         <v>12500</v>
       </c>
       <c r="G304">
-        <v>22500</v>
+        <v>38000</v>
       </c>
       <c r="H304">
         <v>21</v>
       </c>
       <c r="I304">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="J304">
         <v>12500</v>
@@ -20051,7 +20057,7 @@
         <v>66</v>
       </c>
       <c r="F384">
-        <v>8260</v>
+        <v>9187</v>
       </c>
       <c r="G384">
         <v>35000</v>
@@ -20060,16 +20066,16 @@
         <v>21</v>
       </c>
       <c r="I384">
-        <v>8260</v>
+        <v>9187</v>
       </c>
       <c r="J384">
-        <v>20000</v>
+        <v>9187</v>
       </c>
       <c r="K384">
         <v>20000</v>
       </c>
       <c r="L384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M384">
         <v>0</v>
@@ -20675,7 +20681,7 @@
         <v>66</v>
       </c>
       <c r="F399">
-        <v>10023</v>
+        <v>9555</v>
       </c>
       <c r="G399">
         <v>35000</v>
@@ -20684,16 +20690,16 @@
         <v>21</v>
       </c>
       <c r="I399">
-        <v>10023</v>
+        <v>9555</v>
       </c>
       <c r="J399">
-        <v>20000</v>
+        <v>9555</v>
       </c>
       <c r="K399">
         <v>20000</v>
       </c>
       <c r="L399">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M399">
         <v>0</v>
@@ -21059,7 +21065,7 @@
         <v>247</v>
       </c>
       <c r="F408">
-        <v>11115</v>
+        <v>9555</v>
       </c>
       <c r="G408">
         <v>35000</v>
@@ -21068,16 +21074,16 @@
         <v>21</v>
       </c>
       <c r="I408">
-        <v>11115</v>
+        <v>9555</v>
       </c>
       <c r="J408">
-        <v>20000</v>
+        <v>9555</v>
       </c>
       <c r="K408">
         <v>20000</v>
       </c>
       <c r="L408">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M408">
         <v>0</v>
@@ -22104,11 +22110,11 @@
       <c r="D433" t="s">
         <v>66</v>
       </c>
-      <c r="E433">
-        <v>13409</v>
+      <c r="E433" t="s">
+        <v>168</v>
       </c>
       <c r="F433">
-        <v>13409</v>
+        <v>11270</v>
       </c>
       <c r="G433">
         <v>42000</v>
@@ -22117,16 +22123,16 @@
         <v>21</v>
       </c>
       <c r="I433">
-        <v>13409</v>
+        <v>11270</v>
       </c>
       <c r="J433">
-        <v>25000</v>
+        <v>21011.8</v>
       </c>
       <c r="K433">
         <v>24000</v>
       </c>
       <c r="L433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M433">
         <v>0</v>
@@ -22234,7 +22240,7 @@
         <v>168</v>
       </c>
       <c r="F436">
-        <v>9945</v>
+        <v>8085</v>
       </c>
       <c r="G436">
         <v>35000</v>
@@ -22243,16 +22249,16 @@
         <v>21</v>
       </c>
       <c r="I436">
-        <v>9945</v>
+        <v>8085</v>
       </c>
       <c r="J436">
-        <v>20000</v>
+        <v>8085</v>
       </c>
       <c r="K436">
         <v>20000</v>
       </c>
       <c r="L436">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M436">
         <v>0</v>
@@ -23972,7 +23978,7 @@
         <v>863</v>
       </c>
       <c r="F477">
-        <v>14756</v>
+        <v>12150</v>
       </c>
       <c r="G477">
         <v>42000</v>
@@ -23981,16 +23987,16 @@
         <v>21</v>
       </c>
       <c r="I477">
-        <v>14756</v>
+        <v>12150</v>
       </c>
       <c r="J477">
-        <v>26000</v>
+        <v>12150</v>
       </c>
       <c r="K477">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M477">
         <v>0</v>
@@ -24016,7 +24022,7 @@
         <v>863</v>
       </c>
       <c r="F478">
-        <v>13455</v>
+        <v>12250</v>
       </c>
       <c r="G478">
         <v>45000</v>
@@ -24025,16 +24031,16 @@
         <v>21</v>
       </c>
       <c r="I478">
-        <v>13455</v>
+        <v>12250</v>
       </c>
       <c r="J478">
-        <v>23000</v>
+        <v>12250</v>
       </c>
       <c r="K478">
         <v>23000</v>
       </c>
       <c r="L478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M478">
         <v>0</v>
@@ -25203,13 +25209,13 @@
         <v>3864</v>
       </c>
       <c r="G506">
+        <v>14000</v>
+      </c>
+      <c r="H506">
+        <v>21</v>
+      </c>
+      <c r="I506">
         <v>10000</v>
-      </c>
-      <c r="H506">
-        <v>21</v>
-      </c>
-      <c r="I506">
-        <v>3864</v>
       </c>
       <c r="J506">
         <v>3864</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AADDCE2-4D23-4A70-9670-6E6BDA9F688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A6502B-227F-4FB7-80DB-F70AEE4C8B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4B66518A-9AAF-4A58-8CC8-328C4E1C4326}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B61149D7-86BF-4AEE-AAE1-6FCBC7F0A232}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0EF7F0-7BD0-4564-9880-3D59037D33F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D21913-6130-4094-8674-C15F50E6DEEC}">
   <dimension ref="A1:N686"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8282,10 +8282,10 @@
         <v>21</v>
       </c>
       <c r="I102">
-        <v>16000</v>
+        <v>7995</v>
       </c>
       <c r="J102">
-        <v>15000</v>
+        <v>7995</v>
       </c>
       <c r="K102">
         <v>15000</v>
@@ -8329,7 +8329,7 @@
         <v>2099</v>
       </c>
       <c r="K103">
-        <v>2099</v>
+        <v>4500</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>2762</v>
       </c>
       <c r="K111">
-        <v>2762</v>
+        <v>8000</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -8713,7 +8713,7 @@
         <v>4420</v>
       </c>
       <c r="K112">
-        <v>4420</v>
+        <v>8000</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -8742,7 +8742,7 @@
         <v>1193</v>
       </c>
       <c r="G113">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="H113">
         <v>21</v>
@@ -8754,7 +8754,7 @@
         <v>1193</v>
       </c>
       <c r="K113">
-        <v>1193</v>
+        <v>15000</v>
       </c>
       <c r="L113">
         <v>1</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE19D7CF-85B9-4206-8D6C-76105C2818CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3C494A-97A7-4ADF-8229-ACE85CC035D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{2096E420-4860-4212-AB9E-83F6632A3EE8}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4A228F81-C47A-494D-AFEB-4EF77D4AE805}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="1244">
   <si>
     <t>CODIGO</t>
   </si>
@@ -2993,16 +2993,124 @@
     <t>PIZARRA LCD 8.5 PLG</t>
   </si>
   <si>
+    <t>CARGAE13</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E13</t>
+  </si>
+  <si>
+    <t>CELULAR Y COMPUTACION &gt; PLACA DE CARGA</t>
+  </si>
+  <si>
+    <t>IMPORTCELL</t>
+  </si>
+  <si>
+    <t>CARGAE20</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E20</t>
+  </si>
+  <si>
+    <t>CARGAE22</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E22</t>
+  </si>
+  <si>
+    <t>CARGAE32</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E32</t>
+  </si>
+  <si>
+    <t>CARGAE40</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E40</t>
+  </si>
+  <si>
+    <t>CARGAE6PLAY</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E6 PLAY</t>
+  </si>
+  <si>
+    <t>CARGAE6I</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E6I</t>
+  </si>
+  <si>
+    <t>CARGAE6S</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E6S</t>
+  </si>
+  <si>
+    <t>CARGAE7</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E7</t>
+  </si>
+  <si>
+    <t>CARGAE7PLUS</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E7 PLUS</t>
+  </si>
+  <si>
+    <t>CARGAE7POW</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO E7 POWER</t>
+  </si>
+  <si>
+    <t>CARGAG13</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO G13</t>
+  </si>
+  <si>
+    <t>CARGAG20</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO G20</t>
+  </si>
+  <si>
+    <t>CARGAG23</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO G23</t>
+  </si>
+  <si>
+    <t>CARGAG8</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO G8</t>
+  </si>
+  <si>
+    <t>CARGAG8PLUS</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO G8 PLUS</t>
+  </si>
+  <si>
+    <t>CARGAONE</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO ONE</t>
+  </si>
+  <si>
+    <t>CARGAONEV</t>
+  </si>
+  <si>
+    <t>PLACA DE CARGA MOTO ONE VISION</t>
+  </si>
+  <si>
     <t>CARGAA01CR</t>
   </si>
   <si>
     <t>PLACA DE CARGA SAMS A01 CORE</t>
-  </si>
-  <si>
-    <t>CELULAR Y COMPUTACION &gt; PLACA DE CARGA</t>
-  </si>
-  <si>
-    <t>IMPORTCELL</t>
   </si>
   <si>
     <t>CARGAA03</t>
@@ -4030,12 +4138,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DB8C83-561B-4CE2-BB88-7BB0A7F7050B}">
-  <dimension ref="A1:N687"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08FFFD4-339C-4D16-B7E0-E2FDD6DE3EEC}">
+  <dimension ref="A1:N705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8261,10 +8367,10 @@
         <v>14000</v>
       </c>
       <c r="K101">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9190,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -12929,7 +13035,7 @@
         <v>1929</v>
       </c>
       <c r="L212">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M212">
         <v>0</v>
@@ -15713,7 +15819,7 @@
         <v>2700</v>
       </c>
       <c r="L278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M278">
         <v>0</v>
@@ -21009,7 +21115,7 @@
         <v>20000</v>
       </c>
       <c r="L406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M406">
         <v>0</v>
@@ -27124,10 +27230,10 @@
         <v>988</v>
       </c>
       <c r="E552" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F552">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="G552">
         <v>22000</v>
@@ -27136,10 +27242,10 @@
         <v>21</v>
       </c>
       <c r="I552">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="J552">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="K552">
         <v>10000</v>
@@ -27168,25 +27274,25 @@
         <v>988</v>
       </c>
       <c r="E553" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F553">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="G553">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="H553">
         <v>21</v>
       </c>
       <c r="I553">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="J553">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="K553">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L553">
         <v>1</v>
@@ -27212,10 +27318,10 @@
         <v>988</v>
       </c>
       <c r="E554" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F554">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="G554">
         <v>22000</v>
@@ -27224,10 +27330,10 @@
         <v>21</v>
       </c>
       <c r="I554">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="J554">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="K554">
         <v>10000</v>
@@ -27256,10 +27362,10 @@
         <v>988</v>
       </c>
       <c r="E555" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F555">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="G555">
         <v>22000</v>
@@ -27268,10 +27374,10 @@
         <v>21</v>
       </c>
       <c r="I555">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="J555">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K555">
         <v>10000</v>
@@ -27300,25 +27406,25 @@
         <v>988</v>
       </c>
       <c r="E556" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F556">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G556">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="H556">
         <v>21</v>
       </c>
       <c r="I556">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="J556">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K556">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L556">
         <v>1</v>
@@ -27344,25 +27450,25 @@
         <v>988</v>
       </c>
       <c r="E557" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F557">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G557">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="H557">
         <v>21</v>
       </c>
       <c r="I557">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J557">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K557">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L557">
         <v>1</v>
@@ -27388,25 +27494,25 @@
         <v>988</v>
       </c>
       <c r="E558" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F558">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="G558">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="H558">
         <v>21</v>
       </c>
       <c r="I558">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="J558">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K558">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L558">
         <v>1</v>
@@ -27432,25 +27538,25 @@
         <v>988</v>
       </c>
       <c r="E559" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F559">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G559">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="H559">
         <v>21</v>
       </c>
       <c r="I559">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="J559">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K559">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L559">
         <v>1</v>
@@ -27476,10 +27582,10 @@
         <v>988</v>
       </c>
       <c r="E560" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F560">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="G560">
         <v>22000</v>
@@ -27488,10 +27594,10 @@
         <v>21</v>
       </c>
       <c r="I560">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="J560">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K560">
         <v>10000</v>
@@ -27520,10 +27626,10 @@
         <v>988</v>
       </c>
       <c r="E561" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F561">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="G561">
         <v>22000</v>
@@ -27532,10 +27638,10 @@
         <v>21</v>
       </c>
       <c r="I561">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="J561">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K561">
         <v>10000</v>
@@ -27564,10 +27670,10 @@
         <v>988</v>
       </c>
       <c r="E562" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F562">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G562">
         <v>22000</v>
@@ -27576,10 +27682,10 @@
         <v>21</v>
       </c>
       <c r="I562">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="J562">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K562">
         <v>10000</v>
@@ -27608,10 +27714,10 @@
         <v>988</v>
       </c>
       <c r="E563" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F563">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G563">
         <v>22000</v>
@@ -27620,10 +27726,10 @@
         <v>21</v>
       </c>
       <c r="I563">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="J563">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K563">
         <v>10000</v>
@@ -27652,10 +27758,10 @@
         <v>988</v>
       </c>
       <c r="E564" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F564">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G564">
         <v>22000</v>
@@ -27664,10 +27770,10 @@
         <v>21</v>
       </c>
       <c r="I564">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="J564">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K564">
         <v>10000</v>
@@ -27696,10 +27802,10 @@
         <v>988</v>
       </c>
       <c r="E565" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F565">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G565">
         <v>22000</v>
@@ -27708,10 +27814,10 @@
         <v>21</v>
       </c>
       <c r="I565">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="J565">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K565">
         <v>10000</v>
@@ -27740,10 +27846,10 @@
         <v>988</v>
       </c>
       <c r="E566" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F566">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G566">
         <v>22000</v>
@@ -27752,10 +27858,10 @@
         <v>21</v>
       </c>
       <c r="I566">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="J566">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K566">
         <v>10000</v>
@@ -27784,10 +27890,10 @@
         <v>988</v>
       </c>
       <c r="E567" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F567">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="G567">
         <v>22000</v>
@@ -27796,10 +27902,10 @@
         <v>21</v>
       </c>
       <c r="I567">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="J567">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="K567">
         <v>10000</v>
@@ -27828,10 +27934,10 @@
         <v>988</v>
       </c>
       <c r="E568" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F568">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G568">
         <v>22000</v>
@@ -27840,10 +27946,10 @@
         <v>21</v>
       </c>
       <c r="I568">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="J568">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K568">
         <v>10000</v>
@@ -27872,10 +27978,10 @@
         <v>988</v>
       </c>
       <c r="E569" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F569">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G569">
         <v>22000</v>
@@ -27884,10 +27990,10 @@
         <v>21</v>
       </c>
       <c r="I569">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J569">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K569">
         <v>10000</v>
@@ -27903,38 +28009,41 @@
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A570">
-        <v>723540565531</v>
+      <c r="A570" t="s">
+        <v>1023</v>
       </c>
       <c r="B570" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C570" t="s">
-        <v>20</v>
+        <v>987</v>
       </c>
       <c r="D570" t="s">
-        <v>28</v>
+        <v>988</v>
+      </c>
+      <c r="E570" t="s">
+        <v>168</v>
       </c>
       <c r="F570">
-        <v>1372</v>
+        <v>2900</v>
       </c>
       <c r="G570">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="H570">
         <v>21</v>
       </c>
       <c r="I570">
-        <v>1372</v>
+        <v>2900</v>
       </c>
       <c r="J570">
-        <v>1372</v>
+        <v>2900</v>
       </c>
       <c r="K570">
-        <v>1372</v>
+        <v>10000</v>
       </c>
       <c r="L570">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M570">
         <v>0</v>
@@ -27944,41 +28053,41 @@
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A571">
-        <v>7798371200725</v>
+      <c r="A571" t="s">
+        <v>1025</v>
       </c>
       <c r="B571" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C571" t="s">
-        <v>56</v>
+        <v>987</v>
       </c>
       <c r="D571" t="s">
-        <v>57</v>
+        <v>988</v>
       </c>
       <c r="E571" t="s">
-        <v>1025</v>
+        <v>168</v>
       </c>
       <c r="F571">
-        <v>9400</v>
+        <v>1800</v>
       </c>
       <c r="G571">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="H571">
         <v>21</v>
       </c>
       <c r="I571">
-        <v>9400</v>
+        <v>1800</v>
       </c>
       <c r="J571">
-        <v>9400</v>
+        <v>1800</v>
       </c>
       <c r="K571">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="L571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M571">
         <v>0</v>
@@ -27988,41 +28097,41 @@
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A572">
-        <v>7798371200749</v>
+      <c r="A572" t="s">
+        <v>1027</v>
       </c>
       <c r="B572" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C572" t="s">
-        <v>56</v>
+        <v>987</v>
       </c>
       <c r="D572" t="s">
-        <v>57</v>
+        <v>988</v>
       </c>
       <c r="E572" t="s">
-        <v>1025</v>
+        <v>168</v>
       </c>
       <c r="F572">
-        <v>18700</v>
+        <v>1800</v>
       </c>
       <c r="G572">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="H572">
         <v>21</v>
       </c>
       <c r="I572">
-        <v>18700</v>
+        <v>1800</v>
       </c>
       <c r="J572">
-        <v>18700</v>
+        <v>1800</v>
       </c>
       <c r="K572">
-        <v>18700</v>
+        <v>10000</v>
       </c>
       <c r="L572">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M572">
         <v>0</v>
@@ -28033,34 +28142,37 @@
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B573" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C573" t="s">
-        <v>471</v>
+        <v>987</v>
       </c>
       <c r="D573" t="s">
-        <v>185</v>
+        <v>988</v>
+      </c>
+      <c r="E573" t="s">
+        <v>168</v>
       </c>
       <c r="F573">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="G573">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="H573">
         <v>21</v>
       </c>
       <c r="I573">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="J573">
-        <v>5800</v>
+        <v>1700</v>
       </c>
       <c r="K573">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="L573">
         <v>1</v>
@@ -28073,35 +28185,38 @@
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A574">
-        <v>1134338992788</v>
+      <c r="A574" t="s">
+        <v>1031</v>
       </c>
       <c r="B574" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C574" t="s">
-        <v>471</v>
+        <v>987</v>
       </c>
       <c r="D574" t="s">
-        <v>28</v>
+        <v>988</v>
+      </c>
+      <c r="E574" t="s">
+        <v>168</v>
       </c>
       <c r="F574">
-        <v>11407</v>
+        <v>1800</v>
       </c>
       <c r="G574">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="H574">
         <v>21</v>
       </c>
       <c r="I574">
-        <v>11407</v>
+        <v>1800</v>
       </c>
       <c r="J574">
-        <v>11407</v>
+        <v>1800</v>
       </c>
       <c r="K574">
-        <v>11407</v>
+        <v>8000</v>
       </c>
       <c r="L574">
         <v>1</v>
@@ -28115,34 +28230,37 @@
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B575" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C575" t="s">
-        <v>471</v>
+        <v>987</v>
       </c>
       <c r="D575" t="s">
-        <v>28</v>
+        <v>988</v>
+      </c>
+      <c r="E575" t="s">
+        <v>168</v>
       </c>
       <c r="F575">
-        <v>8229</v>
+        <v>2200</v>
       </c>
       <c r="G575">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="H575">
         <v>21</v>
       </c>
       <c r="I575">
-        <v>8229</v>
+        <v>2200</v>
       </c>
       <c r="J575">
-        <v>8229</v>
+        <v>2200</v>
       </c>
       <c r="K575">
-        <v>8229</v>
+        <v>10000</v>
       </c>
       <c r="L575">
         <v>1</v>
@@ -28156,37 +28274,40 @@
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B576" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C576" t="s">
-        <v>471</v>
+        <v>987</v>
       </c>
       <c r="D576" t="s">
-        <v>28</v>
+        <v>988</v>
+      </c>
+      <c r="E576" t="s">
+        <v>168</v>
       </c>
       <c r="F576">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="G576">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="H576">
         <v>21</v>
       </c>
       <c r="I576">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="J576">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="K576">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="L576">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M576">
         <v>0</v>
@@ -28196,41 +28317,41 @@
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A577">
-        <v>8430422206056</v>
+      <c r="A577" t="s">
+        <v>1037</v>
       </c>
       <c r="B577" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C577" t="s">
-        <v>471</v>
+        <v>987</v>
       </c>
       <c r="D577" t="s">
-        <v>3</v>
+        <v>988</v>
       </c>
       <c r="E577" t="s">
-        <v>1035</v>
+        <v>168</v>
       </c>
       <c r="F577">
-        <v>5950</v>
+        <v>2000</v>
       </c>
       <c r="G577">
+        <v>22000</v>
+      </c>
+      <c r="H577">
+        <v>21</v>
+      </c>
+      <c r="I577">
+        <v>2000</v>
+      </c>
+      <c r="J577">
+        <v>2000</v>
+      </c>
+      <c r="K577">
         <v>10000</v>
       </c>
-      <c r="H577">
-        <v>21</v>
-      </c>
-      <c r="I577">
-        <v>5950</v>
-      </c>
-      <c r="J577">
-        <v>5950</v>
-      </c>
-      <c r="K577">
-        <v>5950</v>
-      </c>
       <c r="L577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M577">
         <v>0</v>
@@ -28241,34 +28362,37 @@
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B578" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C578" t="s">
-        <v>53</v>
+        <v>987</v>
       </c>
       <c r="D578" t="s">
-        <v>17</v>
+        <v>988</v>
+      </c>
+      <c r="E578" t="s">
+        <v>168</v>
       </c>
       <c r="F578">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="G578">
-        <v>2600</v>
+        <v>22000</v>
       </c>
       <c r="H578">
         <v>21</v>
       </c>
       <c r="I578">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="J578">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="K578">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="L578">
         <v>1</v>
@@ -28282,37 +28406,40 @@
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B579" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C579" t="s">
-        <v>69</v>
+        <v>987</v>
       </c>
       <c r="D579" t="s">
-        <v>44</v>
+        <v>988</v>
+      </c>
+      <c r="E579" t="s">
+        <v>168</v>
       </c>
       <c r="F579">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="G579">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="H579">
         <v>21</v>
       </c>
       <c r="I579">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J579">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="K579">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L579">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M579">
         <v>0</v>
@@ -28323,37 +28450,40 @@
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B580" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C580" t="s">
-        <v>577</v>
+        <v>987</v>
       </c>
       <c r="D580" t="s">
-        <v>3</v>
+        <v>988</v>
+      </c>
+      <c r="E580" t="s">
+        <v>168</v>
       </c>
       <c r="F580">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="G580">
-        <v>4750</v>
+        <v>22000</v>
       </c>
       <c r="H580">
         <v>21</v>
       </c>
       <c r="I580">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J580">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K580">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L580">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M580">
         <v>0</v>
@@ -28364,37 +28494,40 @@
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B581" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C581" t="s">
-        <v>372</v>
+        <v>987</v>
       </c>
       <c r="D581" t="s">
-        <v>3</v>
+        <v>988</v>
+      </c>
+      <c r="E581" t="s">
+        <v>168</v>
       </c>
       <c r="F581">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G581">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="H581">
         <v>21</v>
       </c>
       <c r="I581">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J581">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K581">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L581">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M581">
         <v>0</v>
@@ -28405,37 +28538,40 @@
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B582" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C582" t="s">
-        <v>652</v>
+        <v>987</v>
       </c>
       <c r="D582" t="s">
-        <v>28</v>
+        <v>988</v>
+      </c>
+      <c r="E582" t="s">
+        <v>168</v>
       </c>
       <c r="F582">
-        <v>14549</v>
+        <v>2400</v>
       </c>
       <c r="G582">
-        <v>38000</v>
+        <v>22000</v>
       </c>
       <c r="H582">
         <v>21</v>
       </c>
       <c r="I582">
-        <v>14549</v>
+        <v>2400</v>
       </c>
       <c r="J582">
-        <v>14549</v>
+        <v>2400</v>
       </c>
       <c r="K582">
-        <v>14549</v>
+        <v>10000</v>
       </c>
       <c r="L582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M582">
         <v>0</v>
@@ -28446,37 +28582,40 @@
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B583" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C583" t="s">
-        <v>652</v>
+        <v>987</v>
       </c>
       <c r="D583" t="s">
-        <v>28</v>
+        <v>988</v>
+      </c>
+      <c r="E583" t="s">
+        <v>168</v>
       </c>
       <c r="F583">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="G583">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="H583">
         <v>21</v>
       </c>
       <c r="I583">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="J583">
-        <v>13500</v>
+        <v>2000</v>
       </c>
       <c r="K583">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M583">
         <v>0</v>
@@ -28487,34 +28626,37 @@
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B584" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C584" t="s">
-        <v>652</v>
+        <v>987</v>
       </c>
       <c r="D584" t="s">
-        <v>57</v>
+        <v>988</v>
+      </c>
+      <c r="E584" t="s">
+        <v>168</v>
       </c>
       <c r="F584">
-        <v>16100</v>
+        <v>2000</v>
       </c>
       <c r="G584">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="H584">
         <v>21</v>
       </c>
       <c r="I584">
-        <v>16100</v>
+        <v>2000</v>
       </c>
       <c r="J584">
-        <v>16100</v>
+        <v>2000</v>
       </c>
       <c r="K584">
-        <v>16100</v>
+        <v>10000</v>
       </c>
       <c r="L584">
         <v>1</v>
@@ -28527,38 +28669,41 @@
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A585">
-        <v>6971131410669</v>
+      <c r="A585" t="s">
+        <v>1053</v>
       </c>
       <c r="B585" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C585" t="s">
-        <v>652</v>
+        <v>987</v>
       </c>
       <c r="D585" t="s">
-        <v>44</v>
+        <v>988</v>
+      </c>
+      <c r="E585" t="s">
+        <v>168</v>
       </c>
       <c r="F585">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G585">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="H585">
         <v>21</v>
       </c>
       <c r="I585">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="J585">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="K585">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L585">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M585">
         <v>0</v>
@@ -28568,38 +28713,38 @@
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A586">
-        <v>7799061002889</v>
+      <c r="A586" t="s">
+        <v>1055</v>
       </c>
       <c r="B586" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="C586" t="s">
-        <v>652</v>
+        <v>987</v>
       </c>
       <c r="D586" t="s">
-        <v>28</v>
+        <v>988</v>
       </c>
       <c r="E586" t="s">
-        <v>1052</v>
+        <v>168</v>
       </c>
       <c r="F586">
-        <v>6014</v>
+        <v>2000</v>
       </c>
       <c r="G586">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="H586">
         <v>21</v>
       </c>
       <c r="I586">
-        <v>6014</v>
+        <v>2000</v>
       </c>
       <c r="J586">
-        <v>6014</v>
+        <v>2000</v>
       </c>
       <c r="K586">
-        <v>6014</v>
+        <v>10000</v>
       </c>
       <c r="L586">
         <v>1</v>
@@ -28612,32 +28757,41 @@
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1057</v>
+      </c>
       <c r="B587" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="C587" t="s">
-        <v>367</v>
+        <v>987</v>
+      </c>
+      <c r="D587" t="s">
+        <v>988</v>
+      </c>
+      <c r="E587" t="s">
+        <v>168</v>
       </c>
       <c r="F587">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G587">
-        <v>200</v>
+        <v>22000</v>
       </c>
       <c r="H587">
         <v>21</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J587">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K587">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M587">
         <v>0</v>
@@ -28648,37 +28802,37 @@
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>7891122335568</v>
+        <v>723540565531</v>
       </c>
       <c r="B588" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="C588" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D588" t="s">
         <v>28</v>
       </c>
       <c r="F588">
-        <v>1213</v>
+        <v>1372</v>
       </c>
       <c r="G588">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H588">
         <v>21</v>
       </c>
       <c r="I588">
-        <v>1213</v>
+        <v>1372</v>
       </c>
       <c r="J588">
-        <v>1213</v>
+        <v>1372</v>
       </c>
       <c r="K588">
-        <v>1213</v>
+        <v>1372</v>
       </c>
       <c r="L588">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M588">
         <v>0</v>
@@ -28689,37 +28843,40 @@
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>778145003222</v>
+        <v>7798371200725</v>
       </c>
       <c r="B589" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C589" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D589" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1061</v>
       </c>
       <c r="F589">
-        <v>1765</v>
+        <v>9400</v>
       </c>
       <c r="G589">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="H589">
         <v>21</v>
       </c>
       <c r="I589">
-        <v>1765</v>
+        <v>9400</v>
       </c>
       <c r="J589">
-        <v>1765</v>
+        <v>9400</v>
       </c>
       <c r="K589">
-        <v>1765</v>
+        <v>9400</v>
       </c>
       <c r="L589">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M589">
         <v>0</v>
@@ -28730,37 +28887,40 @@
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>672852519025</v>
+        <v>7798371200749</v>
       </c>
       <c r="B590" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="C590" t="s">
-        <v>541</v>
+        <v>56</v>
       </c>
       <c r="D590" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1061</v>
       </c>
       <c r="F590">
-        <v>3400</v>
+        <v>18700</v>
       </c>
       <c r="G590">
-        <v>7900</v>
+        <v>28000</v>
       </c>
       <c r="H590">
         <v>21</v>
       </c>
       <c r="I590">
-        <v>3400</v>
+        <v>18700</v>
       </c>
       <c r="J590">
-        <v>3400</v>
+        <v>18700</v>
       </c>
       <c r="K590">
-        <v>3400</v>
+        <v>18700</v>
       </c>
       <c r="L590">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M590">
         <v>0</v>
@@ -28771,37 +28931,37 @@
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B591" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="C591" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="D591" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="F591">
-        <v>1971</v>
+        <v>5800</v>
       </c>
       <c r="G591">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="H591">
         <v>21</v>
       </c>
       <c r="I591">
-        <v>1971</v>
+        <v>5800</v>
       </c>
       <c r="J591">
-        <v>1971</v>
+        <v>5800</v>
       </c>
       <c r="K591">
-        <v>1971</v>
+        <v>5800</v>
       </c>
       <c r="L591">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M591">
         <v>0</v>
@@ -28811,38 +28971,38 @@
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>1059</v>
+      <c r="A592">
+        <v>1134338992788</v>
       </c>
       <c r="B592" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="C592" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="D592" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F592">
-        <v>1800</v>
+        <v>11407</v>
       </c>
       <c r="G592">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="H592">
         <v>21</v>
       </c>
       <c r="I592">
-        <v>1800</v>
+        <v>11407</v>
       </c>
       <c r="J592">
-        <v>1800</v>
+        <v>11407</v>
       </c>
       <c r="K592">
-        <v>1800</v>
+        <v>11407</v>
       </c>
       <c r="L592">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M592">
         <v>0</v>
@@ -28852,23 +29012,20 @@
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A593">
-        <v>7799135011984</v>
+      <c r="A593" t="s">
+        <v>1066</v>
       </c>
       <c r="B593" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="C593" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="D593" t="s">
-        <v>66</v>
-      </c>
-      <c r="E593" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F593">
-        <v>8058</v>
+        <v>8229</v>
       </c>
       <c r="G593">
         <v>20000</v>
@@ -28877,13 +29034,13 @@
         <v>21</v>
       </c>
       <c r="I593">
-        <v>8058</v>
+        <v>8229</v>
       </c>
       <c r="J593">
-        <v>8058</v>
+        <v>8229</v>
       </c>
       <c r="K593">
-        <v>8058</v>
+        <v>8229</v>
       </c>
       <c r="L593">
         <v>1</v>
@@ -28897,40 +29054,37 @@
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="B594" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="C594" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="D594" t="s">
-        <v>17</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1064</v>
+        <v>28</v>
       </c>
       <c r="F594">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="G594">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="H594">
         <v>21</v>
       </c>
       <c r="I594">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="J594">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="K594">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="L594">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M594">
         <v>0</v>
@@ -28941,40 +29095,40 @@
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>7799135011861</v>
+        <v>8430422206056</v>
       </c>
       <c r="B595" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="C595" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="D595" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E595" t="s">
-        <v>67</v>
+        <v>1071</v>
       </c>
       <c r="F595">
-        <v>8176</v>
+        <v>5950</v>
       </c>
       <c r="G595">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="H595">
         <v>21</v>
       </c>
       <c r="I595">
-        <v>8176</v>
+        <v>5950</v>
       </c>
       <c r="J595">
-        <v>8176</v>
+        <v>5950</v>
       </c>
       <c r="K595">
-        <v>8176</v>
+        <v>5950</v>
       </c>
       <c r="L595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M595">
         <v>0</v>
@@ -28985,37 +29139,37 @@
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B596" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="C596" t="s">
-        <v>315</v>
+        <v>53</v>
       </c>
       <c r="D596" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F596">
-        <v>8999</v>
+        <v>900</v>
       </c>
       <c r="G596">
-        <v>32000</v>
+        <v>2600</v>
       </c>
       <c r="H596">
         <v>21</v>
       </c>
       <c r="I596">
-        <v>8999</v>
+        <v>900</v>
       </c>
       <c r="J596">
-        <v>8999</v>
+        <v>900</v>
       </c>
       <c r="K596">
-        <v>8999</v>
+        <v>900</v>
       </c>
       <c r="L596">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M596">
         <v>0</v>
@@ -29025,38 +29179,38 @@
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A597">
-        <v>7798347600771</v>
+      <c r="A597" t="s">
+        <v>1074</v>
       </c>
       <c r="B597" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="C597" t="s">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="D597" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F597">
-        <v>7800</v>
+        <v>500</v>
       </c>
       <c r="G597">
-        <v>16000</v>
+        <v>1500</v>
       </c>
       <c r="H597">
         <v>21</v>
       </c>
       <c r="I597">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="J597">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="K597">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="L597">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M597">
         <v>0</v>
@@ -29066,38 +29220,38 @@
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A598">
-        <v>6975842015761</v>
+      <c r="A598" t="s">
+        <v>1076</v>
       </c>
       <c r="B598" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="C598" t="s">
-        <v>255</v>
+        <v>577</v>
       </c>
       <c r="D598" t="s">
         <v>3</v>
       </c>
       <c r="F598">
-        <v>9500</v>
+        <v>1900</v>
       </c>
       <c r="G598">
-        <v>23500</v>
+        <v>4750</v>
       </c>
       <c r="H598">
         <v>21</v>
       </c>
       <c r="I598">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="J598">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="K598">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="L598">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M598">
         <v>0</v>
@@ -29107,38 +29261,38 @@
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A599">
-        <v>7798347600801</v>
+      <c r="A599" t="s">
+        <v>1078</v>
       </c>
       <c r="B599" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="C599" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="D599" t="s">
         <v>3</v>
       </c>
       <c r="F599">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G599">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="H599">
         <v>21</v>
       </c>
       <c r="I599">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J599">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="K599">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="L599">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M599">
         <v>0</v>
@@ -29149,37 +29303,37 @@
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="B600" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="C600" t="s">
-        <v>378</v>
+        <v>652</v>
       </c>
       <c r="D600" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F600">
-        <v>9508</v>
+        <v>14549</v>
       </c>
       <c r="G600">
-        <v>24600</v>
+        <v>38000</v>
       </c>
       <c r="H600">
         <v>21</v>
       </c>
       <c r="I600">
-        <v>9508</v>
+        <v>14549</v>
       </c>
       <c r="J600">
-        <v>11222</v>
+        <v>14549</v>
       </c>
       <c r="K600">
-        <v>9508</v>
+        <v>14549</v>
       </c>
       <c r="L600">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M600">
         <v>0</v>
@@ -29190,37 +29344,37 @@
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="B601" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="C601" t="s">
-        <v>367</v>
+        <v>652</v>
       </c>
       <c r="D601" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F601">
-        <v>700</v>
+        <v>13500</v>
       </c>
       <c r="G601">
-        <v>2400</v>
+        <v>36000</v>
       </c>
       <c r="H601">
         <v>21</v>
       </c>
       <c r="I601">
-        <v>700</v>
+        <v>13500</v>
       </c>
       <c r="J601">
-        <v>700</v>
+        <v>13500</v>
       </c>
       <c r="K601">
-        <v>700</v>
+        <v>13500</v>
       </c>
       <c r="L601">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M601">
         <v>0</v>
@@ -29230,38 +29384,38 @@
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A602">
-        <v>7798145004559</v>
+      <c r="A602" t="s">
+        <v>1084</v>
       </c>
       <c r="B602" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="C602" t="s">
-        <v>471</v>
+        <v>652</v>
       </c>
       <c r="D602" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F602">
-        <v>5400</v>
+        <v>16100</v>
       </c>
       <c r="G602">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="H602">
         <v>21</v>
       </c>
       <c r="I602">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="J602">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="K602">
-        <v>0</v>
+        <v>16100</v>
       </c>
       <c r="L602">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M602">
         <v>0</v>
@@ -29271,38 +29425,38 @@
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>1075</v>
+      <c r="A603">
+        <v>6971131410669</v>
       </c>
       <c r="B603" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="C603" t="s">
-        <v>33</v>
+        <v>652</v>
       </c>
       <c r="D603" t="s">
         <v>44</v>
       </c>
       <c r="F603">
-        <v>1389.4</v>
+        <v>8000</v>
       </c>
       <c r="G603">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="H603">
         <v>21</v>
       </c>
       <c r="I603">
-        <v>1389.4</v>
+        <v>8000</v>
       </c>
       <c r="J603">
-        <v>1389.4</v>
+        <v>8000</v>
       </c>
       <c r="K603">
-        <v>1389.4</v>
+        <v>8000</v>
       </c>
       <c r="L603">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M603">
         <v>0</v>
@@ -29312,123 +29466,117 @@
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>1077</v>
+      <c r="A604">
+        <v>7799061002889</v>
       </c>
       <c r="B604" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="C604" t="s">
+        <v>652</v>
+      </c>
+      <c r="D604" t="s">
+        <v>28</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F604">
+        <v>6014</v>
+      </c>
+      <c r="G604">
+        <v>24000</v>
+      </c>
+      <c r="H604">
+        <v>21</v>
+      </c>
+      <c r="I604">
+        <v>6014</v>
+      </c>
+      <c r="J604">
+        <v>6014</v>
+      </c>
+      <c r="K604">
+        <v>6014</v>
+      </c>
+      <c r="L604">
+        <v>1</v>
+      </c>
+      <c r="M604">
+        <v>0</v>
+      </c>
+      <c r="N604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C605" t="s">
         <v>367</v>
       </c>
-      <c r="D604" t="s">
-        <v>3</v>
-      </c>
-      <c r="F604">
-        <v>0</v>
-      </c>
-      <c r="G604">
-        <v>1900</v>
-      </c>
-      <c r="H604">
-        <v>21</v>
-      </c>
-      <c r="I604">
-        <v>0</v>
-      </c>
-      <c r="J604">
-        <v>0</v>
-      </c>
-      <c r="K604">
-        <v>0</v>
-      </c>
-      <c r="L604">
-        <v>0</v>
-      </c>
-      <c r="M604">
-        <v>0</v>
-      </c>
-      <c r="N604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A605">
-        <v>6904004020214</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C605" t="s">
-        <v>56</v>
-      </c>
-      <c r="D605" t="s">
+      <c r="F605">
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <v>200</v>
+      </c>
+      <c r="H605">
+        <v>21</v>
+      </c>
+      <c r="I605">
+        <v>0</v>
+      </c>
+      <c r="J605">
+        <v>0</v>
+      </c>
+      <c r="K605">
+        <v>0</v>
+      </c>
+      <c r="L605">
+        <v>0</v>
+      </c>
+      <c r="M605">
+        <v>0</v>
+      </c>
+      <c r="N605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>7891122335568</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C606" t="s">
+        <v>16</v>
+      </c>
+      <c r="D606" t="s">
         <v>28</v>
       </c>
-      <c r="F605">
-        <v>16300</v>
-      </c>
-      <c r="G605">
-        <v>37999</v>
-      </c>
-      <c r="H605">
-        <v>21</v>
-      </c>
-      <c r="I605">
-        <v>16300</v>
-      </c>
-      <c r="J605">
-        <v>16300</v>
-      </c>
-      <c r="K605">
-        <v>16300</v>
-      </c>
-      <c r="L605">
-        <v>1</v>
-      </c>
-      <c r="M605">
-        <v>0</v>
-      </c>
-      <c r="N605">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C606" t="s">
-        <v>56</v>
-      </c>
-      <c r="D606" t="s">
-        <v>44</v>
-      </c>
-      <c r="E606" t="s">
-        <v>58</v>
-      </c>
       <c r="F606">
-        <v>34734</v>
+        <v>1213</v>
       </c>
       <c r="G606">
-        <v>62500.4</v>
+        <v>6000</v>
       </c>
       <c r="H606">
         <v>21</v>
       </c>
       <c r="I606">
-        <v>34734</v>
+        <v>1213</v>
       </c>
       <c r="J606">
-        <v>34734</v>
+        <v>1213</v>
       </c>
       <c r="K606">
-        <v>34734</v>
+        <v>1213</v>
       </c>
       <c r="L606">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M606">
         <v>0</v>
@@ -29439,85 +29587,79 @@
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>6972831212331</v>
+        <v>778145003222</v>
       </c>
       <c r="B607" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="C607" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="D607" t="s">
-        <v>28</v>
-      </c>
-      <c r="E607" t="s">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="F607">
-        <v>7712</v>
+        <v>1765</v>
       </c>
       <c r="G607">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="H607">
         <v>21</v>
       </c>
       <c r="I607">
-        <v>7712</v>
+        <v>1765</v>
       </c>
       <c r="J607">
-        <v>7712</v>
+        <v>1765</v>
       </c>
       <c r="K607">
-        <v>7712</v>
+        <v>1765</v>
       </c>
       <c r="L607">
+        <v>4</v>
+      </c>
+      <c r="M607">
+        <v>0</v>
+      </c>
+      <c r="N607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>672852519025</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C608" t="s">
+        <v>541</v>
+      </c>
+      <c r="D608" t="s">
+        <v>71</v>
+      </c>
+      <c r="F608">
+        <v>3400</v>
+      </c>
+      <c r="G608">
+        <v>7900</v>
+      </c>
+      <c r="H608">
+        <v>21</v>
+      </c>
+      <c r="I608">
+        <v>3400</v>
+      </c>
+      <c r="J608">
+        <v>3400</v>
+      </c>
+      <c r="K608">
+        <v>3400</v>
+      </c>
+      <c r="L608">
         <v>1</v>
       </c>
-      <c r="M607">
-        <v>0</v>
-      </c>
-      <c r="N607">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C608" t="s">
-        <v>471</v>
-      </c>
-      <c r="D608" t="s">
-        <v>28</v>
-      </c>
-      <c r="E608" t="s">
-        <v>58</v>
-      </c>
-      <c r="F608">
-        <v>13568</v>
-      </c>
-      <c r="G608">
-        <v>28000</v>
-      </c>
-      <c r="H608">
-        <v>21</v>
-      </c>
-      <c r="I608">
-        <v>13568</v>
-      </c>
-      <c r="J608">
-        <v>13568</v>
-      </c>
-      <c r="K608">
-        <v>13568</v>
-      </c>
-      <c r="L608">
-        <v>0</v>
-      </c>
       <c r="M608">
         <v>0</v>
       </c>
@@ -29526,38 +29668,38 @@
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A609">
-        <v>6963490162686</v>
+      <c r="A609" t="s">
+        <v>1093</v>
       </c>
       <c r="B609" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="C609" t="s">
-        <v>471</v>
+        <v>315</v>
       </c>
       <c r="D609" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F609">
-        <v>5586</v>
+        <v>1971</v>
       </c>
       <c r="G609">
-        <v>11200</v>
+        <v>4000</v>
       </c>
       <c r="H609">
         <v>21</v>
       </c>
       <c r="I609">
-        <v>5586</v>
+        <v>1971</v>
       </c>
       <c r="J609">
-        <v>5586</v>
+        <v>1971</v>
       </c>
       <c r="K609">
-        <v>5586</v>
+        <v>1971</v>
       </c>
       <c r="L609">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M609">
         <v>0</v>
@@ -29567,83 +29709,83 @@
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A610">
-        <v>6955549333260</v>
+      <c r="A610" t="s">
+        <v>1095</v>
       </c>
       <c r="B610" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="C610" t="s">
-        <v>471</v>
+        <v>315</v>
       </c>
       <c r="D610" t="s">
         <v>44</v>
       </c>
-      <c r="E610" t="s">
-        <v>1087</v>
-      </c>
       <c r="F610">
-        <v>10500</v>
+        <v>1800</v>
       </c>
       <c r="G610">
-        <v>18900</v>
+        <v>4000</v>
       </c>
       <c r="H610">
         <v>21</v>
       </c>
       <c r="I610">
-        <v>10500</v>
+        <v>1800</v>
       </c>
       <c r="J610">
-        <v>10500</v>
+        <v>1800</v>
       </c>
       <c r="K610">
-        <v>10500</v>
+        <v>1800</v>
       </c>
       <c r="L610">
+        <v>4</v>
+      </c>
+      <c r="M610">
+        <v>0</v>
+      </c>
+      <c r="N610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>7799135011984</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C611" t="s">
+        <v>315</v>
+      </c>
+      <c r="D611" t="s">
+        <v>66</v>
+      </c>
+      <c r="E611" t="s">
+        <v>67</v>
+      </c>
+      <c r="F611">
+        <v>8058</v>
+      </c>
+      <c r="G611">
+        <v>20000</v>
+      </c>
+      <c r="H611">
+        <v>21</v>
+      </c>
+      <c r="I611">
+        <v>8058</v>
+      </c>
+      <c r="J611">
+        <v>8058</v>
+      </c>
+      <c r="K611">
+        <v>8058</v>
+      </c>
+      <c r="L611">
         <v>1</v>
       </c>
-      <c r="M610">
-        <v>0</v>
-      </c>
-      <c r="N610">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C611" t="s">
-        <v>471</v>
-      </c>
-      <c r="D611" t="s">
-        <v>44</v>
-      </c>
-      <c r="F611">
-        <v>11300</v>
-      </c>
-      <c r="G611">
-        <v>24000</v>
-      </c>
-      <c r="H611">
-        <v>21</v>
-      </c>
-      <c r="I611">
-        <v>11300</v>
-      </c>
-      <c r="J611">
-        <v>11300</v>
-      </c>
-      <c r="K611">
-        <v>11300</v>
-      </c>
-      <c r="L611">
-        <v>0</v>
-      </c>
       <c r="M611">
         <v>0</v>
       </c>
@@ -29652,38 +29794,38 @@
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A612">
-        <v>6958210712401</v>
+      <c r="A612" t="s">
+        <v>1098</v>
       </c>
       <c r="B612" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
       <c r="C612" t="s">
-        <v>471</v>
+        <v>315</v>
       </c>
       <c r="D612" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E612" t="s">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="F612">
-        <v>10800</v>
+        <v>4500</v>
       </c>
       <c r="G612">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="H612">
         <v>21</v>
       </c>
       <c r="I612">
-        <v>10800</v>
+        <v>4500</v>
       </c>
       <c r="J612">
-        <v>10800</v>
+        <v>4500</v>
       </c>
       <c r="K612">
-        <v>10800</v>
+        <v>4500</v>
       </c>
       <c r="L612">
         <v>0</v>
@@ -29697,40 +29839,40 @@
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>6958210701405</v>
+        <v>7799135011861</v>
       </c>
       <c r="B613" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="C613" t="s">
-        <v>471</v>
+        <v>315</v>
       </c>
       <c r="D613" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E613" t="s">
-        <v>1025</v>
+        <v>67</v>
       </c>
       <c r="F613">
-        <v>7100</v>
+        <v>8176</v>
       </c>
       <c r="G613">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="H613">
         <v>21</v>
       </c>
       <c r="I613">
-        <v>7100</v>
+        <v>8176</v>
       </c>
       <c r="J613">
-        <v>7100</v>
+        <v>8176</v>
       </c>
       <c r="K613">
-        <v>7100</v>
+        <v>8176</v>
       </c>
       <c r="L613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M613">
         <v>0</v>
@@ -29740,35 +29882,35 @@
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A614">
-        <v>8201756735006</v>
+      <c r="A614" t="s">
+        <v>1102</v>
       </c>
       <c r="B614" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="C614" t="s">
-        <v>670</v>
+        <v>315</v>
       </c>
       <c r="D614" t="s">
         <v>28</v>
       </c>
       <c r="F614">
-        <v>10795</v>
+        <v>8999</v>
       </c>
       <c r="G614">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="H614">
         <v>21</v>
       </c>
       <c r="I614">
-        <v>10795</v>
+        <v>8999</v>
       </c>
       <c r="J614">
-        <v>10795</v>
+        <v>8999</v>
       </c>
       <c r="K614">
-        <v>10795</v>
+        <v>8999</v>
       </c>
       <c r="L614">
         <v>2</v>
@@ -29782,37 +29924,37 @@
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>763571815083</v>
+        <v>7798347600771</v>
       </c>
       <c r="B615" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="C615" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D615" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F615">
-        <v>7718.75</v>
+        <v>7800</v>
       </c>
       <c r="G615">
-        <v>17999</v>
+        <v>16000</v>
       </c>
       <c r="H615">
         <v>21</v>
       </c>
       <c r="I615">
-        <v>7718.7</v>
+        <v>7800</v>
       </c>
       <c r="J615">
-        <v>7718.7</v>
+        <v>7800</v>
       </c>
       <c r="K615">
-        <v>7718.7</v>
+        <v>7800</v>
       </c>
       <c r="L615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M615">
         <v>0</v>
@@ -29823,37 +29965,37 @@
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>8214729653849</v>
+        <v>6975842015761</v>
       </c>
       <c r="B616" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="C616" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D616" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F616">
-        <v>1911</v>
+        <v>9500</v>
       </c>
       <c r="G616">
-        <v>7999</v>
+        <v>23500</v>
       </c>
       <c r="H616">
         <v>21</v>
       </c>
       <c r="I616">
-        <v>1911</v>
+        <v>9500</v>
       </c>
       <c r="J616">
-        <v>1911</v>
+        <v>9500</v>
       </c>
       <c r="K616">
-        <v>1911</v>
+        <v>9500</v>
       </c>
       <c r="L616">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M616">
         <v>0</v>
@@ -29863,38 +30005,38 @@
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>1095</v>
+      <c r="A617">
+        <v>7798347600801</v>
       </c>
       <c r="B617" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="C617" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="D617" t="s">
         <v>3</v>
       </c>
       <c r="F617">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="G617">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="H617">
         <v>21</v>
       </c>
       <c r="I617">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J617">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="K617">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L617">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M617">
         <v>0</v>
@@ -29904,35 +30046,35 @@
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A618">
-        <v>5901234123457</v>
+      <c r="A618" t="s">
+        <v>1106</v>
       </c>
       <c r="B618" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="C618" t="s">
-        <v>62</v>
+        <v>378</v>
       </c>
       <c r="D618" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F618">
-        <v>26300</v>
+        <v>9508</v>
       </c>
       <c r="G618">
-        <v>46000</v>
+        <v>24600</v>
       </c>
       <c r="H618">
         <v>21</v>
       </c>
       <c r="I618">
-        <v>26300</v>
+        <v>9508</v>
       </c>
       <c r="J618">
-        <v>26300</v>
+        <v>11222</v>
       </c>
       <c r="K618">
-        <v>26300</v>
+        <v>9508</v>
       </c>
       <c r="L618">
         <v>2</v>
@@ -29945,38 +30087,38 @@
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A619">
-        <v>6918688168186</v>
+      <c r="A619" t="s">
+        <v>1108</v>
       </c>
       <c r="B619" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="C619" t="s">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="D619" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F619">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G619">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="H619">
         <v>21</v>
       </c>
       <c r="I619">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J619">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K619">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L619">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M619">
         <v>0</v>
@@ -29987,37 +30129,37 @@
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>6988886869543</v>
+        <v>7798145004559</v>
       </c>
       <c r="B620" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="C620" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D620" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F620">
-        <v>1450</v>
+        <v>5400</v>
       </c>
       <c r="G620">
-        <v>3700</v>
+        <v>12000</v>
       </c>
       <c r="H620">
         <v>21</v>
       </c>
       <c r="I620">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="J620">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="K620">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="L620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M620">
         <v>0</v>
@@ -30028,37 +30170,37 @@
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="B621" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="C621" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D621" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F621">
-        <v>600</v>
+        <v>1389.4</v>
       </c>
       <c r="G621">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="H621">
         <v>21</v>
       </c>
       <c r="I621">
-        <v>0</v>
+        <v>1389.4</v>
       </c>
       <c r="J621">
-        <v>0</v>
+        <v>1389.4</v>
       </c>
       <c r="K621">
-        <v>0</v>
+        <v>1389.4</v>
       </c>
       <c r="L621">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M621">
         <v>0</v>
@@ -30069,37 +30211,37 @@
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
       <c r="B622" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
       <c r="C622" t="s">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="D622" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F622">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G622">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="H622">
         <v>21</v>
       </c>
       <c r="I622">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J622">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K622">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L622">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M622">
         <v>0</v>
@@ -30109,35 +30251,35 @@
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>1104</v>
+      <c r="A623">
+        <v>6904004020214</v>
       </c>
       <c r="B623" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="C623" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D623" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F623">
-        <v>2652</v>
+        <v>16300</v>
       </c>
       <c r="G623">
-        <v>7500</v>
+        <v>37999</v>
       </c>
       <c r="H623">
         <v>21</v>
       </c>
       <c r="I623">
-        <v>2652</v>
+        <v>16300</v>
       </c>
       <c r="J623">
-        <v>2652</v>
+        <v>16300</v>
       </c>
       <c r="K623">
-        <v>2652</v>
+        <v>16300</v>
       </c>
       <c r="L623">
         <v>1</v>
@@ -30151,78 +30293,84 @@
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="B624" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="C624" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D624" t="s">
+        <v>44</v>
+      </c>
+      <c r="E624" t="s">
+        <v>58</v>
+      </c>
+      <c r="F624">
+        <v>34734</v>
+      </c>
+      <c r="G624">
+        <v>62500.4</v>
+      </c>
+      <c r="H624">
+        <v>21</v>
+      </c>
+      <c r="I624">
+        <v>34734</v>
+      </c>
+      <c r="J624">
+        <v>34734</v>
+      </c>
+      <c r="K624">
+        <v>34734</v>
+      </c>
+      <c r="L624">
+        <v>0</v>
+      </c>
+      <c r="M624">
+        <v>0</v>
+      </c>
+      <c r="N624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>6972831212331</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C625" t="s">
+        <v>471</v>
+      </c>
+      <c r="D625" t="s">
         <v>28</v>
       </c>
-      <c r="F624">
-        <v>1069</v>
-      </c>
-      <c r="G624">
-        <v>5500</v>
-      </c>
-      <c r="H624">
-        <v>21</v>
-      </c>
-      <c r="I624">
-        <v>1069</v>
-      </c>
-      <c r="J624">
-        <v>1069</v>
-      </c>
-      <c r="K624">
-        <v>1069</v>
-      </c>
-      <c r="L624">
-        <v>2</v>
-      </c>
-      <c r="M624">
-        <v>0</v>
-      </c>
-      <c r="N624">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C625" t="s">
-        <v>53</v>
-      </c>
-      <c r="D625" t="s">
-        <v>44</v>
+      <c r="E625" t="s">
+        <v>508</v>
       </c>
       <c r="F625">
-        <v>600</v>
+        <v>7712</v>
       </c>
       <c r="G625">
-        <v>1800</v>
+        <v>24000</v>
       </c>
       <c r="H625">
         <v>21</v>
       </c>
       <c r="I625">
-        <v>600</v>
+        <v>7712</v>
       </c>
       <c r="J625">
-        <v>600</v>
+        <v>7712</v>
       </c>
       <c r="K625">
-        <v>600</v>
+        <v>7712</v>
       </c>
       <c r="L625">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M625">
         <v>0</v>
@@ -30232,38 +30380,41 @@
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A626">
-        <v>7821234522365</v>
+      <c r="A626" t="s">
+        <v>1119</v>
       </c>
       <c r="B626" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="C626" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D626" t="s">
-        <v>165</v>
+        <v>28</v>
+      </c>
+      <c r="E626" t="s">
+        <v>58</v>
       </c>
       <c r="F626">
-        <v>500</v>
+        <v>13568</v>
       </c>
       <c r="G626">
-        <v>1400</v>
+        <v>28000</v>
       </c>
       <c r="H626">
         <v>21</v>
       </c>
       <c r="I626">
-        <v>500</v>
+        <v>13568</v>
       </c>
       <c r="J626">
-        <v>500</v>
+        <v>13568</v>
       </c>
       <c r="K626">
-        <v>500</v>
+        <v>13568</v>
       </c>
       <c r="L626">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M626">
         <v>0</v>
@@ -30273,38 +30424,38 @@
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>1111</v>
+      <c r="A627">
+        <v>6963490162686</v>
       </c>
       <c r="B627" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C627" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D627" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F627">
-        <v>1500</v>
+        <v>5586</v>
       </c>
       <c r="G627">
-        <v>3000</v>
+        <v>11200</v>
       </c>
       <c r="H627">
         <v>21</v>
       </c>
       <c r="I627">
-        <v>0</v>
+        <v>5586</v>
       </c>
       <c r="J627">
-        <v>0</v>
+        <v>5586</v>
       </c>
       <c r="K627">
-        <v>0</v>
+        <v>5586</v>
       </c>
       <c r="L627">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M627">
         <v>0</v>
@@ -30315,37 +30466,40 @@
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>7790839910788</v>
+        <v>6955549333260</v>
       </c>
       <c r="B628" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="C628" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D628" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1123</v>
       </c>
       <c r="F628">
-        <v>500</v>
+        <v>10500</v>
       </c>
       <c r="G628">
-        <v>1400</v>
+        <v>18900</v>
       </c>
       <c r="H628">
         <v>21</v>
       </c>
       <c r="I628">
-        <v>500</v>
+        <v>10500</v>
       </c>
       <c r="J628">
-        <v>500</v>
+        <v>10500</v>
       </c>
       <c r="K628">
-        <v>500</v>
+        <v>10500</v>
       </c>
       <c r="L628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M628">
         <v>0</v>
@@ -30356,34 +30510,34 @@
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="B629" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="C629" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D629" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="F629">
-        <v>1600</v>
+        <v>11300</v>
       </c>
       <c r="G629">
-        <v>3600</v>
+        <v>24000</v>
       </c>
       <c r="H629">
         <v>21</v>
       </c>
       <c r="I629">
-        <v>1600</v>
+        <v>11300</v>
       </c>
       <c r="J629">
-        <v>1600</v>
+        <v>11300</v>
       </c>
       <c r="K629">
-        <v>1600</v>
+        <v>11300</v>
       </c>
       <c r="L629">
         <v>0</v>
@@ -30396,76 +30550,82 @@
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>1116</v>
+      <c r="A630">
+        <v>6958210712401</v>
       </c>
       <c r="B630" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="C630" t="s">
-        <v>53</v>
+        <v>471</v>
       </c>
       <c r="D630" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1061</v>
       </c>
       <c r="F630">
-        <v>1328</v>
+        <v>10800</v>
       </c>
       <c r="G630">
-        <v>4500</v>
+        <v>26000</v>
       </c>
       <c r="H630">
         <v>21</v>
       </c>
       <c r="I630">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="J630">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="K630">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="L630">
+        <v>0</v>
+      </c>
+      <c r="M630">
+        <v>0</v>
+      </c>
+      <c r="N630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>6958210701405</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C631" t="s">
+        <v>471</v>
+      </c>
+      <c r="D631" t="s">
         <v>3</v>
       </c>
-      <c r="M630">
-        <v>0</v>
-      </c>
-      <c r="N630">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C631" t="s">
-        <v>53</v>
-      </c>
-      <c r="D631" t="s">
-        <v>17</v>
+      <c r="E631" t="s">
+        <v>1061</v>
       </c>
       <c r="F631">
-        <v>500</v>
+        <v>7100</v>
       </c>
       <c r="G631">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="H631">
         <v>21</v>
       </c>
       <c r="I631">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="J631">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="K631">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="L631">
         <v>2</v>
@@ -30479,37 +30639,37 @@
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>7798145005969</v>
+        <v>8201756735006</v>
       </c>
       <c r="B632" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="C632" t="s">
-        <v>53</v>
+        <v>670</v>
       </c>
       <c r="D632" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F632">
-        <v>700</v>
+        <v>10795</v>
       </c>
       <c r="G632">
-        <v>1600</v>
+        <v>25000</v>
       </c>
       <c r="H632">
         <v>21</v>
       </c>
       <c r="I632">
-        <v>700</v>
+        <v>10795</v>
       </c>
       <c r="J632">
-        <v>700</v>
+        <v>10795</v>
       </c>
       <c r="K632">
-        <v>700</v>
+        <v>10795</v>
       </c>
       <c r="L632">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M632">
         <v>0</v>
@@ -30520,40 +30680,37 @@
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>6974504506013</v>
+        <v>763571815083</v>
       </c>
       <c r="B633" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="C633" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D633" t="s">
-        <v>57</v>
-      </c>
-      <c r="E633" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="F633">
-        <v>2900</v>
+        <v>7718.75</v>
       </c>
       <c r="G633">
-        <v>7000</v>
+        <v>17999</v>
       </c>
       <c r="H633">
         <v>21</v>
       </c>
       <c r="I633">
-        <v>2900</v>
+        <v>7718.7</v>
       </c>
       <c r="J633">
-        <v>2900</v>
+        <v>7718.7</v>
       </c>
       <c r="K633">
-        <v>2900</v>
+        <v>7718.7</v>
       </c>
       <c r="L633">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M633">
         <v>0</v>
@@ -30564,81 +30721,78 @@
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>7799135001664</v>
+        <v>8214729653849</v>
       </c>
       <c r="B634" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="C634" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D634" t="s">
-        <v>66</v>
-      </c>
-      <c r="E634" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F634">
-        <v>3628.5</v>
+        <v>1911</v>
       </c>
       <c r="G634">
-        <v>9000</v>
+        <v>7999</v>
       </c>
       <c r="H634">
         <v>21</v>
       </c>
       <c r="I634">
-        <v>3628.5</v>
+        <v>1911</v>
       </c>
       <c r="J634">
-        <v>3628.5</v>
+        <v>1911</v>
       </c>
       <c r="K634">
-        <v>3628.5</v>
+        <v>1911</v>
       </c>
       <c r="L634">
+        <v>3</v>
+      </c>
+      <c r="M634">
+        <v>0</v>
+      </c>
+      <c r="N634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C635" t="s">
+        <v>78</v>
+      </c>
+      <c r="D635" t="s">
+        <v>3</v>
+      </c>
+      <c r="F635">
+        <v>4500</v>
+      </c>
+      <c r="G635">
+        <v>10000</v>
+      </c>
+      <c r="H635">
+        <v>21</v>
+      </c>
+      <c r="I635">
+        <v>0</v>
+      </c>
+      <c r="J635">
+        <v>0</v>
+      </c>
+      <c r="K635">
+        <v>0</v>
+      </c>
+      <c r="L635">
         <v>1</v>
-      </c>
-      <c r="M634">
-        <v>0</v>
-      </c>
-      <c r="N634">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A635">
-        <v>7798423540649</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C635" t="s">
-        <v>62</v>
-      </c>
-      <c r="D635" t="s">
-        <v>71</v>
-      </c>
-      <c r="F635">
-        <v>4400</v>
-      </c>
-      <c r="G635">
-        <v>9500</v>
-      </c>
-      <c r="H635">
-        <v>21</v>
-      </c>
-      <c r="I635">
-        <v>4400</v>
-      </c>
-      <c r="J635">
-        <v>4400</v>
-      </c>
-      <c r="K635">
-        <v>4400</v>
-      </c>
-      <c r="L635">
-        <v>2</v>
       </c>
       <c r="M635">
         <v>0</v>
@@ -30649,10 +30803,10 @@
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>6974504501018</v>
+        <v>5901234123457</v>
       </c>
       <c r="B636" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="C636" t="s">
         <v>62</v>
@@ -30661,25 +30815,25 @@
         <v>57</v>
       </c>
       <c r="F636">
-        <v>8500</v>
+        <v>26300</v>
       </c>
       <c r="G636">
-        <v>16900</v>
+        <v>46000</v>
       </c>
       <c r="H636">
         <v>21</v>
       </c>
       <c r="I636">
-        <v>8500</v>
+        <v>26300</v>
       </c>
       <c r="J636">
-        <v>8500</v>
+        <v>26300</v>
       </c>
       <c r="K636">
-        <v>8500</v>
+        <v>26300</v>
       </c>
       <c r="L636">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M636">
         <v>0</v>
@@ -30690,37 +30844,37 @@
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>701575361564</v>
+        <v>6918688168186</v>
       </c>
       <c r="B637" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="C637" t="s">
         <v>53</v>
       </c>
       <c r="D637" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F637">
-        <v>2037</v>
+        <v>600</v>
       </c>
       <c r="G637">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="H637">
         <v>21</v>
       </c>
       <c r="I637">
-        <v>2037</v>
+        <v>600</v>
       </c>
       <c r="J637">
-        <v>2037</v>
+        <v>600</v>
       </c>
       <c r="K637">
-        <v>2037</v>
+        <v>600</v>
       </c>
       <c r="L637">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M637">
         <v>0</v>
@@ -30731,40 +30885,37 @@
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>6974202725549</v>
+        <v>6988886869543</v>
       </c>
       <c r="B638" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="C638" t="s">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="D638" t="s">
-        <v>307</v>
-      </c>
-      <c r="E638" t="s">
-        <v>1127</v>
+        <v>28</v>
       </c>
       <c r="F638">
-        <v>15043</v>
+        <v>1450</v>
       </c>
       <c r="G638">
-        <v>27000</v>
+        <v>3700</v>
       </c>
       <c r="H638">
         <v>21</v>
       </c>
       <c r="I638">
-        <v>15043</v>
+        <v>1450</v>
       </c>
       <c r="J638">
-        <v>15043</v>
+        <v>1450</v>
       </c>
       <c r="K638">
-        <v>15043</v>
+        <v>1450</v>
       </c>
       <c r="L638">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M638">
         <v>0</v>
@@ -30774,41 +30925,38 @@
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A639">
-        <v>843367116218</v>
+      <c r="A639" t="s">
+        <v>1136</v>
       </c>
       <c r="B639" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="C639" t="s">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="D639" t="s">
-        <v>307</v>
-      </c>
-      <c r="E639" t="s">
-        <v>1129</v>
+        <v>17</v>
       </c>
       <c r="F639">
-        <v>18444</v>
+        <v>600</v>
       </c>
       <c r="G639">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="H639">
         <v>21</v>
       </c>
       <c r="I639">
-        <v>18444</v>
+        <v>0</v>
       </c>
       <c r="J639">
-        <v>18444</v>
+        <v>0</v>
       </c>
       <c r="K639">
-        <v>18444</v>
+        <v>0</v>
       </c>
       <c r="L639">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M639">
         <v>0</v>
@@ -30819,37 +30967,37 @@
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="B640" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="C640" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D640" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F640">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G640">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="H640">
         <v>21</v>
       </c>
       <c r="I640">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="J640">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K640">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L640">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M640">
         <v>0</v>
@@ -30860,37 +31008,37 @@
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="B641" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="C641" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D641" t="s">
-        <v>488</v>
+        <v>66</v>
       </c>
       <c r="F641">
-        <v>650</v>
+        <v>2652</v>
       </c>
       <c r="G641">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="H641">
         <v>21</v>
       </c>
       <c r="I641">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="J641">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="K641">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="L641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M641">
         <v>0</v>
@@ -30901,34 +31049,34 @@
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="B642" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="C642" t="s">
-        <v>468</v>
+        <v>33</v>
       </c>
       <c r="D642" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F642">
-        <v>2200</v>
+        <v>1069</v>
       </c>
       <c r="G642">
-        <v>4900</v>
+        <v>5500</v>
       </c>
       <c r="H642">
         <v>21</v>
       </c>
       <c r="I642">
-        <v>2200</v>
+        <v>1069</v>
       </c>
       <c r="J642">
-        <v>2200</v>
+        <v>1069</v>
       </c>
       <c r="K642">
-        <v>2200</v>
+        <v>1069</v>
       </c>
       <c r="L642">
         <v>2</v>
@@ -30942,37 +31090,37 @@
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="B643" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="C643" t="s">
-        <v>378</v>
-      </c>
-      <c r="E643" t="s">
-        <v>1135</v>
+        <v>53</v>
+      </c>
+      <c r="D643" t="s">
+        <v>44</v>
       </c>
       <c r="F643">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G643">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="H643">
         <v>21</v>
       </c>
       <c r="I643">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J643">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K643">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L643">
-        <v>-5.5999999046325701</v>
+        <v>4</v>
       </c>
       <c r="M643">
         <v>0</v>
@@ -30983,34 +31131,34 @@
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>7799135009790</v>
+        <v>7821234522365</v>
       </c>
       <c r="B644" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="C644" t="s">
-        <v>670</v>
+        <v>53</v>
       </c>
       <c r="D644" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="F644">
-        <v>6519</v>
+        <v>500</v>
       </c>
       <c r="G644">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="H644">
         <v>21</v>
       </c>
       <c r="I644">
-        <v>6519</v>
+        <v>500</v>
       </c>
       <c r="J644">
-        <v>6519</v>
+        <v>500</v>
       </c>
       <c r="K644">
-        <v>6519</v>
+        <v>500</v>
       </c>
       <c r="L644">
         <v>3</v>
@@ -31023,202 +31171,202 @@
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A645">
-        <v>700306601221</v>
+      <c r="A645" t="s">
+        <v>1147</v>
       </c>
       <c r="B645" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="C645" t="s">
-        <v>670</v>
+        <v>53</v>
       </c>
       <c r="D645" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F645">
-        <v>4012</v>
+        <v>1500</v>
       </c>
       <c r="G645">
-        <v>12500</v>
+        <v>3000</v>
       </c>
       <c r="H645">
         <v>21</v>
       </c>
       <c r="I645">
-        <v>4012</v>
+        <v>0</v>
       </c>
       <c r="J645">
-        <v>4012</v>
+        <v>0</v>
       </c>
       <c r="K645">
-        <v>4012</v>
+        <v>0</v>
       </c>
       <c r="L645">
+        <v>2</v>
+      </c>
+      <c r="M645">
+        <v>0</v>
+      </c>
+      <c r="N645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>7790839910788</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C646" t="s">
+        <v>53</v>
+      </c>
+      <c r="D646" t="s">
+        <v>17</v>
+      </c>
+      <c r="F646">
+        <v>500</v>
+      </c>
+      <c r="G646">
+        <v>1400</v>
+      </c>
+      <c r="H646">
+        <v>21</v>
+      </c>
+      <c r="I646">
+        <v>500</v>
+      </c>
+      <c r="J646">
+        <v>500</v>
+      </c>
+      <c r="K646">
+        <v>500</v>
+      </c>
+      <c r="L646">
+        <v>0</v>
+      </c>
+      <c r="M646">
+        <v>0</v>
+      </c>
+      <c r="N646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C647" t="s">
+        <v>53</v>
+      </c>
+      <c r="D647" t="s">
+        <v>165</v>
+      </c>
+      <c r="F647">
+        <v>1600</v>
+      </c>
+      <c r="G647">
+        <v>3600</v>
+      </c>
+      <c r="H647">
+        <v>21</v>
+      </c>
+      <c r="I647">
+        <v>1600</v>
+      </c>
+      <c r="J647">
+        <v>1600</v>
+      </c>
+      <c r="K647">
+        <v>1600</v>
+      </c>
+      <c r="L647">
+        <v>0</v>
+      </c>
+      <c r="M647">
+        <v>0</v>
+      </c>
+      <c r="N647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C648" t="s">
+        <v>53</v>
+      </c>
+      <c r="D648" t="s">
+        <v>44</v>
+      </c>
+      <c r="F648">
+        <v>1328</v>
+      </c>
+      <c r="G648">
+        <v>4500</v>
+      </c>
+      <c r="H648">
+        <v>21</v>
+      </c>
+      <c r="I648">
+        <v>0</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+      <c r="K648">
+        <v>0</v>
+      </c>
+      <c r="L648">
         <v>3</v>
       </c>
-      <c r="M645">
-        <v>0</v>
-      </c>
-      <c r="N645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C646" t="s">
-        <v>367</v>
-      </c>
-      <c r="D646" t="s">
-        <v>28</v>
-      </c>
-      <c r="F646">
-        <v>1150</v>
-      </c>
-      <c r="G646">
-        <v>3000</v>
-      </c>
-      <c r="H646">
-        <v>21</v>
-      </c>
-      <c r="I646">
-        <v>1150</v>
-      </c>
-      <c r="J646">
-        <v>1150</v>
-      </c>
-      <c r="K646">
-        <v>1150</v>
-      </c>
-      <c r="L646">
-        <v>5</v>
-      </c>
-      <c r="M646">
-        <v>0</v>
-      </c>
-      <c r="N646">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A647">
-        <v>7798423541356</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C647" t="s">
-        <v>78</v>
-      </c>
-      <c r="D647" t="s">
-        <v>71</v>
-      </c>
-      <c r="F647">
-        <v>4100</v>
-      </c>
-      <c r="G647">
-        <v>9500</v>
-      </c>
-      <c r="H647">
-        <v>21</v>
-      </c>
-      <c r="I647">
-        <v>4100</v>
-      </c>
-      <c r="J647">
-        <v>4100</v>
-      </c>
-      <c r="K647">
-        <v>4100</v>
-      </c>
-      <c r="L647">
+      <c r="M648">
+        <v>0</v>
+      </c>
+      <c r="N648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C649" t="s">
+        <v>53</v>
+      </c>
+      <c r="D649" t="s">
+        <v>17</v>
+      </c>
+      <c r="F649">
+        <v>500</v>
+      </c>
+      <c r="G649">
+        <v>1500</v>
+      </c>
+      <c r="H649">
+        <v>21</v>
+      </c>
+      <c r="I649">
+        <v>0</v>
+      </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
+      <c r="K649">
+        <v>0</v>
+      </c>
+      <c r="L649">
         <v>2</v>
-      </c>
-      <c r="M647">
-        <v>0</v>
-      </c>
-      <c r="N647">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A648">
-        <v>7798145006027</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C648" t="s">
-        <v>468</v>
-      </c>
-      <c r="D648" t="s">
-        <v>3</v>
-      </c>
-      <c r="F648">
-        <v>2500</v>
-      </c>
-      <c r="G648">
-        <v>5000</v>
-      </c>
-      <c r="H648">
-        <v>21</v>
-      </c>
-      <c r="I648">
-        <v>2500</v>
-      </c>
-      <c r="J648">
-        <v>2500</v>
-      </c>
-      <c r="K648">
-        <v>2500</v>
-      </c>
-      <c r="L648">
-        <v>10</v>
-      </c>
-      <c r="M648">
-        <v>0</v>
-      </c>
-      <c r="N648">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A649">
-        <v>7790000111020</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C649" t="s">
-        <v>367</v>
-      </c>
-      <c r="D649" t="s">
-        <v>3</v>
-      </c>
-      <c r="F649">
-        <v>1200</v>
-      </c>
-      <c r="G649">
-        <v>5000</v>
-      </c>
-      <c r="H649">
-        <v>21</v>
-      </c>
-      <c r="I649">
-        <v>0</v>
-      </c>
-      <c r="J649">
-        <v>0</v>
-      </c>
-      <c r="K649">
-        <v>0</v>
-      </c>
-      <c r="L649">
-        <v>4</v>
       </c>
       <c r="M649">
         <v>0</v>
@@ -31229,37 +31377,37 @@
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>6920220096888</v>
+        <v>7798145005969</v>
       </c>
       <c r="B650" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="C650" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D650" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F650">
-        <v>4800</v>
+        <v>700</v>
       </c>
       <c r="G650">
-        <v>9600</v>
+        <v>1600</v>
       </c>
       <c r="H650">
         <v>21</v>
       </c>
       <c r="I650">
-        <v>4800</v>
+        <v>700</v>
       </c>
       <c r="J650">
-        <v>4800</v>
+        <v>700</v>
       </c>
       <c r="K650">
-        <v>4800</v>
+        <v>700</v>
       </c>
       <c r="L650">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M650">
         <v>0</v>
@@ -31269,38 +31417,41 @@
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>1145</v>
+      <c r="A651">
+        <v>6974504506013</v>
       </c>
       <c r="B651" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="C651" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D651" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="E651" t="s">
+        <v>472</v>
       </c>
       <c r="F651">
-        <v>3635</v>
+        <v>2900</v>
       </c>
       <c r="G651">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="H651">
         <v>21</v>
       </c>
       <c r="I651">
-        <v>3635</v>
+        <v>2900</v>
       </c>
       <c r="J651">
-        <v>3635</v>
+        <v>2900</v>
       </c>
       <c r="K651">
-        <v>3635</v>
+        <v>2900</v>
       </c>
       <c r="L651">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M651">
         <v>0</v>
@@ -31311,79 +31462,82 @@
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>7795234526572</v>
+        <v>7799135001664</v>
       </c>
       <c r="B652" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="C652" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D652" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="E652" t="s">
+        <v>67</v>
       </c>
       <c r="F652">
-        <v>3750</v>
+        <v>3628.5</v>
       </c>
       <c r="G652">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="H652">
         <v>21</v>
       </c>
       <c r="I652">
-        <v>3750</v>
+        <v>3628.5</v>
       </c>
       <c r="J652">
-        <v>3750</v>
+        <v>3628.5</v>
       </c>
       <c r="K652">
-        <v>3750</v>
+        <v>3628.5</v>
       </c>
       <c r="L652">
+        <v>1</v>
+      </c>
+      <c r="M652">
+        <v>0</v>
+      </c>
+      <c r="N652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>7798423540649</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C653" t="s">
+        <v>62</v>
+      </c>
+      <c r="D653" t="s">
+        <v>71</v>
+      </c>
+      <c r="F653">
+        <v>4400</v>
+      </c>
+      <c r="G653">
+        <v>9500</v>
+      </c>
+      <c r="H653">
+        <v>21</v>
+      </c>
+      <c r="I653">
+        <v>4400</v>
+      </c>
+      <c r="J653">
+        <v>4400</v>
+      </c>
+      <c r="K653">
+        <v>4400</v>
+      </c>
+      <c r="L653">
         <v>2</v>
       </c>
-      <c r="M652">
-        <v>0</v>
-      </c>
-      <c r="N652">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C653" t="s">
-        <v>69</v>
-      </c>
-      <c r="D653" t="s">
-        <v>28</v>
-      </c>
-      <c r="F653">
-        <v>6288</v>
-      </c>
-      <c r="G653">
-        <v>16000</v>
-      </c>
-      <c r="H653">
-        <v>21</v>
-      </c>
-      <c r="I653">
-        <v>6288</v>
-      </c>
-      <c r="J653">
-        <v>6288</v>
-      </c>
-      <c r="K653">
-        <v>6288</v>
-      </c>
-      <c r="L653">
-        <v>3</v>
-      </c>
       <c r="M653">
         <v>0</v>
       </c>
@@ -31392,38 +31546,38 @@
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
-        <v>1150</v>
+      <c r="A654">
+        <v>6974504501018</v>
       </c>
       <c r="B654" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="C654" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D654" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F654">
-        <v>16700</v>
+        <v>8500</v>
       </c>
       <c r="G654">
-        <v>32000</v>
+        <v>16900</v>
       </c>
       <c r="H654">
         <v>21</v>
       </c>
       <c r="I654">
-        <v>16700</v>
+        <v>8500</v>
       </c>
       <c r="J654">
-        <v>16700</v>
+        <v>8500</v>
       </c>
       <c r="K654">
-        <v>16700</v>
+        <v>8500</v>
       </c>
       <c r="L654">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M654">
         <v>0</v>
@@ -31433,35 +31587,35 @@
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
-        <v>1152</v>
+      <c r="A655">
+        <v>701575361564</v>
       </c>
       <c r="B655" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="C655" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="D655" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F655">
-        <v>15900</v>
+        <v>2037</v>
       </c>
       <c r="G655">
-        <v>45000</v>
+        <v>4200</v>
       </c>
       <c r="H655">
         <v>21</v>
       </c>
       <c r="I655">
-        <v>15900</v>
+        <v>2037</v>
       </c>
       <c r="J655">
-        <v>15900</v>
+        <v>2037</v>
       </c>
       <c r="K655">
-        <v>15900</v>
+        <v>2037</v>
       </c>
       <c r="L655">
         <v>0</v>
@@ -31474,35 +31628,38 @@
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>1154</v>
+      <c r="A656">
+        <v>6974202725549</v>
       </c>
       <c r="B656" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="C656" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="D656" t="s">
-        <v>44</v>
+        <v>307</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1163</v>
       </c>
       <c r="F656">
-        <v>6815</v>
+        <v>15043</v>
       </c>
       <c r="G656">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="H656">
         <v>21</v>
       </c>
       <c r="I656">
-        <v>6815</v>
+        <v>15043</v>
       </c>
       <c r="J656">
-        <v>6815</v>
+        <v>15043</v>
       </c>
       <c r="K656">
-        <v>6815</v>
+        <v>15043</v>
       </c>
       <c r="L656">
         <v>2</v>
@@ -31516,37 +31673,40 @@
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>6902540752361</v>
+        <v>843367116218</v>
       </c>
       <c r="B657" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="C657" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="D657" t="s">
-        <v>71</v>
+        <v>307</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1165</v>
       </c>
       <c r="F657">
-        <v>5800</v>
+        <v>18444</v>
       </c>
       <c r="G657">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="H657">
         <v>21</v>
       </c>
       <c r="I657">
-        <v>5800</v>
+        <v>18444</v>
       </c>
       <c r="J657">
-        <v>5800</v>
+        <v>18444</v>
       </c>
       <c r="K657">
-        <v>5800</v>
+        <v>18444</v>
       </c>
       <c r="L657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M657">
         <v>0</v>
@@ -31557,37 +31717,37 @@
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1157</v>
+        <v>1166</v>
       </c>
       <c r="B658" t="s">
-        <v>1158</v>
+        <v>1167</v>
       </c>
       <c r="C658" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D658" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F658">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="G658">
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="H658">
         <v>21</v>
       </c>
       <c r="I658">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="J658">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="K658">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="L658">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M658">
         <v>0</v>
@@ -31597,41 +31757,38 @@
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A659">
-        <v>723540564022</v>
+      <c r="A659" t="s">
+        <v>1168</v>
       </c>
       <c r="B659" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="C659" t="s">
-        <v>408</v>
+        <v>33</v>
       </c>
       <c r="D659" t="s">
-        <v>28</v>
-      </c>
-      <c r="E659" t="s">
-        <v>125</v>
+        <v>488</v>
       </c>
       <c r="F659">
-        <v>3175</v>
+        <v>650</v>
       </c>
       <c r="G659">
-        <v>9500</v>
+        <v>1500</v>
       </c>
       <c r="H659">
         <v>21</v>
       </c>
       <c r="I659">
-        <v>3175</v>
+        <v>0</v>
       </c>
       <c r="J659">
-        <v>3175</v>
+        <v>0</v>
       </c>
       <c r="K659">
-        <v>3175</v>
+        <v>0</v>
       </c>
       <c r="L659">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M659">
         <v>0</v>
@@ -31642,37 +31799,37 @@
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="B660" t="s">
-        <v>1161</v>
+        <v>1170</v>
       </c>
       <c r="C660" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="D660" t="s">
         <v>44</v>
       </c>
       <c r="F660">
-        <v>2417</v>
+        <v>2200</v>
       </c>
       <c r="G660">
-        <v>8000</v>
+        <v>4900</v>
       </c>
       <c r="H660">
         <v>21</v>
       </c>
       <c r="I660">
-        <v>2417</v>
+        <v>2200</v>
       </c>
       <c r="J660">
-        <v>2417</v>
+        <v>2200</v>
       </c>
       <c r="K660">
-        <v>2417</v>
+        <v>2200</v>
       </c>
       <c r="L660">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M660">
         <v>0</v>
@@ -31683,78 +31840,78 @@
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="B661" t="s">
-        <v>1163</v>
+        <v>1172</v>
       </c>
       <c r="C661" t="s">
-        <v>541</v>
-      </c>
-      <c r="D661" t="s">
+        <v>378</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F661">
+        <v>0</v>
+      </c>
+      <c r="G661">
+        <v>5000</v>
+      </c>
+      <c r="H661">
+        <v>21</v>
+      </c>
+      <c r="I661">
+        <v>0</v>
+      </c>
+      <c r="J661">
+        <v>0</v>
+      </c>
+      <c r="K661">
+        <v>0</v>
+      </c>
+      <c r="L661">
+        <v>-5.5999999046325701</v>
+      </c>
+      <c r="M661">
+        <v>0</v>
+      </c>
+      <c r="N661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>7799135009790</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C662" t="s">
+        <v>670</v>
+      </c>
+      <c r="D662" t="s">
+        <v>66</v>
+      </c>
+      <c r="F662">
+        <v>6519</v>
+      </c>
+      <c r="G662">
+        <v>16000</v>
+      </c>
+      <c r="H662">
+        <v>21</v>
+      </c>
+      <c r="I662">
+        <v>6519</v>
+      </c>
+      <c r="J662">
+        <v>6519</v>
+      </c>
+      <c r="K662">
+        <v>6519</v>
+      </c>
+      <c r="L662">
         <v>3</v>
-      </c>
-      <c r="F661">
-        <v>3900</v>
-      </c>
-      <c r="G661">
-        <v>8400</v>
-      </c>
-      <c r="H661">
-        <v>21</v>
-      </c>
-      <c r="I661">
-        <v>0</v>
-      </c>
-      <c r="J661">
-        <v>0</v>
-      </c>
-      <c r="K661">
-        <v>0</v>
-      </c>
-      <c r="L661">
-        <v>2</v>
-      </c>
-      <c r="M661">
-        <v>0</v>
-      </c>
-      <c r="N661">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C662" t="s">
-        <v>541</v>
-      </c>
-      <c r="D662" t="s">
-        <v>3</v>
-      </c>
-      <c r="F662">
-        <v>4300</v>
-      </c>
-      <c r="G662">
-        <v>9300</v>
-      </c>
-      <c r="H662">
-        <v>21</v>
-      </c>
-      <c r="I662">
-        <v>0</v>
-      </c>
-      <c r="J662">
-        <v>0</v>
-      </c>
-      <c r="K662">
-        <v>0</v>
-      </c>
-      <c r="L662">
-        <v>1</v>
       </c>
       <c r="M662">
         <v>0</v>
@@ -31765,40 +31922,37 @@
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>7798347810224</v>
+        <v>700306601221</v>
       </c>
       <c r="B663" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="C663" t="s">
-        <v>541</v>
+        <v>670</v>
       </c>
       <c r="D663" t="s">
-        <v>44</v>
-      </c>
-      <c r="E663" t="s">
-        <v>1167</v>
+        <v>28</v>
       </c>
       <c r="F663">
-        <v>3260</v>
+        <v>4012</v>
       </c>
       <c r="G663">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="H663">
         <v>21</v>
       </c>
       <c r="I663">
-        <v>3260</v>
+        <v>4012</v>
       </c>
       <c r="J663">
-        <v>3260</v>
+        <v>4012</v>
       </c>
       <c r="K663">
-        <v>3260</v>
+        <v>4012</v>
       </c>
       <c r="L663">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M663">
         <v>0</v>
@@ -31808,41 +31962,38 @@
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A664">
-        <v>7798347810569</v>
+      <c r="A664" t="s">
+        <v>1175</v>
       </c>
       <c r="B664" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="C664" t="s">
-        <v>541</v>
+        <v>367</v>
       </c>
       <c r="D664" t="s">
-        <v>44</v>
-      </c>
-      <c r="E664" t="s">
-        <v>1167</v>
+        <v>28</v>
       </c>
       <c r="F664">
-        <v>3261</v>
+        <v>1150</v>
       </c>
       <c r="G664">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="H664">
         <v>21</v>
       </c>
       <c r="I664">
-        <v>3261</v>
+        <v>1150</v>
       </c>
       <c r="J664">
-        <v>3261</v>
+        <v>1150</v>
       </c>
       <c r="K664">
-        <v>3261</v>
+        <v>1150</v>
       </c>
       <c r="L664">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M664">
         <v>0</v>
@@ -31853,116 +32004,119 @@
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>6905416583656</v>
+        <v>7798423541356</v>
       </c>
       <c r="B665" t="s">
-        <v>1168</v>
+        <v>1177</v>
       </c>
       <c r="C665" t="s">
+        <v>78</v>
+      </c>
+      <c r="D665" t="s">
+        <v>71</v>
+      </c>
+      <c r="F665">
+        <v>4100</v>
+      </c>
+      <c r="G665">
+        <v>9500</v>
+      </c>
+      <c r="H665">
+        <v>21</v>
+      </c>
+      <c r="I665">
+        <v>4100</v>
+      </c>
+      <c r="J665">
+        <v>4100</v>
+      </c>
+      <c r="K665">
+        <v>4100</v>
+      </c>
+      <c r="L665">
+        <v>2</v>
+      </c>
+      <c r="M665">
+        <v>0</v>
+      </c>
+      <c r="N665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>7798145006027</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C666" t="s">
+        <v>468</v>
+      </c>
+      <c r="D666" t="s">
+        <v>3</v>
+      </c>
+      <c r="F666">
+        <v>2500</v>
+      </c>
+      <c r="G666">
+        <v>5000</v>
+      </c>
+      <c r="H666">
+        <v>21</v>
+      </c>
+      <c r="I666">
+        <v>2500</v>
+      </c>
+      <c r="J666">
+        <v>2500</v>
+      </c>
+      <c r="K666">
+        <v>2500</v>
+      </c>
+      <c r="L666">
+        <v>10</v>
+      </c>
+      <c r="M666">
+        <v>0</v>
+      </c>
+      <c r="N666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>7790000111020</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C667" t="s">
         <v>367</v>
       </c>
-      <c r="F665">
-        <v>1500</v>
-      </c>
-      <c r="G665">
-        <v>3000</v>
-      </c>
-      <c r="H665">
-        <v>21</v>
-      </c>
-      <c r="I665">
-        <v>1500</v>
-      </c>
-      <c r="J665">
-        <v>1500</v>
-      </c>
-      <c r="K665">
-        <v>1500</v>
-      </c>
-      <c r="L665">
-        <v>12</v>
-      </c>
-      <c r="M665">
-        <v>0</v>
-      </c>
-      <c r="N665">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C666" t="s">
-        <v>78</v>
-      </c>
-      <c r="D666" t="s">
-        <v>44</v>
-      </c>
-      <c r="F666">
-        <v>628</v>
-      </c>
-      <c r="G666">
-        <v>2500</v>
-      </c>
-      <c r="H666">
-        <v>21</v>
-      </c>
-      <c r="I666">
-        <v>628</v>
-      </c>
-      <c r="J666">
-        <v>628</v>
-      </c>
-      <c r="K666">
-        <v>628</v>
-      </c>
-      <c r="L666">
-        <v>5</v>
-      </c>
-      <c r="M666">
-        <v>0</v>
-      </c>
-      <c r="N666">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C667" t="s">
-        <v>69</v>
-      </c>
       <c r="D667" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="F667">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="G667">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="H667">
         <v>21</v>
       </c>
       <c r="I667">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="J667">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="K667">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="L667">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M667">
         <v>0</v>
@@ -31973,37 +32127,37 @@
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>6459751458518</v>
+        <v>6920220096888</v>
       </c>
       <c r="B668" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="C668" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D668" t="s">
         <v>44</v>
       </c>
       <c r="F668">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="G668">
-        <v>2500</v>
+        <v>9600</v>
       </c>
       <c r="H668">
         <v>21</v>
       </c>
       <c r="I668">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="J668">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="K668">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="L668">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M668">
         <v>0</v>
@@ -32014,37 +32168,37 @@
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B669" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="C669" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D669" t="s">
         <v>28</v>
       </c>
       <c r="F669">
-        <v>6420</v>
+        <v>3635</v>
       </c>
       <c r="G669">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="H669">
         <v>21</v>
       </c>
       <c r="I669">
-        <v>6420</v>
+        <v>3635</v>
       </c>
       <c r="J669">
-        <v>6420</v>
+        <v>3635</v>
       </c>
       <c r="K669">
-        <v>5.8</v>
+        <v>3635</v>
       </c>
       <c r="L669">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M669">
         <v>0</v>
@@ -32054,35 +32208,35 @@
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>1176</v>
+      <c r="A670">
+        <v>7795234526572</v>
       </c>
       <c r="B670" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="C670" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D670" t="s">
         <v>28</v>
       </c>
       <c r="F670">
-        <v>773</v>
+        <v>3750</v>
       </c>
       <c r="G670">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="H670">
         <v>21</v>
       </c>
       <c r="I670">
-        <v>773</v>
+        <v>3750</v>
       </c>
       <c r="J670">
-        <v>773</v>
+        <v>3750</v>
       </c>
       <c r="K670">
-        <v>773</v>
+        <v>3750</v>
       </c>
       <c r="L670">
         <v>2</v>
@@ -32095,35 +32249,35 @@
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A671">
-        <v>6989526542239</v>
+      <c r="A671" t="s">
+        <v>1184</v>
       </c>
       <c r="B671" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="C671" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D671" t="s">
         <v>28</v>
       </c>
       <c r="F671">
-        <v>2352</v>
+        <v>6288</v>
       </c>
       <c r="G671">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H671">
         <v>21</v>
       </c>
       <c r="I671">
-        <v>2352</v>
+        <v>6288</v>
       </c>
       <c r="J671">
-        <v>2352</v>
+        <v>6288</v>
       </c>
       <c r="K671">
-        <v>2352</v>
+        <v>6288</v>
       </c>
       <c r="L671">
         <v>3</v>
@@ -32137,34 +32291,34 @@
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1179</v>
+        <v>1186</v>
       </c>
       <c r="B672" t="s">
-        <v>1180</v>
+        <v>1187</v>
       </c>
       <c r="C672" t="s">
-        <v>378</v>
+        <v>69</v>
       </c>
       <c r="D672" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F672">
-        <v>38376</v>
+        <v>16700</v>
       </c>
       <c r="G672">
-        <v>96000</v>
+        <v>32000</v>
       </c>
       <c r="H672">
         <v>21</v>
       </c>
       <c r="I672">
-        <v>0</v>
+        <v>16700</v>
       </c>
       <c r="J672">
-        <v>0</v>
+        <v>16700</v>
       </c>
       <c r="K672">
-        <v>0</v>
+        <v>16700</v>
       </c>
       <c r="L672">
         <v>1</v>
@@ -32178,37 +32332,37 @@
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
       <c r="B673" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="C673" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="D673" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F673">
-        <v>17496</v>
+        <v>15900</v>
       </c>
       <c r="G673">
-        <v>34884</v>
+        <v>45000</v>
       </c>
       <c r="H673">
         <v>21</v>
       </c>
       <c r="I673">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="J673">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="K673">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="L673">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M673">
         <v>0</v>
@@ -32219,37 +32373,37 @@
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="B674" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="C674" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D674" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F674">
-        <v>5200</v>
+        <v>6815</v>
       </c>
       <c r="G674">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="H674">
         <v>21</v>
       </c>
       <c r="I674">
-        <v>0</v>
+        <v>6815</v>
       </c>
       <c r="J674">
-        <v>0</v>
+        <v>6815</v>
       </c>
       <c r="K674">
-        <v>0</v>
+        <v>6815</v>
       </c>
       <c r="L674">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M674">
         <v>0</v>
@@ -32259,38 +32413,38 @@
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
-        <v>1185</v>
+      <c r="A675">
+        <v>6902540752361</v>
       </c>
       <c r="B675" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C675" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D675" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F675">
-        <v>3724</v>
+        <v>5800</v>
       </c>
       <c r="G675">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="H675">
         <v>21</v>
       </c>
       <c r="I675">
-        <v>3724</v>
+        <v>5800</v>
       </c>
       <c r="J675">
-        <v>3724</v>
+        <v>5800</v>
       </c>
       <c r="K675">
-        <v>3724</v>
+        <v>5800</v>
       </c>
       <c r="L675">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M675">
         <v>0</v>
@@ -32301,34 +32455,34 @@
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="B676" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="C676" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="D676" t="s">
         <v>3</v>
       </c>
       <c r="F676">
-        <v>5454</v>
+        <v>15000</v>
       </c>
       <c r="G676">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="H676">
         <v>21</v>
       </c>
       <c r="I676">
-        <v>5454</v>
+        <v>15000</v>
       </c>
       <c r="J676">
-        <v>5454</v>
+        <v>15000</v>
       </c>
       <c r="K676">
-        <v>5454</v>
+        <v>15000</v>
       </c>
       <c r="L676">
         <v>2</v>
@@ -32342,37 +32496,40 @@
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>153500580</v>
+        <v>723540564022</v>
       </c>
       <c r="B677" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="C677" t="s">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="D677" t="s">
         <v>28</v>
       </c>
+      <c r="E677" t="s">
+        <v>125</v>
+      </c>
       <c r="F677">
-        <v>3934</v>
+        <v>3175</v>
       </c>
       <c r="G677">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="H677">
         <v>21</v>
       </c>
       <c r="I677">
-        <v>3934</v>
+        <v>3175</v>
       </c>
       <c r="J677">
-        <v>3934</v>
+        <v>3175</v>
       </c>
       <c r="K677">
-        <v>3934</v>
+        <v>3175</v>
       </c>
       <c r="L677">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M677">
         <v>0</v>
@@ -32383,37 +32540,37 @@
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="B678" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="C678" t="s">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="D678" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F678">
-        <v>4350</v>
+        <v>2417</v>
       </c>
       <c r="G678">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H678">
         <v>21</v>
       </c>
       <c r="I678">
-        <v>4350</v>
+        <v>2417</v>
       </c>
       <c r="J678">
-        <v>4350</v>
+        <v>2417</v>
       </c>
       <c r="K678">
-        <v>4350</v>
+        <v>2417</v>
       </c>
       <c r="L678">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M678">
         <v>0</v>
@@ -32423,38 +32580,38 @@
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A679">
-        <v>6973295330296</v>
+      <c r="A679" t="s">
+        <v>1198</v>
       </c>
       <c r="B679" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
       <c r="C679" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="D679" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F679">
-        <v>4350</v>
+        <v>3900</v>
       </c>
       <c r="G679">
-        <v>12000</v>
+        <v>8400</v>
       </c>
       <c r="H679">
         <v>21</v>
       </c>
       <c r="I679">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="J679">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="K679">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="L679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M679">
         <v>0</v>
@@ -32465,34 +32622,34 @@
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="B680" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="C680" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="D680" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F680">
-        <v>14171</v>
+        <v>4300</v>
       </c>
       <c r="G680">
-        <v>25500</v>
+        <v>9300</v>
       </c>
       <c r="H680">
         <v>21</v>
       </c>
       <c r="I680">
-        <v>14171</v>
+        <v>0</v>
       </c>
       <c r="J680">
-        <v>14171</v>
+        <v>0</v>
       </c>
       <c r="K680">
-        <v>14171</v>
+        <v>0</v>
       </c>
       <c r="L680">
         <v>1</v>
@@ -32505,38 +32662,41 @@
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>1195</v>
+      <c r="A681">
+        <v>7798347810224</v>
       </c>
       <c r="B681" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="C681" t="s">
-        <v>33</v>
+        <v>541</v>
       </c>
       <c r="D681" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="E681" t="s">
+        <v>1203</v>
       </c>
       <c r="F681">
-        <v>500</v>
+        <v>3260</v>
       </c>
       <c r="G681">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="H681">
         <v>21</v>
       </c>
       <c r="I681">
-        <v>500</v>
+        <v>3260</v>
       </c>
       <c r="J681">
-        <v>500</v>
+        <v>3260</v>
       </c>
       <c r="K681">
-        <v>500</v>
+        <v>3260</v>
       </c>
       <c r="L681">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="M681">
         <v>0</v>
@@ -32547,37 +32707,37 @@
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>701575361335</v>
+        <v>7798347810569</v>
       </c>
       <c r="B682" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="C682" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="D682" t="s">
         <v>44</v>
       </c>
       <c r="E682" t="s">
-        <v>455</v>
+        <v>1203</v>
       </c>
       <c r="F682">
-        <v>6467</v>
+        <v>3261</v>
       </c>
       <c r="G682">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="H682">
         <v>21</v>
       </c>
       <c r="I682">
-        <v>6467</v>
+        <v>3261</v>
       </c>
       <c r="J682">
-        <v>6467</v>
+        <v>3261</v>
       </c>
       <c r="K682">
-        <v>6467</v>
+        <v>3261</v>
       </c>
       <c r="L682">
         <v>1</v>
@@ -32590,38 +32750,35 @@
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>1198</v>
+      <c r="A683">
+        <v>6905416583656</v>
       </c>
       <c r="B683" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="C683" t="s">
-        <v>544</v>
-      </c>
-      <c r="D683" t="s">
-        <v>3</v>
+        <v>367</v>
       </c>
       <c r="F683">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G683">
-        <v>49280</v>
+        <v>3000</v>
       </c>
       <c r="H683">
         <v>21</v>
       </c>
       <c r="I683">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J683">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K683">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L683">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M683">
         <v>0</v>
@@ -32632,37 +32789,37 @@
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="B684" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="C684" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D684" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F684">
-        <v>17200</v>
+        <v>628</v>
       </c>
       <c r="G684">
-        <v>35999</v>
+        <v>2500</v>
       </c>
       <c r="H684">
         <v>21</v>
       </c>
       <c r="I684">
-        <v>17200</v>
+        <v>628</v>
       </c>
       <c r="J684">
-        <v>17200</v>
+        <v>628</v>
       </c>
       <c r="K684">
-        <v>17200</v>
+        <v>628</v>
       </c>
       <c r="L684">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M684">
         <v>0</v>
@@ -32673,37 +32830,37 @@
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B685" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="C685" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D685" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F685">
-        <v>2170.5100000000002</v>
+        <v>4800</v>
       </c>
       <c r="G685">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="H685">
         <v>21</v>
       </c>
       <c r="I685">
-        <v>2170.5</v>
+        <v>4800</v>
       </c>
       <c r="J685">
-        <v>2170.5</v>
+        <v>4800</v>
       </c>
       <c r="K685">
-        <v>2170.5</v>
+        <v>4800</v>
       </c>
       <c r="L685">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M685">
         <v>0</v>
@@ -32713,38 +32870,38 @@
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
-        <v>1203</v>
+      <c r="A686">
+        <v>6459751458518</v>
       </c>
       <c r="B686" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="C686" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D686" t="s">
         <v>44</v>
       </c>
       <c r="F686">
-        <v>3613.61</v>
+        <v>608</v>
       </c>
       <c r="G686">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="H686">
         <v>21</v>
       </c>
       <c r="I686">
-        <v>3613.6</v>
+        <v>608</v>
       </c>
       <c r="J686">
-        <v>3613.6</v>
+        <v>608</v>
       </c>
       <c r="K686">
-        <v>3613.6</v>
+        <v>608</v>
       </c>
       <c r="L686">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M686">
         <v>0</v>
@@ -32755,45 +32912,786 @@
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="B687" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C687" t="s">
+        <v>53</v>
+      </c>
+      <c r="D687" t="s">
+        <v>28</v>
+      </c>
+      <c r="F687">
+        <v>6420</v>
+      </c>
+      <c r="G687">
+        <v>18000</v>
+      </c>
+      <c r="H687">
+        <v>21</v>
+      </c>
+      <c r="I687">
+        <v>6420</v>
+      </c>
+      <c r="J687">
+        <v>6420</v>
+      </c>
+      <c r="K687">
+        <v>5.8</v>
+      </c>
+      <c r="L687">
+        <v>1</v>
+      </c>
+      <c r="M687">
+        <v>0</v>
+      </c>
+      <c r="N687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C688" t="s">
+        <v>33</v>
+      </c>
+      <c r="D688" t="s">
+        <v>28</v>
+      </c>
+      <c r="F688">
+        <v>773</v>
+      </c>
+      <c r="G688">
+        <v>3500</v>
+      </c>
+      <c r="H688">
+        <v>21</v>
+      </c>
+      <c r="I688">
+        <v>773</v>
+      </c>
+      <c r="J688">
+        <v>773</v>
+      </c>
+      <c r="K688">
+        <v>773</v>
+      </c>
+      <c r="L688">
+        <v>2</v>
+      </c>
+      <c r="M688">
+        <v>0</v>
+      </c>
+      <c r="N688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>6989526542239</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C689" t="s">
+        <v>53</v>
+      </c>
+      <c r="D689" t="s">
+        <v>28</v>
+      </c>
+      <c r="F689">
+        <v>2352</v>
+      </c>
+      <c r="G689">
+        <v>8000</v>
+      </c>
+      <c r="H689">
+        <v>21</v>
+      </c>
+      <c r="I689">
+        <v>2352</v>
+      </c>
+      <c r="J689">
+        <v>2352</v>
+      </c>
+      <c r="K689">
+        <v>2352</v>
+      </c>
+      <c r="L689">
+        <v>3</v>
+      </c>
+      <c r="M689">
+        <v>0</v>
+      </c>
+      <c r="N689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C690" t="s">
+        <v>378</v>
+      </c>
+      <c r="D690" t="s">
+        <v>3</v>
+      </c>
+      <c r="F690">
+        <v>38376</v>
+      </c>
+      <c r="G690">
+        <v>96000</v>
+      </c>
+      <c r="H690">
+        <v>21</v>
+      </c>
+      <c r="I690">
+        <v>0</v>
+      </c>
+      <c r="J690">
+        <v>0</v>
+      </c>
+      <c r="K690">
+        <v>0</v>
+      </c>
+      <c r="L690">
+        <v>1</v>
+      </c>
+      <c r="M690">
+        <v>0</v>
+      </c>
+      <c r="N690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C691" t="s">
+        <v>56</v>
+      </c>
+      <c r="D691" t="s">
+        <v>3</v>
+      </c>
+      <c r="F691">
+        <v>17496</v>
+      </c>
+      <c r="G691">
+        <v>34884</v>
+      </c>
+      <c r="H691">
+        <v>21</v>
+      </c>
+      <c r="I691">
+        <v>0</v>
+      </c>
+      <c r="J691">
+        <v>0</v>
+      </c>
+      <c r="K691">
+        <v>0</v>
+      </c>
+      <c r="L691">
+        <v>3</v>
+      </c>
+      <c r="M691">
+        <v>0</v>
+      </c>
+      <c r="N691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C692" t="s">
+        <v>246</v>
+      </c>
+      <c r="D692" t="s">
+        <v>3</v>
+      </c>
+      <c r="F692">
+        <v>5200</v>
+      </c>
+      <c r="G692">
+        <v>7000</v>
+      </c>
+      <c r="H692">
+        <v>21</v>
+      </c>
+      <c r="I692">
+        <v>0</v>
+      </c>
+      <c r="J692">
+        <v>0</v>
+      </c>
+      <c r="K692">
+        <v>0</v>
+      </c>
+      <c r="L692">
+        <v>38</v>
+      </c>
+      <c r="M692">
+        <v>0</v>
+      </c>
+      <c r="N692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C693" t="s">
+        <v>246</v>
+      </c>
+      <c r="D693" t="s">
+        <v>3</v>
+      </c>
+      <c r="F693">
+        <v>3724</v>
+      </c>
+      <c r="G693">
+        <v>7000</v>
+      </c>
+      <c r="H693">
+        <v>21</v>
+      </c>
+      <c r="I693">
+        <v>3724</v>
+      </c>
+      <c r="J693">
+        <v>3724</v>
+      </c>
+      <c r="K693">
+        <v>3724</v>
+      </c>
+      <c r="L693">
+        <v>24</v>
+      </c>
+      <c r="M693">
+        <v>0</v>
+      </c>
+      <c r="N693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C694" t="s">
+        <v>246</v>
+      </c>
+      <c r="D694" t="s">
+        <v>3</v>
+      </c>
+      <c r="F694">
+        <v>5454</v>
+      </c>
+      <c r="G694">
+        <v>9000</v>
+      </c>
+      <c r="H694">
+        <v>21</v>
+      </c>
+      <c r="I694">
+        <v>5454</v>
+      </c>
+      <c r="J694">
+        <v>5454</v>
+      </c>
+      <c r="K694">
+        <v>5454</v>
+      </c>
+      <c r="L694">
+        <v>2</v>
+      </c>
+      <c r="M694">
+        <v>0</v>
+      </c>
+      <c r="N694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>153500580</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C695" t="s">
+        <v>69</v>
+      </c>
+      <c r="D695" t="s">
+        <v>28</v>
+      </c>
+      <c r="F695">
+        <v>3934</v>
+      </c>
+      <c r="G695">
+        <v>10000</v>
+      </c>
+      <c r="H695">
+        <v>21</v>
+      </c>
+      <c r="I695">
+        <v>3934</v>
+      </c>
+      <c r="J695">
+        <v>3934</v>
+      </c>
+      <c r="K695">
+        <v>3934</v>
+      </c>
+      <c r="L695">
+        <v>2</v>
+      </c>
+      <c r="M695">
+        <v>0</v>
+      </c>
+      <c r="N695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C696" t="s">
+        <v>69</v>
+      </c>
+      <c r="D696" t="s">
+        <v>28</v>
+      </c>
+      <c r="F696">
+        <v>4350</v>
+      </c>
+      <c r="G696">
+        <v>12000</v>
+      </c>
+      <c r="H696">
+        <v>21</v>
+      </c>
+      <c r="I696">
+        <v>4350</v>
+      </c>
+      <c r="J696">
+        <v>4350</v>
+      </c>
+      <c r="K696">
+        <v>4350</v>
+      </c>
+      <c r="L696">
+        <v>1</v>
+      </c>
+      <c r="M696">
+        <v>0</v>
+      </c>
+      <c r="N696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>6973295330296</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C697" t="s">
+        <v>69</v>
+      </c>
+      <c r="D697" t="s">
+        <v>28</v>
+      </c>
+      <c r="F697">
+        <v>4350</v>
+      </c>
+      <c r="G697">
+        <v>12000</v>
+      </c>
+      <c r="H697">
+        <v>21</v>
+      </c>
+      <c r="I697">
+        <v>4350</v>
+      </c>
+      <c r="J697">
+        <v>4350</v>
+      </c>
+      <c r="K697">
+        <v>4350</v>
+      </c>
+      <c r="L697">
+        <v>1</v>
+      </c>
+      <c r="M697">
+        <v>0</v>
+      </c>
+      <c r="N697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C698" t="s">
+        <v>69</v>
+      </c>
+      <c r="D698" t="s">
+        <v>44</v>
+      </c>
+      <c r="F698">
+        <v>14171</v>
+      </c>
+      <c r="G698">
+        <v>25500</v>
+      </c>
+      <c r="H698">
+        <v>21</v>
+      </c>
+      <c r="I698">
+        <v>14171</v>
+      </c>
+      <c r="J698">
+        <v>14171</v>
+      </c>
+      <c r="K698">
+        <v>14171</v>
+      </c>
+      <c r="L698">
+        <v>1</v>
+      </c>
+      <c r="M698">
+        <v>0</v>
+      </c>
+      <c r="N698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C699" t="s">
+        <v>33</v>
+      </c>
+      <c r="D699" t="s">
+        <v>3</v>
+      </c>
+      <c r="F699">
+        <v>500</v>
+      </c>
+      <c r="G699">
+        <v>2000</v>
+      </c>
+      <c r="H699">
+        <v>21</v>
+      </c>
+      <c r="I699">
+        <v>500</v>
+      </c>
+      <c r="J699">
+        <v>500</v>
+      </c>
+      <c r="K699">
+        <v>500</v>
+      </c>
+      <c r="L699">
+        <v>559</v>
+      </c>
+      <c r="M699">
+        <v>0</v>
+      </c>
+      <c r="N699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>701575361335</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C700" t="s">
+        <v>577</v>
+      </c>
+      <c r="D700" t="s">
+        <v>44</v>
+      </c>
+      <c r="E700" t="s">
+        <v>455</v>
+      </c>
+      <c r="F700">
+        <v>6467</v>
+      </c>
+      <c r="G700">
+        <v>12000</v>
+      </c>
+      <c r="H700">
+        <v>21</v>
+      </c>
+      <c r="I700">
+        <v>6467</v>
+      </c>
+      <c r="J700">
+        <v>6467</v>
+      </c>
+      <c r="K700">
+        <v>6467</v>
+      </c>
+      <c r="L700">
+        <v>1</v>
+      </c>
+      <c r="M700">
+        <v>0</v>
+      </c>
+      <c r="N700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C701" t="s">
+        <v>544</v>
+      </c>
+      <c r="D701" t="s">
+        <v>3</v>
+      </c>
+      <c r="F701">
+        <v>0</v>
+      </c>
+      <c r="G701">
+        <v>49280</v>
+      </c>
+      <c r="H701">
+        <v>21</v>
+      </c>
+      <c r="I701">
+        <v>0</v>
+      </c>
+      <c r="J701">
+        <v>0</v>
+      </c>
+      <c r="K701">
+        <v>0</v>
+      </c>
+      <c r="L701">
+        <v>0</v>
+      </c>
+      <c r="M701">
+        <v>0</v>
+      </c>
+      <c r="N701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C702" t="s">
+        <v>56</v>
+      </c>
+      <c r="D702" t="s">
+        <v>3</v>
+      </c>
+      <c r="F702">
+        <v>17200</v>
+      </c>
+      <c r="G702">
+        <v>35999</v>
+      </c>
+      <c r="H702">
+        <v>21</v>
+      </c>
+      <c r="I702">
+        <v>17200</v>
+      </c>
+      <c r="J702">
+        <v>17200</v>
+      </c>
+      <c r="K702">
+        <v>17200</v>
+      </c>
+      <c r="L702">
+        <v>1</v>
+      </c>
+      <c r="M702">
+        <v>0</v>
+      </c>
+      <c r="N702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C703" t="s">
         <v>20</v>
       </c>
-      <c r="D687" t="s">
+      <c r="D703" t="s">
         <v>44</v>
       </c>
-      <c r="E687" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F687">
+      <c r="F703">
+        <v>2170.5100000000002</v>
+      </c>
+      <c r="G703">
+        <v>4500</v>
+      </c>
+      <c r="H703">
+        <v>21</v>
+      </c>
+      <c r="I703">
+        <v>2170.5</v>
+      </c>
+      <c r="J703">
+        <v>2170.5</v>
+      </c>
+      <c r="K703">
+        <v>2170.5</v>
+      </c>
+      <c r="L703">
+        <v>2</v>
+      </c>
+      <c r="M703">
+        <v>0</v>
+      </c>
+      <c r="N703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C704" t="s">
+        <v>20</v>
+      </c>
+      <c r="D704" t="s">
+        <v>44</v>
+      </c>
+      <c r="F704">
+        <v>3613.61</v>
+      </c>
+      <c r="G704">
+        <v>7500</v>
+      </c>
+      <c r="H704">
+        <v>21</v>
+      </c>
+      <c r="I704">
+        <v>3613.6</v>
+      </c>
+      <c r="J704">
+        <v>3613.6</v>
+      </c>
+      <c r="K704">
+        <v>3613.6</v>
+      </c>
+      <c r="L704">
+        <v>0</v>
+      </c>
+      <c r="M704">
+        <v>0</v>
+      </c>
+      <c r="N704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C705" t="s">
+        <v>20</v>
+      </c>
+      <c r="D705" t="s">
+        <v>44</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F705">
         <v>4588</v>
       </c>
-      <c r="G687">
+      <c r="G705">
         <v>13000</v>
       </c>
-      <c r="H687">
-        <v>21</v>
-      </c>
-      <c r="I687">
+      <c r="H705">
+        <v>21</v>
+      </c>
+      <c r="I705">
         <v>4588</v>
       </c>
-      <c r="J687">
+      <c r="J705">
         <v>4588</v>
       </c>
-      <c r="K687">
+      <c r="K705">
         <v>4588</v>
       </c>
-      <c r="L687">
-        <v>0</v>
-      </c>
-      <c r="M687">
-        <v>0</v>
-      </c>
-      <c r="N687">
+      <c r="L705">
+        <v>0</v>
+      </c>
+      <c r="M705">
+        <v>0</v>
+      </c>
+      <c r="N705">
         <v>0</v>
       </c>
     </row>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B692FC7-0CE7-46C7-8646-96AA3BEF6932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{983C5282-5E86-4809-A404-30E2518892ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{90FF40BA-09F7-4E2D-8CF8-CA40C765FDB3}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{9ACFEC2B-DA93-403A-93DE-18143EFC8EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4234,7 +4234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E05B2AE-BC60-4016-9D99-5059BEE7E27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B564530-FDE9-4F68-A827-DEAAF24B2D79}">
   <dimension ref="A1:N720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6342,7 +6342,7 @@
         <v>3861</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         <v>1200</v>
       </c>
       <c r="L184">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>6815477896711</v>
+        <v>723540563940</v>
       </c>
       <c r="B277" t="s">
         <v>498</v>
@@ -15892,25 +15892,25 @@
         <v>57</v>
       </c>
       <c r="F277">
-        <v>2700</v>
+        <v>2262</v>
       </c>
       <c r="G277">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="H277">
         <v>21</v>
       </c>
       <c r="I277">
-        <v>2700</v>
+        <v>2262</v>
       </c>
       <c r="J277">
-        <v>2700</v>
+        <v>2262</v>
       </c>
       <c r="K277">
-        <v>2700</v>
+        <v>2262</v>
       </c>
       <c r="L277">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M277">
         <v>0</v>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="L319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M319">
         <v>0</v>
@@ -26757,7 +26757,7 @@
         <v>28</v>
       </c>
       <c r="F536">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G536">
         <v>500</v>
@@ -26766,16 +26766,16 @@
         <v>21</v>
       </c>
       <c r="I536">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J536">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K536">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L536">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="M536">
         <v>0</v>
@@ -26836,7 +26836,7 @@
         <v>367</v>
       </c>
       <c r="F538">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G538">
         <v>500</v>
@@ -26845,16 +26845,16 @@
         <v>21</v>
       </c>
       <c r="I538">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J538">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K538">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L538">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="M538">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{983C5282-5E86-4809-A404-30E2518892ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{570667D4-2B71-4568-BD8B-C537F6FD3C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{9ACFEC2B-DA93-403A-93DE-18143EFC8EE8}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{0D92C7B7-BB20-43E9-8756-80BB5DA1C6FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4234,7 +4234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B564530-FDE9-4F68-A827-DEAAF24B2D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8BFFB-ABC1-4C4A-8DAA-72A4DAA83161}">
   <dimension ref="A1:N720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10184,7 +10184,7 @@
         <v>1230</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>22000</v>
       </c>
       <c r="L442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M442">
         <v>0</v>
@@ -23891,7 +23891,7 @@
         <v>54000</v>
       </c>
       <c r="L468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M468">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5451F0C1-B17B-414F-BFB5-BE7587E6E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF4C03B-F687-431C-9ED1-09E846691880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{7E32535E-D4FE-459F-9438-C8BDFA6BB946}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9C32FDF-21AA-4F2B-BF49-01A020A0BC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="1282">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4252,7 +4252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42172FF-C756-48B3-8E5B-8FEC31F5BDE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C0900-5407-4B36-9425-B0359AE6DBCD}">
   <dimension ref="A1:N722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -11998,7 +11998,7 @@
         <v>1200</v>
       </c>
       <c r="L184">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -13270,7 +13270,7 @@
         <v>2160</v>
       </c>
       <c r="L214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M214">
         <v>1</v>
@@ -20433,25 +20433,25 @@
         <v>194</v>
       </c>
       <c r="F386">
-        <v>12772</v>
+        <v>10560</v>
       </c>
       <c r="G386">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="H386">
         <v>21</v>
       </c>
       <c r="I386">
-        <v>12772</v>
+        <v>10560</v>
       </c>
       <c r="J386">
-        <v>22000</v>
+        <v>18189.599999999999</v>
       </c>
       <c r="K386">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L386">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M386">
         <v>0</v>
@@ -21141,8 +21141,11 @@
       <c r="D403" t="s">
         <v>66</v>
       </c>
+      <c r="E403" t="s">
+        <v>194</v>
+      </c>
       <c r="F403">
-        <v>9555</v>
+        <v>10296</v>
       </c>
       <c r="G403">
         <v>35000</v>
@@ -21151,16 +21154,16 @@
         <v>21</v>
       </c>
       <c r="I403">
-        <v>9555</v>
+        <v>10296</v>
       </c>
       <c r="J403">
-        <v>9555</v>
+        <v>10296</v>
       </c>
       <c r="K403">
         <v>20000</v>
       </c>
       <c r="L403">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M403">
         <v>0</v>
@@ -22575,7 +22578,7 @@
         <v>172</v>
       </c>
       <c r="F437">
-        <v>9750</v>
+        <v>8844</v>
       </c>
       <c r="G437">
         <v>35000</v>
@@ -22584,16 +22587,16 @@
         <v>21</v>
       </c>
       <c r="I437">
-        <v>9750</v>
+        <v>8844</v>
       </c>
       <c r="J437">
-        <v>9750</v>
+        <v>8844</v>
       </c>
       <c r="K437">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L437">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M437">
         <v>0</v>
@@ -22915,7 +22918,7 @@
         <v>66</v>
       </c>
       <c r="F445">
-        <v>12276</v>
+        <v>11484</v>
       </c>
       <c r="G445">
         <v>35000</v>
@@ -22924,16 +22927,16 @@
         <v>21</v>
       </c>
       <c r="I445">
-        <v>12276</v>
+        <v>11484</v>
       </c>
       <c r="J445">
-        <v>22000</v>
+        <v>20580.5</v>
       </c>
       <c r="K445">
         <v>20000</v>
       </c>
       <c r="L445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M445">
         <v>0</v>
@@ -23947,13 +23950,13 @@
         <v>30012</v>
       </c>
       <c r="J469">
-        <v>54000</v>
+        <v>30012</v>
       </c>
       <c r="K469">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="L469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M469">
         <v>0</v>
@@ -24439,7 +24442,7 @@
         <v>885</v>
       </c>
       <c r="F481">
-        <v>14756</v>
+        <v>13200</v>
       </c>
       <c r="G481">
         <v>42000</v>
@@ -24448,16 +24451,16 @@
         <v>21</v>
       </c>
       <c r="I481">
-        <v>14756</v>
+        <v>13200</v>
       </c>
       <c r="J481">
-        <v>26000</v>
+        <v>23258.400000000001</v>
       </c>
       <c r="K481">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L481">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M481">
         <v>0</v>
@@ -24498,7 +24501,7 @@
         <v>23000</v>
       </c>
       <c r="K482">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L482">
         <v>1</v>
@@ -24545,7 +24548,7 @@
         <v>23000</v>
       </c>
       <c r="L483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M483">
         <v>0</v>
@@ -25483,7 +25486,7 @@
         <v>12037</v>
       </c>
       <c r="L505">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M505">
         <v>0</v>
@@ -28308,7 +28311,7 @@
         <v>10000</v>
       </c>
       <c r="L572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M572">
         <v>0</v>
@@ -28528,7 +28531,7 @@
         <v>10000</v>
       </c>
       <c r="L577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M577">
         <v>0</v>
@@ -34380,7 +34383,7 @@
         <v>500</v>
       </c>
       <c r="L716">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M716">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF4C03B-F687-431C-9ED1-09E846691880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD8007A5-C34D-4FA0-BF8C-8501E096AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9C32FDF-21AA-4F2B-BF49-01A020A0BC5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F456F6A-2D8A-444C-8DA0-1A3FBAEA6831}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4252,7 +4252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C0900-5407-4B36-9425-B0359AE6DBCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C54F33D-E388-4AF8-AD66-1EB5BCC1250E}">
   <dimension ref="A1:N722"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6096,7 +6096,7 @@
         <v>3299</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>346</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>500</v>
       </c>
       <c r="L137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -11998,7 +11998,7 @@
         <v>1200</v>
       </c>
       <c r="L184">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -12165,7 +12165,7 @@
         <v>1300</v>
       </c>
       <c r="L188">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -17498,7 +17498,7 @@
         <v>950</v>
       </c>
       <c r="L315">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M315">
         <v>0</v>
@@ -21418,7 +21418,7 @@
         <v>22000</v>
       </c>
       <c r="L409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M409">
         <v>0</v>
@@ -22042,7 +22042,7 @@
         <v>24000</v>
       </c>
       <c r="L424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M424">
         <v>0</v>
@@ -22766,7 +22766,7 @@
         <v>20000</v>
       </c>
       <c r="L441">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M441">
         <v>0</v>
@@ -23487,7 +23487,7 @@
         <v>27000</v>
       </c>
       <c r="L458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M458">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>112</v>
       </c>
       <c r="L540">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M540">
         <v>0</v>
@@ -28531,7 +28531,7 @@
         <v>10000</v>
       </c>
       <c r="L577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M577">
         <v>0</v>
@@ -30507,7 +30507,7 @@
         <v>1765</v>
       </c>
       <c r="L623">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M623">
         <v>0</v>
@@ -32177,7 +32177,7 @@
         <v>0</v>
       </c>
       <c r="L663">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M663">
         <v>0</v>
@@ -32666,7 +32666,7 @@
         <v>0</v>
       </c>
       <c r="G675">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="H675">
         <v>21</v>
@@ -32681,7 +32681,7 @@
         <v>0</v>
       </c>
       <c r="L675">
-        <v>-5.5999999046325701</v>
+        <v>0</v>
       </c>
       <c r="M675">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>500</v>
       </c>
       <c r="L716">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M716">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F70E740-A61A-48E3-A284-B8A3832AA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C8BE74-DF49-40AB-9FC0-2AB7F66C4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06891C9D-33BD-4AD2-B943-A33BCB478A4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C90A44-3D37-4BA5-8F16-3DBB20CF019F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4046,7 +4046,7 @@
     <t>FUENTETVBOX</t>
   </si>
   <si>
-    <t>TRANSFORMADOR TV BOX 5V 2A</t>
+    <t>TRANSFORMADOR SMART TV BOX 5V 2A</t>
   </si>
   <si>
     <t>PATRA7726</t>
@@ -4573,7 +4573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1758981F-3526-46B5-8EDC-2CB7F1836D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF10B55-2617-4771-AEB9-CF54928E2988}">
   <dimension ref="A1:N770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5986,7 +5986,7 @@
         <v>11400</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>18000</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>5200</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>8500</v>
       </c>
       <c r="L241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M241">
         <v>0</v>
@@ -21001,7 +21001,7 @@
         <v>3132</v>
       </c>
       <c r="G391">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H391">
         <v>21</v>
@@ -21130,7 +21130,7 @@
         <v>9300</v>
       </c>
       <c r="G394">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H394">
         <v>21</v>
@@ -21174,7 +21174,7 @@
         <v>10560</v>
       </c>
       <c r="G395">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H395">
         <v>21</v>
@@ -21303,7 +21303,7 @@
         <v>12136</v>
       </c>
       <c r="G398">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H398">
         <v>21</v>
@@ -21347,7 +21347,7 @@
         <v>14457</v>
       </c>
       <c r="G399">
-        <v>42000</v>
+        <v>48000</v>
       </c>
       <c r="H399">
         <v>21</v>
@@ -21388,7 +21388,7 @@
         <v>10920</v>
       </c>
       <c r="G400">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H400">
         <v>21</v>
@@ -21766,7 +21766,7 @@
         <v>11160</v>
       </c>
       <c r="G409">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H409">
         <v>21</v>
@@ -21848,7 +21848,7 @@
         <v>11780</v>
       </c>
       <c r="G411">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H411">
         <v>21</v>
@@ -22018,7 +22018,7 @@
         <v>10296</v>
       </c>
       <c r="G415">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H415">
         <v>21</v>
@@ -22033,7 +22033,7 @@
         <v>20000</v>
       </c>
       <c r="L415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M415">
         <v>0</v>
@@ -22118,7 +22118,7 @@
         <v>24000</v>
       </c>
       <c r="L417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M417">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>24000</v>
       </c>
       <c r="L482">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M482">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>6519</v>
       </c>
       <c r="L720">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M720">
         <v>0</v>
@@ -35856,7 +35856,7 @@
         <v>2417</v>
       </c>
       <c r="L740">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M740">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C8BE74-DF49-40AB-9FC0-2AB7F66C4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB82A15-4778-4F03-9485-0D4367B84BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C90A44-3D37-4BA5-8F16-3DBB20CF019F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B76DA64B-C6F8-4752-80F1-F2FFC71963E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1389">
   <si>
     <t>CODIGO</t>
   </si>
@@ -2207,576 +2207,576 @@
     <t>MOD MOTO E15/ G05/ D15/ G15</t>
   </si>
   <si>
+    <t>MODMOTE20</t>
+  </si>
+  <si>
+    <t>MOD MOTO E20</t>
+  </si>
+  <si>
+    <t>MODMOTE20M</t>
+  </si>
+  <si>
+    <t>MOD MOTO E20 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODMOTE22</t>
+  </si>
+  <si>
+    <t>MOD MOTO E22/E22I/E22S</t>
+  </si>
+  <si>
+    <t>MODMOTE32CM</t>
+  </si>
+  <si>
+    <t>MOD MOTO E32 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODMOTG22</t>
+  </si>
+  <si>
+    <t>MOD MOTO E32/G22/E32S/E22S</t>
+  </si>
+  <si>
+    <t>MODMOTE40CM</t>
+  </si>
+  <si>
+    <t>MOD MOTO E40 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODE40E30</t>
+  </si>
+  <si>
+    <t>MOD MOTO E40/E30</t>
+  </si>
+  <si>
+    <t>MODMOTE5PY</t>
+  </si>
+  <si>
+    <t>MOD MOTO E5 PLAY</t>
+  </si>
+  <si>
+    <t>MODMOTE5P2</t>
+  </si>
+  <si>
+    <t>MOD MOTO E5 PLAY GO</t>
+  </si>
+  <si>
+    <t>MODMOTE5PL</t>
+  </si>
+  <si>
+    <t>MOD MOTO E5 PLUS</t>
+  </si>
+  <si>
+    <t>MODMOT5G6</t>
+  </si>
+  <si>
+    <t>MOD MOTO E5/G6PLAY</t>
+  </si>
+  <si>
+    <t>MODMOTE6PY</t>
+  </si>
+  <si>
+    <t>MOD MOTO E6 PLAY</t>
+  </si>
+  <si>
+    <t>MODMOTE6PL</t>
+  </si>
+  <si>
+    <t>MOD MOTO E6 PLUS</t>
+  </si>
+  <si>
+    <t>MODMOTE6</t>
+  </si>
+  <si>
+    <t>MOD MOTO E6 XT2005</t>
+  </si>
+  <si>
+    <t>NOVOCELL</t>
+  </si>
+  <si>
+    <t>MODMOTE6S</t>
+  </si>
+  <si>
+    <t>MOD MOTO E6S/E6I</t>
+  </si>
+  <si>
+    <t>MODG9PLAY</t>
+  </si>
+  <si>
+    <t>MOD MOTO E7 PLUS/G9 PLAY</t>
+  </si>
+  <si>
+    <t>MODMOTE7CM</t>
+  </si>
+  <si>
+    <t>MOD MOTO E7 POWER/E7I/E7I POWER C.MARCO</t>
+  </si>
+  <si>
+    <t>MODMOTE7CM2</t>
+  </si>
+  <si>
+    <t>MOD MOTO E7 XT2095 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODMOTE7P</t>
+  </si>
+  <si>
+    <t>MOD MOTO E7/E7 POWER/E7I/E7I POWER</t>
+  </si>
+  <si>
+    <t>MODMOTGPLAY</t>
+  </si>
+  <si>
+    <t>MOD MOTO G PLAY 2021/G9B</t>
+  </si>
+  <si>
+    <t>MODMOTG04</t>
+  </si>
+  <si>
+    <t>MOD MOTO G04/E14/G24/G24 POWER</t>
+  </si>
+  <si>
+    <t>SILEO</t>
+  </si>
+  <si>
+    <t>MODMOTG30</t>
+  </si>
+  <si>
+    <t>MOD MOTO G10/G20/G30 C.MARCO</t>
+  </si>
+  <si>
+    <t>MOTO</t>
+  </si>
+  <si>
+    <t>MODMOTG20</t>
+  </si>
+  <si>
+    <t>MOD MOTO G10/G20/G30/G10 POWER</t>
+  </si>
+  <si>
+    <t>MODMOTG13CM</t>
+  </si>
+  <si>
+    <t>MOD MOTO G13/G23 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODMOTG13</t>
+  </si>
+  <si>
+    <t>MOD MOTO G13/G23/G34/G53/G45 5G</t>
+  </si>
+  <si>
+    <t>MODMOTG14</t>
+  </si>
+  <si>
+    <t>MOD MOTO G14/G54 5G</t>
+  </si>
+  <si>
+    <t>MODMOTG2</t>
+  </si>
+  <si>
+    <t>MOD MOTO G2</t>
+  </si>
+  <si>
+    <t>MODMOTG32</t>
+  </si>
+  <si>
+    <t>MOD MOTO G32/G73</t>
+  </si>
+  <si>
+    <t>MODMOTG5PL</t>
+  </si>
+  <si>
+    <t>MOD MOTO G5 PLUS</t>
+  </si>
+  <si>
+    <t>MODMOTG51</t>
+  </si>
+  <si>
+    <t>MOD MOTO G51 /G60 /G60S /G40 FUSION</t>
+  </si>
+  <si>
+    <t>MODMOTG5S</t>
+  </si>
+  <si>
+    <t>MOD MOTO G5S</t>
+  </si>
+  <si>
+    <t>MODMOTG5SP</t>
+  </si>
+  <si>
+    <t>MOD MOTO G5S PLUS</t>
+  </si>
+  <si>
+    <t>MODMOTG6</t>
+  </si>
+  <si>
+    <t>MOD MOTO G6</t>
+  </si>
+  <si>
+    <t>MODMOTG6PL</t>
+  </si>
+  <si>
+    <t>MOD MOTO G6 PLUS</t>
+  </si>
+  <si>
+    <t>MODMOTG7PY</t>
+  </si>
+  <si>
+    <t>MOD MOTO G7 PLAY</t>
+  </si>
+  <si>
+    <t>MODMOTG7PW</t>
+  </si>
+  <si>
+    <t>MOD MOTO G7 POWER</t>
+  </si>
+  <si>
+    <t>MODMOTG7PL</t>
+  </si>
+  <si>
+    <t>MOD MOTO G7/G7 PLUS</t>
+  </si>
+  <si>
+    <t>MODMOTG8</t>
+  </si>
+  <si>
+    <t>MOD MOTO G8</t>
+  </si>
+  <si>
+    <t>MODMOTG8PL</t>
+  </si>
+  <si>
+    <t>MOD MOTO G8 PLAY/ONE MACRO</t>
+  </si>
+  <si>
+    <t>MODMOTG8PS</t>
+  </si>
+  <si>
+    <t>MOD MOTO G8 PLUS</t>
+  </si>
+  <si>
+    <t>MODMOTG8P</t>
+  </si>
+  <si>
+    <t>MOD MOTO G8 POWER</t>
+  </si>
+  <si>
+    <t>MODMOTG8LT</t>
+  </si>
+  <si>
+    <t>MOD MOTO G8 POWER LITE</t>
+  </si>
+  <si>
+    <t>MODMOTONEF</t>
+  </si>
+  <si>
+    <t>MOD MOTO ONE FUSION</t>
+  </si>
+  <si>
+    <t>MODMOTONEH</t>
+  </si>
+  <si>
+    <t>MOD MOTO ONE HYPER  (XT2027)</t>
+  </si>
+  <si>
+    <t>MODNOK23</t>
+  </si>
+  <si>
+    <t>MOD NOKIA 2.3</t>
+  </si>
+  <si>
+    <t>ELECTRO CELULAR</t>
+  </si>
+  <si>
+    <t>MODNOK24</t>
+  </si>
+  <si>
+    <t>MOD NOKIA 2.4</t>
+  </si>
+  <si>
+    <t>MODNOK31</t>
+  </si>
+  <si>
+    <t>MOD NOKIA 3.1</t>
+  </si>
+  <si>
+    <t>MODNOK32</t>
+  </si>
+  <si>
+    <t>MOD NOKIA 3.2</t>
+  </si>
+  <si>
+    <t>MODNOK71</t>
+  </si>
+  <si>
+    <t>MOD NOKIA 7.1 PLUS</t>
+  </si>
+  <si>
+    <t>MODSAMA01</t>
+  </si>
+  <si>
+    <t>MOD SAMS A01</t>
+  </si>
+  <si>
+    <t>MODSAM1COR</t>
+  </si>
+  <si>
+    <t>MOD SAMS A01 CORE</t>
+  </si>
+  <si>
+    <t>MODSAMA12</t>
+  </si>
+  <si>
+    <t>MOD SAMS A02/A12/A32 5G UNIVERSAL</t>
+  </si>
+  <si>
+    <t>MODSAMA02</t>
+  </si>
+  <si>
+    <t>MOD SAMS A02/M12/A127F/A125</t>
+  </si>
+  <si>
+    <t>MODSAMA03</t>
+  </si>
+  <si>
+    <t>MOD SAMS A02S/A03/A03S/A04E</t>
+  </si>
+  <si>
+    <t>MODSAMA03M</t>
+  </si>
+  <si>
+    <t>MOD SAMS A03 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA3CO</t>
+  </si>
+  <si>
+    <t>MOD SAMS A03 CORE</t>
+  </si>
+  <si>
+    <t>MODSAMA03CM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A03S C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA04</t>
+  </si>
+  <si>
+    <t>MOD SAMS A04</t>
+  </si>
+  <si>
+    <t>MODSAMA04CM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A04 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA04E</t>
+  </si>
+  <si>
+    <t>MOD SAMS A04E</t>
+  </si>
+  <si>
+    <t>MODSAMA04ECM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A04E C.MARCO</t>
+  </si>
+  <si>
+    <t>MOSAM04S</t>
+  </si>
+  <si>
+    <t>MOD SAMS A04S /A13</t>
+  </si>
+  <si>
+    <t>MODSAMA04SCM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A04S C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA05</t>
+  </si>
+  <si>
+    <t>MOD SAMS A05</t>
+  </si>
+  <si>
+    <t>MODSAMA06</t>
+  </si>
+  <si>
+    <t>MOD SAMS A06</t>
+  </si>
+  <si>
+    <t>MODSAMA06CM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A06 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA10</t>
+  </si>
+  <si>
+    <t>MOD SAMS A10</t>
+  </si>
+  <si>
+    <t>MODSAMA10M</t>
+  </si>
+  <si>
+    <t>MOD SAMS A10 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA10S</t>
+  </si>
+  <si>
+    <t>MOD SAMS A10S</t>
+  </si>
+  <si>
+    <t>NUEVAS ONDAS2</t>
+  </si>
+  <si>
+    <t>MODSAMSA10SM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A10S C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA11</t>
+  </si>
+  <si>
+    <t>MOD SAMS A11</t>
+  </si>
+  <si>
+    <t>MODSAMA11M</t>
+  </si>
+  <si>
+    <t>MOD SAMS A11 C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA13</t>
+  </si>
+  <si>
+    <t>MOD SAMS A13/A23/4G/5G/A236U-B/M336B/A135/M23/F23</t>
+  </si>
+  <si>
+    <t>MODSAMA14</t>
+  </si>
+  <si>
+    <t>MOD SAMS A14 4G</t>
+  </si>
+  <si>
+    <t>MODSMA145G</t>
+  </si>
+  <si>
+    <t>MOD SAMS A14 5G</t>
+  </si>
+  <si>
+    <t>MODSAMA14B</t>
+  </si>
+  <si>
+    <t>MOD SAMS A14 5G 146B</t>
+  </si>
+  <si>
+    <t>MODSAMA15I</t>
+  </si>
+  <si>
+    <t>MOD SAMS A15 INCELL C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA15O</t>
+  </si>
+  <si>
+    <t>MOD SAMS A15 OLED C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA2CR</t>
+  </si>
+  <si>
+    <t>MOD SAMS A2 CORE</t>
+  </si>
+  <si>
+    <t>MODSAMSA20I</t>
+  </si>
+  <si>
+    <t>MOD SAMS A20 INCELL C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA20O</t>
+  </si>
+  <si>
+    <t>MOD SAMS A20 OLED C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA20S</t>
+  </si>
+  <si>
+    <t>MOD SAMS A20S</t>
+  </si>
+  <si>
+    <t>MODSAMA21</t>
+  </si>
+  <si>
+    <t>MOD SAMS A21</t>
+  </si>
+  <si>
+    <t>MODSAMA21S</t>
+  </si>
+  <si>
+    <t>MOD SAMS A21S</t>
+  </si>
+  <si>
+    <t>MODSAMA21SM</t>
+  </si>
+  <si>
+    <t>MOD SAMS A21S C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA224</t>
+  </si>
+  <si>
+    <t>MOD SAMS A22 4G INCELL C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA225</t>
+  </si>
+  <si>
+    <t>MOD SAMS A22 5G</t>
+  </si>
+  <si>
+    <t>MODSAMA31</t>
+  </si>
+  <si>
+    <t>MOD SAMS A31 OLED C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMA32</t>
+  </si>
+  <si>
+    <t>MOD SAMS A32 OLED 4G C.MARCO</t>
+  </si>
+  <si>
+    <t>MODSAMJ2CR</t>
+  </si>
+  <si>
+    <t>MOD SAMS J2 CORE J260</t>
+  </si>
+  <si>
+    <t>MODSAMJ2</t>
+  </si>
+  <si>
+    <t>MOD SAMS J2 PRO</t>
+  </si>
+  <si>
+    <t>MODSAMJ320</t>
+  </si>
+  <si>
+    <t>MOD SAMS J320 INCELL</t>
+  </si>
+  <si>
     <t>WORLD CELL</t>
   </si>
   <si>
-    <t>MODMOTE20</t>
-  </si>
-  <si>
-    <t>MOD MOTO E20</t>
-  </si>
-  <si>
-    <t>MODMOTE20M</t>
-  </si>
-  <si>
-    <t>MOD MOTO E20 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODMOTE22</t>
-  </si>
-  <si>
-    <t>MOD MOTO E22/E22I/E22S</t>
-  </si>
-  <si>
-    <t>MODMOTE32CM</t>
-  </si>
-  <si>
-    <t>MOD MOTO E32 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODMOTE40CM</t>
-  </si>
-  <si>
-    <t>MOD MOTO E40 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODE40E30</t>
-  </si>
-  <si>
-    <t>MOD MOTO E40/E30</t>
-  </si>
-  <si>
-    <t>MODMOTE5PY</t>
-  </si>
-  <si>
-    <t>MOD MOTO E5 PLAY</t>
-  </si>
-  <si>
-    <t>MODMOTE5P2</t>
-  </si>
-  <si>
-    <t>MOD MOTO E5 PLAY GO</t>
-  </si>
-  <si>
-    <t>MODMOTE5PL</t>
-  </si>
-  <si>
-    <t>MOD MOTO E5 PLUS</t>
-  </si>
-  <si>
-    <t>MODMOT5G6</t>
-  </si>
-  <si>
-    <t>MOD MOTO E5/G6PLAY</t>
-  </si>
-  <si>
-    <t>MODMOTE6PY</t>
-  </si>
-  <si>
-    <t>MOD MOTO E6 PLAY</t>
-  </si>
-  <si>
-    <t>MODMOTE6PL</t>
-  </si>
-  <si>
-    <t>MOD MOTO E6 PLUS</t>
-  </si>
-  <si>
-    <t>MODMOTE6</t>
-  </si>
-  <si>
-    <t>MOD MOTO E6 XT2005</t>
-  </si>
-  <si>
-    <t>NOVOCELL</t>
-  </si>
-  <si>
-    <t>MODMOTE6S</t>
-  </si>
-  <si>
-    <t>MOD MOTO E6S/E6I</t>
-  </si>
-  <si>
-    <t>MODG9PLAY</t>
-  </si>
-  <si>
-    <t>MOD MOTO E7 PLUS/G9 PLAY</t>
-  </si>
-  <si>
-    <t>MODMOTE7CM</t>
-  </si>
-  <si>
-    <t>MOD MOTO E7 POWER/E7I/E7I POWER C.MARCO</t>
-  </si>
-  <si>
-    <t>MODMOTE7CM2</t>
-  </si>
-  <si>
-    <t>MOD MOTO E7 XT2095 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODMOTE7P</t>
-  </si>
-  <si>
-    <t>MOD MOTO E7/E7 POWER/E7I/E7I POWER</t>
-  </si>
-  <si>
-    <t>MODMOTGPLAY</t>
-  </si>
-  <si>
-    <t>MOD MOTO G PLAY 2021/G9B</t>
-  </si>
-  <si>
-    <t>MODMOTG04</t>
-  </si>
-  <si>
-    <t>MOD MOTO G04/E14/G24/G24 POWER</t>
-  </si>
-  <si>
-    <t>SILEO</t>
-  </si>
-  <si>
-    <t>MODMOTG20</t>
-  </si>
-  <si>
-    <t>MOD MOTO G10/G20/G30</t>
-  </si>
-  <si>
-    <t>MODMOTG30</t>
-  </si>
-  <si>
-    <t>MOD MOTO G10/G20/G30 C.MARCO</t>
-  </si>
-  <si>
-    <t>MOTO</t>
-  </si>
-  <si>
-    <t>MODMOTG13CM</t>
-  </si>
-  <si>
-    <t>MOD MOTO G13/G23 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODMOTG13</t>
-  </si>
-  <si>
-    <t>MOD MOTO G13/G23/G34/G53/G45 5G</t>
-  </si>
-  <si>
-    <t>MODMOTG14</t>
-  </si>
-  <si>
-    <t>MOD MOTO G14/G54 5G</t>
-  </si>
-  <si>
-    <t>MODMOTG2</t>
-  </si>
-  <si>
-    <t>MOD MOTO G2</t>
-  </si>
-  <si>
-    <t>MODMOTG22</t>
-  </si>
-  <si>
-    <t>MOD MOTO G22/E32/E32S</t>
-  </si>
-  <si>
-    <t>MODMOTG32</t>
-  </si>
-  <si>
-    <t>MOD MOTO G32/G73</t>
-  </si>
-  <si>
-    <t>MODMOTG5PL</t>
-  </si>
-  <si>
-    <t>MOD MOTO G5 PLUS</t>
-  </si>
-  <si>
-    <t>MODMOTG51</t>
-  </si>
-  <si>
-    <t>MOD MOTO G51 /G60 /G60S /G40 FUSION</t>
-  </si>
-  <si>
-    <t>MODMOTG5S</t>
-  </si>
-  <si>
-    <t>MOD MOTO G5S</t>
-  </si>
-  <si>
-    <t>MODMOTG5SP</t>
-  </si>
-  <si>
-    <t>MOD MOTO G5S PLUS</t>
-  </si>
-  <si>
-    <t>MODMOTG6</t>
-  </si>
-  <si>
-    <t>MOD MOTO G6</t>
-  </si>
-  <si>
-    <t>MODMOTG6PL</t>
-  </si>
-  <si>
-    <t>MOD MOTO G6 PLUS</t>
-  </si>
-  <si>
-    <t>MODMOTG7PY</t>
-  </si>
-  <si>
-    <t>MOD MOTO G7 PLAY</t>
-  </si>
-  <si>
-    <t>MODMOTG7PW</t>
-  </si>
-  <si>
-    <t>MOD MOTO G7 POWER</t>
-  </si>
-  <si>
-    <t>MODMOTG7PL</t>
-  </si>
-  <si>
-    <t>MOD MOTO G7/G7 PLUS</t>
-  </si>
-  <si>
-    <t>MODMOTG8</t>
-  </si>
-  <si>
-    <t>MOD MOTO G8</t>
-  </si>
-  <si>
-    <t>MODMOTG8PL</t>
-  </si>
-  <si>
-    <t>MOD MOTO G8 PLAY/ONE MACRO</t>
-  </si>
-  <si>
-    <t>MODMOTG8PS</t>
-  </si>
-  <si>
-    <t>MOD MOTO G8 PLUS</t>
-  </si>
-  <si>
-    <t>MODMOTG8P</t>
-  </si>
-  <si>
-    <t>MOD MOTO G8 POWER</t>
-  </si>
-  <si>
-    <t>MODMOTG8LT</t>
-  </si>
-  <si>
-    <t>MOD MOTO G8 POWER LITE</t>
-  </si>
-  <si>
-    <t>MODMOTONEF</t>
-  </si>
-  <si>
-    <t>MOD MOTO ONE FUSION</t>
-  </si>
-  <si>
-    <t>MODMOTONEH</t>
-  </si>
-  <si>
-    <t>MOD MOTO ONE HYPER  (XT2027)</t>
-  </si>
-  <si>
-    <t>MODNOK23</t>
-  </si>
-  <si>
-    <t>MOD NOKIA 2.3</t>
-  </si>
-  <si>
-    <t>ELECTRO CELULAR</t>
-  </si>
-  <si>
-    <t>MODNOK24</t>
-  </si>
-  <si>
-    <t>MOD NOKIA 2.4</t>
-  </si>
-  <si>
-    <t>MODNOK31</t>
-  </si>
-  <si>
-    <t>MOD NOKIA 3.1</t>
-  </si>
-  <si>
-    <t>MODNOK32</t>
-  </si>
-  <si>
-    <t>MOD NOKIA 3.2</t>
-  </si>
-  <si>
-    <t>MODNOK71</t>
-  </si>
-  <si>
-    <t>MOD NOKIA 7.1 PLUS</t>
-  </si>
-  <si>
-    <t>MODSAMA01</t>
-  </si>
-  <si>
-    <t>MOD SAMS A01</t>
-  </si>
-  <si>
-    <t>MODSAM1COR</t>
-  </si>
-  <si>
-    <t>MOD SAMS A01 CORE</t>
-  </si>
-  <si>
-    <t>MODSAMA12</t>
-  </si>
-  <si>
-    <t>MOD SAMS A02/A12/A32 5G UNIVERSAL</t>
-  </si>
-  <si>
-    <t>MODSAMA02</t>
-  </si>
-  <si>
-    <t>MOD SAMS A02/M12/A127F/A125</t>
-  </si>
-  <si>
-    <t>MODSAMA03</t>
-  </si>
-  <si>
-    <t>MOD SAMS A02S/A03/A03S/A04E</t>
-  </si>
-  <si>
-    <t>MODSAMA03M</t>
-  </si>
-  <si>
-    <t>MOD SAMS A03 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA3CO</t>
-  </si>
-  <si>
-    <t>MOD SAMS A03 CORE</t>
-  </si>
-  <si>
-    <t>MODSAMA03CM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A03S C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA04</t>
-  </si>
-  <si>
-    <t>MOD SAMS A04</t>
-  </si>
-  <si>
-    <t>MODSAMA04CM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A04 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA04E</t>
-  </si>
-  <si>
-    <t>MOD SAMS A04E</t>
-  </si>
-  <si>
-    <t>MODSAMA04ECM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A04E C.MARCO</t>
-  </si>
-  <si>
-    <t>MOSAM04S</t>
-  </si>
-  <si>
-    <t>MOD SAMS A04S /A13</t>
-  </si>
-  <si>
-    <t>MODSAMA04SCM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A04S C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA05</t>
-  </si>
-  <si>
-    <t>MOD SAMS A05</t>
-  </si>
-  <si>
-    <t>MODSAMA06</t>
-  </si>
-  <si>
-    <t>MOD SAMS A06</t>
-  </si>
-  <si>
-    <t>MODSAMA06CM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A06 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA10</t>
-  </si>
-  <si>
-    <t>MOD SAMS A10</t>
-  </si>
-  <si>
-    <t>MODSAMA10M</t>
-  </si>
-  <si>
-    <t>MOD SAMS A10 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA10S</t>
-  </si>
-  <si>
-    <t>MOD SAMS A10S</t>
-  </si>
-  <si>
-    <t>NUEVAS ONDAS2</t>
-  </si>
-  <si>
-    <t>MODSAMSA10SM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A10S C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA11</t>
-  </si>
-  <si>
-    <t>MOD SAMS A11</t>
-  </si>
-  <si>
-    <t>MODSAMA11M</t>
-  </si>
-  <si>
-    <t>MOD SAMS A11 C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA13</t>
-  </si>
-  <si>
-    <t>MOD SAMS A13/A23/4G/5G/A236U-B/M336B/A135/M23/F23</t>
-  </si>
-  <si>
-    <t>MODSAMA14</t>
-  </si>
-  <si>
-    <t>MOD SAMS A14 4G</t>
-  </si>
-  <si>
-    <t>MODSMA145G</t>
-  </si>
-  <si>
-    <t>MOD SAMS A14 5G</t>
-  </si>
-  <si>
-    <t>MODSAMA14B</t>
-  </si>
-  <si>
-    <t>MOD SAMS A14 5G 146B</t>
-  </si>
-  <si>
-    <t>MODSAMA15I</t>
-  </si>
-  <si>
-    <t>MOD SAMS A15 INCELL C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA15O</t>
-  </si>
-  <si>
-    <t>MOD SAMS A15 OLED C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA2CR</t>
-  </si>
-  <si>
-    <t>MOD SAMS A2 CORE</t>
-  </si>
-  <si>
-    <t>MODSAMSA20I</t>
-  </si>
-  <si>
-    <t>MOD SAMS A20 INCELL C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA20O</t>
-  </si>
-  <si>
-    <t>MOD SAMS A20 OLED C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA20S</t>
-  </si>
-  <si>
-    <t>MOD SAMS A20S</t>
-  </si>
-  <si>
-    <t>MODSAMA21</t>
-  </si>
-  <si>
-    <t>MOD SAMS A21</t>
-  </si>
-  <si>
-    <t>MODSAMA21S</t>
-  </si>
-  <si>
-    <t>MOD SAMS A21S</t>
-  </si>
-  <si>
-    <t>MODSAMA21SM</t>
-  </si>
-  <si>
-    <t>MOD SAMS A21S C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA224</t>
-  </si>
-  <si>
-    <t>MOD SAMS A22 4G INCELL C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA225</t>
-  </si>
-  <si>
-    <t>MOD SAMS A22 5G</t>
-  </si>
-  <si>
-    <t>MODSAMA31</t>
-  </si>
-  <si>
-    <t>MOD SAMS A31 OLED C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMA32</t>
-  </si>
-  <si>
-    <t>MOD SAMS A32 OLED 4G C.MARCO</t>
-  </si>
-  <si>
-    <t>MODSAMJ2CR</t>
-  </si>
-  <si>
-    <t>MOD SAMS J2 CORE J260</t>
-  </si>
-  <si>
-    <t>MODSAMJ2</t>
-  </si>
-  <si>
-    <t>MOD SAMS J2 PRO</t>
-  </si>
-  <si>
-    <t>MODSAMJ320</t>
-  </si>
-  <si>
-    <t>MOD SAMS J320 INCELL</t>
-  </si>
-  <si>
     <t>MODSAMJ4</t>
   </si>
   <si>
@@ -2915,7 +2915,7 @@
     <t>MODREDM13C</t>
   </si>
   <si>
-    <t xml:space="preserve">MOD XIAOMI REDMI 13C </t>
+    <t>MOD XIAOMI REDMI 13C</t>
   </si>
   <si>
     <t>MODREDM14C</t>
@@ -4573,7 +4573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF10B55-2617-4771-AEB9-CF54928E2988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3752C1D4-0A0D-4FBE-A504-68BAA0D0828A}">
   <dimension ref="A1:N770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6291,7 +6291,7 @@
         <v>3849</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -6722,7 +6722,7 @@
         <v>4636</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>1300</v>
       </c>
       <c r="L72">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -10245,7 +10245,7 @@
         <v>14000</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>1200</v>
       </c>
       <c r="L189">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>1300</v>
       </c>
       <c r="L192">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -13943,7 +13943,7 @@
         <v>4688.6000000000004</v>
       </c>
       <c r="L222">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
       <c r="L286">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M286">
         <v>0</v>
@@ -20298,7 +20298,7 @@
         <v>7669</v>
       </c>
       <c r="L374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M374">
         <v>0</v>
@@ -21171,7 +21171,7 @@
         <v>200</v>
       </c>
       <c r="F395">
-        <v>10560</v>
+        <v>12000</v>
       </c>
       <c r="G395">
         <v>40000</v>
@@ -21180,16 +21180,16 @@
         <v>21</v>
       </c>
       <c r="I395">
-        <v>10560</v>
+        <v>12000</v>
       </c>
       <c r="J395">
-        <v>18189.599999999999</v>
+        <v>20670</v>
       </c>
       <c r="K395">
         <v>20000</v>
       </c>
       <c r="L395">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M395">
         <v>0</v>
@@ -21253,31 +21253,31 @@
         <v>706</v>
       </c>
       <c r="D397" t="s">
-        <v>723</v>
+        <v>28</v>
       </c>
       <c r="E397" t="s">
         <v>200</v>
       </c>
       <c r="F397">
-        <v>17000</v>
+        <v>18400</v>
       </c>
       <c r="G397">
-        <v>52000</v>
+        <v>58000</v>
       </c>
       <c r="H397">
         <v>21</v>
       </c>
       <c r="I397">
-        <v>17000</v>
+        <v>18400</v>
       </c>
       <c r="J397">
-        <v>17000</v>
+        <v>18400</v>
       </c>
       <c r="K397">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M397">
         <v>0</v>
@@ -21288,10 +21288,10 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>723</v>
+      </c>
+      <c r="B398" t="s">
         <v>724</v>
-      </c>
-      <c r="B398" t="s">
-        <v>725</v>
       </c>
       <c r="C398" t="s">
         <v>706</v>
@@ -21329,10 +21329,10 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>725</v>
+      </c>
+      <c r="B399" t="s">
         <v>726</v>
-      </c>
-      <c r="B399" t="s">
-        <v>727</v>
       </c>
       <c r="C399" t="s">
         <v>706</v>
@@ -21373,10 +21373,10 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>727</v>
+      </c>
+      <c r="B400" t="s">
         <v>728</v>
-      </c>
-      <c r="B400" t="s">
-        <v>729</v>
       </c>
       <c r="C400" t="s">
         <v>706</v>
@@ -21414,10 +21414,10 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>729</v>
+      </c>
+      <c r="B401" t="s">
         <v>730</v>
-      </c>
-      <c r="B401" t="s">
-        <v>731</v>
       </c>
       <c r="C401" t="s">
         <v>706</v>
@@ -21458,10 +21458,10 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>731</v>
+      </c>
+      <c r="B402" t="s">
         <v>732</v>
-      </c>
-      <c r="B402" t="s">
-        <v>733</v>
       </c>
       <c r="C402" t="s">
         <v>706</v>
@@ -21473,7 +21473,7 @@
         <v>200</v>
       </c>
       <c r="F402">
-        <v>14740</v>
+        <v>12800</v>
       </c>
       <c r="G402">
         <v>45000</v>
@@ -21482,16 +21482,16 @@
         <v>21</v>
       </c>
       <c r="I402">
-        <v>14740</v>
+        <v>12800</v>
       </c>
       <c r="J402">
-        <v>14740</v>
+        <v>12800</v>
       </c>
       <c r="K402">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L402">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M402">
         <v>0</v>
@@ -21502,10 +21502,10 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>733</v>
+      </c>
+      <c r="B403" t="s">
         <v>734</v>
-      </c>
-      <c r="B403" t="s">
-        <v>735</v>
       </c>
       <c r="C403" t="s">
         <v>706</v>
@@ -21517,25 +21517,25 @@
         <v>200</v>
       </c>
       <c r="F403">
-        <v>12000</v>
+        <v>14740</v>
       </c>
       <c r="G403">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="H403">
         <v>21</v>
       </c>
       <c r="I403">
-        <v>12000</v>
+        <v>14740</v>
       </c>
       <c r="J403">
-        <v>21717.599999999999</v>
+        <v>14740</v>
       </c>
       <c r="K403">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M403">
         <v>0</v>
@@ -21546,10 +21546,10 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>735</v>
+      </c>
+      <c r="B404" t="s">
         <v>736</v>
-      </c>
-      <c r="B404" t="s">
-        <v>737</v>
       </c>
       <c r="C404" t="s">
         <v>706</v>
@@ -21557,26 +21557,29 @@
       <c r="D404" t="s">
         <v>28</v>
       </c>
+      <c r="E404" t="s">
+        <v>200</v>
+      </c>
       <c r="F404">
-        <v>9270</v>
+        <v>12000</v>
       </c>
       <c r="G404">
-        <v>45000</v>
+        <v>38000</v>
       </c>
       <c r="H404">
         <v>21</v>
       </c>
       <c r="I404">
-        <v>9270</v>
+        <v>12000</v>
       </c>
       <c r="J404">
-        <v>25000</v>
+        <v>21717.599999999999</v>
       </c>
       <c r="K404">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M404">
         <v>0</v>
@@ -21587,10 +21590,10 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>737</v>
+      </c>
+      <c r="B405" t="s">
         <v>738</v>
-      </c>
-      <c r="B405" t="s">
-        <v>739</v>
       </c>
       <c r="C405" t="s">
         <v>706</v>
@@ -21599,25 +21602,25 @@
         <v>28</v>
       </c>
       <c r="F405">
-        <v>13392</v>
+        <v>9270</v>
       </c>
       <c r="G405">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="H405">
         <v>21</v>
       </c>
       <c r="I405">
-        <v>13392</v>
+        <v>9270</v>
       </c>
       <c r="J405">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="K405">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M405">
         <v>0</v>
@@ -21628,10 +21631,10 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>739</v>
+      </c>
+      <c r="B406" t="s">
         <v>740</v>
-      </c>
-      <c r="B406" t="s">
-        <v>741</v>
       </c>
       <c r="C406" t="s">
         <v>706</v>
@@ -21640,7 +21643,7 @@
         <v>28</v>
       </c>
       <c r="F406">
-        <v>13585</v>
+        <v>13392</v>
       </c>
       <c r="G406">
         <v>40000</v>
@@ -21649,16 +21652,16 @@
         <v>21</v>
       </c>
       <c r="I406">
-        <v>13585</v>
+        <v>13392</v>
       </c>
       <c r="J406">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="K406">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M406">
         <v>0</v>
@@ -21669,10 +21672,10 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>741</v>
+      </c>
+      <c r="B407" t="s">
         <v>742</v>
-      </c>
-      <c r="B407" t="s">
-        <v>743</v>
       </c>
       <c r="C407" t="s">
         <v>706</v>
@@ -21681,25 +21684,25 @@
         <v>28</v>
       </c>
       <c r="F407">
-        <v>12276</v>
+        <v>13585</v>
       </c>
       <c r="G407">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="H407">
         <v>21</v>
       </c>
       <c r="I407">
-        <v>12276</v>
+        <v>13585</v>
       </c>
       <c r="J407">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="K407">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M407">
         <v>0</v>
@@ -21710,10 +21713,10 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>743</v>
+      </c>
+      <c r="B408" t="s">
         <v>744</v>
-      </c>
-      <c r="B408" t="s">
-        <v>745</v>
       </c>
       <c r="C408" t="s">
         <v>706</v>
@@ -21734,13 +21737,13 @@
         <v>12276</v>
       </c>
       <c r="J408">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="K408">
         <v>20000</v>
       </c>
       <c r="L408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M408">
         <v>0</v>
@@ -21751,10 +21754,10 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>745</v>
+      </c>
+      <c r="B409" t="s">
         <v>746</v>
-      </c>
-      <c r="B409" t="s">
-        <v>747</v>
       </c>
       <c r="C409" t="s">
         <v>706</v>
@@ -21763,16 +21766,16 @@
         <v>28</v>
       </c>
       <c r="F409">
-        <v>11160</v>
+        <v>12276</v>
       </c>
       <c r="G409">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="H409">
         <v>21</v>
       </c>
       <c r="I409">
-        <v>11160</v>
+        <v>12276</v>
       </c>
       <c r="J409">
         <v>20000</v>
@@ -21781,7 +21784,7 @@
         <v>20000</v>
       </c>
       <c r="L409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M409">
         <v>0</v>
@@ -21792,34 +21795,34 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>747</v>
+      </c>
+      <c r="B410" t="s">
         <v>748</v>
-      </c>
-      <c r="B410" t="s">
-        <v>749</v>
       </c>
       <c r="C410" t="s">
         <v>706</v>
       </c>
       <c r="D410" t="s">
-        <v>750</v>
+        <v>28</v>
       </c>
       <c r="F410">
-        <v>15793</v>
+        <v>11900</v>
       </c>
       <c r="G410">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="H410">
         <v>21</v>
       </c>
       <c r="I410">
-        <v>15793</v>
+        <v>11900</v>
       </c>
       <c r="J410">
-        <v>26000</v>
+        <v>21326</v>
       </c>
       <c r="K410">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L410">
         <v>1</v>
@@ -21833,37 +21836,37 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B411" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C411" t="s">
         <v>706</v>
       </c>
       <c r="D411" t="s">
-        <v>28</v>
+        <v>751</v>
       </c>
       <c r="F411">
-        <v>11780</v>
+        <v>15793</v>
       </c>
       <c r="G411">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="H411">
         <v>21</v>
       </c>
       <c r="I411">
-        <v>11780</v>
+        <v>15793</v>
       </c>
       <c r="J411">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="K411">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M411">
         <v>0</v>
@@ -21874,10 +21877,10 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>752</v>
+      </c>
+      <c r="B412" t="s">
         <v>753</v>
-      </c>
-      <c r="B412" t="s">
-        <v>754</v>
       </c>
       <c r="C412" t="s">
         <v>706</v>
@@ -21886,22 +21889,22 @@
         <v>28</v>
       </c>
       <c r="F412">
-        <v>14720</v>
+        <v>12200</v>
       </c>
       <c r="G412">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="H412">
         <v>21</v>
       </c>
       <c r="I412">
-        <v>14720</v>
+        <v>12200</v>
       </c>
       <c r="J412">
-        <v>14720</v>
+        <v>20713.2</v>
       </c>
       <c r="K412">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L412">
         <v>1</v>
@@ -21915,10 +21918,10 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>754</v>
+      </c>
+      <c r="B413" t="s">
         <v>755</v>
-      </c>
-      <c r="B413" t="s">
-        <v>756</v>
       </c>
       <c r="C413" t="s">
         <v>706</v>
@@ -21927,25 +21930,25 @@
         <v>28</v>
       </c>
       <c r="F413">
-        <v>13420</v>
+        <v>14720</v>
       </c>
       <c r="G413">
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="H413">
         <v>21</v>
       </c>
       <c r="I413">
-        <v>13420</v>
+        <v>14720</v>
       </c>
       <c r="J413">
-        <v>25000</v>
+        <v>14720</v>
       </c>
       <c r="K413">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M413">
         <v>0</v>
@@ -21956,10 +21959,10 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>756</v>
+      </c>
+      <c r="B414" t="s">
         <v>757</v>
-      </c>
-      <c r="B414" t="s">
-        <v>758</v>
       </c>
       <c r="C414" t="s">
         <v>706</v>
@@ -21967,14 +21970,11 @@
       <c r="D414" t="s">
         <v>28</v>
       </c>
-      <c r="E414" t="s">
-        <v>200</v>
-      </c>
       <c r="F414">
         <v>13420</v>
       </c>
       <c r="G414">
-        <v>42000</v>
+        <v>52000</v>
       </c>
       <c r="H414">
         <v>21</v>
@@ -21986,10 +21986,10 @@
         <v>25000</v>
       </c>
       <c r="K414">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M414">
         <v>0</v>
@@ -22000,10 +22000,10 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>758</v>
+      </c>
+      <c r="B415" t="s">
         <v>759</v>
-      </c>
-      <c r="B415" t="s">
-        <v>760</v>
       </c>
       <c r="C415" t="s">
         <v>706</v>
@@ -22015,25 +22015,25 @@
         <v>200</v>
       </c>
       <c r="F415">
-        <v>10296</v>
+        <v>13420</v>
       </c>
       <c r="G415">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="H415">
         <v>21</v>
       </c>
       <c r="I415">
-        <v>10296</v>
+        <v>13420</v>
       </c>
       <c r="J415">
-        <v>10296</v>
+        <v>25000</v>
       </c>
       <c r="K415">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M415">
         <v>0</v>
@@ -22044,10 +22044,10 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>760</v>
+      </c>
+      <c r="B416" t="s">
         <v>761</v>
-      </c>
-      <c r="B416" t="s">
-        <v>762</v>
       </c>
       <c r="C416" t="s">
         <v>706</v>
@@ -22059,25 +22059,25 @@
         <v>200</v>
       </c>
       <c r="F416">
-        <v>4740</v>
+        <v>11800</v>
       </c>
       <c r="G416">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="H416">
         <v>21</v>
       </c>
       <c r="I416">
-        <v>4740</v>
+        <v>11800</v>
       </c>
       <c r="J416">
-        <v>20000</v>
+        <v>11800</v>
       </c>
       <c r="K416">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L416">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M416">
         <v>0</v>
@@ -22088,19 +22088,22 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>762</v>
+      </c>
+      <c r="B417" t="s">
         <v>763</v>
-      </c>
-      <c r="B417" t="s">
-        <v>764</v>
       </c>
       <c r="C417" t="s">
         <v>706</v>
       </c>
       <c r="D417" t="s">
-        <v>765</v>
+        <v>28</v>
+      </c>
+      <c r="E417" t="s">
+        <v>200</v>
       </c>
       <c r="F417">
-        <v>13000</v>
+        <v>4740</v>
       </c>
       <c r="G417">
         <v>40000</v>
@@ -22109,16 +22112,16 @@
         <v>21</v>
       </c>
       <c r="I417">
-        <v>13000</v>
+        <v>4740</v>
       </c>
       <c r="J417">
-        <v>24367.200000000001</v>
+        <v>20000</v>
       </c>
       <c r="K417">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M417">
         <v>0</v>
@@ -22129,40 +22132,40 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B418" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C418" t="s">
         <v>706</v>
       </c>
       <c r="D418" t="s">
-        <v>28</v>
+        <v>766</v>
       </c>
       <c r="E418" t="s">
         <v>200</v>
       </c>
       <c r="F418">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="G418">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="H418">
         <v>21</v>
       </c>
       <c r="I418">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="J418">
-        <v>21743</v>
+        <v>26241.599999999999</v>
       </c>
       <c r="K418">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L418">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M418">
         <v>0</v>
@@ -22173,10 +22176,10 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>767</v>
+      </c>
+      <c r="B419" t="s">
         <v>768</v>
-      </c>
-      <c r="B419" t="s">
-        <v>769</v>
       </c>
       <c r="C419" t="s">
         <v>706</v>
@@ -22185,7 +22188,7 @@
         <v>28</v>
       </c>
       <c r="E419" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F419">
         <v>13050</v>
@@ -22217,10 +22220,10 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>770</v>
+      </c>
+      <c r="B420" t="s">
         <v>771</v>
-      </c>
-      <c r="B420" t="s">
-        <v>772</v>
       </c>
       <c r="C420" t="s">
         <v>706</v>
@@ -22232,25 +22235,25 @@
         <v>200</v>
       </c>
       <c r="F420">
-        <v>15860</v>
+        <v>12200</v>
       </c>
       <c r="G420">
-        <v>48000</v>
+        <v>42000</v>
       </c>
       <c r="H420">
         <v>21</v>
       </c>
       <c r="I420">
-        <v>15860</v>
+        <v>12200</v>
       </c>
       <c r="J420">
-        <v>27000</v>
+        <v>23066.5</v>
       </c>
       <c r="K420">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L420">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M420">
         <v>0</v>
@@ -22261,10 +22264,10 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>772</v>
+      </c>
+      <c r="B421" t="s">
         <v>773</v>
-      </c>
-      <c r="B421" t="s">
-        <v>774</v>
       </c>
       <c r="C421" t="s">
         <v>706</v>
@@ -22272,23 +22275,26 @@
       <c r="D421" t="s">
         <v>28</v>
       </c>
+      <c r="E421" t="s">
+        <v>200</v>
+      </c>
       <c r="F421">
-        <v>9540</v>
+        <v>15860</v>
       </c>
       <c r="G421">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="H421">
         <v>21</v>
       </c>
       <c r="I421">
-        <v>9540</v>
+        <v>15860</v>
       </c>
       <c r="J421">
-        <v>17166.3</v>
+        <v>27000</v>
       </c>
       <c r="K421">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L421">
         <v>1</v>
@@ -22302,10 +22308,10 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>774</v>
+      </c>
+      <c r="B422" t="s">
         <v>775</v>
-      </c>
-      <c r="B422" t="s">
-        <v>776</v>
       </c>
       <c r="C422" t="s">
         <v>706</v>
@@ -22313,29 +22319,26 @@
       <c r="D422" t="s">
         <v>28</v>
       </c>
-      <c r="E422" t="s">
-        <v>200</v>
-      </c>
       <c r="F422">
-        <v>13500</v>
+        <v>9540</v>
       </c>
       <c r="G422">
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="H422">
         <v>21</v>
       </c>
       <c r="I422">
-        <v>13500</v>
+        <v>9540</v>
       </c>
       <c r="J422">
-        <v>23345.5</v>
+        <v>17166.3</v>
       </c>
       <c r="K422">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M422">
         <v>0</v>
@@ -22346,37 +22349,40 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>776</v>
+      </c>
+      <c r="B423" t="s">
         <v>777</v>
-      </c>
-      <c r="B423" t="s">
-        <v>778</v>
       </c>
       <c r="C423" t="s">
         <v>706</v>
       </c>
       <c r="D423" t="s">
-        <v>765</v>
+        <v>28</v>
+      </c>
+      <c r="E423" t="s">
+        <v>200</v>
       </c>
       <c r="F423">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="G423">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="H423">
         <v>21</v>
       </c>
       <c r="I423">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="J423">
-        <v>20000</v>
+        <v>23345.5</v>
       </c>
       <c r="K423">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M423">
         <v>0</v>
@@ -22387,22 +22393,19 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>778</v>
+      </c>
+      <c r="B424" t="s">
         <v>779</v>
-      </c>
-      <c r="B424" t="s">
-        <v>780</v>
       </c>
       <c r="C424" t="s">
         <v>706</v>
       </c>
       <c r="D424" t="s">
-        <v>28</v>
-      </c>
-      <c r="E424" t="s">
-        <v>200</v>
+        <v>766</v>
       </c>
       <c r="F424">
-        <v>9555</v>
+        <v>6500</v>
       </c>
       <c r="G424">
         <v>35000</v>
@@ -22411,10 +22414,10 @@
         <v>21</v>
       </c>
       <c r="I424">
-        <v>9555</v>
+        <v>6500</v>
       </c>
       <c r="J424">
-        <v>9555</v>
+        <v>20000</v>
       </c>
       <c r="K424">
         <v>20000</v>
@@ -22431,10 +22434,10 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>780</v>
+      </c>
+      <c r="B425" t="s">
         <v>781</v>
-      </c>
-      <c r="B425" t="s">
-        <v>782</v>
       </c>
       <c r="C425" t="s">
         <v>706</v>
@@ -22472,10 +22475,10 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>782</v>
+      </c>
+      <c r="B426" t="s">
         <v>783</v>
-      </c>
-      <c r="B426" t="s">
-        <v>784</v>
       </c>
       <c r="C426" t="s">
         <v>706</v>
@@ -22513,10 +22516,10 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>784</v>
+      </c>
+      <c r="B427" t="s">
         <v>785</v>
-      </c>
-      <c r="B427" t="s">
-        <v>786</v>
       </c>
       <c r="C427" t="s">
         <v>706</v>
@@ -22524,26 +22527,29 @@
       <c r="D427" t="s">
         <v>28</v>
       </c>
+      <c r="E427" t="s">
+        <v>200</v>
+      </c>
       <c r="F427">
-        <v>13464</v>
+        <v>17500</v>
       </c>
       <c r="G427">
-        <v>42000</v>
+        <v>58000</v>
       </c>
       <c r="H427">
         <v>21</v>
       </c>
       <c r="I427">
-        <v>13464</v>
+        <v>17500</v>
       </c>
       <c r="J427">
-        <v>13464</v>
+        <v>17500</v>
       </c>
       <c r="K427">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M427">
         <v>0</v>
@@ -22554,10 +22560,10 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>786</v>
+      </c>
+      <c r="B428" t="s">
         <v>787</v>
-      </c>
-      <c r="B428" t="s">
-        <v>788</v>
       </c>
       <c r="C428" t="s">
         <v>706</v>
@@ -22595,10 +22601,10 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>788</v>
+      </c>
+      <c r="B429" t="s">
         <v>789</v>
-      </c>
-      <c r="B429" t="s">
-        <v>790</v>
       </c>
       <c r="C429" t="s">
         <v>706</v>
@@ -22636,10 +22642,10 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>790</v>
+      </c>
+      <c r="B430" t="s">
         <v>791</v>
-      </c>
-      <c r="B430" t="s">
-        <v>792</v>
       </c>
       <c r="C430" t="s">
         <v>706</v>
@@ -22677,10 +22683,10 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>792</v>
+      </c>
+      <c r="B431" t="s">
         <v>793</v>
-      </c>
-      <c r="B431" t="s">
-        <v>794</v>
       </c>
       <c r="C431" t="s">
         <v>706</v>
@@ -22718,10 +22724,10 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>794</v>
+      </c>
+      <c r="B432" t="s">
         <v>795</v>
-      </c>
-      <c r="B432" t="s">
-        <v>796</v>
       </c>
       <c r="C432" t="s">
         <v>706</v>
@@ -22759,10 +22765,10 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>796</v>
+      </c>
+      <c r="B433" t="s">
         <v>797</v>
-      </c>
-      <c r="B433" t="s">
-        <v>798</v>
       </c>
       <c r="C433" t="s">
         <v>706</v>
@@ -22800,10 +22806,10 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>798</v>
+      </c>
+      <c r="B434" t="s">
         <v>799</v>
-      </c>
-      <c r="B434" t="s">
-        <v>800</v>
       </c>
       <c r="C434" t="s">
         <v>706</v>
@@ -22841,10 +22847,10 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>800</v>
+      </c>
+      <c r="B435" t="s">
         <v>801</v>
-      </c>
-      <c r="B435" t="s">
-        <v>802</v>
       </c>
       <c r="C435" t="s">
         <v>706</v>
@@ -22882,10 +22888,10 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>802</v>
+      </c>
+      <c r="B436" t="s">
         <v>803</v>
-      </c>
-      <c r="B436" t="s">
-        <v>804</v>
       </c>
       <c r="C436" t="s">
         <v>706</v>
@@ -22923,10 +22929,10 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>804</v>
+      </c>
+      <c r="B437" t="s">
         <v>805</v>
-      </c>
-      <c r="B437" t="s">
-        <v>806</v>
       </c>
       <c r="C437" t="s">
         <v>706</v>
@@ -22935,7 +22941,7 @@
         <v>28</v>
       </c>
       <c r="E437" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F437">
         <v>10732</v>
@@ -22967,10 +22973,10 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>806</v>
+      </c>
+      <c r="B438" t="s">
         <v>807</v>
-      </c>
-      <c r="B438" t="s">
-        <v>808</v>
       </c>
       <c r="C438" t="s">
         <v>706</v>
@@ -23008,10 +23014,10 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>808</v>
+      </c>
+      <c r="B439" t="s">
         <v>809</v>
-      </c>
-      <c r="B439" t="s">
-        <v>810</v>
       </c>
       <c r="C439" t="s">
         <v>706</v>
@@ -23020,28 +23026,28 @@
         <v>28</v>
       </c>
       <c r="E439" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F439">
-        <v>12648</v>
+        <v>14650</v>
       </c>
       <c r="G439">
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="H439">
         <v>21</v>
       </c>
       <c r="I439">
-        <v>12648</v>
+        <v>14650</v>
       </c>
       <c r="J439">
-        <v>22000</v>
+        <v>25482.2</v>
       </c>
       <c r="K439">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M439">
         <v>0</v>
@@ -23052,10 +23058,10 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>810</v>
+      </c>
+      <c r="B440" t="s">
         <v>811</v>
-      </c>
-      <c r="B440" t="s">
-        <v>812</v>
       </c>
       <c r="C440" t="s">
         <v>706</v>
@@ -23093,10 +23099,10 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>812</v>
+      </c>
+      <c r="B441" t="s">
         <v>813</v>
-      </c>
-      <c r="B441" t="s">
-        <v>814</v>
       </c>
       <c r="C441" t="s">
         <v>706</v>
@@ -23137,16 +23143,16 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>814</v>
+      </c>
+      <c r="B442" t="s">
         <v>815</v>
-      </c>
-      <c r="B442" t="s">
-        <v>816</v>
       </c>
       <c r="C442" t="s">
         <v>706</v>
       </c>
       <c r="D442" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E442" t="s">
         <v>229</v>
@@ -23181,10 +23187,10 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>817</v>
+      </c>
+      <c r="B443" t="s">
         <v>818</v>
-      </c>
-      <c r="B443" t="s">
-        <v>819</v>
       </c>
       <c r="C443" t="s">
         <v>706</v>
@@ -23222,10 +23228,10 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>819</v>
+      </c>
+      <c r="B444" t="s">
         <v>820</v>
-      </c>
-      <c r="B444" t="s">
-        <v>821</v>
       </c>
       <c r="C444" t="s">
         <v>706</v>
@@ -23266,10 +23272,10 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>821</v>
+      </c>
+      <c r="B445" t="s">
         <v>822</v>
-      </c>
-      <c r="B445" t="s">
-        <v>823</v>
       </c>
       <c r="C445" t="s">
         <v>706</v>
@@ -23310,10 +23316,10 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>823</v>
+      </c>
+      <c r="B446" t="s">
         <v>824</v>
-      </c>
-      <c r="B446" t="s">
-        <v>825</v>
       </c>
       <c r="C446" t="s">
         <v>706</v>
@@ -23354,10 +23360,10 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>825</v>
+      </c>
+      <c r="B447" t="s">
         <v>826</v>
-      </c>
-      <c r="B447" t="s">
-        <v>827</v>
       </c>
       <c r="C447" t="s">
         <v>706</v>
@@ -23395,10 +23401,10 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>827</v>
+      </c>
+      <c r="B448" t="s">
         <v>828</v>
-      </c>
-      <c r="B448" t="s">
-        <v>829</v>
       </c>
       <c r="C448" t="s">
         <v>706</v>
@@ -23436,10 +23442,10 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>829</v>
+      </c>
+      <c r="B449" t="s">
         <v>830</v>
-      </c>
-      <c r="B449" t="s">
-        <v>831</v>
       </c>
       <c r="C449" t="s">
         <v>706</v>
@@ -23477,10 +23483,10 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>831</v>
+      </c>
+      <c r="B450" t="s">
         <v>832</v>
-      </c>
-      <c r="B450" t="s">
-        <v>833</v>
       </c>
       <c r="C450" t="s">
         <v>706</v>
@@ -23521,10 +23527,10 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>833</v>
+      </c>
+      <c r="B451" t="s">
         <v>834</v>
-      </c>
-      <c r="B451" t="s">
-        <v>835</v>
       </c>
       <c r="C451" t="s">
         <v>706</v>
@@ -23565,10 +23571,10 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>835</v>
+      </c>
+      <c r="B452" t="s">
         <v>836</v>
-      </c>
-      <c r="B452" t="s">
-        <v>837</v>
       </c>
       <c r="C452" t="s">
         <v>706</v>
@@ -23609,10 +23615,10 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
+        <v>837</v>
+      </c>
+      <c r="B453" t="s">
         <v>838</v>
-      </c>
-      <c r="B453" t="s">
-        <v>839</v>
       </c>
       <c r="C453" t="s">
         <v>706</v>
@@ -23653,10 +23659,10 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>839</v>
+      </c>
+      <c r="B454" t="s">
         <v>840</v>
-      </c>
-      <c r="B454" t="s">
-        <v>841</v>
       </c>
       <c r="C454" t="s">
         <v>706</v>
@@ -23694,10 +23700,10 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>841</v>
+      </c>
+      <c r="B455" t="s">
         <v>842</v>
-      </c>
-      <c r="B455" t="s">
-        <v>843</v>
       </c>
       <c r="C455" t="s">
         <v>706</v>
@@ -23738,10 +23744,10 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>843</v>
+      </c>
+      <c r="B456" t="s">
         <v>844</v>
-      </c>
-      <c r="B456" t="s">
-        <v>845</v>
       </c>
       <c r="C456" t="s">
         <v>706</v>
@@ -23771,7 +23777,7 @@
         <v>25000</v>
       </c>
       <c r="L456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M456">
         <v>0</v>
@@ -23782,10 +23788,10 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>845</v>
+      </c>
+      <c r="B457" t="s">
         <v>846</v>
-      </c>
-      <c r="B457" t="s">
-        <v>847</v>
       </c>
       <c r="C457" t="s">
         <v>706</v>
@@ -23823,10 +23829,10 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>847</v>
+      </c>
+      <c r="B458" t="s">
         <v>848</v>
-      </c>
-      <c r="B458" t="s">
-        <v>849</v>
       </c>
       <c r="C458" t="s">
         <v>706</v>
@@ -23867,10 +23873,10 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>849</v>
+      </c>
+      <c r="B459" t="s">
         <v>850</v>
-      </c>
-      <c r="B459" t="s">
-        <v>851</v>
       </c>
       <c r="C459" t="s">
         <v>706</v>
@@ -23911,10 +23917,10 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>851</v>
+      </c>
+      <c r="B460" t="s">
         <v>852</v>
-      </c>
-      <c r="B460" t="s">
-        <v>853</v>
       </c>
       <c r="C460" t="s">
         <v>706</v>
@@ -23955,10 +23961,10 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>853</v>
+      </c>
+      <c r="B461" t="s">
         <v>854</v>
-      </c>
-      <c r="B461" t="s">
-        <v>855</v>
       </c>
       <c r="C461" t="s">
         <v>706</v>
@@ -23996,16 +24002,16 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>855</v>
+      </c>
+      <c r="B462" t="s">
         <v>856</v>
-      </c>
-      <c r="B462" t="s">
-        <v>857</v>
       </c>
       <c r="C462" t="s">
         <v>706</v>
       </c>
       <c r="D462" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F462">
         <v>14483</v>
@@ -24037,10 +24043,10 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>857</v>
+      </c>
+      <c r="B463" t="s">
         <v>858</v>
-      </c>
-      <c r="B463" t="s">
-        <v>859</v>
       </c>
       <c r="C463" t="s">
         <v>706</v>
@@ -24081,10 +24087,10 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>859</v>
+      </c>
+      <c r="B464" t="s">
         <v>860</v>
-      </c>
-      <c r="B464" t="s">
-        <v>861</v>
       </c>
       <c r="C464" t="s">
         <v>706</v>
@@ -24096,7 +24102,7 @@
         <v>10600</v>
       </c>
       <c r="G464">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H464">
         <v>21</v>
@@ -24122,10 +24128,10 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>861</v>
+      </c>
+      <c r="B465" t="s">
         <v>862</v>
-      </c>
-      <c r="B465" t="s">
-        <v>863</v>
       </c>
       <c r="C465" t="s">
         <v>706</v>
@@ -24166,16 +24172,16 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>863</v>
+      </c>
+      <c r="B466" t="s">
         <v>864</v>
-      </c>
-      <c r="B466" t="s">
-        <v>865</v>
       </c>
       <c r="C466" t="s">
         <v>706</v>
       </c>
       <c r="D466" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E466" t="s">
         <v>176</v>
@@ -24210,10 +24216,10 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>866</v>
+      </c>
+      <c r="B467" t="s">
         <v>867</v>
-      </c>
-      <c r="B467" t="s">
-        <v>868</v>
       </c>
       <c r="C467" t="s">
         <v>706</v>
@@ -24254,10 +24260,10 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>868</v>
+      </c>
+      <c r="B468" t="s">
         <v>869</v>
-      </c>
-      <c r="B468" t="s">
-        <v>870</v>
       </c>
       <c r="C468" t="s">
         <v>706</v>
@@ -24265,11 +24271,14 @@
       <c r="D468" t="s">
         <v>28</v>
       </c>
+      <c r="E468" t="s">
+        <v>176</v>
+      </c>
       <c r="F468">
         <v>10578</v>
       </c>
       <c r="G468">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H468">
         <v>21</v>
@@ -24284,7 +24293,7 @@
         <v>20000</v>
       </c>
       <c r="L468">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M468">
         <v>0</v>
@@ -24295,10 +24304,10 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>870</v>
+      </c>
+      <c r="B469" t="s">
         <v>871</v>
-      </c>
-      <c r="B469" t="s">
-        <v>872</v>
       </c>
       <c r="C469" t="s">
         <v>706</v>
@@ -24336,10 +24345,10 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>872</v>
+      </c>
+      <c r="B470" t="s">
         <v>873</v>
-      </c>
-      <c r="B470" t="s">
-        <v>874</v>
       </c>
       <c r="C470" t="s">
         <v>706</v>
@@ -24380,10 +24389,10 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>874</v>
+      </c>
+      <c r="B471" t="s">
         <v>875</v>
-      </c>
-      <c r="B471" t="s">
-        <v>876</v>
       </c>
       <c r="C471" t="s">
         <v>706</v>
@@ -24421,10 +24430,10 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>876</v>
+      </c>
+      <c r="B472" t="s">
         <v>877</v>
-      </c>
-      <c r="B472" t="s">
-        <v>878</v>
       </c>
       <c r="C472" t="s">
         <v>706</v>
@@ -24462,10 +24471,10 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>878</v>
+      </c>
+      <c r="B473" t="s">
         <v>879</v>
-      </c>
-      <c r="B473" t="s">
-        <v>880</v>
       </c>
       <c r="C473" t="s">
         <v>706</v>
@@ -24506,16 +24515,16 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>880</v>
+      </c>
+      <c r="B474" t="s">
         <v>881</v>
-      </c>
-      <c r="B474" t="s">
-        <v>882</v>
       </c>
       <c r="C474" t="s">
         <v>706</v>
       </c>
       <c r="D474" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E474" t="s">
         <v>176</v>
@@ -24550,10 +24559,10 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>882</v>
+      </c>
+      <c r="B475" t="s">
         <v>883</v>
-      </c>
-      <c r="B475" t="s">
-        <v>884</v>
       </c>
       <c r="C475" t="s">
         <v>706</v>
@@ -24594,10 +24603,10 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>884</v>
+      </c>
+      <c r="B476" t="s">
         <v>885</v>
-      </c>
-      <c r="B476" t="s">
-        <v>886</v>
       </c>
       <c r="C476" t="s">
         <v>706</v>
@@ -24638,16 +24647,16 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>886</v>
+      </c>
+      <c r="B477" t="s">
         <v>887</v>
-      </c>
-      <c r="B477" t="s">
-        <v>888</v>
       </c>
       <c r="C477" t="s">
         <v>706</v>
       </c>
       <c r="D477" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E477" t="s">
         <v>176</v>
@@ -24682,16 +24691,16 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>888</v>
+      </c>
+      <c r="B478" t="s">
         <v>889</v>
-      </c>
-      <c r="B478" t="s">
-        <v>890</v>
       </c>
       <c r="C478" t="s">
         <v>706</v>
       </c>
       <c r="D478" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E478" t="s">
         <v>176</v>
@@ -24726,10 +24735,10 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>890</v>
+      </c>
+      <c r="B479" t="s">
         <v>891</v>
-      </c>
-      <c r="B479" t="s">
-        <v>892</v>
       </c>
       <c r="C479" t="s">
         <v>706</v>
@@ -24767,10 +24776,10 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>892</v>
+      </c>
+      <c r="B480" t="s">
         <v>893</v>
-      </c>
-      <c r="B480" t="s">
-        <v>894</v>
       </c>
       <c r="C480" t="s">
         <v>706</v>
@@ -24808,10 +24817,10 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>894</v>
+      </c>
+      <c r="B481" t="s">
         <v>895</v>
-      </c>
-      <c r="B481" t="s">
-        <v>896</v>
       </c>
       <c r="C481" t="s">
         <v>706</v>
@@ -24823,25 +24832,25 @@
         <v>176</v>
       </c>
       <c r="F481">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="G481">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="H481">
         <v>21</v>
       </c>
       <c r="I481">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="J481">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="K481">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L481">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M481">
         <v>0</v>
@@ -24852,10 +24861,10 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>896</v>
+      </c>
+      <c r="B482" t="s">
         <v>897</v>
-      </c>
-      <c r="B482" t="s">
-        <v>898</v>
       </c>
       <c r="C482" t="s">
         <v>706</v>
@@ -24893,16 +24902,16 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>898</v>
+      </c>
+      <c r="B483" t="s">
         <v>899</v>
-      </c>
-      <c r="B483" t="s">
-        <v>900</v>
       </c>
       <c r="C483" t="s">
         <v>706</v>
       </c>
       <c r="D483" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E483" t="s">
         <v>176</v>
@@ -24937,10 +24946,10 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>900</v>
+      </c>
+      <c r="B484" t="s">
         <v>901</v>
-      </c>
-      <c r="B484" t="s">
-        <v>902</v>
       </c>
       <c r="C484" t="s">
         <v>706</v>
@@ -24948,26 +24957,29 @@
       <c r="D484" t="s">
         <v>28</v>
       </c>
+      <c r="E484" t="s">
+        <v>176</v>
+      </c>
       <c r="F484">
-        <v>13054</v>
+        <v>12000</v>
       </c>
       <c r="G484">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="H484">
         <v>21</v>
       </c>
       <c r="I484">
-        <v>13054</v>
+        <v>12000</v>
       </c>
       <c r="J484">
-        <v>24000</v>
+        <v>22062</v>
       </c>
       <c r="K484">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L484">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M484">
         <v>0</v>
@@ -24978,10 +24990,10 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>902</v>
+      </c>
+      <c r="B485" t="s">
         <v>903</v>
-      </c>
-      <c r="B485" t="s">
-        <v>904</v>
       </c>
       <c r="C485" t="s">
         <v>706</v>
@@ -24993,25 +25005,25 @@
         <v>176</v>
       </c>
       <c r="F485">
-        <v>30012</v>
+        <v>35375</v>
       </c>
       <c r="G485">
-        <v>78000</v>
+        <v>92000</v>
       </c>
       <c r="H485">
         <v>21</v>
       </c>
       <c r="I485">
-        <v>30012</v>
+        <v>35375</v>
       </c>
       <c r="J485">
-        <v>30012</v>
+        <v>35375</v>
       </c>
       <c r="K485">
-        <v>46000</v>
+        <v>54000</v>
       </c>
       <c r="L485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M485">
         <v>0</v>
@@ -25022,10 +25034,10 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>904</v>
+      </c>
+      <c r="B486" t="s">
         <v>905</v>
-      </c>
-      <c r="B486" t="s">
-        <v>906</v>
       </c>
       <c r="C486" t="s">
         <v>706</v>
@@ -25037,22 +25049,22 @@
         <v>176</v>
       </c>
       <c r="F486">
-        <v>34450</v>
+        <v>41753</v>
       </c>
       <c r="G486">
-        <v>90000</v>
+        <v>112000</v>
       </c>
       <c r="H486">
         <v>21</v>
       </c>
       <c r="I486">
-        <v>34450</v>
+        <v>41753</v>
       </c>
       <c r="J486">
-        <v>34450</v>
+        <v>41753</v>
       </c>
       <c r="K486">
-        <v>52000</v>
+        <v>62500</v>
       </c>
       <c r="L486">
         <v>1</v>
@@ -25066,10 +25078,10 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>906</v>
+      </c>
+      <c r="B487" t="s">
         <v>907</v>
-      </c>
-      <c r="B487" t="s">
-        <v>908</v>
       </c>
       <c r="C487" t="s">
         <v>706</v>
@@ -25107,10 +25119,10 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>908</v>
+      </c>
+      <c r="B488" t="s">
         <v>909</v>
-      </c>
-      <c r="B488" t="s">
-        <v>910</v>
       </c>
       <c r="C488" t="s">
         <v>706</v>
@@ -25148,16 +25160,16 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>910</v>
+      </c>
+      <c r="B489" t="s">
         <v>911</v>
-      </c>
-      <c r="B489" t="s">
-        <v>912</v>
       </c>
       <c r="C489" t="s">
         <v>706</v>
       </c>
       <c r="D489" t="s">
-        <v>723</v>
+        <v>912</v>
       </c>
       <c r="E489" t="s">
         <v>176</v>
@@ -25283,7 +25295,7 @@
         <v>706</v>
       </c>
       <c r="D492" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E492" t="s">
         <v>176</v>
@@ -25327,7 +25339,7 @@
         <v>706</v>
       </c>
       <c r="D493" t="s">
-        <v>723</v>
+        <v>912</v>
       </c>
       <c r="E493" t="s">
         <v>176</v>
@@ -25412,7 +25424,7 @@
         <v>706</v>
       </c>
       <c r="D495" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F495">
         <v>15000</v>
@@ -25453,7 +25465,7 @@
         <v>706</v>
       </c>
       <c r="D496" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F496">
         <v>14914.49</v>
@@ -25494,7 +25506,7 @@
         <v>706</v>
       </c>
       <c r="D497" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F497">
         <v>9867</v>
@@ -25541,25 +25553,25 @@
         <v>176</v>
       </c>
       <c r="F498">
-        <v>11850</v>
+        <v>14350</v>
       </c>
       <c r="G498">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="H498">
         <v>21</v>
       </c>
       <c r="I498">
-        <v>11850</v>
+        <v>14350</v>
       </c>
       <c r="J498">
-        <v>20000</v>
+        <v>24219.9</v>
       </c>
       <c r="K498">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="L498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M498">
         <v>0</v>
@@ -25629,22 +25641,22 @@
         <v>933</v>
       </c>
       <c r="F500">
-        <v>13200</v>
+        <v>16000</v>
       </c>
       <c r="G500">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="H500">
         <v>21</v>
       </c>
       <c r="I500">
-        <v>13200</v>
+        <v>16000</v>
       </c>
       <c r="J500">
-        <v>23258.400000000001</v>
+        <v>16000</v>
       </c>
       <c r="K500">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L500">
         <v>2</v>
@@ -25717,25 +25729,25 @@
         <v>933</v>
       </c>
       <c r="F502">
-        <v>16000</v>
+        <v>16215</v>
       </c>
       <c r="G502">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="H502">
         <v>21</v>
       </c>
       <c r="I502">
-        <v>16000</v>
+        <v>16215</v>
       </c>
       <c r="J502">
-        <v>16000</v>
+        <v>16215</v>
       </c>
       <c r="K502">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="L502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M502">
         <v>0</v>
@@ -25931,7 +25943,7 @@
         <v>706</v>
       </c>
       <c r="D507" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E507" t="s">
         <v>950</v>
@@ -26025,25 +26037,25 @@
         <v>953</v>
       </c>
       <c r="F509">
-        <v>12194</v>
+        <v>12900</v>
       </c>
       <c r="G509">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="H509">
         <v>21</v>
       </c>
       <c r="I509">
-        <v>12194</v>
+        <v>12900</v>
       </c>
       <c r="J509">
-        <v>12194</v>
+        <v>12900</v>
       </c>
       <c r="K509">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="L509">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M509">
         <v>0</v>
@@ -26066,22 +26078,22 @@
         <v>28</v>
       </c>
       <c r="F510">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="G510">
-        <v>36500</v>
+        <v>48000</v>
       </c>
       <c r="H510">
         <v>21</v>
       </c>
       <c r="I510">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="J510">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="K510">
-        <v>21500</v>
+        <v>27000</v>
       </c>
       <c r="L510">
         <v>4</v>
@@ -26110,22 +26122,22 @@
         <v>953</v>
       </c>
       <c r="F511">
-        <v>12588</v>
+        <v>14500</v>
       </c>
       <c r="G511">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="H511">
         <v>21</v>
       </c>
       <c r="I511">
-        <v>12588</v>
+        <v>14500</v>
       </c>
       <c r="J511">
-        <v>12588</v>
+        <v>14500</v>
       </c>
       <c r="K511">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="L511">
         <v>3</v>
@@ -26154,22 +26166,22 @@
         <v>953</v>
       </c>
       <c r="F512">
-        <v>14575</v>
+        <v>16900</v>
       </c>
       <c r="G512">
-        <v>45000</v>
+        <v>54000</v>
       </c>
       <c r="H512">
         <v>21</v>
       </c>
       <c r="I512">
-        <v>14575</v>
+        <v>16900</v>
       </c>
       <c r="J512">
-        <v>14575</v>
+        <v>16900</v>
       </c>
       <c r="K512">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L512">
         <v>2</v>
@@ -26192,7 +26204,7 @@
         <v>706</v>
       </c>
       <c r="D513" t="s">
-        <v>723</v>
+        <v>912</v>
       </c>
       <c r="E513" t="s">
         <v>953</v>
@@ -26345,7 +26357,7 @@
         <v>2109</v>
       </c>
       <c r="L516">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M516">
         <v>0</v>
@@ -28596,7 +28608,7 @@
         <v>112</v>
       </c>
       <c r="L569">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M569">
         <v>0</v>
@@ -31745,7 +31757,7 @@
         <v>1372</v>
       </c>
       <c r="L642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M642">
         <v>0</v>
@@ -32261,7 +32273,7 @@
         <v>2907</v>
       </c>
       <c r="L654">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M654">
         <v>0</v>
@@ -33011,7 +33023,7 @@
         <v>4900</v>
       </c>
       <c r="L672">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M672">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB82A15-4778-4F03-9485-0D4367B84BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8A00DE-D02C-4876-A08C-B10202FADAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B76DA64B-C6F8-4752-80F1-F2FFC71963E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56A47C34-B1EB-488D-BFFA-3069A6793E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4573,7 +4573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3752C1D4-0A0D-4FBE-A504-68BAA0D0828A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7380B878-3A87-41D0-B8BB-71EBE5A925B7}">
   <dimension ref="A1:N770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9143,7 +9143,7 @@
         <v>18000</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>18000</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>4530</v>
       </c>
       <c r="G122">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="H122">
         <v>21</v>
@@ -9738,10 +9738,10 @@
         <v>4530</v>
       </c>
       <c r="K122">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -9911,7 +9911,7 @@
         <v>8000</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>1600</v>
       </c>
       <c r="L155">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>1200</v>
       </c>
       <c r="L189">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>5200</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>20000</v>
       </c>
       <c r="L451">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M451">
         <v>0</v>
@@ -23733,7 +23733,7 @@
         <v>20000</v>
       </c>
       <c r="L455">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M455">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>25000</v>
       </c>
       <c r="L456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M456">
         <v>0</v>
@@ -24765,7 +24765,7 @@
         <v>20000</v>
       </c>
       <c r="L479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M479">
         <v>0</v>
@@ -27295,7 +27295,7 @@
         <v>5600</v>
       </c>
       <c r="L538">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M538">
         <v>0</v>
@@ -29780,7 +29780,7 @@
         <v>8000</v>
       </c>
       <c r="L597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M597">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88F070CA-467B-4D0F-BDE9-95CB84603722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8266357-7017-42E6-8C7F-5D84052F9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{CCC00BAF-4F9A-49B7-814D-010EB158C1BA}"/>
+    <workbookView xWindow="7200" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{C0A47C50-466D-40D3-9E2D-5B16948174FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1451">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1475,12 +1475,12 @@
     <t>CELULAR SAMSUNG A06 GRIS</t>
   </si>
   <si>
+    <t>CELULAR Y COMPUTACION &gt; CELULARES</t>
+  </si>
+  <si>
     <t>CELULAR SAMSUNG GALAXY A06 GRIS</t>
   </si>
   <si>
-    <t>CELULAR Y COMPUTACION &gt; CELULARES</t>
-  </si>
-  <si>
     <t>CEPILLO MASAJEADOR B36</t>
   </si>
   <si>
@@ -3909,6 +3909,9 @@
   </si>
   <si>
     <t>RELOJ SMART WATCH AITECH SW2800</t>
+  </si>
+  <si>
+    <t>RELOJ SMARTWACH DEKKIN TRENDY</t>
   </si>
   <si>
     <t>RELOJ SMARTWATCH AITECH SW90</t>
@@ -4756,8 +4759,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80352DB-DCEE-4106-9189-98E71B851F51}">
-  <dimension ref="A1:N803"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4171F44-80E6-4EF5-8703-3969DC3C8A41}">
+  <dimension ref="A1:N804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12713,7 +12716,7 @@
         <v>1200</v>
       </c>
       <c r="L189">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -14601,7 +14604,7 @@
         <v>2500</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M233">
         <v>1</v>
@@ -15807,26 +15810,32 @@
       <c r="B262" t="s">
         <v>478</v>
       </c>
+      <c r="C262" t="s">
+        <v>479</v>
+      </c>
+      <c r="D262" t="s">
+        <v>350</v>
+      </c>
       <c r="F262">
-        <v>20000</v>
+        <v>280000</v>
       </c>
       <c r="G262">
-        <v>20000</v>
+        <v>280000</v>
       </c>
       <c r="H262">
         <v>21</v>
       </c>
       <c r="I262">
-        <v>20000</v>
+        <v>280000</v>
       </c>
       <c r="J262">
-        <v>20000</v>
+        <v>280000</v>
       </c>
       <c r="K262">
-        <v>20000</v>
+        <v>280000</v>
       </c>
       <c r="L262">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M262">
         <v>0</v>
@@ -15840,10 +15849,10 @@
         <v>8806095755458</v>
       </c>
       <c r="B263" t="s">
+        <v>480</v>
+      </c>
+      <c r="C263" t="s">
         <v>479</v>
-      </c>
-      <c r="C263" t="s">
-        <v>480</v>
       </c>
       <c r="E263" t="s">
         <v>176</v>
@@ -28568,7 +28577,7 @@
         <v>3864</v>
       </c>
       <c r="L564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M564">
         <v>0</v>
@@ -34430,7 +34439,7 @@
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>7799135011861</v>
+        <v>7798397481009</v>
       </c>
       <c r="B702" t="s">
         <v>1291</v>
@@ -34439,42 +34448,42 @@
         <v>341</v>
       </c>
       <c r="D702" t="s">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="E702" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="F702">
-        <v>8176</v>
+        <v>10000</v>
       </c>
       <c r="G702">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="H702">
         <v>21</v>
       </c>
       <c r="I702">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="J702">
-        <v>8176</v>
+        <v>10000</v>
       </c>
       <c r="K702">
-        <v>8176</v>
+        <v>10000</v>
       </c>
       <c r="L702">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M702">
         <v>0</v>
       </c>
       <c r="N702">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>7895168020167</v>
+        <v>7799135011861</v>
       </c>
       <c r="B703" t="s">
         <v>1292</v>
@@ -34483,25 +34492,28 @@
         <v>341</v>
       </c>
       <c r="D703" t="s">
-        <v>265</v>
+        <v>28</v>
+      </c>
+      <c r="E703" t="s">
+        <v>101</v>
       </c>
       <c r="F703">
-        <v>4900</v>
+        <v>8176</v>
       </c>
       <c r="G703">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="H703">
         <v>21</v>
       </c>
       <c r="I703">
-        <v>4900</v>
+        <v>18000</v>
       </c>
       <c r="J703">
-        <v>4900</v>
+        <v>8176</v>
       </c>
       <c r="K703">
-        <v>4900</v>
+        <v>8176</v>
       </c>
       <c r="L703">
         <v>0</v>
@@ -34510,97 +34522,97 @@
         <v>0</v>
       </c>
       <c r="N703">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+      <c r="A704">
+        <v>7895168020167</v>
+      </c>
+      <c r="B704" t="s">
         <v>1293</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1294</v>
       </c>
       <c r="C704" t="s">
         <v>341</v>
       </c>
       <c r="D704" t="s">
-        <v>31</v>
-      </c>
-      <c r="E704" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="F704">
-        <v>9692</v>
+        <v>4900</v>
       </c>
       <c r="G704">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="H704">
         <v>21</v>
       </c>
       <c r="I704">
-        <v>32000</v>
+        <v>4900</v>
       </c>
       <c r="J704">
-        <v>9692</v>
+        <v>4900</v>
       </c>
       <c r="K704">
-        <v>9692</v>
+        <v>4900</v>
       </c>
       <c r="L704">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M704">
         <v>0</v>
       </c>
       <c r="N704">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A705">
-        <v>7798347600771</v>
+      <c r="A705" t="s">
+        <v>1294</v>
       </c>
       <c r="B705" t="s">
         <v>1295</v>
       </c>
       <c r="C705" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="D705" t="s">
+        <v>31</v>
+      </c>
+      <c r="E705" t="s">
+        <v>101</v>
+      </c>
+      <c r="F705">
+        <v>9692</v>
+      </c>
+      <c r="G705">
+        <v>42000</v>
+      </c>
+      <c r="H705">
+        <v>21</v>
+      </c>
+      <c r="I705">
+        <v>32000</v>
+      </c>
+      <c r="J705">
+        <v>9692</v>
+      </c>
+      <c r="K705">
+        <v>9692</v>
+      </c>
+      <c r="L705">
         <v>3</v>
       </c>
-      <c r="F705">
-        <v>7800</v>
-      </c>
-      <c r="G705">
-        <v>16000</v>
-      </c>
-      <c r="H705">
-        <v>21</v>
-      </c>
-      <c r="I705">
-        <v>7800</v>
-      </c>
-      <c r="J705">
-        <v>7800</v>
-      </c>
-      <c r="K705">
-        <v>7800</v>
-      </c>
-      <c r="L705">
-        <v>0</v>
-      </c>
       <c r="M705">
         <v>0</v>
       </c>
       <c r="N705">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>6975842015761</v>
+        <v>7798347600771</v>
       </c>
       <c r="B706" t="s">
         <v>1296</v>
@@ -34612,25 +34624,25 @@
         <v>3</v>
       </c>
       <c r="F706">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="G706">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="H706">
         <v>21</v>
       </c>
       <c r="I706">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="J706">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="K706">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="L706">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M706">
         <v>0</v>
@@ -34641,10 +34653,10 @@
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>7798347600801</v>
+        <v>6975842015761</v>
       </c>
       <c r="B707" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C707" t="s">
         <v>277</v>
@@ -34653,66 +34665,66 @@
         <v>3</v>
       </c>
       <c r="F707">
+        <v>7500</v>
+      </c>
+      <c r="G707">
+        <v>18000</v>
+      </c>
+      <c r="H707">
+        <v>21</v>
+      </c>
+      <c r="I707">
+        <v>7500</v>
+      </c>
+      <c r="J707">
+        <v>7500</v>
+      </c>
+      <c r="K707">
+        <v>7500</v>
+      </c>
+      <c r="L707">
+        <v>2</v>
+      </c>
+      <c r="M707">
+        <v>0</v>
+      </c>
+      <c r="N707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>7798347600801</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C708" t="s">
+        <v>277</v>
+      </c>
+      <c r="D708" t="s">
+        <v>3</v>
+      </c>
+      <c r="F708">
         <v>5000</v>
       </c>
-      <c r="G707">
+      <c r="G708">
         <v>12500</v>
       </c>
-      <c r="H707">
-        <v>21</v>
-      </c>
-      <c r="I707">
+      <c r="H708">
+        <v>21</v>
+      </c>
+      <c r="I708">
         <v>5000</v>
       </c>
-      <c r="J707">
+      <c r="J708">
         <v>5000</v>
       </c>
-      <c r="K707">
+      <c r="K708">
         <v>5000</v>
       </c>
-      <c r="L707">
+      <c r="L708">
         <v>3</v>
-      </c>
-      <c r="M707">
-        <v>0</v>
-      </c>
-      <c r="N707">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B708" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C708" t="s">
-        <v>488</v>
-      </c>
-      <c r="D708" t="s">
-        <v>47</v>
-      </c>
-      <c r="F708">
-        <v>8500</v>
-      </c>
-      <c r="G708">
-        <v>24000</v>
-      </c>
-      <c r="H708">
-        <v>21</v>
-      </c>
-      <c r="I708">
-        <v>8500</v>
-      </c>
-      <c r="J708">
-        <v>8500</v>
-      </c>
-      <c r="K708">
-        <v>8500</v>
-      </c>
-      <c r="L708">
-        <v>1</v>
       </c>
       <c r="M708">
         <v>0</v>
@@ -34723,37 +34735,37 @@
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B709" t="s">
         <v>1299</v>
       </c>
-      <c r="B709" t="s">
-        <v>1300</v>
-      </c>
       <c r="C709" t="s">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="D709" t="s">
         <v>47</v>
       </c>
       <c r="F709">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="G709">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="H709">
         <v>21</v>
       </c>
       <c r="I709">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="J709">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="K709">
-        <v>700</v>
+        <v>8500</v>
       </c>
       <c r="L709">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M709">
         <v>0</v>
@@ -34763,79 +34775,79 @@
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A710">
-        <v>7798145004559</v>
+      <c r="A710" t="s">
+        <v>1300</v>
       </c>
       <c r="B710" t="s">
         <v>1301</v>
       </c>
       <c r="C710" t="s">
+        <v>384</v>
+      </c>
+      <c r="D710" t="s">
+        <v>47</v>
+      </c>
+      <c r="F710">
+        <v>700</v>
+      </c>
+      <c r="G710">
+        <v>2400</v>
+      </c>
+      <c r="H710">
+        <v>21</v>
+      </c>
+      <c r="I710">
+        <v>700</v>
+      </c>
+      <c r="J710">
+        <v>700</v>
+      </c>
+      <c r="K710">
+        <v>700</v>
+      </c>
+      <c r="L710">
+        <v>0</v>
+      </c>
+      <c r="M710">
+        <v>0</v>
+      </c>
+      <c r="N710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>7798145004559</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C711" t="s">
         <v>274</v>
       </c>
-      <c r="D710" t="s">
+      <c r="D711" t="s">
         <v>3</v>
       </c>
-      <c r="F710">
+      <c r="F711">
         <v>5400</v>
       </c>
-      <c r="G710">
+      <c r="G711">
         <v>12000</v>
       </c>
-      <c r="H710">
-        <v>21</v>
-      </c>
-      <c r="I710">
-        <v>0</v>
-      </c>
-      <c r="J710">
-        <v>0</v>
-      </c>
-      <c r="K710">
-        <v>0</v>
-      </c>
-      <c r="L710">
+      <c r="H711">
+        <v>21</v>
+      </c>
+      <c r="I711">
+        <v>0</v>
+      </c>
+      <c r="J711">
+        <v>0</v>
+      </c>
+      <c r="K711">
+        <v>0</v>
+      </c>
+      <c r="L711">
         <v>2</v>
-      </c>
-      <c r="M710">
-        <v>0</v>
-      </c>
-      <c r="N710">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C711" t="s">
-        <v>36</v>
-      </c>
-      <c r="D711" t="s">
-        <v>31</v>
-      </c>
-      <c r="F711">
-        <v>1585</v>
-      </c>
-      <c r="G711">
-        <v>6000</v>
-      </c>
-      <c r="H711">
-        <v>21</v>
-      </c>
-      <c r="I711">
-        <v>1585</v>
-      </c>
-      <c r="J711">
-        <v>1585</v>
-      </c>
-      <c r="K711">
-        <v>1585</v>
-      </c>
-      <c r="L711">
-        <v>5</v>
       </c>
       <c r="M711">
         <v>0</v>
@@ -34846,37 +34858,37 @@
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B712" t="s">
         <v>1304</v>
-      </c>
-      <c r="B712" t="s">
-        <v>1305</v>
       </c>
       <c r="C712" t="s">
         <v>36</v>
       </c>
       <c r="D712" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F712">
-        <v>1389.4</v>
+        <v>1585</v>
       </c>
       <c r="G712">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="H712">
         <v>21</v>
       </c>
       <c r="I712">
-        <v>1389.4</v>
+        <v>1585</v>
       </c>
       <c r="J712">
-        <v>1389.4</v>
+        <v>1585</v>
       </c>
       <c r="K712">
-        <v>1389.4</v>
+        <v>1585</v>
       </c>
       <c r="L712">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M712">
         <v>0</v>
@@ -34887,78 +34899,78 @@
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B713" t="s">
         <v>1306</v>
       </c>
-      <c r="B713" t="s">
+      <c r="C713" t="s">
+        <v>36</v>
+      </c>
+      <c r="D713" t="s">
+        <v>47</v>
+      </c>
+      <c r="F713">
+        <v>1389.4</v>
+      </c>
+      <c r="G713">
+        <v>7500</v>
+      </c>
+      <c r="H713">
+        <v>21</v>
+      </c>
+      <c r="I713">
+        <v>1389.4</v>
+      </c>
+      <c r="J713">
+        <v>1389.4</v>
+      </c>
+      <c r="K713">
+        <v>1389.4</v>
+      </c>
+      <c r="L713">
+        <v>1</v>
+      </c>
+      <c r="M713">
+        <v>0</v>
+      </c>
+      <c r="N713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
         <v>1307</v>
-      </c>
-      <c r="C713" t="s">
-        <v>384</v>
-      </c>
-      <c r="D713" t="s">
-        <v>3</v>
-      </c>
-      <c r="F713">
-        <v>0</v>
-      </c>
-      <c r="G713">
-        <v>1900</v>
-      </c>
-      <c r="H713">
-        <v>21</v>
-      </c>
-      <c r="I713">
-        <v>0</v>
-      </c>
-      <c r="J713">
-        <v>0</v>
-      </c>
-      <c r="K713">
-        <v>0</v>
-      </c>
-      <c r="L713">
-        <v>0</v>
-      </c>
-      <c r="M713">
-        <v>0</v>
-      </c>
-      <c r="N713">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A714">
-        <v>6904004020214</v>
       </c>
       <c r="B714" t="s">
         <v>1308</v>
       </c>
       <c r="C714" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="D714" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F714">
-        <v>16300</v>
+        <v>0</v>
       </c>
       <c r="G714">
-        <v>37999</v>
+        <v>1900</v>
       </c>
       <c r="H714">
         <v>21</v>
       </c>
       <c r="I714">
-        <v>16300</v>
+        <v>0</v>
       </c>
       <c r="J714">
-        <v>16300</v>
+        <v>0</v>
       </c>
       <c r="K714">
-        <v>16300</v>
+        <v>0</v>
       </c>
       <c r="L714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M714">
         <v>0</v>
@@ -34968,38 +34980,35 @@
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+      <c r="A715">
+        <v>6904004020214</v>
+      </c>
+      <c r="B715" t="s">
         <v>1309</v>
-      </c>
-      <c r="B715" t="s">
-        <v>1310</v>
       </c>
       <c r="C715" t="s">
         <v>56</v>
       </c>
       <c r="D715" t="s">
-        <v>47</v>
-      </c>
-      <c r="E715" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F715">
-        <v>34734</v>
+        <v>16300</v>
       </c>
       <c r="G715">
-        <v>62000</v>
+        <v>37999</v>
       </c>
       <c r="H715">
         <v>21</v>
       </c>
       <c r="I715">
-        <v>34734</v>
+        <v>16300</v>
       </c>
       <c r="J715">
-        <v>34734</v>
+        <v>16300</v>
       </c>
       <c r="K715">
-        <v>34734</v>
+        <v>16300</v>
       </c>
       <c r="L715">
         <v>1</v>
@@ -35012,38 +35021,38 @@
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A716">
-        <v>6972831212331</v>
+      <c r="A716" t="s">
+        <v>1310</v>
       </c>
       <c r="B716" t="s">
         <v>1311</v>
       </c>
       <c r="C716" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="D716" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E716" t="s">
-        <v>527</v>
+        <v>58</v>
       </c>
       <c r="F716">
-        <v>7712</v>
+        <v>34734</v>
       </c>
       <c r="G716">
-        <v>24000</v>
+        <v>62000</v>
       </c>
       <c r="H716">
         <v>21</v>
       </c>
       <c r="I716">
-        <v>7712</v>
+        <v>34734</v>
       </c>
       <c r="J716">
-        <v>7712</v>
+        <v>34734</v>
       </c>
       <c r="K716">
-        <v>7712</v>
+        <v>34734</v>
       </c>
       <c r="L716">
         <v>1</v>
@@ -35056,11 +35065,11 @@
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+      <c r="A717">
+        <v>6972831212331</v>
+      </c>
+      <c r="B717" t="s">
         <v>1312</v>
-      </c>
-      <c r="B717" t="s">
-        <v>1313</v>
       </c>
       <c r="C717" t="s">
         <v>274</v>
@@ -35069,28 +35078,28 @@
         <v>31</v>
       </c>
       <c r="E717" t="s">
-        <v>58</v>
+        <v>527</v>
       </c>
       <c r="F717">
-        <v>13568</v>
+        <v>7712</v>
       </c>
       <c r="G717">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="H717">
         <v>21</v>
       </c>
       <c r="I717">
-        <v>13568</v>
+        <v>7712</v>
       </c>
       <c r="J717">
-        <v>13568</v>
+        <v>7712</v>
       </c>
       <c r="K717">
-        <v>13568</v>
+        <v>7712</v>
       </c>
       <c r="L717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M717">
         <v>0</v>
@@ -35100,8 +35109,8 @@
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A718">
-        <v>6958210712401</v>
+      <c r="A718" t="s">
+        <v>1313</v>
       </c>
       <c r="B718" t="s">
         <v>1314</v>
@@ -35110,31 +35119,31 @@
         <v>274</v>
       </c>
       <c r="D718" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E718" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F718">
-        <v>10800</v>
+        <v>13568</v>
       </c>
       <c r="G718">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="H718">
         <v>21</v>
       </c>
       <c r="I718">
-        <v>10800</v>
+        <v>13568</v>
       </c>
       <c r="J718">
-        <v>10800</v>
+        <v>13568</v>
       </c>
       <c r="K718">
-        <v>10800</v>
+        <v>13568</v>
       </c>
       <c r="L718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M718">
         <v>0</v>
@@ -35145,7 +35154,7 @@
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>6963490162686</v>
+        <v>6958210712401</v>
       </c>
       <c r="B719" t="s">
         <v>1315</v>
@@ -35154,25 +35163,28 @@
         <v>274</v>
       </c>
       <c r="D719" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E719" t="s">
+        <v>66</v>
       </c>
       <c r="F719">
-        <v>5586</v>
+        <v>10800</v>
       </c>
       <c r="G719">
-        <v>11200</v>
+        <v>26000</v>
       </c>
       <c r="H719">
         <v>21</v>
       </c>
       <c r="I719">
-        <v>5586</v>
+        <v>10800</v>
       </c>
       <c r="J719">
-        <v>5586</v>
+        <v>10800</v>
       </c>
       <c r="K719">
-        <v>5586</v>
+        <v>10800</v>
       </c>
       <c r="L719">
         <v>1</v>
@@ -35186,7 +35198,7 @@
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>6955549333260</v>
+        <v>6963490162686</v>
       </c>
       <c r="B720" t="s">
         <v>1316</v>
@@ -35195,28 +35207,25 @@
         <v>274</v>
       </c>
       <c r="D720" t="s">
-        <v>47</v>
-      </c>
-      <c r="E720" t="s">
-        <v>1317</v>
+        <v>31</v>
       </c>
       <c r="F720">
-        <v>10500</v>
+        <v>5586</v>
       </c>
       <c r="G720">
-        <v>18900</v>
+        <v>11200</v>
       </c>
       <c r="H720">
         <v>21</v>
       </c>
       <c r="I720">
-        <v>10500</v>
+        <v>5586</v>
       </c>
       <c r="J720">
-        <v>10500</v>
+        <v>5586</v>
       </c>
       <c r="K720">
-        <v>10500</v>
+        <v>5586</v>
       </c>
       <c r="L720">
         <v>1</v>
@@ -35230,40 +35239,40 @@
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>6958210701405</v>
+        <v>6955549333260</v>
       </c>
       <c r="B721" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C721" t="s">
         <v>274</v>
       </c>
       <c r="D721" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E721" t="s">
-        <v>1241</v>
+        <v>1318</v>
       </c>
       <c r="F721">
-        <v>7100</v>
+        <v>10500</v>
       </c>
       <c r="G721">
-        <v>16000</v>
+        <v>18900</v>
       </c>
       <c r="H721">
         <v>21</v>
       </c>
       <c r="I721">
-        <v>7100</v>
+        <v>10500</v>
       </c>
       <c r="J721">
-        <v>7100</v>
+        <v>10500</v>
       </c>
       <c r="K721">
-        <v>7100</v>
+        <v>10500</v>
       </c>
       <c r="L721">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M721">
         <v>0</v>
@@ -35274,92 +35283,95 @@
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>8201756735006</v>
+        <v>6958210701405</v>
       </c>
       <c r="B722" t="s">
         <v>1319</v>
       </c>
       <c r="C722" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="D722" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E722" t="s">
-        <v>101</v>
+        <v>1241</v>
       </c>
       <c r="F722">
-        <v>10795</v>
+        <v>7100</v>
       </c>
       <c r="G722">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="H722">
         <v>21</v>
       </c>
       <c r="I722">
-        <v>10795</v>
+        <v>7100</v>
       </c>
       <c r="J722">
-        <v>10795</v>
+        <v>7100</v>
       </c>
       <c r="K722">
-        <v>10795</v>
+        <v>7100</v>
       </c>
       <c r="L722">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M722">
         <v>0</v>
       </c>
       <c r="N722">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>763571815083</v>
+        <v>8201756735006</v>
       </c>
       <c r="B723" t="s">
         <v>1320</v>
       </c>
       <c r="C723" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="D723" t="s">
         <v>31</v>
       </c>
+      <c r="E723" t="s">
+        <v>101</v>
+      </c>
       <c r="F723">
-        <v>7800</v>
+        <v>10795</v>
       </c>
       <c r="G723">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="H723">
         <v>21</v>
       </c>
       <c r="I723">
-        <v>7800</v>
+        <v>10795</v>
       </c>
       <c r="J723">
-        <v>7800</v>
+        <v>10795</v>
       </c>
       <c r="K723">
-        <v>7800</v>
+        <v>10795</v>
       </c>
       <c r="L723">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M723">
         <v>0</v>
       </c>
       <c r="N723">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>8214729653849</v>
+        <v>763571815083</v>
       </c>
       <c r="B724" t="s">
         <v>1321</v>
@@ -35371,25 +35383,25 @@
         <v>31</v>
       </c>
       <c r="F724">
-        <v>2328</v>
+        <v>7800</v>
       </c>
       <c r="G724">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="H724">
         <v>21</v>
       </c>
       <c r="I724">
-        <v>2328</v>
+        <v>7800</v>
       </c>
       <c r="J724">
-        <v>2328</v>
+        <v>7800</v>
       </c>
       <c r="K724">
-        <v>2328</v>
+        <v>7800</v>
       </c>
       <c r="L724">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M724">
         <v>0</v>
@@ -35399,38 +35411,38 @@
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+      <c r="A725">
+        <v>8214729653849</v>
+      </c>
+      <c r="B725" t="s">
         <v>1322</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1323</v>
       </c>
       <c r="C725" t="s">
         <v>76</v>
       </c>
       <c r="D725" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F725">
-        <v>4500</v>
+        <v>2328</v>
       </c>
       <c r="G725">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="H725">
         <v>21</v>
       </c>
       <c r="I725">
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="J725">
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="K725">
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="L725">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M725">
         <v>0</v>
@@ -35440,38 +35452,38 @@
       </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A726">
-        <v>5901234123457</v>
+      <c r="A726" t="s">
+        <v>1323</v>
       </c>
       <c r="B726" t="s">
         <v>1324</v>
       </c>
       <c r="C726" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D726" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F726">
-        <v>26300</v>
+        <v>4500</v>
       </c>
       <c r="G726">
-        <v>52000</v>
+        <v>10000</v>
       </c>
       <c r="H726">
         <v>21</v>
       </c>
       <c r="I726">
-        <v>26300</v>
+        <v>0</v>
       </c>
       <c r="J726">
-        <v>26300</v>
+        <v>0</v>
       </c>
       <c r="K726">
-        <v>26300</v>
+        <v>0</v>
       </c>
       <c r="L726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M726">
         <v>0</v>
@@ -35482,7 +35494,7 @@
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>723540564831</v>
+        <v>5901234123457</v>
       </c>
       <c r="B727" t="s">
         <v>1325</v>
@@ -35491,28 +35503,25 @@
         <v>62</v>
       </c>
       <c r="D727" t="s">
-        <v>31</v>
-      </c>
-      <c r="E727" t="s">
-        <v>1326</v>
+        <v>57</v>
       </c>
       <c r="F727">
-        <v>21500</v>
+        <v>26300</v>
       </c>
       <c r="G727">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="H727">
         <v>21</v>
       </c>
       <c r="I727">
-        <v>21500</v>
+        <v>26300</v>
       </c>
       <c r="J727">
-        <v>21500</v>
+        <v>26300</v>
       </c>
       <c r="K727">
-        <v>21500</v>
+        <v>26300</v>
       </c>
       <c r="L727">
         <v>2</v>
@@ -35526,40 +35535,40 @@
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>7799135013018</v>
+        <v>723540564831</v>
       </c>
       <c r="B728" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C728" t="s">
         <v>62</v>
       </c>
       <c r="D728" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E728" t="s">
-        <v>66</v>
+        <v>1327</v>
       </c>
       <c r="F728">
-        <v>29820</v>
+        <v>21500</v>
       </c>
       <c r="G728">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H728">
         <v>21</v>
       </c>
       <c r="I728">
-        <v>29820</v>
+        <v>21500</v>
       </c>
       <c r="J728">
-        <v>29820</v>
+        <v>21500</v>
       </c>
       <c r="K728">
-        <v>29820</v>
+        <v>21500</v>
       </c>
       <c r="L728">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M728">
         <v>0</v>
@@ -35570,92 +35579,95 @@
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>6988886869543</v>
+        <v>7799135013018</v>
       </c>
       <c r="B729" t="s">
         <v>1328</v>
       </c>
       <c r="C729" t="s">
-        <v>594</v>
+        <v>62</v>
       </c>
       <c r="D729" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E729" t="s">
+        <v>66</v>
       </c>
       <c r="F729">
-        <v>1450</v>
+        <v>29820</v>
       </c>
       <c r="G729">
-        <v>3700</v>
+        <v>60000</v>
       </c>
       <c r="H729">
         <v>21</v>
       </c>
       <c r="I729">
-        <v>1450</v>
+        <v>29820</v>
       </c>
       <c r="J729">
-        <v>1450</v>
+        <v>29820</v>
       </c>
       <c r="K729">
-        <v>1450</v>
+        <v>29820</v>
       </c>
       <c r="L729">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M729">
         <v>0</v>
       </c>
       <c r="N729">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+      <c r="A730">
+        <v>6988886869543</v>
+      </c>
+      <c r="B730" t="s">
         <v>1329</v>
-      </c>
-      <c r="B730" t="s">
-        <v>1330</v>
       </c>
       <c r="C730" t="s">
         <v>594</v>
       </c>
       <c r="D730" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F730">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="G730">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="H730">
         <v>21</v>
       </c>
       <c r="I730">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="J730">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="K730">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="L730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M730">
         <v>0</v>
       </c>
       <c r="N730">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B731" t="s">
         <v>1331</v>
-      </c>
-      <c r="B731" t="s">
-        <v>1332</v>
       </c>
       <c r="C731" t="s">
         <v>594</v>
@@ -35664,25 +35676,25 @@
         <v>17</v>
       </c>
       <c r="F731">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G731">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H731">
         <v>21</v>
       </c>
       <c r="I731">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J731">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K731">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L731">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M731">
         <v>0</v>
@@ -35693,37 +35705,37 @@
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B732" t="s">
         <v>1333</v>
-      </c>
-      <c r="B732" t="s">
-        <v>1334</v>
       </c>
       <c r="C732" t="s">
         <v>594</v>
       </c>
       <c r="D732" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F732">
-        <v>2652</v>
+        <v>500</v>
       </c>
       <c r="G732">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="H732">
         <v>21</v>
       </c>
       <c r="I732">
-        <v>2652</v>
+        <v>500</v>
       </c>
       <c r="J732">
-        <v>2652</v>
+        <v>500</v>
       </c>
       <c r="K732">
-        <v>2652</v>
+        <v>500</v>
       </c>
       <c r="L732">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M732">
         <v>0</v>
@@ -35734,37 +35746,37 @@
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B733" t="s">
         <v>1335</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1336</v>
       </c>
       <c r="C733" t="s">
         <v>594</v>
       </c>
       <c r="D733" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F733">
-        <v>1069</v>
+        <v>2652</v>
       </c>
       <c r="G733">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="H733">
         <v>21</v>
       </c>
       <c r="I733">
-        <v>1069</v>
+        <v>2652</v>
       </c>
       <c r="J733">
-        <v>1069</v>
+        <v>2652</v>
       </c>
       <c r="K733">
-        <v>1069</v>
+        <v>2652</v>
       </c>
       <c r="L733">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M733">
         <v>0</v>
@@ -35775,37 +35787,37 @@
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B734" t="s">
         <v>1337</v>
-      </c>
-      <c r="B734" t="s">
-        <v>1338</v>
       </c>
       <c r="C734" t="s">
         <v>594</v>
       </c>
       <c r="D734" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F734">
-        <v>600</v>
+        <v>1069</v>
       </c>
       <c r="G734">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="H734">
         <v>21</v>
       </c>
       <c r="I734">
-        <v>600</v>
+        <v>1069</v>
       </c>
       <c r="J734">
-        <v>600</v>
+        <v>1069</v>
       </c>
       <c r="K734">
-        <v>600</v>
+        <v>1069</v>
       </c>
       <c r="L734">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M734">
         <v>0</v>
@@ -35815,8 +35827,8 @@
       </c>
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A735">
-        <v>7821234522365</v>
+      <c r="A735" t="s">
+        <v>1338</v>
       </c>
       <c r="B735" t="s">
         <v>1339</v>
@@ -35825,25 +35837,25 @@
         <v>594</v>
       </c>
       <c r="D735" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="F735">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G735">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H735">
         <v>21</v>
       </c>
       <c r="I735">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J735">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K735">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L735">
         <v>3</v>
@@ -35856,11 +35868,11 @@
       </c>
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+      <c r="A736">
+        <v>7821234522365</v>
+      </c>
+      <c r="B736" t="s">
         <v>1340</v>
-      </c>
-      <c r="B736" t="s">
-        <v>1341</v>
       </c>
       <c r="C736" t="s">
         <v>594</v>
@@ -35869,25 +35881,25 @@
         <v>173</v>
       </c>
       <c r="F736">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="G736">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="H736">
         <v>21</v>
       </c>
       <c r="I736">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="J736">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K736">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="L736">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M736">
         <v>0</v>
@@ -35898,37 +35910,37 @@
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B737" t="s">
         <v>1342</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1343</v>
       </c>
       <c r="C737" t="s">
         <v>594</v>
       </c>
       <c r="D737" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="F737">
-        <v>1328</v>
+        <v>1600</v>
       </c>
       <c r="G737">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="H737">
         <v>21</v>
       </c>
       <c r="I737">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J737">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K737">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="L737">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M737">
         <v>0</v>
@@ -35939,40 +35951,37 @@
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B738" t="s">
         <v>1344</v>
-      </c>
-      <c r="B738" t="s">
-        <v>1345</v>
       </c>
       <c r="C738" t="s">
         <v>594</v>
       </c>
       <c r="D738" t="s">
-        <v>31</v>
-      </c>
-      <c r="E738" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F738">
-        <v>3900</v>
+        <v>1328</v>
       </c>
       <c r="G738">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="H738">
         <v>21</v>
       </c>
       <c r="I738">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="J738">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="K738">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="L738">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M738">
         <v>0</v>
@@ -35983,48 +35992,51 @@
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B739" t="s">
         <v>1346</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1347</v>
       </c>
       <c r="C739" t="s">
         <v>594</v>
       </c>
       <c r="D739" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="E739" t="s">
+        <v>101</v>
       </c>
       <c r="F739">
-        <v>500</v>
+        <v>3900</v>
       </c>
       <c r="G739">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="H739">
         <v>21</v>
       </c>
       <c r="I739">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="J739">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="K739">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="L739">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M739">
         <v>0</v>
       </c>
       <c r="N739">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A740">
-        <v>7798145005969</v>
+      <c r="A740" t="s">
+        <v>1347</v>
       </c>
       <c r="B740" t="s">
         <v>1348</v>
@@ -36033,72 +36045,69 @@
         <v>594</v>
       </c>
       <c r="D740" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F740">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G740">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="H740">
         <v>21</v>
       </c>
       <c r="I740">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J740">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K740">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="L740">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M740">
         <v>0</v>
       </c>
       <c r="N740">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>6974504506013</v>
+        <v>7798145005969</v>
       </c>
       <c r="B741" t="s">
         <v>1349</v>
       </c>
       <c r="C741" t="s">
-        <v>62</v>
+        <v>594</v>
       </c>
       <c r="D741" t="s">
-        <v>57</v>
-      </c>
-      <c r="E741" t="s">
-        <v>483</v>
+        <v>24</v>
       </c>
       <c r="F741">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="G741">
-        <v>7000</v>
+        <v>1600</v>
       </c>
       <c r="H741">
         <v>21</v>
       </c>
       <c r="I741">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="J741">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="K741">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="L741">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M741">
         <v>0</v>
@@ -36109,7 +36118,7 @@
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>7799135001664</v>
+        <v>6974504506013</v>
       </c>
       <c r="B742" t="s">
         <v>1350</v>
@@ -36118,28 +36127,28 @@
         <v>62</v>
       </c>
       <c r="D742" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E742" t="s">
-        <v>66</v>
+        <v>483</v>
       </c>
       <c r="F742">
-        <v>3628.5</v>
+        <v>2900</v>
       </c>
       <c r="G742">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="H742">
         <v>21</v>
       </c>
       <c r="I742">
-        <v>3628.5</v>
+        <v>2900</v>
       </c>
       <c r="J742">
-        <v>3628.5</v>
+        <v>2900</v>
       </c>
       <c r="K742">
-        <v>3628.5</v>
+        <v>2900</v>
       </c>
       <c r="L742">
         <v>1</v>
@@ -36153,7 +36162,7 @@
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>7798423540649</v>
+        <v>7799135001664</v>
       </c>
       <c r="B743" t="s">
         <v>1351</v>
@@ -36162,28 +36171,31 @@
         <v>62</v>
       </c>
       <c r="D743" t="s">
-        <v>126</v>
+        <v>28</v>
+      </c>
+      <c r="E743" t="s">
+        <v>66</v>
       </c>
       <c r="F743">
-        <v>4400</v>
+        <v>3628.5</v>
       </c>
       <c r="G743">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="H743">
         <v>21</v>
       </c>
       <c r="I743">
-        <v>4400</v>
+        <v>3628.5</v>
       </c>
       <c r="J743">
-        <v>4400</v>
+        <v>3628.5</v>
       </c>
       <c r="K743">
-        <v>4400</v>
+        <v>3628.5</v>
       </c>
       <c r="L743">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M743">
         <v>0</v>
@@ -36194,7 +36206,7 @@
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>6974504501018</v>
+        <v>7798423540649</v>
       </c>
       <c r="B744" t="s">
         <v>1352</v>
@@ -36203,28 +36215,28 @@
         <v>62</v>
       </c>
       <c r="D744" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F744">
-        <v>9900</v>
+        <v>4400</v>
       </c>
       <c r="G744">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="H744">
         <v>21</v>
       </c>
       <c r="I744">
-        <v>9900</v>
+        <v>4400</v>
       </c>
       <c r="J744">
-        <v>9900</v>
+        <v>4400</v>
       </c>
       <c r="K744">
-        <v>9900</v>
+        <v>4400</v>
       </c>
       <c r="L744">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M744">
         <v>0</v>
@@ -36235,40 +36247,37 @@
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>843367116218</v>
+        <v>6974504501018</v>
       </c>
       <c r="B745" t="s">
         <v>1353</v>
       </c>
       <c r="C745" t="s">
-        <v>686</v>
+        <v>62</v>
       </c>
       <c r="D745" t="s">
-        <v>330</v>
-      </c>
-      <c r="E745" t="s">
-        <v>1354</v>
+        <v>57</v>
       </c>
       <c r="F745">
-        <v>18444</v>
+        <v>9900</v>
       </c>
       <c r="G745">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="H745">
         <v>21</v>
       </c>
       <c r="I745">
-        <v>18444</v>
+        <v>9900</v>
       </c>
       <c r="J745">
-        <v>18444</v>
+        <v>9900</v>
       </c>
       <c r="K745">
-        <v>18444</v>
+        <v>9900</v>
       </c>
       <c r="L745">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M745">
         <v>0</v>
@@ -36279,10 +36288,10 @@
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>7448070134219</v>
+        <v>843367116218</v>
       </c>
       <c r="B746" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C746" t="s">
         <v>686</v>
@@ -36291,69 +36300,72 @@
         <v>330</v>
       </c>
       <c r="E746" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F746">
+        <v>18444</v>
+      </c>
+      <c r="G746">
+        <v>34000</v>
+      </c>
+      <c r="H746">
+        <v>21</v>
+      </c>
+      <c r="I746">
+        <v>18444</v>
+      </c>
+      <c r="J746">
+        <v>18444</v>
+      </c>
+      <c r="K746">
+        <v>18444</v>
+      </c>
+      <c r="L746">
+        <v>0</v>
+      </c>
+      <c r="M746">
+        <v>0</v>
+      </c>
+      <c r="N746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>7448070134219</v>
+      </c>
+      <c r="B747" t="s">
         <v>1356</v>
       </c>
-      <c r="F746">
+      <c r="C747" t="s">
+        <v>686</v>
+      </c>
+      <c r="D747" t="s">
+        <v>330</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F747">
         <v>17600</v>
       </c>
-      <c r="G746">
+      <c r="G747">
         <v>32000</v>
       </c>
-      <c r="H746">
-        <v>21</v>
-      </c>
-      <c r="I746">
+      <c r="H747">
+        <v>21</v>
+      </c>
+      <c r="I747">
         <v>17600</v>
       </c>
-      <c r="J746">
+      <c r="J747">
         <v>17600</v>
       </c>
-      <c r="K746">
+      <c r="K747">
         <v>17600</v>
       </c>
-      <c r="L746">
+      <c r="L747">
         <v>2</v>
-      </c>
-      <c r="M746">
-        <v>0</v>
-      </c>
-      <c r="N746">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C747" t="s">
-        <v>36</v>
-      </c>
-      <c r="D747" t="s">
-        <v>47</v>
-      </c>
-      <c r="F747">
-        <v>900</v>
-      </c>
-      <c r="G747">
-        <v>3500</v>
-      </c>
-      <c r="H747">
-        <v>21</v>
-      </c>
-      <c r="I747">
-        <v>900</v>
-      </c>
-      <c r="J747">
-        <v>900</v>
-      </c>
-      <c r="K747">
-        <v>900</v>
-      </c>
-      <c r="L747">
-        <v>3</v>
       </c>
       <c r="M747">
         <v>0</v>
@@ -36364,37 +36376,37 @@
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B748" t="s">
         <v>1359</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1360</v>
       </c>
       <c r="C748" t="s">
         <v>36</v>
       </c>
       <c r="D748" t="s">
-        <v>500</v>
+        <v>47</v>
       </c>
       <c r="F748">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="G748">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="H748">
         <v>21</v>
       </c>
       <c r="I748">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J748">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K748">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="L748">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M748">
         <v>0</v>
@@ -36405,40 +36417,37 @@
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B749" t="s">
         <v>1361</v>
       </c>
-      <c r="B749" t="s">
-        <v>1362</v>
-      </c>
       <c r="C749" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="D749" t="s">
-        <v>28</v>
-      </c>
-      <c r="E749" t="s">
-        <v>1074</v>
+        <v>500</v>
       </c>
       <c r="F749">
-        <v>2264</v>
+        <v>650</v>
       </c>
       <c r="G749">
-        <v>8001</v>
+        <v>1500</v>
       </c>
       <c r="H749">
         <v>21</v>
       </c>
       <c r="I749">
-        <v>2264</v>
+        <v>0</v>
       </c>
       <c r="J749">
-        <v>2264</v>
+        <v>0</v>
       </c>
       <c r="K749">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L749">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M749">
         <v>0</v>
@@ -36449,43 +36458,46 @@
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B750" t="s">
         <v>1363</v>
       </c>
       <c r="C750" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="D750" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1074</v>
       </c>
       <c r="F750">
-        <v>2200</v>
+        <v>2264</v>
       </c>
       <c r="G750">
-        <v>4900</v>
+        <v>8001</v>
       </c>
       <c r="H750">
         <v>21</v>
       </c>
       <c r="I750">
-        <v>2200</v>
+        <v>2264</v>
       </c>
       <c r="J750">
-        <v>2200</v>
+        <v>2264</v>
       </c>
       <c r="K750">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="L750">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M750">
         <v>0</v>
       </c>
       <c r="N750">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.25">
@@ -36493,86 +36505,86 @@
         <v>1364</v>
       </c>
       <c r="B751" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C751" t="s">
+        <v>477</v>
+      </c>
+      <c r="D751" t="s">
+        <v>47</v>
+      </c>
+      <c r="F751">
+        <v>2200</v>
+      </c>
+      <c r="G751">
+        <v>4900</v>
+      </c>
+      <c r="H751">
+        <v>21</v>
+      </c>
+      <c r="I751">
+        <v>2200</v>
+      </c>
+      <c r="J751">
+        <v>2200</v>
+      </c>
+      <c r="K751">
+        <v>2200</v>
+      </c>
+      <c r="L751">
+        <v>0</v>
+      </c>
+      <c r="M751">
+        <v>0</v>
+      </c>
+      <c r="N751">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
         <v>1365</v>
-      </c>
-      <c r="C751" t="s">
-        <v>488</v>
-      </c>
-      <c r="E751" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F751">
-        <v>0</v>
-      </c>
-      <c r="G751">
-        <v>20000</v>
-      </c>
-      <c r="H751">
-        <v>21</v>
-      </c>
-      <c r="I751">
-        <v>0</v>
-      </c>
-      <c r="J751">
-        <v>0</v>
-      </c>
-      <c r="K751">
-        <v>0</v>
-      </c>
-      <c r="L751">
-        <v>-2</v>
-      </c>
-      <c r="M751">
-        <v>0</v>
-      </c>
-      <c r="N751">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A752">
-        <v>7799135009790</v>
       </c>
       <c r="B752" t="s">
         <v>1366</v>
       </c>
       <c r="C752" t="s">
-        <v>395</v>
-      </c>
-      <c r="D752" t="s">
-        <v>28</v>
+        <v>488</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1365</v>
       </c>
       <c r="F752">
-        <v>6519</v>
+        <v>0</v>
       </c>
       <c r="G752">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="H752">
         <v>21</v>
       </c>
       <c r="I752">
-        <v>6519</v>
+        <v>0</v>
       </c>
       <c r="J752">
-        <v>6519</v>
+        <v>0</v>
       </c>
       <c r="K752">
-        <v>6519</v>
+        <v>0</v>
       </c>
       <c r="L752">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="M752">
         <v>0</v>
       </c>
       <c r="N752">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>700306601221</v>
+        <v>7799135009790</v>
       </c>
       <c r="B753" t="s">
         <v>1367</v>
@@ -36581,28 +36593,28 @@
         <v>395</v>
       </c>
       <c r="D753" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F753">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="G753">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="H753">
         <v>21</v>
       </c>
       <c r="I753">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="J753">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="K753">
-        <v>4012</v>
+        <v>6519</v>
       </c>
       <c r="L753">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M753">
         <v>0</v>
@@ -36612,35 +36624,35 @@
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+      <c r="A754">
+        <v>700306601221</v>
+      </c>
+      <c r="B754" t="s">
         <v>1368</v>
       </c>
-      <c r="B754" t="s">
-        <v>1369</v>
-      </c>
       <c r="C754" t="s">
-        <v>1022</v>
+        <v>395</v>
       </c>
       <c r="D754" t="s">
         <v>31</v>
       </c>
       <c r="F754">
-        <v>11138</v>
+        <v>4012</v>
       </c>
       <c r="G754">
-        <v>32000</v>
+        <v>12500</v>
       </c>
       <c r="H754">
         <v>21</v>
       </c>
       <c r="I754">
-        <v>11138</v>
+        <v>4012</v>
       </c>
       <c r="J754">
-        <v>11138</v>
+        <v>4012</v>
       </c>
       <c r="K754">
-        <v>11138</v>
+        <v>4012</v>
       </c>
       <c r="L754">
         <v>2</v>
@@ -36649,42 +36661,42 @@
         <v>0</v>
       </c>
       <c r="N754">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B755" t="s">
         <v>1370</v>
       </c>
-      <c r="B755" t="s">
-        <v>1371</v>
-      </c>
       <c r="C755" t="s">
-        <v>56</v>
+        <v>1022</v>
       </c>
       <c r="D755" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F755">
-        <v>17496</v>
+        <v>11138</v>
       </c>
       <c r="G755">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="H755">
         <v>21</v>
       </c>
       <c r="I755">
-        <v>0</v>
+        <v>11138</v>
       </c>
       <c r="J755">
-        <v>0</v>
+        <v>11138</v>
       </c>
       <c r="K755">
-        <v>0</v>
+        <v>11138</v>
       </c>
       <c r="L755">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M755">
         <v>0</v>
@@ -36695,78 +36707,78 @@
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B756" t="s">
         <v>1372</v>
       </c>
-      <c r="B756" t="s">
+      <c r="C756" t="s">
+        <v>56</v>
+      </c>
+      <c r="D756" t="s">
+        <v>3</v>
+      </c>
+      <c r="F756">
+        <v>17496</v>
+      </c>
+      <c r="G756">
+        <v>35000</v>
+      </c>
+      <c r="H756">
+        <v>21</v>
+      </c>
+      <c r="I756">
+        <v>0</v>
+      </c>
+      <c r="J756">
+        <v>0</v>
+      </c>
+      <c r="K756">
+        <v>0</v>
+      </c>
+      <c r="L756">
+        <v>3</v>
+      </c>
+      <c r="M756">
+        <v>0</v>
+      </c>
+      <c r="N756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
         <v>1373</v>
-      </c>
-      <c r="C756" t="s">
-        <v>384</v>
-      </c>
-      <c r="D756" t="s">
-        <v>31</v>
-      </c>
-      <c r="F756">
-        <v>1150</v>
-      </c>
-      <c r="G756">
-        <v>3000</v>
-      </c>
-      <c r="H756">
-        <v>21</v>
-      </c>
-      <c r="I756">
-        <v>1150</v>
-      </c>
-      <c r="J756">
-        <v>1150</v>
-      </c>
-      <c r="K756">
-        <v>1150</v>
-      </c>
-      <c r="L756">
-        <v>5</v>
-      </c>
-      <c r="M756">
-        <v>0</v>
-      </c>
-      <c r="N756">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A757">
-        <v>7798423541356</v>
       </c>
       <c r="B757" t="s">
         <v>1374</v>
       </c>
       <c r="C757" t="s">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="D757" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="F757">
-        <v>4100</v>
+        <v>1150</v>
       </c>
       <c r="G757">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="H757">
         <v>21</v>
       </c>
       <c r="I757">
-        <v>4100</v>
+        <v>1150</v>
       </c>
       <c r="J757">
-        <v>4100</v>
+        <v>1150</v>
       </c>
       <c r="K757">
-        <v>4100</v>
+        <v>1150</v>
       </c>
       <c r="L757">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M757">
         <v>0</v>
@@ -36777,48 +36789,48 @@
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>7798145006027</v>
+        <v>7798423541356</v>
       </c>
       <c r="B758" t="s">
         <v>1375</v>
       </c>
       <c r="C758" t="s">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="D758" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="F758">
-        <v>2239</v>
+        <v>4100</v>
       </c>
       <c r="G758">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="H758">
         <v>21</v>
       </c>
       <c r="I758">
-        <v>2239</v>
+        <v>4100</v>
       </c>
       <c r="J758">
-        <v>2239</v>
+        <v>4100</v>
       </c>
       <c r="K758">
-        <v>2239</v>
+        <v>4100</v>
       </c>
       <c r="L758">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M758">
         <v>0</v>
       </c>
       <c r="N758">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>69855646885262</v>
+        <v>7798145006027</v>
       </c>
       <c r="B759" t="s">
         <v>1376</v>
@@ -36827,31 +36839,28 @@
         <v>477</v>
       </c>
       <c r="D759" t="s">
-        <v>31</v>
-      </c>
-      <c r="E759" t="s">
-        <v>1377</v>
+        <v>3</v>
       </c>
       <c r="F759">
-        <v>2629</v>
+        <v>2239</v>
       </c>
       <c r="G759">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="H759">
         <v>21</v>
       </c>
       <c r="I759">
-        <v>2629</v>
+        <v>2239</v>
       </c>
       <c r="J759">
-        <v>2629</v>
+        <v>2239</v>
       </c>
       <c r="K759">
-        <v>2629</v>
+        <v>2239</v>
       </c>
       <c r="L759">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M759">
         <v>0</v>
@@ -36862,10 +36871,10 @@
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>6985564688526</v>
+        <v>69855646885262</v>
       </c>
       <c r="B760" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C760" t="s">
         <v>477</v>
@@ -36874,7 +36883,7 @@
         <v>31</v>
       </c>
       <c r="E760" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="F760">
         <v>2629</v>
@@ -36895,7 +36904,7 @@
         <v>2629</v>
       </c>
       <c r="L760">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M760">
         <v>0</v>
@@ -36906,34 +36915,37 @@
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>7790000111020</v>
+        <v>6985564688526</v>
       </c>
       <c r="B761" t="s">
         <v>1379</v>
       </c>
       <c r="C761" t="s">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="D761" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1378</v>
       </c>
       <c r="F761">
-        <v>1200</v>
+        <v>2629</v>
       </c>
       <c r="G761">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H761">
         <v>21</v>
       </c>
       <c r="I761">
-        <v>0</v>
+        <v>2629</v>
       </c>
       <c r="J761">
-        <v>0</v>
+        <v>2629</v>
       </c>
       <c r="K761">
-        <v>0</v>
+        <v>2629</v>
       </c>
       <c r="L761">
         <v>4</v>
@@ -36942,94 +36954,94 @@
         <v>0</v>
       </c>
       <c r="N761">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>6920220096888</v>
+        <v>7790000111020</v>
       </c>
       <c r="B762" t="s">
         <v>1380</v>
       </c>
       <c r="C762" t="s">
+        <v>384</v>
+      </c>
+      <c r="D762" t="s">
+        <v>3</v>
+      </c>
+      <c r="F762">
+        <v>1200</v>
+      </c>
+      <c r="G762">
+        <v>5000</v>
+      </c>
+      <c r="H762">
+        <v>21</v>
+      </c>
+      <c r="I762">
+        <v>0</v>
+      </c>
+      <c r="J762">
+        <v>0</v>
+      </c>
+      <c r="K762">
+        <v>0</v>
+      </c>
+      <c r="L762">
+        <v>4</v>
+      </c>
+      <c r="M762">
+        <v>0</v>
+      </c>
+      <c r="N762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>6920220096888</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C763" t="s">
         <v>51</v>
       </c>
-      <c r="D762" t="s">
+      <c r="D763" t="s">
         <v>47</v>
       </c>
-      <c r="F762">
+      <c r="F763">
         <v>4800</v>
       </c>
-      <c r="G762">
+      <c r="G763">
         <v>9600</v>
       </c>
-      <c r="H762">
-        <v>21</v>
-      </c>
-      <c r="I762">
+      <c r="H763">
+        <v>21</v>
+      </c>
+      <c r="I763">
         <v>4800</v>
       </c>
-      <c r="J762">
+      <c r="J763">
         <v>4800</v>
       </c>
-      <c r="K762">
+      <c r="K763">
         <v>4800</v>
       </c>
-      <c r="L762">
-        <v>0</v>
-      </c>
-      <c r="M762">
-        <v>0</v>
-      </c>
-      <c r="N762">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B763" t="s">
+      <c r="L763">
+        <v>0</v>
+      </c>
+      <c r="M763">
+        <v>0</v>
+      </c>
+      <c r="N763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
         <v>1382</v>
-      </c>
-      <c r="C763" t="s">
-        <v>68</v>
-      </c>
-      <c r="D763" t="s">
-        <v>31</v>
-      </c>
-      <c r="F763">
-        <v>3635</v>
-      </c>
-      <c r="G763">
-        <v>9000</v>
-      </c>
-      <c r="H763">
-        <v>21</v>
-      </c>
-      <c r="I763">
-        <v>3635</v>
-      </c>
-      <c r="J763">
-        <v>3635</v>
-      </c>
-      <c r="K763">
-        <v>3635</v>
-      </c>
-      <c r="L763">
-        <v>2</v>
-      </c>
-      <c r="M763">
-        <v>0</v>
-      </c>
-      <c r="N763">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A764">
-        <v>7795234526572</v>
       </c>
       <c r="B764" t="s">
         <v>1383</v>
@@ -37041,25 +37053,25 @@
         <v>31</v>
       </c>
       <c r="F764">
-        <v>4900</v>
+        <v>3635</v>
       </c>
       <c r="G764">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="H764">
         <v>21</v>
       </c>
       <c r="I764">
-        <v>4900</v>
+        <v>3635</v>
       </c>
       <c r="J764">
-        <v>4900</v>
+        <v>3635</v>
       </c>
       <c r="K764">
-        <v>4900</v>
+        <v>3635</v>
       </c>
       <c r="L764">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M764">
         <v>0</v>
@@ -37069,11 +37081,11 @@
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+      <c r="A765">
+        <v>7795234526572</v>
+      </c>
+      <c r="B765" t="s">
         <v>1384</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1385</v>
       </c>
       <c r="C765" t="s">
         <v>68</v>
@@ -37082,25 +37094,25 @@
         <v>31</v>
       </c>
       <c r="F765">
-        <v>7000</v>
+        <v>4900</v>
       </c>
       <c r="G765">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="H765">
         <v>21</v>
       </c>
       <c r="I765">
-        <v>7000</v>
+        <v>4900</v>
       </c>
       <c r="J765">
-        <v>7000</v>
+        <v>4900</v>
       </c>
       <c r="K765">
-        <v>7000</v>
+        <v>4900</v>
       </c>
       <c r="L765">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M765">
         <v>0</v>
@@ -37111,10 +37123,10 @@
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B766" t="s">
         <v>1386</v>
-      </c>
-      <c r="B766" t="s">
-        <v>1387</v>
       </c>
       <c r="C766" t="s">
         <v>68</v>
@@ -37123,25 +37135,25 @@
         <v>31</v>
       </c>
       <c r="F766">
-        <v>8528</v>
+        <v>7000</v>
       </c>
       <c r="G766">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="H766">
         <v>21</v>
       </c>
       <c r="I766">
-        <v>8528</v>
+        <v>7000</v>
       </c>
       <c r="J766">
-        <v>8528</v>
+        <v>7000</v>
       </c>
       <c r="K766">
-        <v>8528</v>
+        <v>7000</v>
       </c>
       <c r="L766">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M766">
         <v>0</v>
@@ -37152,37 +37164,37 @@
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B767" t="s">
         <v>1388</v>
       </c>
-      <c r="B767" t="s">
-        <v>1389</v>
-      </c>
       <c r="C767" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="D767" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F767">
-        <v>15900</v>
+        <v>8528</v>
       </c>
       <c r="G767">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="H767">
         <v>21</v>
       </c>
       <c r="I767">
-        <v>15900</v>
+        <v>8528</v>
       </c>
       <c r="J767">
-        <v>15900</v>
+        <v>8528</v>
       </c>
       <c r="K767">
-        <v>15900</v>
+        <v>8528</v>
       </c>
       <c r="L767">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M767">
         <v>0</v>
@@ -37193,37 +37205,37 @@
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B768" t="s">
         <v>1390</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1391</v>
       </c>
       <c r="C768" t="s">
         <v>277</v>
       </c>
       <c r="D768" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F768">
-        <v>6815</v>
+        <v>15900</v>
       </c>
       <c r="G768">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="H768">
         <v>21</v>
       </c>
       <c r="I768">
-        <v>6815</v>
+        <v>15900</v>
       </c>
       <c r="J768">
-        <v>6815</v>
+        <v>15900</v>
       </c>
       <c r="K768">
-        <v>6815</v>
+        <v>15900</v>
       </c>
       <c r="L768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M768">
         <v>0</v>
@@ -37233,8 +37245,8 @@
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A769">
-        <v>6902540752361</v>
+      <c r="A769" t="s">
+        <v>1391</v>
       </c>
       <c r="B769" t="s">
         <v>1392</v>
@@ -37243,25 +37255,25 @@
         <v>277</v>
       </c>
       <c r="D769" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F769">
-        <v>5800</v>
+        <v>6815</v>
       </c>
       <c r="G769">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="H769">
         <v>21</v>
       </c>
       <c r="I769">
-        <v>5800</v>
+        <v>6815</v>
       </c>
       <c r="J769">
-        <v>5800</v>
+        <v>6815</v>
       </c>
       <c r="K769">
-        <v>5800</v>
+        <v>6815</v>
       </c>
       <c r="L769">
         <v>1</v>
@@ -37274,82 +37286,79 @@
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+      <c r="A770">
+        <v>6902540752361</v>
+      </c>
+      <c r="B770" t="s">
         <v>1393</v>
       </c>
-      <c r="B770" t="s">
+      <c r="C770" t="s">
+        <v>277</v>
+      </c>
+      <c r="D770" t="s">
+        <v>126</v>
+      </c>
+      <c r="F770">
+        <v>5800</v>
+      </c>
+      <c r="G770">
+        <v>12000</v>
+      </c>
+      <c r="H770">
+        <v>21</v>
+      </c>
+      <c r="I770">
+        <v>5800</v>
+      </c>
+      <c r="J770">
+        <v>5800</v>
+      </c>
+      <c r="K770">
+        <v>5800</v>
+      </c>
+      <c r="L770">
+        <v>1</v>
+      </c>
+      <c r="M770">
+        <v>0</v>
+      </c>
+      <c r="N770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
         <v>1394</v>
-      </c>
-      <c r="C770" t="s">
-        <v>56</v>
-      </c>
-      <c r="D770" t="s">
-        <v>3</v>
-      </c>
-      <c r="F770">
-        <v>15000</v>
-      </c>
-      <c r="G770">
-        <v>30000</v>
-      </c>
-      <c r="H770">
-        <v>21</v>
-      </c>
-      <c r="I770">
-        <v>15000</v>
-      </c>
-      <c r="J770">
-        <v>15000</v>
-      </c>
-      <c r="K770">
-        <v>15000</v>
-      </c>
-      <c r="L770">
-        <v>2</v>
-      </c>
-      <c r="M770">
-        <v>0</v>
-      </c>
-      <c r="N770">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A771">
-        <v>723540564022</v>
       </c>
       <c r="B771" t="s">
         <v>1395</v>
       </c>
       <c r="C771" t="s">
-        <v>430</v>
+        <v>56</v>
       </c>
       <c r="D771" t="s">
-        <v>31</v>
-      </c>
-      <c r="E771" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="F771">
-        <v>3175</v>
+        <v>15000</v>
       </c>
       <c r="G771">
-        <v>9500</v>
+        <v>30000</v>
       </c>
       <c r="H771">
         <v>21</v>
       </c>
       <c r="I771">
-        <v>3175</v>
+        <v>15000</v>
       </c>
       <c r="J771">
-        <v>3175</v>
+        <v>15000</v>
       </c>
       <c r="K771">
-        <v>3175</v>
+        <v>15000</v>
       </c>
       <c r="L771">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M771">
         <v>0</v>
@@ -37359,38 +37368,41 @@
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+      <c r="A772">
+        <v>723540564022</v>
+      </c>
+      <c r="B772" t="s">
         <v>1396</v>
-      </c>
-      <c r="B772" t="s">
-        <v>1397</v>
       </c>
       <c r="C772" t="s">
         <v>430</v>
       </c>
       <c r="D772" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="E772" t="s">
+        <v>133</v>
       </c>
       <c r="F772">
-        <v>2417</v>
+        <v>3175</v>
       </c>
       <c r="G772">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="H772">
         <v>21</v>
       </c>
       <c r="I772">
-        <v>2417</v>
+        <v>3175</v>
       </c>
       <c r="J772">
-        <v>2417</v>
+        <v>3175</v>
       </c>
       <c r="K772">
-        <v>2417</v>
+        <v>3175</v>
       </c>
       <c r="L772">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M772">
         <v>0</v>
@@ -37401,37 +37413,37 @@
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B773" t="s">
         <v>1398</v>
       </c>
-      <c r="B773" t="s">
-        <v>1399</v>
-      </c>
       <c r="C773" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="D773" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F773">
-        <v>3900</v>
+        <v>2417</v>
       </c>
       <c r="G773">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="H773">
         <v>21</v>
       </c>
       <c r="I773">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="J773">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="K773">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="L773">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M773">
         <v>0</v>
@@ -37442,10 +37454,10 @@
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B774" t="s">
         <v>1400</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1401</v>
       </c>
       <c r="C774" t="s">
         <v>568</v>
@@ -37454,10 +37466,10 @@
         <v>3</v>
       </c>
       <c r="F774">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="G774">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="H774">
         <v>21</v>
@@ -37472,7 +37484,7 @@
         <v>0</v>
       </c>
       <c r="L774">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M774">
         <v>0</v>
@@ -37482,8 +37494,8 @@
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A775">
-        <v>7798347810224</v>
+      <c r="A775" t="s">
+        <v>1401</v>
       </c>
       <c r="B775" t="s">
         <v>1402</v>
@@ -37492,28 +37504,25 @@
         <v>568</v>
       </c>
       <c r="D775" t="s">
-        <v>47</v>
-      </c>
-      <c r="E775" t="s">
-        <v>1403</v>
+        <v>3</v>
       </c>
       <c r="F775">
-        <v>3260</v>
+        <v>4300</v>
       </c>
       <c r="G775">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="H775">
         <v>21</v>
       </c>
       <c r="I775">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="J775">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="K775">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="L775">
         <v>1</v>
@@ -37527,10 +37536,10 @@
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>7798347810569</v>
+        <v>7798347810224</v>
       </c>
       <c r="B776" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C776" t="s">
         <v>568</v>
@@ -37539,25 +37548,25 @@
         <v>47</v>
       </c>
       <c r="E776" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="F776">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="G776">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="H776">
         <v>21</v>
       </c>
       <c r="I776">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="J776">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="K776">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="L776">
         <v>1</v>
@@ -37571,75 +37580,78 @@
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A777">
+        <v>7798347810569</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C777" t="s">
+        <v>568</v>
+      </c>
+      <c r="D777" t="s">
+        <v>47</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F777">
+        <v>3261</v>
+      </c>
+      <c r="G777">
+        <v>9500</v>
+      </c>
+      <c r="H777">
+        <v>21</v>
+      </c>
+      <c r="I777">
+        <v>3261</v>
+      </c>
+      <c r="J777">
+        <v>3261</v>
+      </c>
+      <c r="K777">
+        <v>3261</v>
+      </c>
+      <c r="L777">
+        <v>1</v>
+      </c>
+      <c r="M777">
+        <v>0</v>
+      </c>
+      <c r="N777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A778">
         <v>6905416583656</v>
       </c>
-      <c r="B777" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C777" t="s">
+      <c r="B778" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C778" t="s">
         <v>384</v>
       </c>
-      <c r="F777">
+      <c r="F778">
         <v>1500</v>
       </c>
-      <c r="G777">
+      <c r="G778">
         <v>3000</v>
       </c>
-      <c r="H777">
-        <v>21</v>
-      </c>
-      <c r="I777">
+      <c r="H778">
+        <v>21</v>
+      </c>
+      <c r="I778">
         <v>1500</v>
       </c>
-      <c r="J777">
+      <c r="J778">
         <v>1500</v>
       </c>
-      <c r="K777">
+      <c r="K778">
         <v>1500</v>
       </c>
-      <c r="L777">
+      <c r="L778">
         <v>12</v>
-      </c>
-      <c r="M777">
-        <v>0</v>
-      </c>
-      <c r="N777">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C778" t="s">
-        <v>76</v>
-      </c>
-      <c r="D778" t="s">
-        <v>47</v>
-      </c>
-      <c r="F778">
-        <v>628</v>
-      </c>
-      <c r="G778">
-        <v>2500</v>
-      </c>
-      <c r="H778">
-        <v>21</v>
-      </c>
-      <c r="I778">
-        <v>628</v>
-      </c>
-      <c r="J778">
-        <v>628</v>
-      </c>
-      <c r="K778">
-        <v>628</v>
-      </c>
-      <c r="L778">
-        <v>0</v>
       </c>
       <c r="M778">
         <v>0</v>
@@ -37650,78 +37662,78 @@
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B779" t="s">
         <v>1407</v>
       </c>
-      <c r="B779" t="s">
+      <c r="C779" t="s">
+        <v>76</v>
+      </c>
+      <c r="D779" t="s">
+        <v>47</v>
+      </c>
+      <c r="F779">
+        <v>628</v>
+      </c>
+      <c r="G779">
+        <v>2500</v>
+      </c>
+      <c r="H779">
+        <v>21</v>
+      </c>
+      <c r="I779">
+        <v>628</v>
+      </c>
+      <c r="J779">
+        <v>628</v>
+      </c>
+      <c r="K779">
+        <v>628</v>
+      </c>
+      <c r="L779">
+        <v>0</v>
+      </c>
+      <c r="M779">
+        <v>0</v>
+      </c>
+      <c r="N779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
         <v>1408</v>
-      </c>
-      <c r="C779" t="s">
-        <v>68</v>
-      </c>
-      <c r="D779" t="s">
-        <v>28</v>
-      </c>
-      <c r="F779">
-        <v>4800</v>
-      </c>
-      <c r="G779">
-        <v>12000</v>
-      </c>
-      <c r="H779">
-        <v>21</v>
-      </c>
-      <c r="I779">
-        <v>4800</v>
-      </c>
-      <c r="J779">
-        <v>4800</v>
-      </c>
-      <c r="K779">
-        <v>4800</v>
-      </c>
-      <c r="L779">
-        <v>9</v>
-      </c>
-      <c r="M779">
-        <v>0</v>
-      </c>
-      <c r="N779">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A780">
-        <v>6459751458518</v>
       </c>
       <c r="B780" t="s">
         <v>1409</v>
       </c>
       <c r="C780" t="s">
-        <v>594</v>
+        <v>68</v>
       </c>
       <c r="D780" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F780">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="G780">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="H780">
         <v>21</v>
       </c>
       <c r="I780">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="J780">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="K780">
-        <v>608</v>
+        <v>4800</v>
       </c>
       <c r="L780">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M780">
         <v>0</v>
@@ -37731,41 +37743,38 @@
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+      <c r="A781">
+        <v>6459751458518</v>
+      </c>
+      <c r="B781" t="s">
         <v>1410</v>
-      </c>
-      <c r="B781" t="s">
-        <v>1411</v>
       </c>
       <c r="C781" t="s">
         <v>594</v>
       </c>
       <c r="D781" t="s">
-        <v>31</v>
-      </c>
-      <c r="E781" t="s">
-        <v>1412</v>
+        <v>47</v>
       </c>
       <c r="F781">
-        <v>5384</v>
+        <v>608</v>
       </c>
       <c r="G781">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="H781">
         <v>21</v>
       </c>
       <c r="I781">
-        <v>5384</v>
+        <v>608</v>
       </c>
       <c r="J781">
-        <v>5384</v>
+        <v>608</v>
       </c>
       <c r="K781">
-        <v>4.8</v>
+        <v>608</v>
       </c>
       <c r="L781">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M781">
         <v>0</v>
@@ -37776,10 +37785,10 @@
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B782" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C782" t="s">
         <v>594</v>
@@ -37788,28 +37797,28 @@
         <v>31</v>
       </c>
       <c r="E782" t="s">
-        <v>101</v>
+        <v>1413</v>
       </c>
       <c r="F782">
-        <v>4700</v>
+        <v>5384</v>
       </c>
       <c r="G782">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="H782">
         <v>21</v>
       </c>
       <c r="I782">
-        <v>4700</v>
+        <v>5384</v>
       </c>
       <c r="J782">
-        <v>4700</v>
+        <v>5384</v>
       </c>
       <c r="K782">
-        <v>4700</v>
+        <v>4.8</v>
       </c>
       <c r="L782">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M782">
         <v>0</v>
@@ -37820,37 +37829,40 @@
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B783" t="s">
         <v>1415</v>
       </c>
-      <c r="B783" t="s">
-        <v>1416</v>
-      </c>
       <c r="C783" t="s">
-        <v>36</v>
+        <v>594</v>
       </c>
       <c r="D783" t="s">
         <v>31</v>
       </c>
+      <c r="E783" t="s">
+        <v>101</v>
+      </c>
       <c r="F783">
-        <v>773</v>
+        <v>4700</v>
       </c>
       <c r="G783">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="H783">
         <v>21</v>
       </c>
       <c r="I783">
-        <v>773</v>
+        <v>4700</v>
       </c>
       <c r="J783">
-        <v>773</v>
+        <v>4700</v>
       </c>
       <c r="K783">
-        <v>773</v>
+        <v>4700</v>
       </c>
       <c r="L783">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M783">
         <v>0</v>
@@ -37860,79 +37872,79 @@
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A784">
-        <v>6989526542239</v>
+      <c r="A784" t="s">
+        <v>1416</v>
       </c>
       <c r="B784" t="s">
         <v>1417</v>
       </c>
       <c r="C784" t="s">
-        <v>594</v>
+        <v>36</v>
       </c>
       <c r="D784" t="s">
         <v>31</v>
       </c>
       <c r="F784">
+        <v>773</v>
+      </c>
+      <c r="G784">
+        <v>5000</v>
+      </c>
+      <c r="H784">
+        <v>21</v>
+      </c>
+      <c r="I784">
+        <v>773</v>
+      </c>
+      <c r="J784">
+        <v>773</v>
+      </c>
+      <c r="K784">
+        <v>773</v>
+      </c>
+      <c r="L784">
+        <v>1</v>
+      </c>
+      <c r="M784">
+        <v>0</v>
+      </c>
+      <c r="N784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>6989526542239</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C785" t="s">
+        <v>594</v>
+      </c>
+      <c r="D785" t="s">
+        <v>31</v>
+      </c>
+      <c r="F785">
         <v>2352</v>
       </c>
-      <c r="G784">
+      <c r="G785">
         <v>8000</v>
       </c>
-      <c r="H784">
-        <v>21</v>
-      </c>
-      <c r="I784">
+      <c r="H785">
+        <v>21</v>
+      </c>
+      <c r="I785">
         <v>2352</v>
       </c>
-      <c r="J784">
+      <c r="J785">
         <v>2352</v>
       </c>
-      <c r="K784">
+      <c r="K785">
         <v>2352</v>
       </c>
-      <c r="L784">
+      <c r="L785">
         <v>2</v>
-      </c>
-      <c r="M784">
-        <v>0</v>
-      </c>
-      <c r="N784">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B785" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C785" t="s">
-        <v>270</v>
-      </c>
-      <c r="D785" t="s">
-        <v>3</v>
-      </c>
-      <c r="F785">
-        <v>5200</v>
-      </c>
-      <c r="G785">
-        <v>7000</v>
-      </c>
-      <c r="H785">
-        <v>21</v>
-      </c>
-      <c r="I785">
-        <v>0</v>
-      </c>
-      <c r="J785">
-        <v>0</v>
-      </c>
-      <c r="K785">
-        <v>0</v>
-      </c>
-      <c r="L785">
-        <v>38</v>
       </c>
       <c r="M785">
         <v>0</v>
@@ -37943,10 +37955,10 @@
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B786" t="s">
         <v>1420</v>
-      </c>
-      <c r="B786" t="s">
-        <v>1421</v>
       </c>
       <c r="C786" t="s">
         <v>270</v>
@@ -37955,25 +37967,25 @@
         <v>3</v>
       </c>
       <c r="F786">
-        <v>3724</v>
+        <v>5200</v>
       </c>
       <c r="G786">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="H786">
         <v>21</v>
       </c>
       <c r="I786">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="J786">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="K786">
-        <v>3724</v>
+        <v>0</v>
       </c>
       <c r="L786">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M786">
         <v>0</v>
@@ -37984,10 +37996,10 @@
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B787" t="s">
         <v>1422</v>
-      </c>
-      <c r="B787" t="s">
-        <v>1423</v>
       </c>
       <c r="C787" t="s">
         <v>270</v>
@@ -37996,25 +38008,25 @@
         <v>3</v>
       </c>
       <c r="F787">
-        <v>5454</v>
+        <v>3724</v>
       </c>
       <c r="G787">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="H787">
         <v>21</v>
       </c>
       <c r="I787">
-        <v>5454</v>
+        <v>3724</v>
       </c>
       <c r="J787">
-        <v>5454</v>
+        <v>3724</v>
       </c>
       <c r="K787">
-        <v>5454</v>
+        <v>3724</v>
       </c>
       <c r="L787">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M787">
         <v>0</v>
@@ -38024,35 +38036,35 @@
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A788">
-        <v>153500580</v>
+      <c r="A788" t="s">
+        <v>1423</v>
       </c>
       <c r="B788" t="s">
         <v>1424</v>
       </c>
       <c r="C788" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="D788" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F788">
-        <v>3934</v>
+        <v>5454</v>
       </c>
       <c r="G788">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="H788">
         <v>21</v>
       </c>
       <c r="I788">
-        <v>9000</v>
+        <v>5454</v>
       </c>
       <c r="J788">
-        <v>3934</v>
+        <v>5454</v>
       </c>
       <c r="K788">
-        <v>3934</v>
+        <v>5454</v>
       </c>
       <c r="L788">
         <v>2</v>
@@ -38061,15 +38073,15 @@
         <v>0</v>
       </c>
       <c r="N788">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+      <c r="A789">
+        <v>153500580</v>
+      </c>
+      <c r="B789" t="s">
         <v>1425</v>
-      </c>
-      <c r="B789" t="s">
-        <v>1426</v>
       </c>
       <c r="C789" t="s">
         <v>68</v>
@@ -38078,25 +38090,25 @@
         <v>31</v>
       </c>
       <c r="F789">
-        <v>4350</v>
+        <v>3934</v>
       </c>
       <c r="G789">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H789">
         <v>21</v>
       </c>
       <c r="I789">
-        <v>4350</v>
+        <v>9000</v>
       </c>
       <c r="J789">
-        <v>4350</v>
+        <v>3934</v>
       </c>
       <c r="K789">
-        <v>4350</v>
+        <v>3934</v>
       </c>
       <c r="L789">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M789">
         <v>0</v>
@@ -38106,8 +38118,8 @@
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A790">
-        <v>6973295330296</v>
+      <c r="A790" t="s">
+        <v>1426</v>
       </c>
       <c r="B790" t="s">
         <v>1427</v>
@@ -38122,7 +38134,7 @@
         <v>4350</v>
       </c>
       <c r="G790">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="H790">
         <v>21</v>
@@ -38137,18 +38149,18 @@
         <v>4350</v>
       </c>
       <c r="L790">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M790">
         <v>0</v>
       </c>
       <c r="N790">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>723540563780</v>
+        <v>6973295330296</v>
       </c>
       <c r="B791" t="s">
         <v>1428</v>
@@ -38159,29 +38171,26 @@
       <c r="D791" t="s">
         <v>31</v>
       </c>
-      <c r="E791" t="s">
-        <v>101</v>
-      </c>
       <c r="F791">
-        <v>18400</v>
+        <v>4350</v>
       </c>
       <c r="G791">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="H791">
         <v>21</v>
       </c>
       <c r="I791">
-        <v>18400</v>
+        <v>4350</v>
       </c>
       <c r="J791">
-        <v>18400</v>
+        <v>4350</v>
       </c>
       <c r="K791">
-        <v>18400</v>
+        <v>4350</v>
       </c>
       <c r="L791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M791">
         <v>0</v>
@@ -38191,35 +38200,38 @@
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
+      <c r="A792">
+        <v>723540563780</v>
+      </c>
+      <c r="B792" t="s">
         <v>1429</v>
-      </c>
-      <c r="B792" t="s">
-        <v>1430</v>
       </c>
       <c r="C792" t="s">
         <v>68</v>
       </c>
       <c r="D792" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="E792" t="s">
+        <v>101</v>
       </c>
       <c r="F792">
-        <v>14171</v>
+        <v>18400</v>
       </c>
       <c r="G792">
-        <v>25500</v>
+        <v>45000</v>
       </c>
       <c r="H792">
         <v>21</v>
       </c>
       <c r="I792">
-        <v>14171</v>
+        <v>18400</v>
       </c>
       <c r="J792">
-        <v>14171</v>
+        <v>18400</v>
       </c>
       <c r="K792">
-        <v>14171</v>
+        <v>18400</v>
       </c>
       <c r="L792">
         <v>1</v>
@@ -38232,8 +38244,8 @@
       </c>
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A793">
-        <v>7769528971157</v>
+      <c r="A793" t="s">
+        <v>1430</v>
       </c>
       <c r="B793" t="s">
         <v>1431</v>
@@ -38242,28 +38254,28 @@
         <v>68</v>
       </c>
       <c r="D793" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F793">
-        <v>12730</v>
+        <v>14171</v>
       </c>
       <c r="G793">
-        <v>28000</v>
+        <v>25500</v>
       </c>
       <c r="H793">
         <v>21</v>
       </c>
       <c r="I793">
-        <v>12730</v>
+        <v>14171</v>
       </c>
       <c r="J793">
-        <v>12730</v>
+        <v>14171</v>
       </c>
       <c r="K793">
-        <v>12730</v>
+        <v>14171</v>
       </c>
       <c r="L793">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M793">
         <v>0</v>
@@ -38273,11 +38285,11 @@
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
+      <c r="A794">
+        <v>7769528971157</v>
+      </c>
+      <c r="B794" t="s">
         <v>1432</v>
-      </c>
-      <c r="B794" t="s">
-        <v>1433</v>
       </c>
       <c r="C794" t="s">
         <v>68</v>
@@ -38285,152 +38297,152 @@
       <c r="D794" t="s">
         <v>31</v>
       </c>
-      <c r="E794" t="s">
-        <v>101</v>
-      </c>
       <c r="F794">
-        <v>4523</v>
+        <v>12730</v>
       </c>
       <c r="G794">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="H794">
         <v>21</v>
       </c>
       <c r="I794">
-        <v>4523</v>
+        <v>12730</v>
       </c>
       <c r="J794">
-        <v>4523</v>
+        <v>12730</v>
       </c>
       <c r="K794">
-        <v>4523</v>
+        <v>12730</v>
       </c>
       <c r="L794">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M794">
         <v>0</v>
       </c>
       <c r="N794">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B795" t="s">
         <v>1434</v>
       </c>
-      <c r="B795" t="s">
+      <c r="C795" t="s">
+        <v>68</v>
+      </c>
+      <c r="D795" t="s">
+        <v>31</v>
+      </c>
+      <c r="E795" t="s">
+        <v>101</v>
+      </c>
+      <c r="F795">
+        <v>4523</v>
+      </c>
+      <c r="G795">
+        <v>14000</v>
+      </c>
+      <c r="H795">
+        <v>21</v>
+      </c>
+      <c r="I795">
+        <v>4523</v>
+      </c>
+      <c r="J795">
+        <v>4523</v>
+      </c>
+      <c r="K795">
+        <v>4523</v>
+      </c>
+      <c r="L795">
+        <v>2</v>
+      </c>
+      <c r="M795">
+        <v>0</v>
+      </c>
+      <c r="N795">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
         <v>1435</v>
-      </c>
-      <c r="C795" t="s">
-        <v>36</v>
-      </c>
-      <c r="D795" t="s">
-        <v>3</v>
-      </c>
-      <c r="F795">
-        <v>500</v>
-      </c>
-      <c r="G795">
-        <v>2000</v>
-      </c>
-      <c r="H795">
-        <v>21</v>
-      </c>
-      <c r="I795">
-        <v>500</v>
-      </c>
-      <c r="J795">
-        <v>500</v>
-      </c>
-      <c r="K795">
-        <v>500</v>
-      </c>
-      <c r="L795">
-        <v>547</v>
-      </c>
-      <c r="M795">
-        <v>0</v>
-      </c>
-      <c r="N795">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A796">
-        <v>701575361335</v>
       </c>
       <c r="B796" t="s">
         <v>1436</v>
       </c>
       <c r="C796" t="s">
+        <v>36</v>
+      </c>
+      <c r="D796" t="s">
+        <v>3</v>
+      </c>
+      <c r="F796">
+        <v>500</v>
+      </c>
+      <c r="G796">
+        <v>2000</v>
+      </c>
+      <c r="H796">
+        <v>21</v>
+      </c>
+      <c r="I796">
+        <v>500</v>
+      </c>
+      <c r="J796">
+        <v>500</v>
+      </c>
+      <c r="K796">
+        <v>500</v>
+      </c>
+      <c r="L796">
+        <v>547</v>
+      </c>
+      <c r="M796">
+        <v>0</v>
+      </c>
+      <c r="N796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>701575361335</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C797" t="s">
         <v>610</v>
       </c>
-      <c r="D796" t="s">
+      <c r="D797" t="s">
         <v>47</v>
       </c>
-      <c r="E796" t="s">
+      <c r="E797" t="s">
         <v>463</v>
       </c>
-      <c r="F796">
+      <c r="F797">
         <v>6467</v>
       </c>
-      <c r="G796">
+      <c r="G797">
         <v>12000</v>
       </c>
-      <c r="H796">
-        <v>21</v>
-      </c>
-      <c r="I796">
+      <c r="H797">
+        <v>21</v>
+      </c>
+      <c r="I797">
         <v>6467</v>
       </c>
-      <c r="J796">
+      <c r="J797">
         <v>6467</v>
       </c>
-      <c r="K796">
+      <c r="K797">
         <v>6467</v>
-      </c>
-      <c r="L796">
-        <v>0</v>
-      </c>
-      <c r="M796">
-        <v>0</v>
-      </c>
-      <c r="N796">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C797" t="s">
-        <v>571</v>
-      </c>
-      <c r="D797" t="s">
-        <v>3</v>
-      </c>
-      <c r="F797">
-        <v>0</v>
-      </c>
-      <c r="G797">
-        <v>49280</v>
-      </c>
-      <c r="H797">
-        <v>21</v>
-      </c>
-      <c r="I797">
-        <v>0</v>
-      </c>
-      <c r="J797">
-        <v>0</v>
-      </c>
-      <c r="K797">
-        <v>0</v>
       </c>
       <c r="L797">
         <v>0</v>
@@ -38444,37 +38456,37 @@
     </row>
     <row r="798" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B798" t="s">
         <v>1439</v>
       </c>
       <c r="C798" t="s">
-        <v>56</v>
+        <v>571</v>
       </c>
       <c r="D798" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F798">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="G798">
-        <v>35999</v>
+        <v>49280</v>
       </c>
       <c r="H798">
         <v>21</v>
       </c>
       <c r="I798">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="J798">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="K798">
-        <v>17200</v>
+        <v>0</v>
       </c>
       <c r="L798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M798">
         <v>0</v>
@@ -38488,34 +38500,34 @@
         <v>1440</v>
       </c>
       <c r="B799" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C799" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D799" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F799">
-        <v>2170.5100000000002</v>
+        <v>17200</v>
       </c>
       <c r="G799">
-        <v>4500</v>
+        <v>35999</v>
       </c>
       <c r="H799">
         <v>21</v>
       </c>
       <c r="I799">
-        <v>2170.5</v>
+        <v>17200</v>
       </c>
       <c r="J799">
-        <v>2170.5</v>
+        <v>17200</v>
       </c>
       <c r="K799">
-        <v>2170.5</v>
+        <v>17200</v>
       </c>
       <c r="L799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M799">
         <v>0</v>
@@ -38526,10 +38538,10 @@
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B800" t="s">
         <v>1442</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1443</v>
       </c>
       <c r="C800" t="s">
         <v>20</v>
@@ -38538,25 +38550,25 @@
         <v>47</v>
       </c>
       <c r="F800">
-        <v>3613.61</v>
+        <v>2170.5100000000002</v>
       </c>
       <c r="G800">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="H800">
         <v>21</v>
       </c>
       <c r="I800">
-        <v>3613.6</v>
+        <v>2170.5</v>
       </c>
       <c r="J800">
-        <v>3613.6</v>
+        <v>2170.5</v>
       </c>
       <c r="K800">
-        <v>3613.6</v>
+        <v>2170.5</v>
       </c>
       <c r="L800">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M800">
         <v>0</v>
@@ -38567,37 +38579,37 @@
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B801" t="s">
         <v>1444</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1445</v>
       </c>
       <c r="C801" t="s">
         <v>20</v>
       </c>
       <c r="D801" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="F801">
-        <v>4000</v>
+        <v>3613.61</v>
       </c>
       <c r="G801">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="H801">
         <v>21</v>
       </c>
       <c r="I801">
-        <v>4000</v>
+        <v>3613.6</v>
       </c>
       <c r="J801">
-        <v>4000</v>
+        <v>3613.6</v>
       </c>
       <c r="K801">
-        <v>4000</v>
+        <v>3613.6</v>
       </c>
       <c r="L801">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M801">
         <v>0</v>
@@ -38608,81 +38620,78 @@
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B802" t="s">
         <v>1446</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1447</v>
       </c>
       <c r="C802" t="s">
         <v>20</v>
       </c>
       <c r="D802" t="s">
+        <v>265</v>
+      </c>
+      <c r="F802">
+        <v>4000</v>
+      </c>
+      <c r="G802">
+        <v>10000</v>
+      </c>
+      <c r="H802">
+        <v>21</v>
+      </c>
+      <c r="I802">
+        <v>4000</v>
+      </c>
+      <c r="J802">
+        <v>4000</v>
+      </c>
+      <c r="K802">
+        <v>4000</v>
+      </c>
+      <c r="L802">
+        <v>3</v>
+      </c>
+      <c r="M802">
+        <v>0</v>
+      </c>
+      <c r="N802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C803" t="s">
+        <v>20</v>
+      </c>
+      <c r="D803" t="s">
         <v>47</v>
       </c>
-      <c r="E802" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F802">
+      <c r="E803" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F803">
         <v>4588</v>
       </c>
-      <c r="G802">
+      <c r="G803">
         <v>13000</v>
       </c>
-      <c r="H802">
-        <v>21</v>
-      </c>
-      <c r="I802">
+      <c r="H803">
+        <v>21</v>
+      </c>
+      <c r="I803">
         <v>4588</v>
       </c>
-      <c r="J802">
+      <c r="J803">
         <v>4588</v>
       </c>
-      <c r="K802">
+      <c r="K803">
         <v>4588</v>
-      </c>
-      <c r="L802">
-        <v>1</v>
-      </c>
-      <c r="M802">
-        <v>0</v>
-      </c>
-      <c r="N802">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A803">
-        <v>7796941141133</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C803" t="s">
-        <v>480</v>
-      </c>
-      <c r="D803" t="s">
-        <v>489</v>
-      </c>
-      <c r="E803" t="s">
-        <v>101</v>
-      </c>
-      <c r="F803">
-        <v>107999</v>
-      </c>
-      <c r="G803">
-        <v>280000</v>
-      </c>
-      <c r="H803">
-        <v>21</v>
-      </c>
-      <c r="I803">
-        <v>190000</v>
-      </c>
-      <c r="J803">
-        <v>107999</v>
-      </c>
-      <c r="K803">
-        <v>107999</v>
       </c>
       <c r="L803">
         <v>1</v>
@@ -38691,6 +38700,50 @@
         <v>0</v>
       </c>
       <c r="N803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>7796941141133</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C804" t="s">
+        <v>479</v>
+      </c>
+      <c r="D804" t="s">
+        <v>489</v>
+      </c>
+      <c r="E804" t="s">
+        <v>101</v>
+      </c>
+      <c r="F804">
+        <v>107999</v>
+      </c>
+      <c r="G804">
+        <v>280000</v>
+      </c>
+      <c r="H804">
+        <v>21</v>
+      </c>
+      <c r="I804">
+        <v>190000</v>
+      </c>
+      <c r="J804">
+        <v>107999</v>
+      </c>
+      <c r="K804">
+        <v>107999</v>
+      </c>
+      <c r="L804">
+        <v>1</v>
+      </c>
+      <c r="M804">
+        <v>0</v>
+      </c>
+      <c r="N804">
         <v>0</v>
       </c>
     </row>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8266357-7017-42E6-8C7F-5D84052F9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BBFAB80-D775-450A-B8E7-2FB68DA8B3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{C0A47C50-466D-40D3-9E2D-5B16948174FA}"/>
+    <workbookView xWindow="7200" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{F8E6161E-2BD7-4693-8AD9-62BAEA39DE54}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1580,15 +1580,15 @@
     <t>CONTROL REMOTO UNIVERSAL F 2100</t>
   </si>
   <si>
+    <t>CONTROL REMOTO UNIVERSAL NOBLEX/SANYO/JVC/HISENSE/PHILCO</t>
+  </si>
+  <si>
+    <t>BGH</t>
+  </si>
+  <si>
     <t>CONTROL REMOTO UNIVERSAL PANACOM</t>
   </si>
   <si>
-    <t>CONTROL REMOTO UNIVERSAL PARA TV BGH</t>
-  </si>
-  <si>
-    <t>BGH</t>
-  </si>
-  <si>
     <t>CONTROL REMOTO UNIVERSAL RM0145</t>
   </si>
   <si>
@@ -3068,7 +3068,7 @@
     <t>MODZTEA34</t>
   </si>
   <si>
-    <t>MOD ZTE BLADE A34/A54</t>
+    <t>MOD ZTE BLADE A34/A54/A74</t>
   </si>
   <si>
     <t>ZTE</t>
@@ -4759,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4171F44-80E6-4EF5-8703-3969DC3C8A41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AAE49A-A4B8-4EFE-94ED-9D2002E97A3C}">
   <dimension ref="A1:N804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>7798130909548</v>
+        <v>7799135015302</v>
       </c>
       <c r="B282" t="s">
         <v>514</v>
@@ -16649,28 +16649,31 @@
         <v>62</v>
       </c>
       <c r="D282" t="s">
-        <v>262</v>
+        <v>28</v>
+      </c>
+      <c r="E282" t="s">
+        <v>515</v>
       </c>
       <c r="F282">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="G282">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="H282">
         <v>21</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="K282">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M282">
         <v>0</v>
@@ -16681,40 +16684,37 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>7799135015302</v>
+        <v>7798130909548</v>
       </c>
       <c r="B283" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C283" t="s">
         <v>62</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
-      </c>
-      <c r="E283" t="s">
-        <v>516</v>
+        <v>262</v>
       </c>
       <c r="F283">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G283">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="H283">
         <v>21</v>
       </c>
       <c r="I283">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="J283">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="K283">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="L283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M283">
         <v>0</v>
@@ -24540,7 +24540,7 @@
         <v>20000</v>
       </c>
       <c r="L470">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M470">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A78EBC8-3242-4916-BA69-4F9AB9043725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B842732-E4DD-4B64-8D51-1BCDF2F32D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{E8457619-037F-488C-B6A4-DF65254BE80D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4337E5AF-DDD1-4ED2-A97C-827FD8D1CD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3119,7 +3119,7 @@
     <t>MOUSE INALAMBRICO</t>
   </si>
   <si>
-    <t>MOUSE LED CON CABLE MS116</t>
+    <t>MOUSE LED CON CABLE AITECH AI022</t>
   </si>
   <si>
     <t>MOUSE PAD CON APOYA MUÑEQUERA</t>
@@ -4786,7 +4786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7719E529-92C1-4545-AE10-7F46263929A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D8878F-7BA4-484B-AAB8-1E4724C94E52}">
   <dimension ref="A1:N808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -11366,7 +11366,7 @@
         <v>1600</v>
       </c>
       <c r="L156">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>1200</v>
       </c>
       <c r="L190">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -14191,7 +14191,7 @@
         <v>4688.6000000000004</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M223">
         <v>0</v>
@@ -17242,7 +17242,7 @@
         <v>3225.8</v>
       </c>
       <c r="L295">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M295">
         <v>0</v>
@@ -22574,7 +22574,7 @@
         <v>20000</v>
       </c>
       <c r="L423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M423">
         <v>0</v>
@@ -23084,7 +23084,7 @@
         <v>22000</v>
       </c>
       <c r="L435">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M435">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>15916</v>
       </c>
       <c r="K462">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L462">
         <v>2</v>
@@ -24438,7 +24438,7 @@
         <v>20000</v>
       </c>
       <c r="L467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M467">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>24000</v>
       </c>
       <c r="L472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M472">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>25000</v>
       </c>
       <c r="L474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M474">
         <v>0</v>
@@ -24781,7 +24781,7 @@
         <v>20000</v>
       </c>
       <c r="L475">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M475">
         <v>0</v>
@@ -25042,7 +25042,7 @@
         <v>22000</v>
       </c>
       <c r="L481">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M481">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>24000</v>
       </c>
       <c r="L493">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M493">
         <v>0</v>
@@ -26194,7 +26194,7 @@
         <v>19400</v>
       </c>
       <c r="G508">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="H508">
         <v>21</v>
@@ -26238,7 +26238,7 @@
         <v>38250</v>
       </c>
       <c r="G509">
-        <v>92000</v>
+        <v>98000</v>
       </c>
       <c r="H509">
         <v>21</v>
@@ -26297,7 +26297,7 @@
         <v>67800</v>
       </c>
       <c r="L510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M510">
         <v>0</v>
@@ -27848,7 +27848,7 @@
         <v>3299</v>
       </c>
       <c r="L546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M546">
         <v>0</v>
@@ -27859,7 +27859,7 @@
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>5433456789017</v>
+        <v>7799135009868</v>
       </c>
       <c r="B547" t="s">
         <v>1027</v>
@@ -28739,7 +28739,7 @@
         <v>5600</v>
       </c>
       <c r="L567">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M567">
         <v>0</v>
@@ -29554,7 +29554,7 @@
         <v>8245</v>
       </c>
       <c r="L586">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M586">
         <v>0</v>
@@ -30137,7 +30137,7 @@
         <v>112</v>
       </c>
       <c r="L600">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M600">
         <v>0</v>
@@ -32101,7 +32101,7 @@
         <v>10000</v>
       </c>
       <c r="L646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M646">
         <v>0</v>
@@ -35290,7 +35290,7 @@
         <v>7712</v>
       </c>
       <c r="G721">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="H721">
         <v>21</v>
@@ -35393,7 +35393,7 @@
         <v>10800</v>
       </c>
       <c r="L723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M723">
         <v>0</v>
@@ -35522,7 +35522,7 @@
         <v>7100</v>
       </c>
       <c r="L726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M726">
         <v>0</v>
@@ -38607,7 +38607,7 @@
         <v>500</v>
       </c>
       <c r="L800">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M800">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A71E865D-7CF8-4A1A-B1AF-5FFDEE9A4B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71358DE2-F438-4878-84BC-A7A9F1675E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68330B1D-8E35-48CF-95BE-A2F3CD6BBB8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D168844B-0BE6-40A9-9CA9-AB02400E3EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4762,10 +4762,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9139A0-E7CB-402E-B2FF-101F6661CB49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90974ED7-2E26-46EC-902F-93E66DDBC7A0}">
   <dimension ref="A1:N803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11389,7 +11389,7 @@
         <v>1600</v>
       </c>
       <c r="L157">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -16931,7 +16931,7 @@
         <v>3225.8</v>
       </c>
       <c r="L288">
-        <v>0</v>
+        <v>-6.0999999046325701</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -20654,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
@@ -24385,7 +24385,7 @@
         <v>20000</v>
       </c>
       <c r="L466">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M466">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>24000</v>
       </c>
       <c r="L483">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M483">
         <v>0</v>
@@ -32010,7 +32010,7 @@
         <v>8000</v>
       </c>
       <c r="L644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M644">
         <v>0</v>
@@ -36556,7 +36556,7 @@
         <v>1000</v>
       </c>
       <c r="L751">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M751">
         <v>0</v>
@@ -37054,7 +37054,7 @@
         <v>3635</v>
       </c>
       <c r="L763">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M763">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71358DE2-F438-4878-84BC-A7A9F1675E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C03741-A1D5-4537-8907-04958B9F7338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D168844B-0BE6-40A9-9CA9-AB02400E3EC2}"/>
+    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{B8234314-06E5-48D6-9BD6-89A21E1DDD77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
     <t>BATSAMA31</t>
   </si>
   <si>
-    <t>BATERIA SAMS A22/ A31/ A32</t>
+    <t>BATERIA SAMS A22/ A31/ A32/ A42/ A72</t>
   </si>
   <si>
     <t>BATSAMA21S</t>
@@ -2840,7 +2840,7 @@
     <t>MODSAMA30S</t>
   </si>
   <si>
-    <t>MOD SAMS A30S C.MARCO</t>
+    <t>MOD SAMS A30S OLED C.MARCO</t>
   </si>
   <si>
     <t>MODSAMA31IN</t>
@@ -4762,10 +4762,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90974ED7-2E26-46EC-902F-93E66DDBC7A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF7604C-FB46-4D77-A62F-FDF0ECABD67A}">
   <dimension ref="A1:N803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6210,7 +6210,7 @@
         <v>21</v>
       </c>
       <c r="I35">
-        <v>4135</v>
+        <v>10000</v>
       </c>
       <c r="J35">
         <v>4135</v>
@@ -6342,7 +6342,7 @@
         <v>21</v>
       </c>
       <c r="I38">
-        <v>4135</v>
+        <v>10000</v>
       </c>
       <c r="J38">
         <v>4135</v>
@@ -10973,7 +10973,7 @@
         <v>500</v>
       </c>
       <c r="L147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -12848,7 +12848,7 @@
         <v>1300</v>
       </c>
       <c r="L192">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M192">
         <v>0</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C03741-A1D5-4537-8907-04958B9F7338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD62BAB-1AD6-4ABE-BD17-E303AA8C7B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{B8234314-06E5-48D6-9BD6-89A21E1DDD77}"/>
+    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{5A3AF0A4-5129-4E9B-9BBE-5040F18FDFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4762,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF7604C-FB46-4D77-A62F-FDF0ECABD67A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF954C87-562A-411A-A03D-E419912933DE}">
   <dimension ref="A1:N803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7817,7 +7817,7 @@
         <v>1300</v>
       </c>
       <c r="L72">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -12848,7 +12848,7 @@
         <v>1300</v>
       </c>
       <c r="L192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -16931,7 +16931,7 @@
         <v>3225.8</v>
       </c>
       <c r="L288">
-        <v>-6.0999999046325701</v>
+        <v>-8.1000003814697301</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -24297,7 +24297,7 @@
         <v>20000</v>
       </c>
       <c r="L464">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M464">
         <v>0</v>
@@ -24470,7 +24470,7 @@
         <v>20000</v>
       </c>
       <c r="L468">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M468">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>22000</v>
       </c>
       <c r="L474">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M474">
         <v>0</v>
@@ -25493,22 +25493,22 @@
         <v>173</v>
       </c>
       <c r="F492">
-        <v>24314</v>
+        <v>35000</v>
       </c>
       <c r="G492">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="H492">
         <v>21</v>
       </c>
       <c r="I492">
-        <v>24314</v>
+        <v>35000</v>
       </c>
       <c r="J492">
-        <v>40000</v>
+        <v>57578.5</v>
       </c>
       <c r="K492">
-        <v>40000</v>
+        <v>52500</v>
       </c>
       <c r="L492">
         <v>1</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD62BAB-1AD6-4ABE-BD17-E303AA8C7B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFFC5379-48C5-4958-9E86-479E1915D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{5A3AF0A4-5129-4E9B-9BBE-5040F18FDFBA}"/>
+    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{40E09369-D269-4FA8-9CD4-AE5E82BAB61F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -275,25 +275,25 @@
     <t>AURICULAR BT ACSON AC800</t>
   </si>
   <si>
+    <t>AURICULAR BT AITECH A3 BLANCO</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>AURICULAR BT AITECH A3 NEGRO</t>
+  </si>
+  <si>
     <t>AURICULAR BT AITECH AIR 18</t>
   </si>
   <si>
     <t>AITECH</t>
   </si>
   <si>
-    <t>AURICULAR BT AITECH BLANCO</t>
-  </si>
-  <si>
-    <t>NUEVO</t>
-  </si>
-  <si>
     <t>AURICULAR BT AITECH BLANCO AIR 85</t>
   </si>
   <si>
     <t>AURICULAR BT AITECH BLANCO AIR 99</t>
-  </si>
-  <si>
-    <t>AURICULAR BT AITECH NEGRO</t>
   </si>
   <si>
     <t>AURICULAR BT AITECH NEGRO AIR 99</t>
@@ -4762,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF954C87-562A-411A-A03D-E419912933DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D58238-E2F0-4E59-B738-FEBBBDAAF6CB}">
   <dimension ref="A1:N803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5053,7 +5053,7 @@
         <v>297</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7799135011458</v>
+        <v>7799135013650</v>
       </c>
       <c r="B34" t="s">
         <v>79</v>
@@ -6157,25 +6157,25 @@
         <v>80</v>
       </c>
       <c r="F34">
-        <v>5850</v>
+        <v>4135</v>
       </c>
       <c r="G34">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="H34">
         <v>21</v>
       </c>
       <c r="I34">
-        <v>5850</v>
+        <v>10000</v>
       </c>
       <c r="J34">
-        <v>5850</v>
+        <v>4135</v>
       </c>
       <c r="K34">
-        <v>5850</v>
+        <v>4135</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7799135013650</v>
+        <v>7799135013667</v>
       </c>
       <c r="B35" t="s">
         <v>81</v>
@@ -6198,7 +6198,7 @@
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>4135</v>
@@ -6219,7 +6219,7 @@
         <v>4135</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -6230,10 +6230,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7799135011908</v>
+        <v>7799135011458</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -6242,25 +6242,25 @@
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36">
-        <v>5733</v>
+        <v>5850</v>
       </c>
       <c r="G36">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="H36">
         <v>21</v>
       </c>
       <c r="I36">
-        <v>5733</v>
+        <v>5850</v>
       </c>
       <c r="J36">
-        <v>5733</v>
+        <v>5850</v>
       </c>
       <c r="K36">
-        <v>5733</v>
+        <v>5850</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7799135011960</v>
+        <v>7799135011908</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
@@ -6286,25 +6286,25 @@
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37">
-        <v>5265</v>
+        <v>5733</v>
       </c>
       <c r="G37">
-        <v>17999</v>
+        <v>23000</v>
       </c>
       <c r="H37">
         <v>21</v>
       </c>
       <c r="I37">
-        <v>5265</v>
+        <v>5733</v>
       </c>
       <c r="J37">
-        <v>5265</v>
+        <v>5733</v>
       </c>
       <c r="K37">
-        <v>5265</v>
+        <v>5733</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7799135013667</v>
+        <v>7799135011960</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
@@ -6330,28 +6330,28 @@
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38">
-        <v>4135</v>
+        <v>5265</v>
       </c>
       <c r="G38">
-        <v>12000</v>
+        <v>17999</v>
       </c>
       <c r="H38">
         <v>21</v>
       </c>
       <c r="I38">
-        <v>10000</v>
+        <v>5265</v>
       </c>
       <c r="J38">
-        <v>4135</v>
+        <v>5265</v>
       </c>
       <c r="K38">
-        <v>4135</v>
+        <v>5265</v>
       </c>
       <c r="L38">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F39">
         <v>5265</v>
@@ -6418,7 +6418,7 @@
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F40">
         <v>5265</v>
@@ -6462,7 +6462,7 @@
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F41">
         <v>5265</v>
@@ -6506,7 +6506,7 @@
         <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F42">
         <v>12600</v>
@@ -6550,7 +6550,7 @@
         <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F43">
         <v>12600</v>
@@ -6594,19 +6594,19 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F44">
         <v>10090</v>
       </c>
       <c r="G44">
+        <v>68000</v>
+      </c>
+      <c r="H44">
+        <v>21</v>
+      </c>
+      <c r="I44">
         <v>45000</v>
-      </c>
-      <c r="H44">
-        <v>21</v>
-      </c>
-      <c r="I44">
-        <v>10090</v>
       </c>
       <c r="J44">
         <v>10090</v>
@@ -6638,7 +6638,7 @@
         <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F45">
         <v>5090</v>
@@ -6659,7 +6659,7 @@
         <v>5090</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6975,7 +6975,7 @@
         <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53">
         <v>3299</v>
@@ -7019,7 +7019,7 @@
         <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F54">
         <v>3299</v>
@@ -7145,7 +7145,7 @@
         <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F57">
         <v>5323</v>
@@ -7298,7 +7298,7 @@
         <v>3505</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71">
         <v>5799</v>
@@ -10056,7 +10056,7 @@
         <v>15000</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>18000</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -11222,7 +11222,7 @@
         <v>2500</v>
       </c>
       <c r="L153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -12558,7 +12558,7 @@
         <v>2950</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -12722,7 +12722,7 @@
         <v>1200</v>
       </c>
       <c r="L189">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>31</v>
       </c>
       <c r="E201" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F201">
         <v>21184</v>
@@ -13249,7 +13249,7 @@
         <v>31</v>
       </c>
       <c r="E202" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F202">
         <v>21184</v>
@@ -13381,7 +13381,7 @@
         <v>28</v>
       </c>
       <c r="E205" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F205">
         <v>3540</v>
@@ -13425,7 +13425,7 @@
         <v>28</v>
       </c>
       <c r="E206" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F206">
         <v>2876</v>
@@ -13592,7 +13592,7 @@
         <v>28</v>
       </c>
       <c r="E210" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F210">
         <v>1365</v>
@@ -13636,7 +13636,7 @@
         <v>28</v>
       </c>
       <c r="E211" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F211">
         <v>3307.5</v>
@@ -13680,7 +13680,7 @@
         <v>28</v>
       </c>
       <c r="E212" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F212">
         <v>2143.75</v>
@@ -13724,7 +13724,7 @@
         <v>28</v>
       </c>
       <c r="E213" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F213">
         <v>2388.75</v>
@@ -13768,7 +13768,7 @@
         <v>28</v>
       </c>
       <c r="E214" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F214">
         <v>1291.5</v>
@@ -13812,7 +13812,7 @@
         <v>28</v>
       </c>
       <c r="E215" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F215">
         <v>3511</v>
@@ -13965,7 +13965,7 @@
         <v>5418</v>
       </c>
       <c r="L218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>28</v>
       </c>
       <c r="E245" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F245">
         <v>1952</v>
@@ -15135,7 +15135,7 @@
         <v>1952</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M245">
         <v>0</v>
@@ -15990,7 +15990,7 @@
         <v>31</v>
       </c>
       <c r="E266" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F266">
         <v>25615</v>
@@ -16034,7 +16034,7 @@
         <v>31</v>
       </c>
       <c r="E267" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F267">
         <v>34920</v>
@@ -16450,7 +16450,7 @@
         <v>31</v>
       </c>
       <c r="E277" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F277">
         <v>5160</v>
@@ -17118,7 +17118,7 @@
         <v>47</v>
       </c>
       <c r="E293" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F293">
         <v>2850</v>
@@ -17162,7 +17162,7 @@
         <v>31</v>
       </c>
       <c r="E294" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F294">
         <v>5380</v>
@@ -17572,7 +17572,7 @@
         <v>31</v>
       </c>
       <c r="E304" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F304">
         <v>4999</v>
@@ -18723,7 +18723,7 @@
         <v>31</v>
       </c>
       <c r="E332" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F332">
         <v>13799</v>
@@ -18767,7 +18767,7 @@
         <v>28</v>
       </c>
       <c r="E333" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F333">
         <v>20670</v>
@@ -20671,7 +20671,7 @@
         <v>31</v>
       </c>
       <c r="E379" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F379">
         <v>12865</v>
@@ -21131,7 +21131,7 @@
         <v>31</v>
       </c>
       <c r="E390" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F390">
         <v>7281</v>
@@ -21298,7 +21298,7 @@
         <v>28</v>
       </c>
       <c r="E394" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F394">
         <v>16957</v>
@@ -21665,7 +21665,7 @@
         <v>21000</v>
       </c>
       <c r="L402">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M402">
         <v>0</v>
@@ -21794,7 +21794,7 @@
         <v>21000</v>
       </c>
       <c r="L405">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M405">
         <v>0</v>
@@ -21967,7 +21967,7 @@
         <v>22000</v>
       </c>
       <c r="L409">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M409">
         <v>0</v>
@@ -24297,7 +24297,7 @@
         <v>20000</v>
       </c>
       <c r="L464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M464">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>52500</v>
       </c>
       <c r="L492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M492">
         <v>0</v>
@@ -27516,7 +27516,7 @@
         <v>28</v>
       </c>
       <c r="E539" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F539">
         <v>2109</v>
@@ -27560,7 +27560,7 @@
         <v>28</v>
       </c>
       <c r="E540" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F540">
         <v>2109</v>
@@ -27730,7 +27730,7 @@
         <v>31</v>
       </c>
       <c r="E544" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F544">
         <v>13000</v>
@@ -28135,7 +28135,7 @@
         <v>6355</v>
       </c>
       <c r="L553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M553">
         <v>0</v>
@@ -28240,7 +28240,7 @@
         <v>28</v>
       </c>
       <c r="E556" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F556">
         <v>5792</v>
@@ -28325,7 +28325,7 @@
         <v>28</v>
       </c>
       <c r="E558" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F558">
         <v>13216</v>
@@ -28410,7 +28410,7 @@
         <v>28</v>
       </c>
       <c r="E560" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F560">
         <v>4389</v>
@@ -28495,7 +28495,7 @@
         <v>31</v>
       </c>
       <c r="E562" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F562">
         <v>5600</v>
@@ -28753,7 +28753,7 @@
         <v>28</v>
       </c>
       <c r="E568" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F568">
         <v>26730</v>
@@ -28797,7 +28797,7 @@
         <v>28</v>
       </c>
       <c r="E569" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F569">
         <v>26730</v>
@@ -28841,7 +28841,7 @@
         <v>28</v>
       </c>
       <c r="E570" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F570">
         <v>26730</v>
@@ -29134,7 +29134,7 @@
         <v>31</v>
       </c>
       <c r="E577" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F577">
         <v>4500</v>
@@ -30587,7 +30587,7 @@
         <v>31</v>
       </c>
       <c r="E612" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F612">
         <v>7894</v>
@@ -30669,7 +30669,7 @@
         <v>31</v>
       </c>
       <c r="E614" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F614">
         <v>2946</v>
@@ -30713,7 +30713,7 @@
         <v>31</v>
       </c>
       <c r="E615" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F615">
         <v>4863</v>
@@ -30757,7 +30757,7 @@
         <v>31</v>
       </c>
       <c r="E616" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F616">
         <v>1185</v>
@@ -32274,7 +32274,7 @@
         <v>10000</v>
       </c>
       <c r="L650">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M650">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>31</v>
       </c>
       <c r="E673" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F673">
         <v>18931</v>
@@ -33980,7 +33980,7 @@
         <v>31</v>
       </c>
       <c r="E690" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F690">
         <v>13000</v>
@@ -34390,7 +34390,7 @@
         <v>28</v>
       </c>
       <c r="E700" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F700">
         <v>8058</v>
@@ -34478,7 +34478,7 @@
         <v>28</v>
       </c>
       <c r="E702" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F702">
         <v>8176</v>
@@ -34563,7 +34563,7 @@
         <v>31</v>
       </c>
       <c r="E704" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F704">
         <v>9692</v>
@@ -34748,7 +34748,7 @@
         <v>8500</v>
       </c>
       <c r="L708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M708">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>28</v>
       </c>
       <c r="E718" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F718">
         <v>11287</v>
@@ -35322,7 +35322,7 @@
         <v>31</v>
       </c>
       <c r="E722" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F722">
         <v>10795</v>
@@ -35574,7 +35574,7 @@
         <v>28</v>
       </c>
       <c r="E728" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F728">
         <v>29820</v>
@@ -35987,7 +35987,7 @@
         <v>31</v>
       </c>
       <c r="E738" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F738">
         <v>3900</v>
@@ -36157,7 +36157,7 @@
         <v>28</v>
       </c>
       <c r="E742" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F742">
         <v>3628.5</v>
@@ -36556,7 +36556,7 @@
         <v>1000</v>
       </c>
       <c r="L751">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="M751">
         <v>0</v>
@@ -37824,7 +37824,7 @@
         <v>31</v>
       </c>
       <c r="E782" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F782">
         <v>4700</v>
@@ -38196,7 +38196,7 @@
         <v>31</v>
       </c>
       <c r="E791" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F791">
         <v>18400</v>
@@ -38322,7 +38322,7 @@
         <v>31</v>
       </c>
       <c r="E794" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F794">
         <v>4523</v>
@@ -38384,7 +38384,7 @@
         <v>500</v>
       </c>
       <c r="L795">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M795">
         <v>0</v>
@@ -38700,7 +38700,7 @@
         <v>474</v>
       </c>
       <c r="E803" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F803">
         <v>107999</v>

--- a/tienda/productos.xlsx
+++ b/tienda/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af133bd758b7a26/Documentos/novacenter/tienda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EA2BC6-38C2-4B63-8DE7-A2202B9835AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A29B18-B82E-475A-97F3-F3EC6F840BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{FE170B3C-41CB-4CB3-9DD8-F5537984C13A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{A1B939FB-8FCD-4C93-B366-19EB94C94F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4768,7 +4768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A1BF5D-AAF7-4A15-BC72-1A9E75907CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4541F29-1B30-4A8D-826E-928A6B3E1DF0}">
   <dimension ref="A1:N804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7113,7 +7113,7 @@
         <v>4636</v>
       </c>
       <c r="G56">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="H56">
         <v>21</v>
@@ -7128,7 +7128,7 @@
         <v>4636</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -11395,7 +11395,7 @@
         <v>1600</v>
       </c>
       <c r="L157">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -13839,7 +13839,7 @@
         <v>1929</v>
       </c>
       <c r="L215">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -22911,7 +22911,7 @@
         <v>22000</v>
       </c>
       <c r="L431">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M431">
         <v>0</v>
@@ -27722,7 +27722,7 @@
         <v>1271</v>
       </c>
       <c r="L543">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M543">
         <v>0</v>
@@ -36404,7 +36404,7 @@
         <v>17600</v>
       </c>
       <c r="L747">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M747">
         <v>0</v>
